--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,434 +374,571 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>当日_生成海报转化率</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>当日_领取转化率</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>累计_时间</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>累计_分社</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>累计_已申请</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>累计_全部已配置课程数</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>累计_已领取</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>累计_生成海报转化率</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>累计_领取转化率</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C2">
-        <v>108</v>
+        <v>353</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>511</v>
-      </c>
-      <c r="I2">
-        <v>102</v>
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>0.0425</v>
+      </c>
+      <c r="G2">
+        <v>0.7333</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>516</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <v>0.0698</v>
+      </c>
+      <c r="N2">
+        <v>0.7222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>286</v>
-      </c>
-      <c r="I3">
-        <v>168</v>
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>0.1017</v>
+      </c>
+      <c r="G3">
+        <v>0.7429</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J3">
-        <v>94</v>
+        <v>522</v>
+      </c>
+      <c r="K3">
+        <v>130</v>
+      </c>
+      <c r="L3">
+        <v>107</v>
+      </c>
+      <c r="M3">
+        <v>0.249</v>
+      </c>
+      <c r="N3">
+        <v>0.8231000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>425</v>
-      </c>
-      <c r="I4">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>0.3842</v>
+      </c>
+      <c r="G4">
+        <v>0.5753</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J4">
-        <v>51</v>
+        <v>291</v>
+      </c>
+      <c r="K4">
+        <v>205</v>
+      </c>
+      <c r="L4">
+        <v>117</v>
+      </c>
+      <c r="M4">
+        <v>0.7045</v>
+      </c>
+      <c r="N4">
+        <v>0.5707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C5">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>成都</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>326</v>
-      </c>
-      <c r="I5">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>0.11</v>
+      </c>
+      <c r="G5">
+        <v>0.8182</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J5">
-        <v>54</v>
+        <v>441</v>
+      </c>
+      <c r="K5">
+        <v>76</v>
+      </c>
+      <c r="L5">
+        <v>58</v>
+      </c>
+      <c r="M5">
+        <v>0.1723</v>
+      </c>
+      <c r="N5">
+        <v>0.7632</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C6">
-        <v>428</v>
+        <v>176</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>1883</v>
-      </c>
-      <c r="I6">
-        <v>263</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J6">
-        <v>195</v>
+        <v>326</v>
+      </c>
+      <c r="K6">
+        <v>104</v>
+      </c>
+      <c r="L6">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <v>0.319</v>
+      </c>
+      <c r="N6">
+        <v>0.7692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>1227</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>1100</v>
-      </c>
-      <c r="I7">
-        <v>147</v>
+        <v>117</v>
+      </c>
+      <c r="F7">
+        <v>0.1255</v>
+      </c>
+      <c r="G7">
+        <v>0.7597</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J7">
-        <v>83</v>
+        <v>1917</v>
+      </c>
+      <c r="K7">
+        <v>287</v>
+      </c>
+      <c r="L7">
+        <v>218</v>
+      </c>
+      <c r="M7">
+        <v>0.1497</v>
+      </c>
+      <c r="N7">
+        <v>0.7596000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>742</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>西安</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>395</v>
-      </c>
-      <c r="I8">
-        <v>199</v>
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0.0391</v>
+      </c>
+      <c r="G8">
+        <v>0.3103</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J8">
+        <v>1098</v>
+      </c>
+      <c r="K8">
         <v>158</v>
+      </c>
+      <c r="L8">
+        <v>99</v>
+      </c>
+      <c r="M8">
+        <v>0.1439</v>
+      </c>
+      <c r="N8">
+        <v>0.6266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>405</v>
-      </c>
-      <c r="I9">
-        <v>126</v>
+        <v>89</v>
+      </c>
+      <c r="F9">
+        <v>0.456</v>
+      </c>
+      <c r="G9">
+        <v>0.7806999999999999</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J9">
-        <v>90</v>
+        <v>394</v>
+      </c>
+      <c r="K9">
+        <v>207</v>
+      </c>
+      <c r="L9">
+        <v>164</v>
+      </c>
+      <c r="M9">
+        <v>0.5254</v>
+      </c>
+      <c r="N9">
+        <v>0.7923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>281</v>
-      </c>
-      <c r="I10">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="F10">
+        <v>0.2065</v>
+      </c>
+      <c r="G10">
+        <v>0.6491</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J10">
-        <v>74</v>
+        <v>408</v>
+      </c>
+      <c r="K10">
+        <v>174</v>
+      </c>
+      <c r="L10">
+        <v>137</v>
+      </c>
+      <c r="M10">
+        <v>0.4265</v>
+      </c>
+      <c r="N10">
+        <v>0.7874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>武汉</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>509</v>
-      </c>
-      <c r="I11">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>0.185</v>
+      </c>
+      <c r="G11">
+        <v>0.8438</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>289</v>
+      </c>
+      <c r="K11">
+        <v>96</v>
+      </c>
+      <c r="L11">
+        <v>83</v>
+      </c>
+      <c r="M11">
+        <v>0.3322</v>
+      </c>
+      <c r="N11">
+        <v>0.8646</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -810,38 +947,50 @@
         </is>
       </c>
       <c r="C12">
-        <v>245</v>
+        <v>607</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <v>0.1664</v>
+      </c>
+      <c r="G12">
+        <v>0.8713</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>上海</t>
         </is>
       </c>
-      <c r="H12">
-        <v>966</v>
-      </c>
-      <c r="I12">
-        <v>461</v>
-      </c>
       <c r="J12">
+        <v>980</v>
+      </c>
+      <c r="K12">
+        <v>476</v>
+      </c>
+      <c r="L12">
         <v>412</v>
+      </c>
+      <c r="M12">
+        <v>0.4857</v>
+      </c>
+      <c r="N12">
+        <v>0.8655</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -850,38 +999,50 @@
         </is>
       </c>
       <c r="C13">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>0.352</v>
+      </c>
+      <c r="G13">
+        <v>0.3035</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>杭州</t>
         </is>
       </c>
-      <c r="H13">
-        <v>1268</v>
-      </c>
-      <c r="I13">
-        <v>428</v>
-      </c>
       <c r="J13">
-        <v>213</v>
+        <v>1290</v>
+      </c>
+      <c r="K13">
+        <v>462</v>
+      </c>
+      <c r="L13">
+        <v>242</v>
+      </c>
+      <c r="M13">
+        <v>0.3581</v>
+      </c>
+      <c r="N13">
+        <v>0.5238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -890,38 +1051,50 @@
         </is>
       </c>
       <c r="C14">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>0.2821</v>
+      </c>
+      <c r="G14">
+        <v>0.7091</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>苏州</t>
         </is>
       </c>
-      <c r="H14">
-        <v>339</v>
-      </c>
-      <c r="I14">
-        <v>145</v>
-      </c>
       <c r="J14">
-        <v>108</v>
+        <v>342</v>
+      </c>
+      <c r="K14">
+        <v>193</v>
+      </c>
+      <c r="L14">
+        <v>133</v>
+      </c>
+      <c r="M14">
+        <v>0.5643</v>
+      </c>
+      <c r="N14">
+        <v>0.6891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -930,38 +1103,50 @@
         </is>
       </c>
       <c r="C15">
-        <v>161</v>
+        <v>380</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.0026</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>深圳</t>
         </is>
       </c>
-      <c r="H15">
-        <v>603</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
+        <v>609</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.0016</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -970,38 +1155,50 @@
         </is>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="F16">
+        <v>0.4515</v>
+      </c>
+      <c r="G16">
+        <v>0.6822</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>青岛</t>
         </is>
       </c>
-      <c r="H16">
-        <v>352</v>
-      </c>
-      <c r="I16">
-        <v>154</v>
-      </c>
       <c r="J16">
-        <v>99</v>
+        <v>353</v>
+      </c>
+      <c r="K16">
+        <v>158</v>
+      </c>
+      <c r="L16">
+        <v>109</v>
+      </c>
+      <c r="M16">
+        <v>0.4476</v>
+      </c>
+      <c r="N16">
+        <v>0.6899</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1010,38 +1207,50 @@
         </is>
       </c>
       <c r="C17">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>0.1583</v>
+      </c>
+      <c r="G17">
+        <v>0.7561</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="H17">
-        <v>413</v>
-      </c>
-      <c r="I17">
-        <v>93</v>
-      </c>
       <c r="J17">
-        <v>72</v>
+        <v>418</v>
+      </c>
+      <c r="K17">
+        <v>110</v>
+      </c>
+      <c r="L17">
+        <v>83</v>
+      </c>
+      <c r="M17">
+        <v>0.2632</v>
+      </c>
+      <c r="N17">
+        <v>0.7544999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1050,38 +1259,50 @@
         </is>
       </c>
       <c r="C18">
-        <v>649</v>
+        <v>744</v>
       </c>
       <c r="D18">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E18">
-        <v>42</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>0.1492</v>
+      </c>
+      <c r="G18">
+        <v>0.7477</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>总部</t>
         </is>
       </c>
-      <c r="H18">
-        <v>1262</v>
-      </c>
-      <c r="I18">
-        <v>249</v>
-      </c>
       <c r="J18">
-        <v>186</v>
+        <v>1236</v>
+      </c>
+      <c r="K18">
+        <v>320</v>
+      </c>
+      <c r="L18">
+        <v>238</v>
+      </c>
+      <c r="M18">
+        <v>0.2589</v>
+      </c>
+      <c r="N18">
+        <v>0.7438</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-03-18T00:00:00</t>
+          <t>2020-03-17T00:00:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1090,752 +1311,974 @@
         </is>
       </c>
       <c r="C19">
-        <v>3199</v>
+        <v>7024</v>
       </c>
       <c r="D19">
-        <v>196</v>
+        <v>1159</v>
       </c>
       <c r="E19">
-        <v>123</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+        <v>761</v>
+      </c>
+      <c r="F19">
+        <v>0.165</v>
+      </c>
+      <c r="G19">
+        <v>0.6566</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>全国</t>
         </is>
       </c>
-      <c r="H19">
-        <v>11324</v>
-      </c>
-      <c r="I19">
-        <v>2789</v>
-      </c>
       <c r="J19">
-        <v>1996</v>
+        <v>11430</v>
+      </c>
+      <c r="K19">
+        <v>3193</v>
+      </c>
+      <c r="L19">
+        <v>2307</v>
+      </c>
+      <c r="M19">
+        <v>0.2794</v>
+      </c>
+      <c r="N19">
+        <v>0.7225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C20">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>26</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>511</v>
-      </c>
-      <c r="I20">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.0444</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J20">
-        <v>83</v>
+        <v>291</v>
+      </c>
+      <c r="K20">
+        <v>205</v>
+      </c>
+      <c r="L20">
+        <v>117</v>
+      </c>
+      <c r="M20">
+        <v>0.7045</v>
+      </c>
+      <c r="N20">
+        <v>0.5707</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C21">
-        <v>190</v>
+        <v>649</v>
       </c>
       <c r="D21">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>42</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>286</v>
-      </c>
-      <c r="I21">
-        <v>168</v>
+      <c r="F21">
+        <v>0.0924</v>
+      </c>
+      <c r="G21">
+        <v>0.7</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J21">
-        <v>94</v>
+        <v>1236</v>
+      </c>
+      <c r="K21">
+        <v>320</v>
+      </c>
+      <c r="L21">
+        <v>238</v>
+      </c>
+      <c r="M21">
+        <v>0.2589</v>
+      </c>
+      <c r="N21">
+        <v>0.7438</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C22">
-        <v>300</v>
+        <v>3199</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="E22">
-        <v>27</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="H22">
-        <v>425</v>
-      </c>
-      <c r="I22">
-        <v>68</v>
+        <v>123</v>
+      </c>
+      <c r="F22">
+        <v>0.0613</v>
+      </c>
+      <c r="G22">
+        <v>0.6276</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J22">
-        <v>51</v>
+        <v>11430</v>
+      </c>
+      <c r="K22">
+        <v>3193</v>
+      </c>
+      <c r="L22">
+        <v>2307</v>
+      </c>
+      <c r="M22">
+        <v>0.2794</v>
+      </c>
+      <c r="N22">
+        <v>0.7225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C23">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>成都</t>
-        </is>
-      </c>
-      <c r="H23">
-        <v>326</v>
-      </c>
-      <c r="I23">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>0.1111</v>
+      </c>
+      <c r="G23">
+        <v>0.6667</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J23">
-        <v>54</v>
+        <v>522</v>
+      </c>
+      <c r="K23">
+        <v>130</v>
+      </c>
+      <c r="L23">
+        <v>107</v>
+      </c>
+      <c r="M23">
+        <v>0.249</v>
+      </c>
+      <c r="N23">
+        <v>0.8231000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C24">
-        <v>1227</v>
+        <v>88</v>
       </c>
       <c r="D24">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>117</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="H24">
-        <v>1883</v>
-      </c>
-      <c r="I24">
-        <v>263</v>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>0.0455</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J24">
-        <v>195</v>
+        <v>441</v>
+      </c>
+      <c r="K24">
+        <v>76</v>
+      </c>
+      <c r="L24">
+        <v>58</v>
+      </c>
+      <c r="M24">
+        <v>0.1723</v>
+      </c>
+      <c r="N24">
+        <v>0.7632</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C25">
-        <v>742</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="H25">
-        <v>1100</v>
-      </c>
-      <c r="I25">
-        <v>147</v>
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.0405</v>
+      </c>
+      <c r="G25">
+        <v>0.6667</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J25">
-        <v>83</v>
+        <v>326</v>
+      </c>
+      <c r="K25">
+        <v>104</v>
+      </c>
+      <c r="L25">
+        <v>80</v>
+      </c>
+      <c r="M25">
+        <v>0.319</v>
+      </c>
+      <c r="N25">
+        <v>0.7692</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C26">
-        <v>250</v>
+        <v>428</v>
       </c>
       <c r="D26">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>89</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>西安</t>
-        </is>
-      </c>
-      <c r="H26">
-        <v>395</v>
-      </c>
-      <c r="I26">
-        <v>199</v>
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>0.0514</v>
+      </c>
+      <c r="G26">
+        <v>0.6364</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J26">
-        <v>158</v>
+        <v>1917</v>
+      </c>
+      <c r="K26">
+        <v>287</v>
+      </c>
+      <c r="L26">
+        <v>218</v>
+      </c>
+      <c r="M26">
+        <v>0.1497</v>
+      </c>
+      <c r="N26">
+        <v>0.7596000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C27">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>37</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="H27">
-        <v>405</v>
-      </c>
-      <c r="I27">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J27">
-        <v>90</v>
+        <v>1098</v>
+      </c>
+      <c r="K27">
+        <v>158</v>
+      </c>
+      <c r="L27">
+        <v>99</v>
+      </c>
+      <c r="M27">
+        <v>0.1439</v>
+      </c>
+      <c r="N27">
+        <v>0.6266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C28">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>27</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="H28">
-        <v>281</v>
-      </c>
-      <c r="I28">
-        <v>85</v>
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>0.2841</v>
+      </c>
+      <c r="G28">
+        <v>0.8</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J28">
-        <v>74</v>
+        <v>394</v>
+      </c>
+      <c r="K28">
+        <v>207</v>
+      </c>
+      <c r="L28">
+        <v>164</v>
+      </c>
+      <c r="M28">
+        <v>0.5254</v>
+      </c>
+      <c r="N28">
+        <v>0.7923</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C29">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>11</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>武汉</t>
-        </is>
-      </c>
-      <c r="H29">
-        <v>509</v>
-      </c>
-      <c r="I29">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.0215</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J29">
-        <v>23</v>
+        <v>408</v>
+      </c>
+      <c r="K29">
+        <v>174</v>
+      </c>
+      <c r="L29">
+        <v>137</v>
+      </c>
+      <c r="M29">
+        <v>0.4265</v>
+      </c>
+      <c r="N29">
+        <v>0.7874</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C30">
-        <v>607</v>
+        <v>100</v>
       </c>
       <c r="D30">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>88</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="H30">
-        <v>966</v>
-      </c>
-      <c r="I30">
-        <v>461</v>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J30">
-        <v>412</v>
+        <v>516</v>
+      </c>
+      <c r="K30">
+        <v>36</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>0.0698</v>
+      </c>
+      <c r="N30">
+        <v>0.7222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C31">
-        <v>571</v>
+        <v>245</v>
       </c>
       <c r="D31">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>61</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="H31">
-        <v>1268</v>
-      </c>
-      <c r="I31">
-        <v>428</v>
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>0.0245</v>
+      </c>
+      <c r="G31">
+        <v>0.8333</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J31">
-        <v>213</v>
+        <v>980</v>
+      </c>
+      <c r="K31">
+        <v>476</v>
+      </c>
+      <c r="L31">
+        <v>412</v>
+      </c>
+      <c r="M31">
+        <v>0.4857</v>
+      </c>
+      <c r="N31">
+        <v>0.8655</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C32">
-        <v>195</v>
+        <v>555</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>39</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>苏州</t>
-        </is>
-      </c>
-      <c r="H32">
-        <v>339</v>
-      </c>
-      <c r="I32">
-        <v>145</v>
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0.0559</v>
+      </c>
+      <c r="G32">
+        <v>0.2581</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J32">
-        <v>108</v>
+        <v>1290</v>
+      </c>
+      <c r="K32">
+        <v>462</v>
+      </c>
+      <c r="L32">
+        <v>242</v>
+      </c>
+      <c r="M32">
+        <v>0.3581</v>
+      </c>
+      <c r="N32">
+        <v>0.5238</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C33">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>深圳</t>
-        </is>
-      </c>
-      <c r="H33">
-        <v>603</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>0.0921</v>
+      </c>
+      <c r="G33">
+        <v>0.7143</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>342</v>
+      </c>
+      <c r="K33">
+        <v>193</v>
+      </c>
+      <c r="L33">
+        <v>133</v>
+      </c>
+      <c r="M33">
+        <v>0.5643</v>
+      </c>
+      <c r="N33">
+        <v>0.6891</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C34">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="D34">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>73</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>青岛</t>
-        </is>
-      </c>
-      <c r="H34">
-        <v>352</v>
-      </c>
-      <c r="I34">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
       </c>
       <c r="J34">
-        <v>99</v>
+        <v>609</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.0016</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C35">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E35">
-        <v>31</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="H35">
-        <v>413</v>
-      </c>
-      <c r="I35">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>0.1972</v>
+      </c>
+      <c r="G35">
+        <v>0.5714</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J35">
-        <v>72</v>
+        <v>353</v>
+      </c>
+      <c r="K35">
+        <v>158</v>
+      </c>
+      <c r="L35">
+        <v>109</v>
+      </c>
+      <c r="M35">
+        <v>0.4476</v>
+      </c>
+      <c r="N35">
+        <v>0.6899</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C36">
-        <v>744</v>
+        <v>104</v>
       </c>
       <c r="D36">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>0.0481</v>
+      </c>
+      <c r="G36">
+        <v>0.6</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J36">
+        <v>418</v>
+      </c>
+      <c r="K36">
+        <v>110</v>
+      </c>
+      <c r="L36">
         <v>83</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>总部</t>
-        </is>
-      </c>
-      <c r="H36">
-        <v>1262</v>
-      </c>
-      <c r="I36">
-        <v>249</v>
-      </c>
-      <c r="J36">
-        <v>186</v>
+      <c r="M36">
+        <v>0.2632</v>
+      </c>
+      <c r="N36">
+        <v>0.7544999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-03-17T00:00:00</t>
+          <t>2020-03-18T00:00:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C37">
-        <v>7024</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>1159</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>761</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>全国</t>
-        </is>
-      </c>
-      <c r="H37">
-        <v>11324</v>
-      </c>
-      <c r="I37">
-        <v>2789</v>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.0313</v>
+      </c>
+      <c r="G37">
+        <v>0.5</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J37">
-        <v>1996</v>
+        <v>289</v>
+      </c>
+      <c r="K37">
+        <v>96</v>
+      </c>
+      <c r="L37">
+        <v>83</v>
+      </c>
+      <c r="M37">
+        <v>0.3322</v>
+      </c>
+      <c r="N37">
+        <v>0.8646</v>
       </c>
     </row>
     <row r="38">
@@ -1846,36 +2289,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="H38">
-        <v>511</v>
-      </c>
-      <c r="I38">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J38">
-        <v>83</v>
+        <v>516</v>
+      </c>
+      <c r="K38">
+        <v>36</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>0.0698</v>
+      </c>
+      <c r="N38">
+        <v>0.7222</v>
       </c>
     </row>
     <row r="39">
@@ -1886,36 +2338,48 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>11</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="H39">
-        <v>286</v>
-      </c>
-      <c r="I39">
-        <v>168</v>
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>0.2308</v>
+      </c>
+      <c r="G39">
+        <v>0.8667</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J39">
-        <v>94</v>
+        <v>980</v>
+      </c>
+      <c r="K39">
+        <v>476</v>
+      </c>
+      <c r="L39">
+        <v>412</v>
+      </c>
+      <c r="M39">
+        <v>0.4857</v>
+      </c>
+      <c r="N39">
+        <v>0.8655</v>
       </c>
     </row>
     <row r="40">
@@ -1926,36 +2390,48 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="H40">
-        <v>425</v>
-      </c>
-      <c r="I40">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>0.1875</v>
+      </c>
+      <c r="G40">
+        <v>0.5238</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J40">
-        <v>51</v>
+        <v>1290</v>
+      </c>
+      <c r="K40">
+        <v>462</v>
+      </c>
+      <c r="L40">
+        <v>242</v>
+      </c>
+      <c r="M40">
+        <v>0.3581</v>
+      </c>
+      <c r="N40">
+        <v>0.5238</v>
       </c>
     </row>
     <row r="41">
@@ -1966,36 +2442,48 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>成都</t>
-        </is>
-      </c>
-      <c r="H41">
-        <v>326</v>
-      </c>
-      <c r="I41">
-        <v>71</v>
+      <c r="F41">
+        <v>0.2727</v>
+      </c>
+      <c r="G41">
+        <v>0.8333</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J41">
-        <v>54</v>
+        <v>342</v>
+      </c>
+      <c r="K41">
+        <v>193</v>
+      </c>
+      <c r="L41">
+        <v>133</v>
+      </c>
+      <c r="M41">
+        <v>0.5643</v>
+      </c>
+      <c r="N41">
+        <v>0.6891</v>
       </c>
     </row>
     <row r="42">
@@ -2006,36 +2494,45 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C42">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>12</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="H42">
-        <v>1883</v>
-      </c>
-      <c r="I42">
-        <v>263</v>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
       </c>
       <c r="J42">
-        <v>195</v>
+        <v>609</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0.0016</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2046,36 +2543,48 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="H43">
-        <v>1100</v>
-      </c>
-      <c r="I43">
-        <v>147</v>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0.1579</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J43">
-        <v>83</v>
+        <v>353</v>
+      </c>
+      <c r="K43">
+        <v>158</v>
+      </c>
+      <c r="L43">
+        <v>109</v>
+      </c>
+      <c r="M43">
+        <v>0.4476</v>
+      </c>
+      <c r="N43">
+        <v>0.6899</v>
       </c>
     </row>
     <row r="44">
@@ -2086,36 +2595,48 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>6</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>西安</t>
-        </is>
-      </c>
-      <c r="H44">
-        <v>395</v>
-      </c>
-      <c r="I44">
-        <v>199</v>
+      <c r="F44">
+        <v>0.2632</v>
+      </c>
+      <c r="G44">
+        <v>0.6</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
       </c>
       <c r="J44">
-        <v>158</v>
+        <v>418</v>
+      </c>
+      <c r="K44">
+        <v>110</v>
+      </c>
+      <c r="L44">
+        <v>83</v>
+      </c>
+      <c r="M44">
+        <v>0.2632</v>
+      </c>
+      <c r="N44">
+        <v>0.7544999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2126,36 +2647,48 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="H45">
-        <v>405</v>
-      </c>
-      <c r="I45">
-        <v>126</v>
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <v>0.1958</v>
+      </c>
+      <c r="G45">
+        <v>0.6216</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J45">
-        <v>90</v>
+        <v>1236</v>
+      </c>
+      <c r="K45">
+        <v>320</v>
+      </c>
+      <c r="L45">
+        <v>238</v>
+      </c>
+      <c r="M45">
+        <v>0.2589</v>
+      </c>
+      <c r="N45">
+        <v>0.7438</v>
       </c>
     </row>
     <row r="46">
@@ -2166,36 +2699,48 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>964</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="H46">
-        <v>281</v>
-      </c>
-      <c r="I46">
-        <v>85</v>
+        <v>105</v>
+      </c>
+      <c r="F46">
+        <v>0.1846</v>
+      </c>
+      <c r="G46">
+        <v>0.5899</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J46">
-        <v>74</v>
+        <v>11430</v>
+      </c>
+      <c r="K46">
+        <v>3193</v>
+      </c>
+      <c r="L46">
+        <v>2307</v>
+      </c>
+      <c r="M46">
+        <v>0.2794</v>
+      </c>
+      <c r="N46">
+        <v>0.7225</v>
       </c>
     </row>
     <row r="47">
@@ -2206,36 +2751,48 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C47">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>武汉</t>
-        </is>
-      </c>
-      <c r="H47">
-        <v>509</v>
-      </c>
-      <c r="I47">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>0.2</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J47">
-        <v>23</v>
+        <v>289</v>
+      </c>
+      <c r="K47">
+        <v>96</v>
+      </c>
+      <c r="L47">
+        <v>83</v>
+      </c>
+      <c r="M47">
+        <v>0.3322</v>
+      </c>
+      <c r="N47">
+        <v>0.8646</v>
       </c>
     </row>
     <row r="48">
@@ -2246,36 +2803,48 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C48">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>13</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="H48">
-        <v>966</v>
-      </c>
-      <c r="I48">
-        <v>461</v>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0.0333</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J48">
-        <v>412</v>
+        <v>408</v>
+      </c>
+      <c r="K48">
+        <v>174</v>
+      </c>
+      <c r="L48">
+        <v>137</v>
+      </c>
+      <c r="M48">
+        <v>0.4265</v>
+      </c>
+      <c r="N48">
+        <v>0.7874</v>
       </c>
     </row>
     <row r="49">
@@ -2286,36 +2855,48 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C49">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>11</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="H49">
-        <v>1268</v>
-      </c>
-      <c r="I49">
-        <v>428</v>
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0.3462</v>
+      </c>
+      <c r="G49">
+        <v>0.6667</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J49">
-        <v>213</v>
+        <v>394</v>
+      </c>
+      <c r="K49">
+        <v>207</v>
+      </c>
+      <c r="L49">
+        <v>164</v>
+      </c>
+      <c r="M49">
+        <v>0.5254</v>
+      </c>
+      <c r="N49">
+        <v>0.7923</v>
       </c>
     </row>
     <row r="50">
@@ -2326,36 +2907,48 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50">
-        <v>5</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>苏州</t>
-        </is>
-      </c>
-      <c r="H50">
-        <v>339</v>
-      </c>
-      <c r="I50">
-        <v>145</v>
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>0.1111</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J50">
-        <v>108</v>
+        <v>1098</v>
+      </c>
+      <c r="K50">
+        <v>158</v>
+      </c>
+      <c r="L50">
+        <v>99</v>
+      </c>
+      <c r="M50">
+        <v>0.1439</v>
+      </c>
+      <c r="N50">
+        <v>0.6266</v>
       </c>
     </row>
     <row r="51">
@@ -2366,36 +2959,48 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C51">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>深圳</t>
-        </is>
-      </c>
-      <c r="H51">
-        <v>603</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>0.09520000000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.8571</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>1917</v>
+      </c>
+      <c r="K51">
+        <v>287</v>
+      </c>
+      <c r="L51">
+        <v>218</v>
+      </c>
+      <c r="M51">
+        <v>0.1497</v>
+      </c>
+      <c r="N51">
+        <v>0.7596000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -2406,36 +3011,48 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>青岛</t>
-        </is>
-      </c>
-      <c r="H52">
-        <v>352</v>
-      </c>
-      <c r="I52">
-        <v>154</v>
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>0.1429</v>
+      </c>
+      <c r="G52">
+        <v>0.8</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J52">
-        <v>99</v>
+        <v>326</v>
+      </c>
+      <c r="K52">
+        <v>104</v>
+      </c>
+      <c r="L52">
+        <v>80</v>
+      </c>
+      <c r="M52">
+        <v>0.319</v>
+      </c>
+      <c r="N52">
+        <v>0.7692</v>
       </c>
     </row>
     <row r="53">
@@ -2446,36 +3063,48 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C53">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="H53">
-        <v>413</v>
-      </c>
-      <c r="I53">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.0303</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J53">
-        <v>72</v>
+        <v>441</v>
+      </c>
+      <c r="K53">
+        <v>76</v>
+      </c>
+      <c r="L53">
+        <v>58</v>
+      </c>
+      <c r="M53">
+        <v>0.1723</v>
+      </c>
+      <c r="N53">
+        <v>0.7632</v>
       </c>
     </row>
     <row r="54">
@@ -2486,36 +3115,48 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C54">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>23</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>总部</t>
-        </is>
-      </c>
-      <c r="H54">
-        <v>1262</v>
-      </c>
-      <c r="I54">
-        <v>249</v>
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>0.6667</v>
+      </c>
+      <c r="G54">
+        <v>0.55</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J54">
-        <v>186</v>
+        <v>291</v>
+      </c>
+      <c r="K54">
+        <v>205</v>
+      </c>
+      <c r="L54">
+        <v>117</v>
+      </c>
+      <c r="M54">
+        <v>0.7045</v>
+      </c>
+      <c r="N54">
+        <v>0.5707</v>
       </c>
     </row>
     <row r="55">
@@ -2526,36 +3167,48 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C55">
-        <v>964</v>
+        <v>48</v>
       </c>
       <c r="D55">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>105</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2020-03-20T12:00:12</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>全国</t>
-        </is>
-      </c>
-      <c r="H55">
-        <v>11324</v>
-      </c>
-      <c r="I55">
-        <v>2789</v>
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>0.2083</v>
+      </c>
+      <c r="G55">
+        <v>0.6</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-03-20T17:28:00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J55">
-        <v>1996</v>
+        <v>522</v>
+      </c>
+      <c r="K55">
+        <v>130</v>
+      </c>
+      <c r="L55">
+        <v>107</v>
+      </c>
+      <c r="M55">
+        <v>0.249</v>
+      </c>
+      <c r="N55">
+        <v>0.8231000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +446,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="K2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M2">
-        <v>0.0698</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="N2">
-        <v>0.7222</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="3">
@@ -478,48 +478,48 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C3">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>0.1017</v>
+        <v>0.3842</v>
       </c>
       <c r="G3">
-        <v>0.7429</v>
+        <v>0.5753</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J3">
-        <v>522</v>
+        <v>294</v>
       </c>
       <c r="K3">
+        <v>219</v>
+      </c>
+      <c r="L3">
         <v>130</v>
       </c>
-      <c r="L3">
-        <v>107</v>
-      </c>
       <c r="M3">
-        <v>0.249</v>
+        <v>0.7449</v>
       </c>
       <c r="N3">
-        <v>0.8231000000000001</v>
+        <v>0.5936</v>
       </c>
     </row>
     <row r="4">
@@ -530,48 +530,48 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C4">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>0.3842</v>
+        <v>0.1017</v>
       </c>
       <c r="G4">
-        <v>0.5753</v>
+        <v>0.7429</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J4">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="K4">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>0.7045</v>
+        <v>0.25</v>
       </c>
       <c r="N4">
-        <v>0.5707</v>
+        <v>0.8636</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K5">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>0.1723</v>
+        <v>0.1779</v>
       </c>
       <c r="N5">
-        <v>0.7632</v>
+        <v>0.7722</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K6">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L6">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="M6">
-        <v>0.319</v>
+        <v>0.4157</v>
       </c>
       <c r="N6">
-        <v>0.7692</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="7">
@@ -703,7 +703,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -712,19 +712,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1917</v>
+        <v>1940</v>
       </c>
       <c r="K7">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L7">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M7">
-        <v>0.1497</v>
+        <v>0.1515</v>
       </c>
       <c r="N7">
-        <v>0.7596000000000001</v>
+        <v>0.7517</v>
       </c>
     </row>
     <row r="8">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="K8">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="M8">
-        <v>0.1439</v>
+        <v>0.1991</v>
       </c>
       <c r="N8">
-        <v>0.6266</v>
+        <v>0.6153999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -807,7 +807,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L9">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M9">
-        <v>0.5254</v>
+        <v>0.5212</v>
       </c>
       <c r="N9">
-        <v>0.7923</v>
+        <v>0.7943</v>
       </c>
     </row>
     <row r="10">
@@ -859,7 +859,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -868,19 +868,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K10">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L10">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M10">
-        <v>0.4265</v>
+        <v>0.4282</v>
       </c>
       <c r="N10">
-        <v>0.7874</v>
+        <v>0.8011</v>
       </c>
     </row>
     <row r="11">
@@ -911,7 +911,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -920,19 +920,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K11">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>0.3322</v>
+        <v>0.3424</v>
       </c>
       <c r="N11">
-        <v>0.8646</v>
+        <v>0.8317</v>
       </c>
     </row>
     <row r="12">
@@ -963,7 +963,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="K12">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="L12">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="M12">
-        <v>0.4857</v>
+        <v>0.5217000000000001</v>
       </c>
       <c r="N12">
-        <v>0.8655</v>
+        <v>0.8398</v>
       </c>
     </row>
     <row r="13">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1024,19 +1024,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="K13">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="L13">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="M13">
-        <v>0.3581</v>
+        <v>0.4051</v>
       </c>
       <c r="N13">
-        <v>0.5238</v>
+        <v>0.5407999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K14">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L14">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M14">
-        <v>0.5643</v>
+        <v>0.5552</v>
       </c>
       <c r="N14">
-        <v>0.6891</v>
+        <v>0.7092000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="J15">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K16">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>0.4476</v>
+        <v>0.486</v>
       </c>
       <c r="N16">
-        <v>0.6899</v>
+        <v>0.7010999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1232,19 +1232,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="K17">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L17">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M17">
-        <v>0.2632</v>
+        <v>0.263</v>
       </c>
       <c r="N17">
-        <v>0.7544999999999999</v>
+        <v>0.7672</v>
       </c>
     </row>
     <row r="18">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1284,19 +1284,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>1236</v>
+        <v>1303</v>
       </c>
       <c r="K18">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L18">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M18">
-        <v>0.2589</v>
+        <v>0.2525</v>
       </c>
       <c r="N18">
-        <v>0.7438</v>
+        <v>0.7447</v>
       </c>
     </row>
     <row r="19">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1336,19 +1336,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>11430</v>
+        <v>11653</v>
       </c>
       <c r="K19">
-        <v>3193</v>
+        <v>3470</v>
       </c>
       <c r="L19">
-        <v>2307</v>
+        <v>2511</v>
       </c>
       <c r="M19">
-        <v>0.2794</v>
+        <v>0.2978</v>
       </c>
       <c r="N19">
-        <v>0.7225</v>
+        <v>0.7236</v>
       </c>
     </row>
     <row r="20">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1388,19 +1388,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K20">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="L20">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M20">
-        <v>0.7045</v>
+        <v>0.7449</v>
       </c>
       <c r="N20">
-        <v>0.5707</v>
+        <v>0.5936</v>
       </c>
     </row>
     <row r="21">
@@ -1411,48 +1411,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C21">
-        <v>649</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>0.0924</v>
+        <v>0.1111</v>
       </c>
       <c r="G21">
-        <v>0.7</v>
+        <v>0.6667</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J21">
-        <v>1236</v>
+        <v>528</v>
       </c>
       <c r="K21">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="L21">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="M21">
-        <v>0.2589</v>
+        <v>0.25</v>
       </c>
       <c r="N21">
-        <v>0.7438</v>
+        <v>0.8636</v>
       </c>
     </row>
     <row r="22">
@@ -1463,48 +1463,48 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C22">
-        <v>3199</v>
+        <v>649</v>
       </c>
       <c r="D22">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="E22">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="F22">
-        <v>0.0613</v>
+        <v>0.0924</v>
       </c>
       <c r="G22">
-        <v>0.6276</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J22">
-        <v>11430</v>
+        <v>1303</v>
       </c>
       <c r="K22">
-        <v>3193</v>
+        <v>329</v>
       </c>
       <c r="L22">
-        <v>2307</v>
+        <v>245</v>
       </c>
       <c r="M22">
-        <v>0.2794</v>
+        <v>0.2525</v>
       </c>
       <c r="N22">
-        <v>0.7225</v>
+        <v>0.7447</v>
       </c>
     </row>
     <row r="23">
@@ -1515,48 +1515,48 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C23">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>0.1111</v>
+        <v>0.0455</v>
       </c>
       <c r="G23">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J23">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="K23">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="L23">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="M23">
-        <v>0.249</v>
+        <v>0.1779</v>
       </c>
       <c r="N23">
-        <v>0.8231000000000001</v>
+        <v>0.7722</v>
       </c>
     </row>
     <row r="24">
@@ -1567,48 +1567,48 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C24">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.0455</v>
+        <v>0.0405</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J24">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="K24">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="M24">
-        <v>0.1723</v>
+        <v>0.4157</v>
       </c>
       <c r="N24">
-        <v>0.7632</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="25">
@@ -1619,48 +1619,48 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C25">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F25">
-        <v>0.0405</v>
+        <v>0.0514</v>
       </c>
       <c r="G25">
-        <v>0.6667</v>
+        <v>0.6364</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J25">
-        <v>326</v>
+        <v>1940</v>
       </c>
       <c r="K25">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="L25">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="M25">
-        <v>0.319</v>
+        <v>0.1515</v>
       </c>
       <c r="N25">
-        <v>0.7692</v>
+        <v>0.7517</v>
       </c>
     </row>
     <row r="26">
@@ -1671,48 +1671,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C26">
-        <v>428</v>
+        <v>250</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.0514</v>
-      </c>
-      <c r="G26">
-        <v>0.6364</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J26">
-        <v>1917</v>
+        <v>1110</v>
       </c>
       <c r="K26">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="L26">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="M26">
-        <v>0.1497</v>
+        <v>0.1991</v>
       </c>
       <c r="N26">
-        <v>0.7596000000000001</v>
+        <v>0.6153999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1723,45 +1720,48 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C27">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.2841</v>
+      </c>
+      <c r="G27">
+        <v>0.8</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J27">
-        <v>1098</v>
+        <v>401</v>
       </c>
       <c r="K27">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="L27">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="M27">
-        <v>0.1439</v>
+        <v>0.5212</v>
       </c>
       <c r="N27">
-        <v>0.6266</v>
+        <v>0.7943</v>
       </c>
     </row>
     <row r="28">
@@ -1772,48 +1772,48 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C28">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.2841</v>
+        <v>0.0215</v>
       </c>
       <c r="G28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J28">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="K28">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="L28">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="M28">
-        <v>0.5254</v>
+        <v>0.4282</v>
       </c>
       <c r="N28">
-        <v>0.7923</v>
+        <v>0.8011</v>
       </c>
     </row>
     <row r="29">
@@ -1824,48 +1824,48 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C29">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.0215</v>
+        <v>0.0313</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J29">
-        <v>408</v>
+        <v>295</v>
       </c>
       <c r="K29">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="L29">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="M29">
-        <v>0.4265</v>
+        <v>0.3424</v>
       </c>
       <c r="N29">
-        <v>0.7874</v>
+        <v>0.8317</v>
       </c>
     </row>
     <row r="30">
@@ -1876,48 +1876,48 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>0.01</v>
+        <v>0.0245</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.8333</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J30">
-        <v>516</v>
+        <v>993</v>
       </c>
       <c r="K30">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="M30">
-        <v>0.0698</v>
+        <v>0.5217000000000001</v>
       </c>
       <c r="N30">
-        <v>0.7222</v>
+        <v>0.8398</v>
       </c>
     </row>
     <row r="31">
@@ -1928,48 +1928,48 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C31">
-        <v>245</v>
+        <v>555</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>0.0245</v>
+        <v>0.0559</v>
       </c>
       <c r="G31">
-        <v>0.8333</v>
+        <v>0.2581</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J31">
-        <v>980</v>
+        <v>1301</v>
       </c>
       <c r="K31">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="L31">
-        <v>412</v>
+        <v>285</v>
       </c>
       <c r="M31">
-        <v>0.4857</v>
+        <v>0.4051</v>
       </c>
       <c r="N31">
-        <v>0.8655</v>
+        <v>0.5407999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1980,48 +1980,48 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C32">
-        <v>555</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>0.0559</v>
+        <v>0.0921</v>
       </c>
       <c r="G32">
-        <v>0.2581</v>
+        <v>0.7143</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J32">
-        <v>1290</v>
+        <v>353</v>
       </c>
       <c r="K32">
-        <v>462</v>
+        <v>196</v>
       </c>
       <c r="L32">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="M32">
-        <v>0.3581</v>
+        <v>0.5552</v>
       </c>
       <c r="N32">
-        <v>0.5238</v>
+        <v>0.7092000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -2032,48 +2032,45 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C33">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.0921</v>
-      </c>
-      <c r="G33">
-        <v>0.7143</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J33">
-        <v>342</v>
+        <v>618</v>
       </c>
       <c r="K33">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0.5643</v>
+        <v>0.0016</v>
       </c>
       <c r="N33">
-        <v>0.6891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2084,45 +2081,48 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C34">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.1972</v>
+      </c>
+      <c r="G34">
+        <v>0.5714</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J34">
-        <v>609</v>
+        <v>358</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="M34">
-        <v>0.0016</v>
+        <v>0.486</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.7010999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2133,48 +2133,48 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C35">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.1972</v>
+        <v>0.0481</v>
       </c>
       <c r="G35">
-        <v>0.5714</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J35">
-        <v>353</v>
+        <v>441</v>
       </c>
       <c r="K35">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="L35">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M35">
-        <v>0.4476</v>
+        <v>0.263</v>
       </c>
       <c r="N35">
-        <v>0.6899</v>
+        <v>0.7672</v>
       </c>
     </row>
     <row r="36">
@@ -2185,48 +2185,48 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C36">
-        <v>104</v>
+        <v>3199</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="F36">
-        <v>0.0481</v>
+        <v>0.0613</v>
       </c>
       <c r="G36">
-        <v>0.6</v>
+        <v>0.6276</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="J36">
-        <v>418</v>
+        <v>11653</v>
       </c>
       <c r="K36">
-        <v>110</v>
+        <v>3470</v>
       </c>
       <c r="L36">
-        <v>83</v>
+        <v>2511</v>
       </c>
       <c r="M36">
-        <v>0.2632</v>
+        <v>0.2978</v>
       </c>
       <c r="N36">
-        <v>0.7544999999999999</v>
+        <v>0.7236</v>
       </c>
     </row>
     <row r="37">
@@ -2237,48 +2237,48 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.0313</v>
+        <v>0.01</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J37">
-        <v>289</v>
+        <v>531</v>
       </c>
       <c r="K37">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="L37">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>0.3322</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="N37">
-        <v>0.8646</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="38">
@@ -2289,45 +2289,48 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.2308</v>
+      </c>
+      <c r="G38">
+        <v>0.8667</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J38">
-        <v>516</v>
+        <v>993</v>
       </c>
       <c r="K38">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="M38">
-        <v>0.0698</v>
+        <v>0.5217000000000001</v>
       </c>
       <c r="N38">
-        <v>0.7222</v>
+        <v>0.8398</v>
       </c>
     </row>
     <row r="39">
@@ -2338,48 +2341,48 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C39">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>0.2308</v>
+        <v>0.1875</v>
       </c>
       <c r="G39">
-        <v>0.8667</v>
+        <v>0.5238</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J39">
-        <v>980</v>
+        <v>1301</v>
       </c>
       <c r="K39">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="L39">
-        <v>412</v>
+        <v>285</v>
       </c>
       <c r="M39">
-        <v>0.4857</v>
+        <v>0.4051</v>
       </c>
       <c r="N39">
-        <v>0.8655</v>
+        <v>0.5407999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -2390,48 +2393,48 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C40">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>0.1875</v>
+        <v>0.2727</v>
       </c>
       <c r="G40">
-        <v>0.5238</v>
+        <v>0.8333</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J40">
-        <v>1290</v>
+        <v>353</v>
       </c>
       <c r="K40">
-        <v>462</v>
+        <v>196</v>
       </c>
       <c r="L40">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="M40">
-        <v>0.3581</v>
+        <v>0.5552</v>
       </c>
       <c r="N40">
-        <v>0.5238</v>
+        <v>0.7092000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -2442,48 +2445,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.2727</v>
-      </c>
-      <c r="G41">
-        <v>0.8333</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J41">
-        <v>342</v>
+        <v>618</v>
       </c>
       <c r="K41">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>0.5643</v>
+        <v>0.0016</v>
       </c>
       <c r="N41">
-        <v>0.6891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2494,45 +2494,48 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C42">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0.1579</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J42">
-        <v>609</v>
+        <v>358</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="M42">
-        <v>0.0016</v>
+        <v>0.486</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.7010999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -2543,48 +2546,48 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.2632</v>
       </c>
       <c r="G43">
-        <v>0.1579</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J43">
-        <v>353</v>
+        <v>441</v>
       </c>
       <c r="K43">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="L43">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M43">
-        <v>0.4476</v>
+        <v>0.263</v>
       </c>
       <c r="N43">
-        <v>0.6899</v>
+        <v>0.7672</v>
       </c>
     </row>
     <row r="44">
@@ -2595,48 +2598,48 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C44">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F44">
-        <v>0.2632</v>
+        <v>0.1958</v>
       </c>
       <c r="G44">
-        <v>0.6</v>
+        <v>0.6216</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J44">
-        <v>418</v>
+        <v>1303</v>
       </c>
       <c r="K44">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="L44">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="M44">
-        <v>0.2632</v>
+        <v>0.2525</v>
       </c>
       <c r="N44">
-        <v>0.7544999999999999</v>
+        <v>0.7447</v>
       </c>
     </row>
     <row r="45">
@@ -2647,48 +2650,48 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C45">
-        <v>189</v>
+        <v>964</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="E45">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F45">
-        <v>0.1958</v>
+        <v>0.1846</v>
       </c>
       <c r="G45">
-        <v>0.6216</v>
+        <v>0.5899</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="J45">
-        <v>1236</v>
+        <v>11653</v>
       </c>
       <c r="K45">
-        <v>320</v>
+        <v>3470</v>
       </c>
       <c r="L45">
-        <v>238</v>
+        <v>2511</v>
       </c>
       <c r="M45">
-        <v>0.2589</v>
+        <v>0.2978</v>
       </c>
       <c r="N45">
-        <v>0.7438</v>
+        <v>0.7236</v>
       </c>
     </row>
     <row r="46">
@@ -2699,48 +2702,48 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C46">
-        <v>964</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>0.1846</v>
+        <v>0.2083</v>
       </c>
       <c r="G46">
-        <v>0.5899</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J46">
-        <v>11430</v>
+        <v>528</v>
       </c>
       <c r="K46">
-        <v>3193</v>
+        <v>132</v>
       </c>
       <c r="L46">
-        <v>2307</v>
+        <v>114</v>
       </c>
       <c r="M46">
-        <v>0.2794</v>
+        <v>0.25</v>
       </c>
       <c r="N46">
-        <v>0.7225</v>
+        <v>0.8636</v>
       </c>
     </row>
     <row r="47">
@@ -2771,7 +2774,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2780,19 +2783,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K47">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L47">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M47">
-        <v>0.3322</v>
+        <v>0.3424</v>
       </c>
       <c r="N47">
-        <v>0.8646</v>
+        <v>0.8317</v>
       </c>
     </row>
     <row r="48">
@@ -2803,48 +2806,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.0333</v>
-      </c>
-      <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J48">
-        <v>408</v>
+        <v>531</v>
       </c>
       <c r="K48">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="L48">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>0.4265</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="N48">
-        <v>0.7874</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="49">
@@ -2855,48 +2855,48 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>0.3462</v>
+        <v>0.6667</v>
       </c>
       <c r="G49">
-        <v>0.6667</v>
+        <v>0.55</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J49">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="K49">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L49">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="M49">
-        <v>0.5254</v>
+        <v>0.7449</v>
       </c>
       <c r="N49">
-        <v>0.7923</v>
+        <v>0.5936</v>
       </c>
     </row>
     <row r="50">
@@ -2907,48 +2907,48 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C50">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.1111</v>
+        <v>0.0303</v>
       </c>
       <c r="G50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J50">
-        <v>1098</v>
+        <v>444</v>
       </c>
       <c r="K50">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="L50">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="M50">
-        <v>0.1439</v>
+        <v>0.1779</v>
       </c>
       <c r="N50">
-        <v>0.6266</v>
+        <v>0.7722</v>
       </c>
     </row>
     <row r="51">
@@ -2959,48 +2959,48 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C51">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>0.09520000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="G51">
-        <v>0.8571</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J51">
-        <v>1917</v>
+        <v>332</v>
       </c>
       <c r="K51">
-        <v>287</v>
+        <v>138</v>
       </c>
       <c r="L51">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="M51">
-        <v>0.1497</v>
+        <v>0.4157</v>
       </c>
       <c r="N51">
-        <v>0.7596000000000001</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="52">
@@ -3011,48 +3011,48 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>0.1429</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="G52">
-        <v>0.8</v>
+        <v>0.8571</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J52">
-        <v>326</v>
+        <v>1940</v>
       </c>
       <c r="K52">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="L52">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="M52">
-        <v>0.319</v>
+        <v>0.1515</v>
       </c>
       <c r="N52">
-        <v>0.7692</v>
+        <v>0.7517</v>
       </c>
     </row>
     <row r="53">
@@ -3063,48 +3063,48 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>0.0303</v>
+        <v>0.1111</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J53">
-        <v>441</v>
+        <v>1110</v>
       </c>
       <c r="K53">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="L53">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="M53">
-        <v>0.1723</v>
+        <v>0.1991</v>
       </c>
       <c r="N53">
-        <v>0.7632</v>
+        <v>0.6153999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3115,48 +3115,48 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F54">
+        <v>0.3462</v>
+      </c>
+      <c r="G54">
         <v>0.6667</v>
       </c>
-      <c r="G54">
-        <v>0.55</v>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-20T17:28:00</t>
+          <t>2020-03-21T08:07:49</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J54">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="K54">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L54">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="M54">
-        <v>0.7045</v>
+        <v>0.5212</v>
       </c>
       <c r="N54">
-        <v>0.5707</v>
+        <v>0.7943</v>
       </c>
     </row>
     <row r="55">
@@ -3167,48 +3167,981 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.0333</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J55">
+        <v>411</v>
+      </c>
+      <c r="K55">
+        <v>176</v>
+      </c>
+      <c r="L55">
+        <v>141</v>
+      </c>
+      <c r="M55">
+        <v>0.4282</v>
+      </c>
+      <c r="N55">
+        <v>0.8011</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>430</v>
+      </c>
+      <c r="D56">
+        <v>80</v>
+      </c>
+      <c r="E56">
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <v>0.186</v>
+      </c>
+      <c r="G56">
+        <v>0.6625</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J56">
+        <v>11653</v>
+      </c>
+      <c r="K56">
+        <v>3470</v>
+      </c>
+      <c r="L56">
+        <v>2511</v>
+      </c>
+      <c r="M56">
+        <v>0.2978</v>
+      </c>
+      <c r="N56">
+        <v>0.7236</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>127</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
+      </c>
+      <c r="F57">
+        <v>0.1181</v>
+      </c>
+      <c r="G57">
+        <v>0.8</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J57">
+        <v>1303</v>
+      </c>
+      <c r="K57">
+        <v>329</v>
+      </c>
+      <c r="L57">
+        <v>245</v>
+      </c>
+      <c r="M57">
+        <v>0.2525</v>
+      </c>
+      <c r="N57">
+        <v>0.7447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>0.1852</v>
+      </c>
+      <c r="G58">
+        <v>0.8</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J58">
+        <v>441</v>
+      </c>
+      <c r="K58">
+        <v>116</v>
+      </c>
+      <c r="L58">
+        <v>89</v>
+      </c>
+      <c r="M58">
+        <v>0.263</v>
+      </c>
+      <c r="N58">
+        <v>0.7672</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0.375</v>
+      </c>
+      <c r="G59">
+        <v>0.6667</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J59">
+        <v>358</v>
+      </c>
+      <c r="K59">
+        <v>174</v>
+      </c>
+      <c r="L59">
+        <v>122</v>
+      </c>
+      <c r="M59">
+        <v>0.486</v>
+      </c>
+      <c r="N59">
+        <v>0.7010999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J60">
+        <v>618</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0.0016</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.3</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J61">
+        <v>353</v>
+      </c>
+      <c r="K61">
+        <v>196</v>
+      </c>
+      <c r="L61">
+        <v>139</v>
+      </c>
+      <c r="M61">
+        <v>0.5552</v>
+      </c>
+      <c r="N61">
+        <v>0.7092000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>0.2</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J62">
+        <v>1301</v>
+      </c>
+      <c r="K62">
+        <v>527</v>
+      </c>
+      <c r="L62">
+        <v>285</v>
+      </c>
+      <c r="M62">
+        <v>0.4051</v>
+      </c>
+      <c r="N62">
+        <v>0.5407999999999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>0.2174</v>
+      </c>
+      <c r="G63">
+        <v>0.4</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J63">
+        <v>993</v>
+      </c>
+      <c r="K63">
+        <v>518</v>
+      </c>
+      <c r="L63">
+        <v>435</v>
+      </c>
+      <c r="M63">
+        <v>0.5217000000000001</v>
+      </c>
+      <c r="N63">
+        <v>0.8398</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J64">
+        <v>531</v>
+      </c>
+      <c r="K64">
+        <v>40</v>
+      </c>
+      <c r="L64">
+        <v>31</v>
+      </c>
+      <c r="M64">
+        <v>0.07530000000000001</v>
+      </c>
+      <c r="N64">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>0.2143</v>
+      </c>
+      <c r="G65">
+        <v>0.6667</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J65">
+        <v>295</v>
+      </c>
+      <c r="K65">
+        <v>101</v>
+      </c>
+      <c r="L65">
+        <v>84</v>
+      </c>
+      <c r="M65">
+        <v>0.3424</v>
+      </c>
+      <c r="N65">
+        <v>0.8317</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>0.6667</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J66">
+        <v>411</v>
+      </c>
+      <c r="K66">
+        <v>176</v>
+      </c>
+      <c r="L66">
+        <v>141</v>
+      </c>
+      <c r="M66">
+        <v>0.4282</v>
+      </c>
+      <c r="N66">
+        <v>0.8011</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0.125</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J67">
+        <v>401</v>
+      </c>
+      <c r="K67">
+        <v>209</v>
+      </c>
+      <c r="L67">
+        <v>166</v>
+      </c>
+      <c r="M67">
+        <v>0.5212</v>
+      </c>
+      <c r="N67">
+        <v>0.7943</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>0.5</v>
+      </c>
+      <c r="G68">
+        <v>0.25</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J68">
+        <v>1110</v>
+      </c>
+      <c r="K68">
+        <v>221</v>
+      </c>
+      <c r="L68">
+        <v>136</v>
+      </c>
+      <c r="M68">
+        <v>0.1991</v>
+      </c>
+      <c r="N68">
+        <v>0.6153999999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>57</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>0.1579</v>
+      </c>
+      <c r="G69">
+        <v>0.7778</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J69">
+        <v>1940</v>
+      </c>
+      <c r="K69">
+        <v>294</v>
+      </c>
+      <c r="L69">
+        <v>221</v>
+      </c>
+      <c r="M69">
+        <v>0.1515</v>
+      </c>
+      <c r="N69">
+        <v>0.7517</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>0.25</v>
+      </c>
+      <c r="G70">
+        <v>0.75</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J70">
+        <v>332</v>
+      </c>
+      <c r="K70">
+        <v>138</v>
+      </c>
+      <c r="L70">
+        <v>111</v>
+      </c>
+      <c r="M70">
+        <v>0.4157</v>
+      </c>
+      <c r="N70">
+        <v>0.8043</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>0.4</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J71">
+        <v>444</v>
+      </c>
+      <c r="K71">
+        <v>79</v>
+      </c>
+      <c r="L71">
+        <v>61</v>
+      </c>
+      <c r="M71">
+        <v>0.1779</v>
+      </c>
+      <c r="N71">
+        <v>0.7722</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0.1429</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J72">
+        <v>294</v>
+      </c>
+      <c r="K72">
+        <v>219</v>
+      </c>
+      <c r="L72">
+        <v>130</v>
+      </c>
+      <c r="M72">
+        <v>0.7449</v>
+      </c>
+      <c r="N72">
+        <v>0.5936</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2020-03-20T00:00:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>郑州</t>
         </is>
       </c>
-      <c r="C55">
-        <v>48</v>
-      </c>
-      <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55">
+      <c r="C73">
+        <v>22</v>
+      </c>
+      <c r="D73">
         <v>6</v>
       </c>
-      <c r="F55">
-        <v>0.2083</v>
-      </c>
-      <c r="G55">
-        <v>0.6</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-03-20T17:28:00</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>0.2727</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2020-03-21T08:07:49</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>郑州</t>
         </is>
       </c>
-      <c r="J55">
-        <v>522</v>
-      </c>
-      <c r="K55">
-        <v>130</v>
-      </c>
-      <c r="L55">
-        <v>107</v>
-      </c>
-      <c r="M55">
-        <v>0.249</v>
-      </c>
-      <c r="N55">
-        <v>0.8231000000000001</v>
+      <c r="J73">
+        <v>528</v>
+      </c>
+      <c r="K73">
+        <v>132</v>
+      </c>
+      <c r="L73">
+        <v>114</v>
+      </c>
+      <c r="M73">
+        <v>0.25</v>
+      </c>
+      <c r="N73">
+        <v>0.8636</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +446,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M2">
-        <v>0.07530000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="N2">
-        <v>0.775</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="3">
@@ -478,48 +478,48 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>0.3842</v>
+        <v>0.1017</v>
       </c>
       <c r="G3">
-        <v>0.5753</v>
+        <v>0.7429</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J3">
-        <v>294</v>
+        <v>553</v>
       </c>
       <c r="K3">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="L3">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M3">
-        <v>0.7449</v>
+        <v>0.2586</v>
       </c>
       <c r="N3">
-        <v>0.5936</v>
+        <v>0.8531</v>
       </c>
     </row>
     <row r="4">
@@ -530,48 +530,48 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C4">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>0.1017</v>
+        <v>0.3842</v>
       </c>
       <c r="G4">
-        <v>0.7429</v>
+        <v>0.5753</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J4">
-        <v>528</v>
+        <v>346</v>
       </c>
       <c r="K4">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="M4">
-        <v>0.25</v>
+        <v>0.6705</v>
       </c>
       <c r="N4">
-        <v>0.8636</v>
+        <v>0.6207</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="K5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5">
         <v>61</v>
       </c>
       <c r="M5">
-        <v>0.1779</v>
+        <v>0.1747</v>
       </c>
       <c r="N5">
-        <v>0.7722</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K6">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L6">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M6">
-        <v>0.4157</v>
+        <v>0.4527</v>
       </c>
       <c r="N6">
-        <v>0.8043</v>
+        <v>0.8038999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -703,7 +703,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -712,19 +712,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1940</v>
+        <v>2067</v>
       </c>
       <c r="K7">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="L7">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M7">
-        <v>0.1515</v>
+        <v>0.1466</v>
       </c>
       <c r="N7">
-        <v>0.7517</v>
+        <v>0.7591</v>
       </c>
     </row>
     <row r="8">
@@ -755,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>1110</v>
+        <v>1198</v>
       </c>
       <c r="K8">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L8">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M8">
-        <v>0.1991</v>
+        <v>0.1945</v>
       </c>
       <c r="N8">
-        <v>0.6153999999999999</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="9">
@@ -807,7 +807,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="K9">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L9">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M9">
-        <v>0.5212</v>
+        <v>0.4724</v>
       </c>
       <c r="N9">
-        <v>0.7943</v>
+        <v>0.8037</v>
       </c>
     </row>
     <row r="10">
@@ -859,7 +859,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -868,19 +868,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="K10">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="L10">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="M10">
-        <v>0.4282</v>
+        <v>0.4141</v>
       </c>
       <c r="N10">
-        <v>0.8011</v>
+        <v>0.7979000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -911,7 +911,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -920,19 +920,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="K11">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>0.3424</v>
+        <v>0.3491</v>
       </c>
       <c r="N11">
-        <v>0.8317</v>
+        <v>0.8559</v>
       </c>
     </row>
     <row r="12">
@@ -963,7 +963,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="K12">
-        <v>518</v>
+        <v>653</v>
       </c>
       <c r="L12">
-        <v>435</v>
+        <v>532</v>
       </c>
       <c r="M12">
-        <v>0.5217000000000001</v>
+        <v>0.6334</v>
       </c>
       <c r="N12">
-        <v>0.8398</v>
+        <v>0.8147</v>
       </c>
     </row>
     <row r="13">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1024,19 +1024,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>1301</v>
+        <v>1352</v>
       </c>
       <c r="K13">
-        <v>527</v>
+        <v>661</v>
       </c>
       <c r="L13">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="M13">
-        <v>0.4051</v>
+        <v>0.4889</v>
       </c>
       <c r="N13">
-        <v>0.5407999999999999</v>
+        <v>0.5371</v>
       </c>
     </row>
     <row r="14">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K14">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L14">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M14">
-        <v>0.5552</v>
+        <v>0.5376</v>
       </c>
       <c r="N14">
-        <v>0.7092000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="15">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="J15">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="K16">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M16">
-        <v>0.486</v>
+        <v>0.4919</v>
       </c>
       <c r="N16">
-        <v>0.7010999999999999</v>
+        <v>0.6978</v>
       </c>
     </row>
     <row r="17">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1232,19 +1232,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="K17">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L17">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>0.263</v>
+        <v>0.2564</v>
       </c>
       <c r="N17">
-        <v>0.7672</v>
+        <v>0.7851</v>
       </c>
     </row>
     <row r="18">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1284,19 +1284,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>1303</v>
+        <v>934</v>
       </c>
       <c r="K18">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="L18">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M18">
-        <v>0.2525</v>
+        <v>0.3844</v>
       </c>
       <c r="N18">
-        <v>0.7447</v>
+        <v>0.7521</v>
       </c>
     </row>
     <row r="19">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1336,19 +1336,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>11653</v>
+        <v>11940</v>
       </c>
       <c r="K19">
-        <v>3470</v>
+        <v>3880</v>
       </c>
       <c r="L19">
-        <v>2511</v>
+        <v>2811</v>
       </c>
       <c r="M19">
-        <v>0.2978</v>
+        <v>0.325</v>
       </c>
       <c r="N19">
-        <v>0.7236</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="20">
@@ -1359,48 +1359,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>0.0444</v>
+        <v>0.1111</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J20">
-        <v>294</v>
+        <v>553</v>
       </c>
       <c r="K20">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="L20">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M20">
-        <v>0.7449</v>
+        <v>0.2586</v>
       </c>
       <c r="N20">
-        <v>0.5936</v>
+        <v>0.8531</v>
       </c>
     </row>
     <row r="21">
@@ -1411,48 +1411,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C21">
-        <v>108</v>
+        <v>649</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.1111</v>
+        <v>0.0924</v>
       </c>
       <c r="G21">
-        <v>0.6667</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J21">
-        <v>528</v>
+        <v>934</v>
       </c>
       <c r="K21">
-        <v>132</v>
+        <v>359</v>
       </c>
       <c r="L21">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="M21">
-        <v>0.25</v>
+        <v>0.3844</v>
       </c>
       <c r="N21">
-        <v>0.8636</v>
+        <v>0.7521</v>
       </c>
     </row>
     <row r="22">
@@ -1463,48 +1463,48 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C22">
-        <v>649</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.0924</v>
+        <v>0.0444</v>
       </c>
       <c r="G22">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J22">
-        <v>1303</v>
+        <v>346</v>
       </c>
       <c r="K22">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="L22">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="M22">
-        <v>0.2525</v>
+        <v>0.6705</v>
       </c>
       <c r="N22">
-        <v>0.7447</v>
+        <v>0.6207</v>
       </c>
     </row>
     <row r="23">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="K23">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L23">
         <v>61</v>
       </c>
       <c r="M23">
-        <v>0.1779</v>
+        <v>0.1747</v>
       </c>
       <c r="N23">
-        <v>0.7722</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="24">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1596,19 +1596,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K24">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L24">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M24">
-        <v>0.4157</v>
+        <v>0.4527</v>
       </c>
       <c r="N24">
-        <v>0.8043</v>
+        <v>0.8038999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1648,19 +1648,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1940</v>
+        <v>2067</v>
       </c>
       <c r="K25">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="L25">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M25">
-        <v>0.1515</v>
+        <v>0.1466</v>
       </c>
       <c r="N25">
-        <v>0.7517</v>
+        <v>0.7591</v>
       </c>
     </row>
     <row r="26">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="J26">
-        <v>1110</v>
+        <v>1198</v>
       </c>
       <c r="K26">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L26">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M26">
-        <v>0.1991</v>
+        <v>0.1945</v>
       </c>
       <c r="N26">
-        <v>0.6153999999999999</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="27">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1749,19 +1749,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="K27">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M27">
-        <v>0.5212</v>
+        <v>0.4724</v>
       </c>
       <c r="N27">
-        <v>0.7943</v>
+        <v>0.8037</v>
       </c>
     </row>
     <row r="28">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1801,19 +1801,19 @@
         </is>
       </c>
       <c r="J28">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="K28">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="L28">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="M28">
-        <v>0.4282</v>
+        <v>0.4141</v>
       </c>
       <c r="N28">
-        <v>0.8011</v>
+        <v>0.7979000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1853,19 +1853,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="K29">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L29">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M29">
-        <v>0.3424</v>
+        <v>0.3491</v>
       </c>
       <c r="N29">
-        <v>0.8317</v>
+        <v>0.8559</v>
       </c>
     </row>
     <row r="30">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1905,19 +1905,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="K30">
-        <v>518</v>
+        <v>653</v>
       </c>
       <c r="L30">
-        <v>435</v>
+        <v>532</v>
       </c>
       <c r="M30">
-        <v>0.5217000000000001</v>
+        <v>0.6334</v>
       </c>
       <c r="N30">
-        <v>0.8398</v>
+        <v>0.8147</v>
       </c>
     </row>
     <row r="31">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1957,19 +1957,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>1301</v>
+        <v>1352</v>
       </c>
       <c r="K31">
-        <v>527</v>
+        <v>661</v>
       </c>
       <c r="L31">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="M31">
-        <v>0.4051</v>
+        <v>0.4889</v>
       </c>
       <c r="N31">
-        <v>0.5407999999999999</v>
+        <v>0.5371</v>
       </c>
     </row>
     <row r="32">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K32">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L32">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M32">
-        <v>0.5552</v>
+        <v>0.5376</v>
       </c>
       <c r="N32">
-        <v>0.7092000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="33">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="J33">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2110,19 +2110,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="K34">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L34">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M34">
-        <v>0.486</v>
+        <v>0.4919</v>
       </c>
       <c r="N34">
-        <v>0.7010999999999999</v>
+        <v>0.6978</v>
       </c>
     </row>
     <row r="35">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2162,19 +2162,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="K35">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L35">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M35">
-        <v>0.263</v>
+        <v>0.2564</v>
       </c>
       <c r="N35">
-        <v>0.7672</v>
+        <v>0.7851</v>
       </c>
     </row>
     <row r="36">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>11653</v>
+        <v>11940</v>
       </c>
       <c r="K36">
-        <v>3470</v>
+        <v>3880</v>
       </c>
       <c r="L36">
-        <v>2511</v>
+        <v>2811</v>
       </c>
       <c r="M36">
-        <v>0.2978</v>
+        <v>0.325</v>
       </c>
       <c r="N36">
-        <v>0.7236</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="37">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2266,19 +2266,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="K37">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>0.07530000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="N37">
-        <v>0.775</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="38">
@@ -2289,48 +2289,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C38">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.2308</v>
-      </c>
-      <c r="G38">
-        <v>0.8667</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J38">
-        <v>993</v>
+        <v>592</v>
       </c>
       <c r="K38">
-        <v>518</v>
+        <v>46</v>
       </c>
       <c r="L38">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>0.5217000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="N38">
-        <v>0.8398</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="39">
@@ -2341,48 +2338,48 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C39">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F39">
-        <v>0.1875</v>
+        <v>0.2308</v>
       </c>
       <c r="G39">
-        <v>0.5238</v>
+        <v>0.8667</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J39">
-        <v>1301</v>
+        <v>1031</v>
       </c>
       <c r="K39">
-        <v>527</v>
+        <v>653</v>
       </c>
       <c r="L39">
-        <v>285</v>
+        <v>532</v>
       </c>
       <c r="M39">
-        <v>0.4051</v>
+        <v>0.6334</v>
       </c>
       <c r="N39">
-        <v>0.5407999999999999</v>
+        <v>0.8147</v>
       </c>
     </row>
     <row r="40">
@@ -2393,48 +2390,48 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F40">
-        <v>0.2727</v>
+        <v>0.1875</v>
       </c>
       <c r="G40">
-        <v>0.8333</v>
+        <v>0.5238</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J40">
-        <v>353</v>
+        <v>1352</v>
       </c>
       <c r="K40">
-        <v>196</v>
+        <v>661</v>
       </c>
       <c r="L40">
-        <v>139</v>
+        <v>355</v>
       </c>
       <c r="M40">
-        <v>0.5552</v>
+        <v>0.4889</v>
       </c>
       <c r="N40">
-        <v>0.7092000000000001</v>
+        <v>0.5371</v>
       </c>
     </row>
     <row r="41">
@@ -2445,45 +2442,48 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C41">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.2727</v>
+      </c>
+      <c r="G41">
+        <v>0.8333</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J41">
-        <v>618</v>
+        <v>372</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="M41">
-        <v>0.0016</v>
+        <v>0.5376</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="42">
@@ -2494,48 +2494,45 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J42">
+        <v>632</v>
+      </c>
+      <c r="K42">
         <v>1</v>
       </c>
-      <c r="G42">
-        <v>0.1579</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-03-21T08:07:49</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>青岛</t>
-        </is>
-      </c>
-      <c r="J42">
-        <v>358</v>
-      </c>
-      <c r="K42">
-        <v>174</v>
-      </c>
       <c r="L42">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0.486</v>
+        <v>0.0016</v>
       </c>
       <c r="N42">
-        <v>0.7010999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2546,48 +2543,48 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>0.2632</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.6</v>
+        <v>0.1579</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J43">
-        <v>441</v>
+        <v>370</v>
       </c>
       <c r="K43">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="L43">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M43">
-        <v>0.263</v>
+        <v>0.4919</v>
       </c>
       <c r="N43">
-        <v>0.7672</v>
+        <v>0.6978</v>
       </c>
     </row>
     <row r="44">
@@ -2598,48 +2595,48 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C44">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>0.1958</v>
+        <v>0.2632</v>
       </c>
       <c r="G44">
-        <v>0.6216</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J44">
-        <v>1303</v>
+        <v>472</v>
       </c>
       <c r="K44">
-        <v>329</v>
+        <v>121</v>
       </c>
       <c r="L44">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="M44">
-        <v>0.2525</v>
+        <v>0.2564</v>
       </c>
       <c r="N44">
-        <v>0.7447</v>
+        <v>0.7851</v>
       </c>
     </row>
     <row r="45">
@@ -2650,48 +2647,48 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C45">
-        <v>964</v>
+        <v>189</v>
       </c>
       <c r="D45">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F45">
-        <v>0.1846</v>
+        <v>0.1958</v>
       </c>
       <c r="G45">
-        <v>0.5899</v>
+        <v>0.6216</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J45">
-        <v>11653</v>
+        <v>934</v>
       </c>
       <c r="K45">
-        <v>3470</v>
+        <v>359</v>
       </c>
       <c r="L45">
-        <v>2511</v>
+        <v>270</v>
       </c>
       <c r="M45">
-        <v>0.2978</v>
+        <v>0.3844</v>
       </c>
       <c r="N45">
-        <v>0.7236</v>
+        <v>0.7521</v>
       </c>
     </row>
     <row r="46">
@@ -2702,48 +2699,48 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>964</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="F46">
-        <v>0.2083</v>
+        <v>0.1846</v>
       </c>
       <c r="G46">
-        <v>0.6</v>
+        <v>0.5899</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="J46">
-        <v>528</v>
+        <v>11940</v>
       </c>
       <c r="K46">
-        <v>132</v>
+        <v>3880</v>
       </c>
       <c r="L46">
-        <v>114</v>
+        <v>2811</v>
       </c>
       <c r="M46">
-        <v>0.25</v>
+        <v>0.325</v>
       </c>
       <c r="N46">
-        <v>0.8636</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="47">
@@ -2754,48 +2751,48 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.2</v>
+        <v>0.0333</v>
       </c>
       <c r="G47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J47">
-        <v>295</v>
+        <v>454</v>
       </c>
       <c r="K47">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="L47">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="M47">
-        <v>0.3424</v>
+        <v>0.4141</v>
       </c>
       <c r="N47">
-        <v>0.8317</v>
+        <v>0.7979000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -2806,45 +2803,48 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.3462</v>
+      </c>
+      <c r="G48">
+        <v>0.6667</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J48">
-        <v>531</v>
+        <v>453</v>
       </c>
       <c r="K48">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="M48">
-        <v>0.07530000000000001</v>
+        <v>0.4724</v>
       </c>
       <c r="N48">
-        <v>0.775</v>
+        <v>0.8037</v>
       </c>
     </row>
     <row r="49">
@@ -2855,48 +2855,48 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>0.6667</v>
+        <v>0.1111</v>
       </c>
       <c r="G49">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J49">
-        <v>294</v>
+        <v>1198</v>
       </c>
       <c r="K49">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L49">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="M49">
-        <v>0.7449</v>
+        <v>0.1945</v>
       </c>
       <c r="N49">
-        <v>0.5936</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="50">
@@ -2907,48 +2907,48 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>0.0303</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.8571</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J50">
-        <v>444</v>
+        <v>2067</v>
       </c>
       <c r="K50">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="L50">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="M50">
-        <v>0.1779</v>
+        <v>0.1466</v>
       </c>
       <c r="N50">
-        <v>0.7722</v>
+        <v>0.7591</v>
       </c>
     </row>
     <row r="51">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="J51">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K51">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L51">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M51">
-        <v>0.4157</v>
+        <v>0.4527</v>
       </c>
       <c r="N51">
-        <v>0.8043</v>
+        <v>0.8038999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3011,48 +3011,48 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C52">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.09520000000000001</v>
+        <v>0.0303</v>
       </c>
       <c r="G52">
-        <v>0.8571</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J52">
-        <v>1940</v>
+        <v>458</v>
       </c>
       <c r="K52">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="L52">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="M52">
-        <v>0.1515</v>
+        <v>0.1747</v>
       </c>
       <c r="N52">
-        <v>0.7517</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="53">
@@ -3063,48 +3063,48 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C53">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>0.1111</v>
+        <v>0.6667</v>
       </c>
       <c r="G53">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J53">
-        <v>1110</v>
+        <v>346</v>
       </c>
       <c r="K53">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L53">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M53">
-        <v>0.1991</v>
+        <v>0.6705</v>
       </c>
       <c r="N53">
-        <v>0.6153999999999999</v>
+        <v>0.6207</v>
       </c>
     </row>
     <row r="54">
@@ -3115,48 +3115,48 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>6</v>
       </c>
       <c r="F54">
-        <v>0.3462</v>
+        <v>0.2083</v>
       </c>
       <c r="G54">
-        <v>0.6667</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J54">
-        <v>401</v>
+        <v>553</v>
       </c>
       <c r="K54">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="L54">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="M54">
-        <v>0.5212</v>
+        <v>0.2586</v>
       </c>
       <c r="N54">
-        <v>0.7943</v>
+        <v>0.8531</v>
       </c>
     </row>
     <row r="55">
@@ -3167,48 +3167,48 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0.0333</v>
+        <v>0.2</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J55">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="K55">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="L55">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="M55">
-        <v>0.4282</v>
+        <v>0.3491</v>
       </c>
       <c r="N55">
-        <v>0.8011</v>
+        <v>0.8559</v>
       </c>
     </row>
     <row r="56">
@@ -3219,48 +3219,48 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C56">
-        <v>430</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>0.186</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G56">
-        <v>0.6625</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J56">
-        <v>11653</v>
+        <v>592</v>
       </c>
       <c r="K56">
-        <v>3470</v>
+        <v>46</v>
       </c>
       <c r="L56">
-        <v>2511</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>0.2978</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="N56">
-        <v>0.7236</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="57">
@@ -3271,48 +3271,45 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C57">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.1181</v>
-      </c>
-      <c r="G57">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J57">
-        <v>1303</v>
+        <v>632</v>
       </c>
       <c r="K57">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>0.2525</v>
+        <v>0.0016</v>
       </c>
       <c r="N57">
-        <v>0.7447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3323,48 +3320,48 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C58">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>0.1852</v>
+        <v>0.2174</v>
       </c>
       <c r="G58">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J58">
-        <v>441</v>
+        <v>1031</v>
       </c>
       <c r="K58">
-        <v>116</v>
+        <v>653</v>
       </c>
       <c r="L58">
-        <v>89</v>
+        <v>532</v>
       </c>
       <c r="M58">
-        <v>0.263</v>
+        <v>0.6334</v>
       </c>
       <c r="N58">
-        <v>0.7672</v>
+        <v>0.8147</v>
       </c>
     </row>
     <row r="59">
@@ -3375,48 +3372,48 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
         <v>3</v>
       </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
       <c r="F59">
-        <v>0.375</v>
+        <v>0.2</v>
       </c>
       <c r="G59">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J59">
-        <v>358</v>
+        <v>1352</v>
       </c>
       <c r="K59">
-        <v>174</v>
+        <v>661</v>
       </c>
       <c r="L59">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="M59">
-        <v>0.486</v>
+        <v>0.4889</v>
       </c>
       <c r="N59">
-        <v>0.7010999999999999</v>
+        <v>0.5371</v>
       </c>
     </row>
     <row r="60">
@@ -3427,45 +3424,48 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
+        <v>0.3</v>
+      </c>
+      <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J60">
-        <v>618</v>
+        <v>372</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="M60">
-        <v>0.0016</v>
+        <v>0.5376</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="61">
@@ -3476,48 +3476,48 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J61">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="K61">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="L61">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M61">
-        <v>0.5552</v>
+        <v>0.4919</v>
       </c>
       <c r="N61">
-        <v>0.7092000000000001</v>
+        <v>0.6978</v>
       </c>
     </row>
     <row r="62">
@@ -3528,48 +3528,48 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62">
-        <v>0.2</v>
+        <v>0.1852</v>
       </c>
       <c r="G62">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J62">
-        <v>1301</v>
+        <v>472</v>
       </c>
       <c r="K62">
-        <v>527</v>
+        <v>121</v>
       </c>
       <c r="L62">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="M62">
-        <v>0.4051</v>
+        <v>0.2564</v>
       </c>
       <c r="N62">
-        <v>0.5407999999999999</v>
+        <v>0.7851</v>
       </c>
     </row>
     <row r="63">
@@ -3580,48 +3580,48 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F63">
-        <v>0.2174</v>
+        <v>0.1181</v>
       </c>
       <c r="G63">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J63">
-        <v>993</v>
+        <v>934</v>
       </c>
       <c r="K63">
-        <v>518</v>
+        <v>359</v>
       </c>
       <c r="L63">
-        <v>435</v>
+        <v>270</v>
       </c>
       <c r="M63">
-        <v>0.5217000000000001</v>
+        <v>0.3844</v>
       </c>
       <c r="N63">
-        <v>0.8398</v>
+        <v>0.7521</v>
       </c>
     </row>
     <row r="64">
@@ -3632,48 +3632,48 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>430</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F64">
-        <v>0.08699999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0.6625</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="J64">
-        <v>531</v>
+        <v>11940</v>
       </c>
       <c r="K64">
-        <v>40</v>
+        <v>3880</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>2811</v>
       </c>
       <c r="M64">
-        <v>0.07530000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="N64">
-        <v>0.775</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="65">
@@ -3684,48 +3684,48 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>0.2143</v>
+        <v>0.6667</v>
       </c>
       <c r="G65">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J65">
-        <v>295</v>
+        <v>454</v>
       </c>
       <c r="K65">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="L65">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="M65">
-        <v>0.3424</v>
+        <v>0.4141</v>
       </c>
       <c r="N65">
-        <v>0.8317</v>
+        <v>0.7979000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -3736,48 +3736,48 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C66">
+        <v>14</v>
+      </c>
+      <c r="D66">
         <v>3</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66">
+        <v>0.2143</v>
+      </c>
+      <c r="G66">
         <v>0.6667</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J66">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="K66">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="L66">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="M66">
-        <v>0.4282</v>
+        <v>0.3491</v>
       </c>
       <c r="N66">
-        <v>0.8011</v>
+        <v>0.8559</v>
       </c>
     </row>
     <row r="67">
@@ -3788,48 +3788,48 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>0.125</v>
+        <v>0.2727</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J67">
-        <v>401</v>
+        <v>553</v>
       </c>
       <c r="K67">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="L67">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="M67">
-        <v>0.5212</v>
+        <v>0.2586</v>
       </c>
       <c r="N67">
-        <v>0.7943</v>
+        <v>0.8531</v>
       </c>
     </row>
     <row r="68">
@@ -3840,48 +3840,48 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0.5</v>
+        <v>0.1429</v>
       </c>
       <c r="G68">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J68">
-        <v>1110</v>
+        <v>346</v>
       </c>
       <c r="K68">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L68">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M68">
-        <v>0.1991</v>
+        <v>0.6705</v>
       </c>
       <c r="N68">
-        <v>0.6153999999999999</v>
+        <v>0.6207</v>
       </c>
     </row>
     <row r="69">
@@ -3892,48 +3892,48 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C69">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>0.1579</v>
+        <v>0.4</v>
       </c>
       <c r="G69">
-        <v>0.7778</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J69">
-        <v>1940</v>
+        <v>458</v>
       </c>
       <c r="K69">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="L69">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="M69">
-        <v>0.1515</v>
+        <v>0.1747</v>
       </c>
       <c r="N69">
-        <v>0.7517</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="70">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3973,19 +3973,19 @@
         </is>
       </c>
       <c r="J70">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K70">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L70">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M70">
-        <v>0.4157</v>
+        <v>0.4527</v>
       </c>
       <c r="N70">
-        <v>0.8043</v>
+        <v>0.8038999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -3996,48 +3996,48 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F71">
-        <v>0.4</v>
+        <v>0.1579</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0.7778</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J71">
-        <v>444</v>
+        <v>2067</v>
       </c>
       <c r="K71">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="L71">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="M71">
-        <v>0.1779</v>
+        <v>0.1466</v>
       </c>
       <c r="N71">
-        <v>0.7722</v>
+        <v>0.7591</v>
       </c>
     </row>
     <row r="72">
@@ -4048,48 +4048,48 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>0.1429</v>
+        <v>0.5</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J72">
-        <v>294</v>
+        <v>1198</v>
       </c>
       <c r="K72">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L72">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="M72">
-        <v>0.7449</v>
+        <v>0.1945</v>
       </c>
       <c r="N72">
-        <v>0.5936</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="73">
@@ -4100,48 +4100,963 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>0.2727</v>
+        <v>0.125</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J73">
+        <v>453</v>
+      </c>
+      <c r="K73">
+        <v>214</v>
+      </c>
+      <c r="L73">
+        <v>172</v>
+      </c>
+      <c r="M73">
+        <v>0.4724</v>
+      </c>
+      <c r="N73">
+        <v>0.8037</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>291</v>
+      </c>
+      <c r="D74">
+        <v>37</v>
+      </c>
+      <c r="E74">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>0.1271</v>
+      </c>
+      <c r="G74">
+        <v>0.4595</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J74">
+        <v>11940</v>
+      </c>
+      <c r="K74">
+        <v>3880</v>
+      </c>
+      <c r="L74">
+        <v>2811</v>
+      </c>
+      <c r="M74">
+        <v>0.325</v>
+      </c>
+      <c r="N74">
+        <v>0.7245</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>36</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0.0556</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J75">
+        <v>934</v>
+      </c>
+      <c r="K75">
+        <v>359</v>
+      </c>
+      <c r="L75">
+        <v>270</v>
+      </c>
+      <c r="M75">
+        <v>0.3844</v>
+      </c>
+      <c r="N75">
+        <v>0.7521</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J76">
+        <v>472</v>
+      </c>
+      <c r="K76">
+        <v>121</v>
+      </c>
+      <c r="L76">
+        <v>95</v>
+      </c>
+      <c r="M76">
+        <v>0.2564</v>
+      </c>
+      <c r="N76">
+        <v>0.7851</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>0.4</v>
+      </c>
+      <c r="G77">
+        <v>0.75</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J77">
+        <v>370</v>
+      </c>
+      <c r="K77">
+        <v>182</v>
+      </c>
+      <c r="L77">
+        <v>127</v>
+      </c>
+      <c r="M77">
+        <v>0.4919</v>
+      </c>
+      <c r="N77">
+        <v>0.6978</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J78">
+        <v>632</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0.0016</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J79">
+        <v>372</v>
+      </c>
+      <c r="K79">
+        <v>200</v>
+      </c>
+      <c r="L79">
+        <v>148</v>
+      </c>
+      <c r="M79">
+        <v>0.5376</v>
+      </c>
+      <c r="N79">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>25</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>0.32</v>
+      </c>
+      <c r="G80">
+        <v>0.625</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J80">
+        <v>1352</v>
+      </c>
+      <c r="K80">
+        <v>661</v>
+      </c>
+      <c r="L80">
+        <v>355</v>
+      </c>
+      <c r="M80">
+        <v>0.4889</v>
+      </c>
+      <c r="N80">
+        <v>0.5371</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0.0476</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J81">
+        <v>1031</v>
+      </c>
+      <c r="K81">
+        <v>653</v>
+      </c>
+      <c r="L81">
+        <v>532</v>
+      </c>
+      <c r="M81">
+        <v>0.6334</v>
+      </c>
+      <c r="N81">
+        <v>0.8147</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.0556</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J82">
+        <v>592</v>
+      </c>
+      <c r="K82">
+        <v>46</v>
+      </c>
+      <c r="L82">
+        <v>37</v>
+      </c>
+      <c r="M82">
+        <v>0.07770000000000001</v>
+      </c>
+      <c r="N82">
+        <v>0.8043</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0.1875</v>
+      </c>
+      <c r="G83">
+        <v>0.3333</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J83">
+        <v>318</v>
+      </c>
+      <c r="K83">
+        <v>111</v>
+      </c>
+      <c r="L83">
+        <v>95</v>
+      </c>
+      <c r="M83">
+        <v>0.3491</v>
+      </c>
+      <c r="N83">
+        <v>0.8559</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>0.2727</v>
+      </c>
+      <c r="G84">
+        <v>0.6667</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J84">
+        <v>454</v>
+      </c>
+      <c r="K84">
+        <v>188</v>
+      </c>
+      <c r="L84">
+        <v>150</v>
+      </c>
+      <c r="M84">
+        <v>0.4141</v>
+      </c>
+      <c r="N84">
+        <v>0.7979000000000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J85">
+        <v>453</v>
+      </c>
+      <c r="K85">
+        <v>214</v>
+      </c>
+      <c r="L85">
+        <v>172</v>
+      </c>
+      <c r="M85">
+        <v>0.4724</v>
+      </c>
+      <c r="N85">
+        <v>0.8037</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>29</v>
+      </c>
+      <c r="D86">
+        <v>11</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>0.3793</v>
+      </c>
+      <c r="G86">
+        <v>0.1818</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J86">
+        <v>1198</v>
+      </c>
+      <c r="K86">
+        <v>233</v>
+      </c>
+      <c r="L86">
+        <v>149</v>
+      </c>
+      <c r="M86">
+        <v>0.1945</v>
+      </c>
+      <c r="N86">
+        <v>0.6395</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>58</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J87">
+        <v>2067</v>
+      </c>
+      <c r="K87">
+        <v>303</v>
+      </c>
+      <c r="L87">
+        <v>230</v>
+      </c>
+      <c r="M87">
+        <v>0.1466</v>
+      </c>
+      <c r="N87">
+        <v>0.7591</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0.4</v>
+      </c>
+      <c r="G88">
+        <v>0.5</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J88">
+        <v>338</v>
+      </c>
+      <c r="K88">
+        <v>153</v>
+      </c>
+      <c r="L88">
+        <v>123</v>
+      </c>
+      <c r="M88">
+        <v>0.4527</v>
+      </c>
+      <c r="N88">
+        <v>0.8038999999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J89">
+        <v>458</v>
+      </c>
+      <c r="K89">
+        <v>80</v>
+      </c>
+      <c r="L89">
+        <v>61</v>
+      </c>
+      <c r="M89">
+        <v>0.1747</v>
+      </c>
+      <c r="N89">
+        <v>0.7625</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0.5</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J90">
+        <v>346</v>
+      </c>
+      <c r="K90">
+        <v>232</v>
+      </c>
+      <c r="L90">
+        <v>144</v>
+      </c>
+      <c r="M90">
+        <v>0.6705</v>
+      </c>
+      <c r="N90">
+        <v>0.6207</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020-03-21T00:00:00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>郑州</t>
         </is>
       </c>
-      <c r="J73">
-        <v>528</v>
-      </c>
-      <c r="K73">
-        <v>132</v>
-      </c>
-      <c r="L73">
-        <v>114</v>
-      </c>
-      <c r="M73">
-        <v>0.25</v>
-      </c>
-      <c r="N73">
-        <v>0.8636</v>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2020-03-22T08:03:06</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J91">
+        <v>553</v>
+      </c>
+      <c r="K91">
+        <v>143</v>
+      </c>
+      <c r="L91">
+        <v>122</v>
+      </c>
+      <c r="M91">
+        <v>0.2586</v>
+      </c>
+      <c r="N91">
+        <v>0.8531</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>当日_全部已配置课程数</t>
+          <t>当日_已建立联系</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -374,7 +374,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>当日_生成海报转化率</t>
+          <t>当日_建立联系转化率</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -399,7 +399,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>累计_全部已配置课程数</t>
+          <t>累计_已建立联系</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -409,7 +409,7 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>累计_生成海报转化率</t>
+          <t>累计_建立联系转化率</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -426,48 +426,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>0.0425</v>
-      </c>
-      <c r="G2">
-        <v>0.7333</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:54:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J2">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="K2">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="L2">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="M2">
-        <v>0.07770000000000001</v>
+        <v>0.2828</v>
       </c>
       <c r="N2">
-        <v>0.8043</v>
+        <v>0.7988</v>
       </c>
     </row>
     <row r="3">
@@ -478,48 +475,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C3">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>0.1017</v>
-      </c>
-      <c r="G3">
-        <v>0.7429</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J3">
-        <v>553</v>
+        <v>349</v>
       </c>
       <c r="K3">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="L3">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="M3">
-        <v>0.2586</v>
+        <v>0.7393</v>
       </c>
       <c r="N3">
-        <v>0.8531</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="4">
@@ -530,48 +524,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C4">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>0.3842</v>
-      </c>
-      <c r="G4">
-        <v>0.5753</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J4">
-        <v>346</v>
+        <v>477</v>
       </c>
       <c r="K4">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="L4">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="M4">
-        <v>0.6705</v>
+        <v>0.3187</v>
       </c>
       <c r="N4">
-        <v>0.6207</v>
+        <v>0.4474</v>
       </c>
     </row>
     <row r="5">
@@ -582,48 +573,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.11</v>
-      </c>
-      <c r="G5">
-        <v>0.8182</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J5">
-        <v>458</v>
+        <v>349</v>
       </c>
       <c r="K5">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="M5">
-        <v>0.1747</v>
+        <v>0.5358000000000001</v>
       </c>
       <c r="N5">
-        <v>0.7625</v>
+        <v>0.7433</v>
       </c>
     </row>
     <row r="6">
@@ -634,45 +622,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C6">
-        <v>176</v>
+        <v>1227</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J6">
-        <v>338</v>
+        <v>2155</v>
       </c>
       <c r="K6">
-        <v>153</v>
+        <v>919</v>
       </c>
       <c r="L6">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="M6">
-        <v>0.4527</v>
+        <v>0.4265</v>
       </c>
       <c r="N6">
-        <v>0.8038999999999999</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="7">
@@ -683,48 +671,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C7">
-        <v>1227</v>
+        <v>742</v>
       </c>
       <c r="D7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>0.1255</v>
-      </c>
-      <c r="G7">
-        <v>0.7597</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J7">
-        <v>2067</v>
+        <v>1237</v>
       </c>
       <c r="K7">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L7">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="M7">
-        <v>0.1466</v>
+        <v>0.2352</v>
       </c>
       <c r="N7">
-        <v>0.7591</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="8">
@@ -735,48 +720,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C8">
-        <v>742</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>0.0391</v>
-      </c>
-      <c r="G8">
-        <v>0.3103</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J8">
-        <v>1198</v>
+        <v>471</v>
       </c>
       <c r="K8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L8">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="M8">
-        <v>0.1945</v>
+        <v>0.4968</v>
       </c>
       <c r="N8">
-        <v>0.6395</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="9">
@@ -787,48 +769,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D9">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>0.456</v>
-      </c>
-      <c r="G9">
-        <v>0.7806999999999999</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J9">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="K9">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M9">
-        <v>0.4724</v>
+        <v>0.9182</v>
       </c>
       <c r="N9">
-        <v>0.8037</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="10">
@@ -839,48 +818,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C10">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>0.2065</v>
-      </c>
-      <c r="G10">
-        <v>0.6491</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J10">
-        <v>454</v>
+        <v>331</v>
       </c>
       <c r="K10">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="L10">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>0.4141</v>
+        <v>0.6888</v>
       </c>
       <c r="N10">
-        <v>0.7979000000000001</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="11">
@@ -891,48 +867,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C11">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>0.185</v>
-      </c>
-      <c r="G11">
-        <v>0.8438</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J11">
-        <v>318</v>
+        <v>618</v>
       </c>
       <c r="K11">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>0.3491</v>
+        <v>0.2929</v>
       </c>
       <c r="N11">
-        <v>0.8559</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="12">
@@ -950,20 +923,17 @@
         <v>607</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>88</v>
       </c>
       <c r="F12">
-        <v>0.1664</v>
-      </c>
-      <c r="G12">
-        <v>0.8713</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -972,19 +942,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>1031</v>
+        <v>1085</v>
       </c>
       <c r="K12">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="L12">
-        <v>532</v>
+        <v>582</v>
       </c>
       <c r="M12">
-        <v>0.6334</v>
+        <v>0.6212</v>
       </c>
       <c r="N12">
-        <v>0.8147</v>
+        <v>0.8635</v>
       </c>
     </row>
     <row r="13">
@@ -1002,20 +972,17 @@
         <v>571</v>
       </c>
       <c r="D13">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>61</v>
       </c>
       <c r="F13">
-        <v>0.352</v>
-      </c>
-      <c r="G13">
-        <v>0.3035</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1024,19 +991,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>1352</v>
+        <v>1386</v>
       </c>
       <c r="K13">
-        <v>661</v>
+        <v>1158</v>
       </c>
       <c r="L13">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="M13">
-        <v>0.4889</v>
+        <v>0.8355</v>
       </c>
       <c r="N13">
-        <v>0.5371</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="14">
@@ -1054,20 +1021,17 @@
         <v>195</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.2821</v>
-      </c>
-      <c r="G14">
-        <v>0.7091</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1076,19 +1040,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="K14">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="L14">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="M14">
-        <v>0.5376</v>
+        <v>0.7612</v>
       </c>
       <c r="N14">
-        <v>0.74</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="15">
@@ -1106,20 +1070,17 @@
         <v>380</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.0026</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1128,19 +1089,19 @@
         </is>
       </c>
       <c r="J15">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0016</v>
+        <v>0.003</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -1158,20 +1119,17 @@
         <v>237</v>
       </c>
       <c r="D16">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>73</v>
       </c>
       <c r="F16">
-        <v>0.4515</v>
-      </c>
-      <c r="G16">
-        <v>0.6822</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1180,19 +1138,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K16">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="L16">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="M16">
-        <v>0.4919</v>
+        <v>0.712</v>
       </c>
       <c r="N16">
-        <v>0.6978</v>
+        <v>0.6292</v>
       </c>
     </row>
     <row r="17">
@@ -1210,20 +1168,17 @@
         <v>259</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>31</v>
       </c>
       <c r="F17">
-        <v>0.1583</v>
-      </c>
-      <c r="G17">
-        <v>0.7561</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1232,19 +1187,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="K17">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>0.2564</v>
+        <v>0.2964</v>
       </c>
       <c r="N17">
-        <v>0.7851</v>
+        <v>0.7007</v>
       </c>
     </row>
     <row r="18">
@@ -1262,20 +1217,17 @@
         <v>744</v>
       </c>
       <c r="D18">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>83</v>
       </c>
       <c r="F18">
-        <v>0.1492</v>
-      </c>
-      <c r="G18">
-        <v>0.7477</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1284,19 +1236,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>934</v>
+        <v>907</v>
       </c>
       <c r="K18">
-        <v>359</v>
+        <v>600</v>
       </c>
       <c r="L18">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="M18">
-        <v>0.3844</v>
+        <v>0.6615</v>
       </c>
       <c r="N18">
-        <v>0.7521</v>
+        <v>0.5183</v>
       </c>
     </row>
     <row r="19">
@@ -1314,20 +1266,17 @@
         <v>7024</v>
       </c>
       <c r="D19">
-        <v>1159</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>761</v>
       </c>
       <c r="F19">
-        <v>0.165</v>
-      </c>
-      <c r="G19">
-        <v>0.6566</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1336,19 +1285,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>11940</v>
+        <v>12333</v>
       </c>
       <c r="K19">
-        <v>3880</v>
+        <v>6190</v>
       </c>
       <c r="L19">
-        <v>2811</v>
+        <v>3162</v>
       </c>
       <c r="M19">
-        <v>0.325</v>
+        <v>0.5019</v>
       </c>
       <c r="N19">
-        <v>0.7245</v>
+        <v>0.5108</v>
       </c>
     </row>
     <row r="20">
@@ -1366,20 +1315,17 @@
         <v>108</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
       <c r="F20">
-        <v>0.1111</v>
-      </c>
-      <c r="G20">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:54:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1388,19 +1334,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="K20">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L20">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M20">
-        <v>0.2586</v>
+        <v>0.2828</v>
       </c>
       <c r="N20">
-        <v>0.8531</v>
+        <v>0.7988</v>
       </c>
     </row>
     <row r="21">
@@ -1411,48 +1357,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C21">
-        <v>649</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0924</v>
-      </c>
-      <c r="G21">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J21">
-        <v>934</v>
+        <v>349</v>
       </c>
       <c r="K21">
-        <v>359</v>
+        <v>258</v>
       </c>
       <c r="L21">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="M21">
-        <v>0.3844</v>
+        <v>0.7393</v>
       </c>
       <c r="N21">
-        <v>0.7521</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="22">
@@ -1463,48 +1406,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>0.0444</v>
-      </c>
-      <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J22">
-        <v>346</v>
+        <v>477</v>
       </c>
       <c r="K22">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="L22">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="M22">
-        <v>0.6705</v>
+        <v>0.3187</v>
       </c>
       <c r="N22">
-        <v>0.6207</v>
+        <v>0.4474</v>
       </c>
     </row>
     <row r="23">
@@ -1515,48 +1455,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C23">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.0455</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J23">
-        <v>458</v>
+        <v>349</v>
       </c>
       <c r="K23">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="L23">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="M23">
-        <v>0.1747</v>
+        <v>0.5358000000000001</v>
       </c>
       <c r="N23">
-        <v>0.7625</v>
+        <v>0.7433</v>
       </c>
     </row>
     <row r="24">
@@ -1567,48 +1504,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C24">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>0.0405</v>
-      </c>
-      <c r="G24">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J24">
-        <v>338</v>
+        <v>2155</v>
       </c>
       <c r="K24">
-        <v>153</v>
+        <v>919</v>
       </c>
       <c r="L24">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="M24">
-        <v>0.4527</v>
+        <v>0.4265</v>
       </c>
       <c r="N24">
-        <v>0.8038999999999999</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="25">
@@ -1619,48 +1553,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C25">
-        <v>428</v>
+        <v>250</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.0514</v>
-      </c>
-      <c r="G25">
-        <v>0.6364</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J25">
-        <v>2067</v>
+        <v>1237</v>
       </c>
       <c r="K25">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L25">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="M25">
-        <v>0.1466</v>
+        <v>0.2352</v>
       </c>
       <c r="N25">
-        <v>0.7591</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="26">
@@ -1671,45 +1602,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C26">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J26">
-        <v>1198</v>
+        <v>471</v>
       </c>
       <c r="K26">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L26">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="M26">
-        <v>0.1945</v>
+        <v>0.4968</v>
       </c>
       <c r="N26">
-        <v>0.6395</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="27">
@@ -1720,48 +1651,45 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C27">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.2841</v>
-      </c>
-      <c r="G27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J27">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="K27">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="L27">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M27">
-        <v>0.4724</v>
+        <v>0.9182</v>
       </c>
       <c r="N27">
-        <v>0.8037</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="28">
@@ -1772,48 +1700,45 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C28">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.0215</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J28">
-        <v>454</v>
+        <v>331</v>
       </c>
       <c r="K28">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="L28">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="M28">
-        <v>0.4141</v>
+        <v>0.6888</v>
       </c>
       <c r="N28">
-        <v>0.7979000000000001</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="29">
@@ -1824,48 +1749,45 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C29">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.0313</v>
-      </c>
-      <c r="G29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J29">
-        <v>318</v>
+        <v>618</v>
       </c>
       <c r="K29">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="L29">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>0.3491</v>
+        <v>0.2929</v>
       </c>
       <c r="N29">
-        <v>0.8559</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="30">
@@ -1883,20 +1805,17 @@
         <v>245</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30">
-        <v>0.0245</v>
-      </c>
-      <c r="G30">
-        <v>0.8333</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1905,19 +1824,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>1031</v>
+        <v>1085</v>
       </c>
       <c r="K30">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="L30">
-        <v>532</v>
+        <v>582</v>
       </c>
       <c r="M30">
-        <v>0.6334</v>
+        <v>0.6212</v>
       </c>
       <c r="N30">
-        <v>0.8147</v>
+        <v>0.8635</v>
       </c>
     </row>
     <row r="31">
@@ -1935,20 +1854,17 @@
         <v>555</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
       <c r="F31">
-        <v>0.0559</v>
-      </c>
-      <c r="G31">
-        <v>0.2581</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1957,19 +1873,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>1352</v>
+        <v>1386</v>
       </c>
       <c r="K31">
-        <v>661</v>
+        <v>1158</v>
       </c>
       <c r="L31">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="M31">
-        <v>0.4889</v>
+        <v>0.8355</v>
       </c>
       <c r="N31">
-        <v>0.5371</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="32">
@@ -1987,20 +1903,17 @@
         <v>76</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32">
-        <v>0.0921</v>
-      </c>
-      <c r="G32">
-        <v>0.7143</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2009,19 +1922,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="K32">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="L32">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="M32">
-        <v>0.5376</v>
+        <v>0.7612</v>
       </c>
       <c r="N32">
-        <v>0.74</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="33">
@@ -2049,7 +1962,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2058,19 +1971,19 @@
         </is>
       </c>
       <c r="J33">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.0016</v>
+        <v>0.003</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -2088,20 +2001,17 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>8</v>
       </c>
       <c r="F34">
-        <v>0.1972</v>
-      </c>
-      <c r="G34">
-        <v>0.5714</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2110,19 +2020,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K34">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="L34">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="M34">
-        <v>0.4919</v>
+        <v>0.712</v>
       </c>
       <c r="N34">
-        <v>0.6978</v>
+        <v>0.6292</v>
       </c>
     </row>
     <row r="35">
@@ -2140,20 +2050,17 @@
         <v>104</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35">
-        <v>0.0481</v>
-      </c>
-      <c r="G35">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2162,19 +2069,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="K35">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="L35">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M35">
-        <v>0.2564</v>
+        <v>0.2964</v>
       </c>
       <c r="N35">
-        <v>0.7851</v>
+        <v>0.7007</v>
       </c>
     </row>
     <row r="36">
@@ -2185,48 +2092,45 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C36">
-        <v>3199</v>
+        <v>649</v>
       </c>
       <c r="D36">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="F36">
-        <v>0.0613</v>
-      </c>
-      <c r="G36">
-        <v>0.6276</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J36">
-        <v>11940</v>
+        <v>907</v>
       </c>
       <c r="K36">
-        <v>3880</v>
+        <v>600</v>
       </c>
       <c r="L36">
-        <v>2811</v>
+        <v>311</v>
       </c>
       <c r="M36">
-        <v>0.325</v>
+        <v>0.6615</v>
       </c>
       <c r="N36">
-        <v>0.7245</v>
+        <v>0.5183</v>
       </c>
     </row>
     <row r="37">
@@ -2237,48 +2141,45 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>3199</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="F37">
-        <v>0.01</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="J37">
-        <v>592</v>
+        <v>12333</v>
       </c>
       <c r="K37">
-        <v>46</v>
+        <v>6190</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>3162</v>
       </c>
       <c r="M37">
-        <v>0.07770000000000001</v>
+        <v>0.5019</v>
       </c>
       <c r="N37">
-        <v>0.8043</v>
+        <v>0.5108</v>
       </c>
     </row>
     <row r="38">
@@ -2289,45 +2190,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:54:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J38">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="K38">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="M38">
-        <v>0.07770000000000001</v>
+        <v>0.2828</v>
       </c>
       <c r="N38">
-        <v>0.8043</v>
+        <v>0.7988</v>
       </c>
     </row>
     <row r="39">
@@ -2338,48 +2239,45 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C39">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>0.2308</v>
-      </c>
-      <c r="G39">
-        <v>0.8667</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J39">
-        <v>1031</v>
+        <v>349</v>
       </c>
       <c r="K39">
-        <v>653</v>
+        <v>258</v>
       </c>
       <c r="L39">
-        <v>532</v>
+        <v>161</v>
       </c>
       <c r="M39">
-        <v>0.6334</v>
+        <v>0.7393</v>
       </c>
       <c r="N39">
-        <v>0.8147</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="40">
@@ -2390,48 +2288,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C40">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.1875</v>
-      </c>
-      <c r="G40">
-        <v>0.5238</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J40">
-        <v>1352</v>
+        <v>477</v>
       </c>
       <c r="K40">
-        <v>661</v>
+        <v>152</v>
       </c>
       <c r="L40">
-        <v>355</v>
+        <v>68</v>
       </c>
       <c r="M40">
-        <v>0.4889</v>
+        <v>0.3187</v>
       </c>
       <c r="N40">
-        <v>0.5371</v>
+        <v>0.4474</v>
       </c>
     </row>
     <row r="41">
@@ -2442,48 +2337,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>0.2727</v>
-      </c>
-      <c r="G41">
-        <v>0.8333</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J41">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="K41">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L41">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M41">
-        <v>0.5376</v>
+        <v>0.5358000000000001</v>
       </c>
       <c r="N41">
-        <v>0.74</v>
+        <v>0.7433</v>
       </c>
     </row>
     <row r="42">
@@ -2494,45 +2386,45 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C42">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J42">
-        <v>632</v>
+        <v>2155</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>919</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="M42">
-        <v>0.0016</v>
+        <v>0.4265</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="43">
@@ -2543,48 +2435,45 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0.1579</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J43">
-        <v>370</v>
+        <v>1237</v>
       </c>
       <c r="K43">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="L43">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="M43">
-        <v>0.4919</v>
+        <v>0.2352</v>
       </c>
       <c r="N43">
-        <v>0.6978</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="44">
@@ -2595,48 +2484,45 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C44">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>6</v>
       </c>
       <c r="F44">
-        <v>0.2632</v>
-      </c>
-      <c r="G44">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J44">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K44">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="L44">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="M44">
-        <v>0.2564</v>
+        <v>0.4968</v>
       </c>
       <c r="N44">
-        <v>0.7851</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="45">
@@ -2647,48 +2533,45 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C45">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.1958</v>
-      </c>
-      <c r="G45">
-        <v>0.6216</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J45">
-        <v>934</v>
+        <v>477</v>
       </c>
       <c r="K45">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="L45">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="M45">
-        <v>0.3844</v>
+        <v>0.9182</v>
       </c>
       <c r="N45">
-        <v>0.7521</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="46">
@@ -2699,48 +2582,45 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C46">
-        <v>964</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J46">
+        <v>331</v>
+      </c>
+      <c r="K46">
+        <v>228</v>
+      </c>
+      <c r="L46">
         <v>105</v>
       </c>
-      <c r="F46">
-        <v>0.1846</v>
-      </c>
-      <c r="G46">
-        <v>0.5899</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-03-22T08:03:06</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>全国</t>
-        </is>
-      </c>
-      <c r="J46">
-        <v>11940</v>
-      </c>
-      <c r="K46">
-        <v>3880</v>
-      </c>
-      <c r="L46">
-        <v>2811</v>
-      </c>
       <c r="M46">
-        <v>0.325</v>
+        <v>0.6888</v>
       </c>
       <c r="N46">
-        <v>0.7245</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="47">
@@ -2751,48 +2631,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.0333</v>
-      </c>
-      <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J47">
-        <v>454</v>
+        <v>618</v>
       </c>
       <c r="K47">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L47">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>0.4141</v>
+        <v>0.2929</v>
       </c>
       <c r="N47">
-        <v>0.7979000000000001</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="48">
@@ -2803,48 +2680,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F48">
-        <v>0.3462</v>
-      </c>
-      <c r="G48">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J48">
-        <v>453</v>
+        <v>1085</v>
       </c>
       <c r="K48">
-        <v>214</v>
+        <v>674</v>
       </c>
       <c r="L48">
-        <v>172</v>
+        <v>582</v>
       </c>
       <c r="M48">
-        <v>0.4724</v>
+        <v>0.6212</v>
       </c>
       <c r="N48">
-        <v>0.8037</v>
+        <v>0.8635</v>
       </c>
     </row>
     <row r="49">
@@ -2855,48 +2729,45 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C49">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>0.1111</v>
-      </c>
-      <c r="G49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J49">
-        <v>1198</v>
+        <v>1386</v>
       </c>
       <c r="K49">
-        <v>233</v>
+        <v>1158</v>
       </c>
       <c r="L49">
-        <v>149</v>
+        <v>390</v>
       </c>
       <c r="M49">
-        <v>0.1945</v>
+        <v>0.8355</v>
       </c>
       <c r="N49">
-        <v>0.6395</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="50">
@@ -2907,48 +2778,45 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C50">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>0.09520000000000001</v>
-      </c>
-      <c r="G50">
-        <v>0.8571</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J50">
-        <v>2067</v>
+        <v>381</v>
       </c>
       <c r="K50">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="L50">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="M50">
-        <v>0.1466</v>
+        <v>0.7612</v>
       </c>
       <c r="N50">
-        <v>0.7591</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="51">
@@ -2959,48 +2827,45 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.1429</v>
-      </c>
-      <c r="G51">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J51">
-        <v>338</v>
+        <v>659</v>
       </c>
       <c r="K51">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>0.4527</v>
+        <v>0.003</v>
       </c>
       <c r="N51">
-        <v>0.8038999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
@@ -3011,48 +2876,45 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>0.0303</v>
-      </c>
-      <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J52">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="K52">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="L52">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="M52">
-        <v>0.1747</v>
+        <v>0.712</v>
       </c>
       <c r="N52">
-        <v>0.7625</v>
+        <v>0.6292</v>
       </c>
     </row>
     <row r="53">
@@ -3063,48 +2925,45 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>0.6667</v>
-      </c>
-      <c r="G53">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J53">
-        <v>346</v>
+        <v>496</v>
       </c>
       <c r="K53">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="L53">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="M53">
-        <v>0.6705</v>
+        <v>0.2964</v>
       </c>
       <c r="N53">
-        <v>0.6207</v>
+        <v>0.7007</v>
       </c>
     </row>
     <row r="54">
@@ -3115,48 +2974,45 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C54">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F54">
-        <v>0.2083</v>
-      </c>
-      <c r="G54">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J54">
-        <v>553</v>
+        <v>907</v>
       </c>
       <c r="K54">
-        <v>143</v>
+        <v>600</v>
       </c>
       <c r="L54">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="M54">
-        <v>0.2586</v>
+        <v>0.6615</v>
       </c>
       <c r="N54">
-        <v>0.8531</v>
+        <v>0.5183</v>
       </c>
     </row>
     <row r="55">
@@ -3167,48 +3023,45 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>964</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="F55">
-        <v>0.2</v>
-      </c>
-      <c r="G55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="J55">
-        <v>318</v>
+        <v>12333</v>
       </c>
       <c r="K55">
-        <v>111</v>
+        <v>6190</v>
       </c>
       <c r="L55">
-        <v>95</v>
+        <v>3162</v>
       </c>
       <c r="M55">
-        <v>0.3491</v>
+        <v>0.5019</v>
       </c>
       <c r="N55">
-        <v>0.8559</v>
+        <v>0.5108</v>
       </c>
     </row>
     <row r="56">
@@ -3219,48 +3072,45 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F56">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:54:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J56">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="K56">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="M56">
-        <v>0.07770000000000001</v>
+        <v>0.2828</v>
       </c>
       <c r="N56">
-        <v>0.8043</v>
+        <v>0.7988</v>
       </c>
     </row>
     <row r="57">
@@ -3271,45 +3121,45 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J57">
-        <v>632</v>
+        <v>349</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="M57">
-        <v>0.0016</v>
+        <v>0.7393</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="58">
@@ -3320,48 +3170,45 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>0.2174</v>
-      </c>
-      <c r="G58">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J58">
-        <v>1031</v>
+        <v>477</v>
       </c>
       <c r="K58">
-        <v>653</v>
+        <v>152</v>
       </c>
       <c r="L58">
-        <v>532</v>
+        <v>68</v>
       </c>
       <c r="M58">
-        <v>0.6334</v>
+        <v>0.3187</v>
       </c>
       <c r="N58">
-        <v>0.8147</v>
+        <v>0.4474</v>
       </c>
     </row>
     <row r="59">
@@ -3372,48 +3219,45 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>3</v>
       </c>
       <c r="F59">
-        <v>0.2</v>
-      </c>
-      <c r="G59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J59">
-        <v>1352</v>
+        <v>349</v>
       </c>
       <c r="K59">
-        <v>661</v>
+        <v>187</v>
       </c>
       <c r="L59">
-        <v>355</v>
+        <v>139</v>
       </c>
       <c r="M59">
-        <v>0.4889</v>
+        <v>0.5358000000000001</v>
       </c>
       <c r="N59">
-        <v>0.5371</v>
+        <v>0.7433</v>
       </c>
     </row>
     <row r="60">
@@ -3424,48 +3268,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>0.3</v>
-      </c>
-      <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J60">
-        <v>372</v>
+        <v>2155</v>
       </c>
       <c r="K60">
-        <v>200</v>
+        <v>919</v>
       </c>
       <c r="L60">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="M60">
-        <v>0.5376</v>
+        <v>0.4265</v>
       </c>
       <c r="N60">
-        <v>0.74</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="61">
@@ -3476,48 +3317,45 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61">
-        <v>0.375</v>
-      </c>
-      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J61">
+        <v>1237</v>
+      </c>
+      <c r="K61">
+        <v>291</v>
+      </c>
+      <c r="L61">
+        <v>194</v>
+      </c>
+      <c r="M61">
+        <v>0.2352</v>
+      </c>
+      <c r="N61">
         <v>0.6667</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-03-22T08:03:06</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>青岛</t>
-        </is>
-      </c>
-      <c r="J61">
-        <v>370</v>
-      </c>
-      <c r="K61">
-        <v>182</v>
-      </c>
-      <c r="L61">
-        <v>127</v>
-      </c>
-      <c r="M61">
-        <v>0.4919</v>
-      </c>
-      <c r="N61">
-        <v>0.6978</v>
       </c>
     </row>
     <row r="62">
@@ -3528,48 +3366,45 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0.1852</v>
-      </c>
-      <c r="G62">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J62">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K62">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="L62">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="M62">
-        <v>0.2564</v>
+        <v>0.4968</v>
       </c>
       <c r="N62">
-        <v>0.7851</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="63">
@@ -3580,48 +3415,45 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C63">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>0.1181</v>
-      </c>
-      <c r="G63">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J63">
-        <v>934</v>
+        <v>477</v>
       </c>
       <c r="K63">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="L63">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="M63">
-        <v>0.3844</v>
+        <v>0.9182</v>
       </c>
       <c r="N63">
-        <v>0.7521</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="64">
@@ -3632,48 +3464,45 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C64">
-        <v>430</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>0.186</v>
-      </c>
-      <c r="G64">
-        <v>0.6625</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J64">
-        <v>11940</v>
+        <v>331</v>
       </c>
       <c r="K64">
-        <v>3880</v>
+        <v>228</v>
       </c>
       <c r="L64">
-        <v>2811</v>
+        <v>105</v>
       </c>
       <c r="M64">
-        <v>0.325</v>
+        <v>0.6888</v>
       </c>
       <c r="N64">
-        <v>0.7245</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="65">
@@ -3684,48 +3513,45 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>0.6667</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J65">
-        <v>454</v>
+        <v>618</v>
       </c>
       <c r="K65">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L65">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="M65">
-        <v>0.4141</v>
+        <v>0.2929</v>
       </c>
       <c r="N65">
-        <v>0.7979000000000001</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="66">
@@ -3736,48 +3562,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66">
-        <v>0.2143</v>
-      </c>
-      <c r="G66">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J66">
-        <v>318</v>
+        <v>1085</v>
       </c>
       <c r="K66">
-        <v>111</v>
+        <v>674</v>
       </c>
       <c r="L66">
-        <v>95</v>
+        <v>582</v>
       </c>
       <c r="M66">
-        <v>0.3491</v>
+        <v>0.6212</v>
       </c>
       <c r="N66">
-        <v>0.8559</v>
+        <v>0.8635</v>
       </c>
     </row>
     <row r="67">
@@ -3788,48 +3611,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>0.2727</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J67">
-        <v>553</v>
+        <v>1386</v>
       </c>
       <c r="K67">
-        <v>143</v>
+        <v>1158</v>
       </c>
       <c r="L67">
-        <v>122</v>
+        <v>390</v>
       </c>
       <c r="M67">
-        <v>0.2586</v>
+        <v>0.8355</v>
       </c>
       <c r="N67">
-        <v>0.8531</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="68">
@@ -3840,48 +3660,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.1429</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J68">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="K68">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="L68">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="M68">
-        <v>0.6705</v>
+        <v>0.7612</v>
       </c>
       <c r="N68">
-        <v>0.6207</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="69">
@@ -3892,48 +3709,45 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.4</v>
-      </c>
-      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J69">
+        <v>659</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-03-22T08:03:06</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="J69">
-        <v>458</v>
-      </c>
-      <c r="K69">
-        <v>80</v>
-      </c>
-      <c r="L69">
-        <v>61</v>
-      </c>
       <c r="M69">
-        <v>0.1747</v>
+        <v>0.003</v>
       </c>
       <c r="N69">
-        <v>0.7625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
@@ -3944,48 +3758,45 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70">
-        <v>0.25</v>
-      </c>
-      <c r="G70">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J70">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="K70">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L70">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="M70">
-        <v>0.4527</v>
+        <v>0.712</v>
       </c>
       <c r="N70">
-        <v>0.8038999999999999</v>
+        <v>0.6292</v>
       </c>
     </row>
     <row r="71">
@@ -3996,48 +3807,45 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C71">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F71">
-        <v>0.1579</v>
-      </c>
-      <c r="G71">
-        <v>0.7778</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J71">
-        <v>2067</v>
+        <v>496</v>
       </c>
       <c r="K71">
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="L71">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="M71">
-        <v>0.1466</v>
+        <v>0.2964</v>
       </c>
       <c r="N71">
-        <v>0.7591</v>
+        <v>0.7007</v>
       </c>
     </row>
     <row r="72">
@@ -4048,48 +3856,45 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>0.5</v>
-      </c>
-      <c r="G72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J72">
-        <v>1198</v>
+        <v>907</v>
       </c>
       <c r="K72">
-        <v>233</v>
+        <v>600</v>
       </c>
       <c r="L72">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="M72">
-        <v>0.1945</v>
+        <v>0.6615</v>
       </c>
       <c r="N72">
-        <v>0.6395</v>
+        <v>0.5183</v>
       </c>
     </row>
     <row r="73">
@@ -4100,48 +3905,45 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>430</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F73">
-        <v>0.125</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="J73">
-        <v>453</v>
+        <v>12333</v>
       </c>
       <c r="K73">
-        <v>214</v>
+        <v>6190</v>
       </c>
       <c r="L73">
-        <v>172</v>
+        <v>3162</v>
       </c>
       <c r="M73">
-        <v>0.4724</v>
+        <v>0.5019</v>
       </c>
       <c r="N73">
-        <v>0.8037</v>
+        <v>0.5108</v>
       </c>
     </row>
     <row r="74">
@@ -4152,48 +3954,45 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C74">
-        <v>291</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.1271</v>
-      </c>
-      <c r="G74">
-        <v>0.4595</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:54:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J74">
-        <v>11940</v>
+        <v>580</v>
       </c>
       <c r="K74">
-        <v>3880</v>
+        <v>164</v>
       </c>
       <c r="L74">
-        <v>2811</v>
+        <v>131</v>
       </c>
       <c r="M74">
-        <v>0.325</v>
+        <v>0.2828</v>
       </c>
       <c r="N74">
-        <v>0.7245</v>
+        <v>0.7988</v>
       </c>
     </row>
     <row r="75">
@@ -4204,48 +4003,45 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C75">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0.0556</v>
-      </c>
-      <c r="G75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J75">
-        <v>934</v>
+        <v>349</v>
       </c>
       <c r="K75">
-        <v>359</v>
+        <v>258</v>
       </c>
       <c r="L75">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="M75">
-        <v>0.3844</v>
+        <v>0.7393</v>
       </c>
       <c r="N75">
-        <v>0.7521</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="76">
@@ -4256,11 +4052,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4273,28 +4069,28 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J76">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="K76">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="L76">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M76">
-        <v>0.2564</v>
+        <v>0.3187</v>
       </c>
       <c r="N76">
-        <v>0.7851</v>
+        <v>0.4474</v>
       </c>
     </row>
     <row r="77">
@@ -4305,48 +4101,45 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>0.4</v>
-      </c>
-      <c r="G77">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J77">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="K77">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L77">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M77">
-        <v>0.4919</v>
+        <v>0.5358000000000001</v>
       </c>
       <c r="N77">
-        <v>0.6978</v>
+        <v>0.7433</v>
       </c>
     </row>
     <row r="78">
@@ -4357,11 +4150,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4374,28 +4167,28 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J78">
-        <v>632</v>
+        <v>2155</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>919</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="M78">
-        <v>0.0016</v>
+        <v>0.4265</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="79">
@@ -4406,45 +4199,45 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J79">
-        <v>372</v>
+        <v>1237</v>
       </c>
       <c r="K79">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="L79">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="M79">
-        <v>0.5376</v>
+        <v>0.2352</v>
       </c>
       <c r="N79">
-        <v>0.74</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="80">
@@ -4455,48 +4248,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C80">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.32</v>
-      </c>
-      <c r="G80">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J80">
-        <v>1352</v>
+        <v>471</v>
       </c>
       <c r="K80">
-        <v>661</v>
+        <v>234</v>
       </c>
       <c r="L80">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="M80">
-        <v>0.4889</v>
+        <v>0.4968</v>
       </c>
       <c r="N80">
-        <v>0.5371</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="81">
@@ -4507,48 +4297,45 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>0.0476</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J81">
-        <v>1031</v>
+        <v>477</v>
       </c>
       <c r="K81">
-        <v>653</v>
+        <v>438</v>
       </c>
       <c r="L81">
-        <v>532</v>
+        <v>166</v>
       </c>
       <c r="M81">
-        <v>0.6334</v>
+        <v>0.9182</v>
       </c>
       <c r="N81">
-        <v>0.8147</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="82">
@@ -4559,48 +4346,45 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>1</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
       <c r="F82">
-        <v>0.0556</v>
-      </c>
-      <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J82">
-        <v>592</v>
+        <v>331</v>
       </c>
       <c r="K82">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="L82">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="M82">
-        <v>0.07770000000000001</v>
+        <v>0.6888</v>
       </c>
       <c r="N82">
-        <v>0.8043</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="83">
@@ -4611,48 +4395,45 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.1875</v>
-      </c>
-      <c r="G83">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J83">
-        <v>318</v>
+        <v>618</v>
       </c>
       <c r="K83">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="L83">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M83">
-        <v>0.3491</v>
+        <v>0.2929</v>
       </c>
       <c r="N83">
-        <v>0.8559</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="84">
@@ -4663,48 +4444,45 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>0.2727</v>
-      </c>
-      <c r="G84">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J84">
-        <v>454</v>
+        <v>1085</v>
       </c>
       <c r="K84">
-        <v>188</v>
+        <v>674</v>
       </c>
       <c r="L84">
-        <v>150</v>
+        <v>582</v>
       </c>
       <c r="M84">
-        <v>0.4141</v>
+        <v>0.6212</v>
       </c>
       <c r="N84">
-        <v>0.7979000000000001</v>
+        <v>0.8635</v>
       </c>
     </row>
     <row r="85">
@@ -4715,45 +4493,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J85">
-        <v>453</v>
+        <v>1386</v>
       </c>
       <c r="K85">
-        <v>214</v>
+        <v>1158</v>
       </c>
       <c r="L85">
-        <v>172</v>
+        <v>390</v>
       </c>
       <c r="M85">
-        <v>0.4724</v>
+        <v>0.8355</v>
       </c>
       <c r="N85">
-        <v>0.8037</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="86">
@@ -4764,48 +4542,45 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C86">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.3793</v>
-      </c>
-      <c r="G86">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J86">
-        <v>1198</v>
+        <v>381</v>
       </c>
       <c r="K86">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="L86">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="M86">
-        <v>0.1945</v>
+        <v>0.7612</v>
       </c>
       <c r="N86">
-        <v>0.6395</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="87">
@@ -4816,11 +4591,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C87">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4833,28 +4608,28 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J87">
-        <v>2067</v>
+        <v>659</v>
       </c>
       <c r="K87">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>0.1466</v>
+        <v>0.003</v>
       </c>
       <c r="N87">
-        <v>0.7591</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88">
@@ -4865,48 +4640,45 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88">
-        <v>0.4</v>
-      </c>
-      <c r="G88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J88">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="K88">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="L88">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="M88">
-        <v>0.4527</v>
+        <v>0.712</v>
       </c>
       <c r="N88">
-        <v>0.8038999999999999</v>
+        <v>0.6292</v>
       </c>
     </row>
     <row r="89">
@@ -4917,11 +4689,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4934,28 +4706,28 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J89">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="K89">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="L89">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="M89">
-        <v>0.1747</v>
+        <v>0.2964</v>
       </c>
       <c r="N89">
-        <v>0.7625</v>
+        <v>0.7007</v>
       </c>
     </row>
     <row r="90">
@@ -4966,48 +4738,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-22T08:03:06</t>
+          <t>2020-03-23T16:52:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J90">
-        <v>346</v>
+        <v>907</v>
       </c>
       <c r="K90">
-        <v>232</v>
+        <v>600</v>
       </c>
       <c r="L90">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="M90">
-        <v>0.6705</v>
+        <v>0.6615</v>
       </c>
       <c r="N90">
-        <v>0.6207</v>
+        <v>0.5183</v>
       </c>
     </row>
     <row r="91">
@@ -5018,45 +4787,927 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>291</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>17</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J91">
+        <v>12333</v>
+      </c>
+      <c r="K91">
+        <v>6190</v>
+      </c>
+      <c r="L91">
+        <v>3162</v>
+      </c>
+      <c r="M91">
+        <v>0.5019</v>
+      </c>
+      <c r="N91">
+        <v>0.5108</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>郑州</t>
         </is>
       </c>
-      <c r="C91">
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:54:00</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J92">
+        <v>580</v>
+      </c>
+      <c r="K92">
+        <v>164</v>
+      </c>
+      <c r="L92">
+        <v>131</v>
+      </c>
+      <c r="M92">
+        <v>0.2828</v>
+      </c>
+      <c r="N92">
+        <v>0.7988</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J93">
+        <v>349</v>
+      </c>
+      <c r="K93">
+        <v>258</v>
+      </c>
+      <c r="L93">
+        <v>161</v>
+      </c>
+      <c r="M93">
+        <v>0.7393</v>
+      </c>
+      <c r="N93">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J94">
+        <v>477</v>
+      </c>
+      <c r="K94">
+        <v>152</v>
+      </c>
+      <c r="L94">
+        <v>68</v>
+      </c>
+      <c r="M94">
+        <v>0.3187</v>
+      </c>
+      <c r="N94">
+        <v>0.4474</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C95">
         <v>6</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-03-22T08:03:06</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="J91">
-        <v>553</v>
-      </c>
-      <c r="K91">
-        <v>143</v>
-      </c>
-      <c r="L91">
-        <v>122</v>
-      </c>
-      <c r="M91">
-        <v>0.2586</v>
-      </c>
-      <c r="N91">
-        <v>0.8531</v>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J95">
+        <v>349</v>
+      </c>
+      <c r="K95">
+        <v>187</v>
+      </c>
+      <c r="L95">
+        <v>139</v>
+      </c>
+      <c r="M95">
+        <v>0.5358000000000001</v>
+      </c>
+      <c r="N95">
+        <v>0.7433</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>32</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J96">
+        <v>2155</v>
+      </c>
+      <c r="K96">
+        <v>919</v>
+      </c>
+      <c r="L96">
+        <v>242</v>
+      </c>
+      <c r="M96">
+        <v>0.4265</v>
+      </c>
+      <c r="N96">
+        <v>0.2633</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>21</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J97">
+        <v>1237</v>
+      </c>
+      <c r="K97">
+        <v>291</v>
+      </c>
+      <c r="L97">
+        <v>194</v>
+      </c>
+      <c r="M97">
+        <v>0.2352</v>
+      </c>
+      <c r="N97">
+        <v>0.6667</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J98">
+        <v>471</v>
+      </c>
+      <c r="K98">
+        <v>234</v>
+      </c>
+      <c r="L98">
+        <v>180</v>
+      </c>
+      <c r="M98">
+        <v>0.4968</v>
+      </c>
+      <c r="N98">
+        <v>0.7692</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J99">
+        <v>477</v>
+      </c>
+      <c r="K99">
+        <v>438</v>
+      </c>
+      <c r="L99">
+        <v>166</v>
+      </c>
+      <c r="M99">
+        <v>0.9182</v>
+      </c>
+      <c r="N99">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J100">
+        <v>331</v>
+      </c>
+      <c r="K100">
+        <v>228</v>
+      </c>
+      <c r="L100">
+        <v>105</v>
+      </c>
+      <c r="M100">
+        <v>0.6888</v>
+      </c>
+      <c r="N100">
+        <v>0.4605</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J101">
+        <v>618</v>
+      </c>
+      <c r="K101">
+        <v>181</v>
+      </c>
+      <c r="L101">
+        <v>38</v>
+      </c>
+      <c r="M101">
+        <v>0.2929</v>
+      </c>
+      <c r="N101">
+        <v>0.2099</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J102">
+        <v>1085</v>
+      </c>
+      <c r="K102">
+        <v>674</v>
+      </c>
+      <c r="L102">
+        <v>582</v>
+      </c>
+      <c r="M102">
+        <v>0.6212</v>
+      </c>
+      <c r="N102">
+        <v>0.8635</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J103">
+        <v>1386</v>
+      </c>
+      <c r="K103">
+        <v>1158</v>
+      </c>
+      <c r="L103">
+        <v>390</v>
+      </c>
+      <c r="M103">
+        <v>0.8355</v>
+      </c>
+      <c r="N103">
+        <v>0.3368</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J104">
+        <v>381</v>
+      </c>
+      <c r="K104">
+        <v>290</v>
+      </c>
+      <c r="L104">
+        <v>183</v>
+      </c>
+      <c r="M104">
+        <v>0.7612</v>
+      </c>
+      <c r="N104">
+        <v>0.631</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>14</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J105">
+        <v>659</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0.003</v>
+      </c>
+      <c r="N105">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J106">
+        <v>375</v>
+      </c>
+      <c r="K106">
+        <v>267</v>
+      </c>
+      <c r="L106">
+        <v>168</v>
+      </c>
+      <c r="M106">
+        <v>0.712</v>
+      </c>
+      <c r="N106">
+        <v>0.6292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J107">
+        <v>496</v>
+      </c>
+      <c r="K107">
+        <v>147</v>
+      </c>
+      <c r="L107">
+        <v>103</v>
+      </c>
+      <c r="M107">
+        <v>0.2964</v>
+      </c>
+      <c r="N107">
+        <v>0.7007</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>70</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J108">
+        <v>907</v>
+      </c>
+      <c r="K108">
+        <v>600</v>
+      </c>
+      <c r="L108">
+        <v>311</v>
+      </c>
+      <c r="M108">
+        <v>0.6615</v>
+      </c>
+      <c r="N108">
+        <v>0.5183</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2020-03-22T00:00:00</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>253</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>26</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2020-03-23T16:52:00</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J109">
+        <v>12333</v>
+      </c>
+      <c r="K109">
+        <v>6190</v>
+      </c>
+      <c r="L109">
+        <v>3162</v>
+      </c>
+      <c r="M109">
+        <v>0.5019</v>
+      </c>
+      <c r="N109">
+        <v>0.5108</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-23T16:54:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -452,19 +452,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M2">
-        <v>0.2828</v>
+        <v>0.2869</v>
       </c>
       <c r="N2">
-        <v>0.7988</v>
+        <v>0.8107</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -504,16 +504,16 @@
         <v>349</v>
       </c>
       <c r="K3">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L3">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M3">
-        <v>0.7393</v>
+        <v>0.745</v>
       </c>
       <c r="N3">
-        <v>0.624</v>
+        <v>0.6346000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="J4">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K4">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="L4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M4">
-        <v>0.3187</v>
+        <v>0.5593</v>
       </c>
       <c r="N4">
-        <v>0.4474</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -602,16 +602,16 @@
         <v>349</v>
       </c>
       <c r="K5">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L5">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M5">
-        <v>0.5358000000000001</v>
+        <v>0.5501</v>
       </c>
       <c r="N5">
-        <v>0.7433</v>
+        <v>0.7448</v>
       </c>
     </row>
     <row r="6">
@@ -639,7 +639,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="K6">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="L6">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M6">
-        <v>0.4265</v>
+        <v>0.4276</v>
       </c>
       <c r="N6">
-        <v>0.2633</v>
+        <v>0.2649</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +688,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="K7">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L7">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M7">
-        <v>0.2352</v>
+        <v>0.2558</v>
       </c>
       <c r="N7">
-        <v>0.6667</v>
+        <v>0.6824</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M8">
-        <v>0.4968</v>
+        <v>0.4979</v>
       </c>
       <c r="N8">
-        <v>0.7692</v>
+        <v>0.7745</v>
       </c>
     </row>
     <row r="9">
@@ -786,7 +786,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K9">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>0.9182</v>
+        <v>0.9146</v>
       </c>
       <c r="N9">
-        <v>0.379</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K10">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L10">
         <v>105</v>
       </c>
       <c r="M10">
-        <v>0.6888</v>
+        <v>0.6845</v>
       </c>
       <c r="N10">
-        <v>0.4605</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="11">
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K11">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>0.2929</v>
+        <v>0.3066</v>
       </c>
       <c r="N11">
-        <v>0.2099</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="12">
@@ -933,7 +933,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -942,19 +942,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="K12">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="L12">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M12">
-        <v>0.6212</v>
+        <v>0.6385</v>
       </c>
       <c r="N12">
-        <v>0.8635</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -991,19 +991,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="K13">
-        <v>1158</v>
+        <v>1328</v>
       </c>
       <c r="L13">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="M13">
-        <v>0.8355</v>
+        <v>0.9492</v>
       </c>
       <c r="N13">
-        <v>0.3368</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="14">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K14">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L14">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M14">
-        <v>0.7612</v>
+        <v>0.7766</v>
       </c>
       <c r="N14">
-        <v>0.631</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="J15">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1138,19 +1138,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K16">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="L16">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M16">
-        <v>0.712</v>
+        <v>0.7613</v>
       </c>
       <c r="N16">
-        <v>0.6292</v>
+        <v>0.6375999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1187,19 +1187,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K17">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L17">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>0.2964</v>
+        <v>0.3052</v>
       </c>
       <c r="N17">
-        <v>0.7007</v>
+        <v>0.7302999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="K18">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L18">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M18">
-        <v>0.6615</v>
+        <v>0.6402</v>
       </c>
       <c r="N18">
-        <v>0.5183</v>
+        <v>0.5273</v>
       </c>
     </row>
     <row r="19">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>12333</v>
+        <v>12443</v>
       </c>
       <c r="K19">
-        <v>6190</v>
+        <v>6597</v>
       </c>
       <c r="L19">
-        <v>3162</v>
+        <v>3266</v>
       </c>
       <c r="M19">
-        <v>0.5019</v>
+        <v>0.5302</v>
       </c>
       <c r="N19">
-        <v>0.5108</v>
+        <v>0.4951</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-23T16:54:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K20">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L20">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M20">
-        <v>0.2828</v>
+        <v>0.2869</v>
       </c>
       <c r="N20">
-        <v>0.7988</v>
+        <v>0.8107</v>
       </c>
     </row>
     <row r="21">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1386,16 +1386,16 @@
         <v>349</v>
       </c>
       <c r="K21">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L21">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M21">
-        <v>0.7393</v>
+        <v>0.745</v>
       </c>
       <c r="N21">
-        <v>0.624</v>
+        <v>0.6346000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="J22">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K22">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="L22">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M22">
-        <v>0.3187</v>
+        <v>0.5593</v>
       </c>
       <c r="N22">
-        <v>0.4474</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="23">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1484,16 +1484,16 @@
         <v>349</v>
       </c>
       <c r="K23">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L23">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M23">
-        <v>0.5358000000000001</v>
+        <v>0.5501</v>
       </c>
       <c r="N23">
-        <v>0.7433</v>
+        <v>0.7448</v>
       </c>
     </row>
     <row r="24">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="K24">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="L24">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M24">
-        <v>0.4265</v>
+        <v>0.4276</v>
       </c>
       <c r="N24">
-        <v>0.2633</v>
+        <v>0.2649</v>
       </c>
     </row>
     <row r="25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1579,19 +1579,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="K25">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L25">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M25">
-        <v>0.2352</v>
+        <v>0.2558</v>
       </c>
       <c r="N25">
-        <v>0.6667</v>
+        <v>0.6824</v>
       </c>
     </row>
     <row r="26">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="J26">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K26">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L26">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26">
-        <v>0.4968</v>
+        <v>0.4979</v>
       </c>
       <c r="N26">
-        <v>0.7692</v>
+        <v>0.7745</v>
       </c>
     </row>
     <row r="27">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1677,19 +1677,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K27">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M27">
-        <v>0.9182</v>
+        <v>0.9146</v>
       </c>
       <c r="N27">
-        <v>0.379</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="28">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1726,19 +1726,19 @@
         </is>
       </c>
       <c r="J28">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K28">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L28">
         <v>105</v>
       </c>
       <c r="M28">
-        <v>0.6888</v>
+        <v>0.6845</v>
       </c>
       <c r="N28">
-        <v>0.4605</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="29">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1775,19 +1775,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K29">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>0.2929</v>
+        <v>0.3066</v>
       </c>
       <c r="N29">
-        <v>0.2099</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="30">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="K30">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="L30">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M30">
-        <v>0.6212</v>
+        <v>0.6385</v>
       </c>
       <c r="N30">
-        <v>0.8635</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="31">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="K31">
-        <v>1158</v>
+        <v>1328</v>
       </c>
       <c r="L31">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="M31">
-        <v>0.8355</v>
+        <v>0.9492</v>
       </c>
       <c r="N31">
-        <v>0.3368</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="32">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K32">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L32">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M32">
-        <v>0.7612</v>
+        <v>0.7766</v>
       </c>
       <c r="N32">
-        <v>0.631</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="33">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="J33">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K34">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="L34">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M34">
-        <v>0.712</v>
+        <v>0.7613</v>
       </c>
       <c r="N34">
-        <v>0.6292</v>
+        <v>0.6375999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2069,19 +2069,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K35">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L35">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M35">
-        <v>0.2964</v>
+        <v>0.3052</v>
       </c>
       <c r="N35">
-        <v>0.7007</v>
+        <v>0.7302999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2118,19 +2118,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="K36">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L36">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M36">
-        <v>0.6615</v>
+        <v>0.6402</v>
       </c>
       <c r="N36">
-        <v>0.5183</v>
+        <v>0.5273</v>
       </c>
     </row>
     <row r="37">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2167,19 +2167,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>12333</v>
+        <v>12443</v>
       </c>
       <c r="K37">
-        <v>6190</v>
+        <v>6597</v>
       </c>
       <c r="L37">
-        <v>3162</v>
+        <v>3266</v>
       </c>
       <c r="M37">
-        <v>0.5019</v>
+        <v>0.5302</v>
       </c>
       <c r="N37">
-        <v>0.5108</v>
+        <v>0.4951</v>
       </c>
     </row>
     <row r="38">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-23T16:54:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="J38">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K38">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L38">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M38">
-        <v>0.2828</v>
+        <v>0.2869</v>
       </c>
       <c r="N38">
-        <v>0.7988</v>
+        <v>0.8107</v>
       </c>
     </row>
     <row r="39">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2268,16 +2268,16 @@
         <v>349</v>
       </c>
       <c r="K39">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L39">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M39">
-        <v>0.7393</v>
+        <v>0.745</v>
       </c>
       <c r="N39">
-        <v>0.624</v>
+        <v>0.6346000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="J40">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K40">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="L40">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M40">
-        <v>0.3187</v>
+        <v>0.5593</v>
       </c>
       <c r="N40">
-        <v>0.4474</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="41">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2366,16 +2366,16 @@
         <v>349</v>
       </c>
       <c r="K41">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L41">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M41">
-        <v>0.5358000000000001</v>
+        <v>0.5501</v>
       </c>
       <c r="N41">
-        <v>0.7433</v>
+        <v>0.7448</v>
       </c>
     </row>
     <row r="42">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="J42">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="K42">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="L42">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M42">
-        <v>0.4265</v>
+        <v>0.4276</v>
       </c>
       <c r="N42">
-        <v>0.2633</v>
+        <v>0.2649</v>
       </c>
     </row>
     <row r="43">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2461,19 +2461,19 @@
         </is>
       </c>
       <c r="J43">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="K43">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L43">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M43">
-        <v>0.2352</v>
+        <v>0.2558</v>
       </c>
       <c r="N43">
-        <v>0.6667</v>
+        <v>0.6824</v>
       </c>
     </row>
     <row r="44">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2510,19 +2510,19 @@
         </is>
       </c>
       <c r="J44">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K44">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L44">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M44">
-        <v>0.4968</v>
+        <v>0.4979</v>
       </c>
       <c r="N44">
-        <v>0.7692</v>
+        <v>0.7745</v>
       </c>
     </row>
     <row r="45">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2559,19 +2559,19 @@
         </is>
       </c>
       <c r="J45">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K45">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L45">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M45">
-        <v>0.9182</v>
+        <v>0.9146</v>
       </c>
       <c r="N45">
-        <v>0.379</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="46">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="J46">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K46">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L46">
         <v>105</v>
       </c>
       <c r="M46">
-        <v>0.6888</v>
+        <v>0.6845</v>
       </c>
       <c r="N46">
-        <v>0.4605</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="47">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2657,19 +2657,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K47">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>0.2929</v>
+        <v>0.3066</v>
       </c>
       <c r="N47">
-        <v>0.2099</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="48">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="J48">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="K48">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="L48">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M48">
-        <v>0.6212</v>
+        <v>0.6385</v>
       </c>
       <c r="N48">
-        <v>0.8635</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="49">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2755,19 +2755,19 @@
         </is>
       </c>
       <c r="J49">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="K49">
-        <v>1158</v>
+        <v>1328</v>
       </c>
       <c r="L49">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="M49">
-        <v>0.8355</v>
+        <v>0.9492</v>
       </c>
       <c r="N49">
-        <v>0.3368</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="50">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="J50">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K50">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L50">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M50">
-        <v>0.7612</v>
+        <v>0.7766</v>
       </c>
       <c r="N50">
-        <v>0.631</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="51">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="J51">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2902,19 +2902,19 @@
         </is>
       </c>
       <c r="J52">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K52">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="L52">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M52">
-        <v>0.712</v>
+        <v>0.7613</v>
       </c>
       <c r="N52">
-        <v>0.6292</v>
+        <v>0.6375999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2951,19 +2951,19 @@
         </is>
       </c>
       <c r="J53">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K53">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L53">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M53">
-        <v>0.2964</v>
+        <v>0.3052</v>
       </c>
       <c r="N53">
-        <v>0.7007</v>
+        <v>0.7302999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="K54">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L54">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M54">
-        <v>0.6615</v>
+        <v>0.6402</v>
       </c>
       <c r="N54">
-        <v>0.5183</v>
+        <v>0.5273</v>
       </c>
     </row>
     <row r="55">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3049,19 +3049,19 @@
         </is>
       </c>
       <c r="J55">
-        <v>12333</v>
+        <v>12443</v>
       </c>
       <c r="K55">
-        <v>6190</v>
+        <v>6597</v>
       </c>
       <c r="L55">
-        <v>3162</v>
+        <v>3266</v>
       </c>
       <c r="M55">
-        <v>0.5019</v>
+        <v>0.5302</v>
       </c>
       <c r="N55">
-        <v>0.5108</v>
+        <v>0.4951</v>
       </c>
     </row>
     <row r="56">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-23T16:54:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3098,19 +3098,19 @@
         </is>
       </c>
       <c r="J56">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K56">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L56">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M56">
-        <v>0.2828</v>
+        <v>0.2869</v>
       </c>
       <c r="N56">
-        <v>0.7988</v>
+        <v>0.8107</v>
       </c>
     </row>
     <row r="57">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3150,16 +3150,16 @@
         <v>349</v>
       </c>
       <c r="K57">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L57">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M57">
-        <v>0.7393</v>
+        <v>0.745</v>
       </c>
       <c r="N57">
-        <v>0.624</v>
+        <v>0.6346000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="J58">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K58">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="L58">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M58">
-        <v>0.3187</v>
+        <v>0.5593</v>
       </c>
       <c r="N58">
-        <v>0.4474</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="59">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3248,16 +3248,16 @@
         <v>349</v>
       </c>
       <c r="K59">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L59">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M59">
-        <v>0.5358000000000001</v>
+        <v>0.5501</v>
       </c>
       <c r="N59">
-        <v>0.7433</v>
+        <v>0.7448</v>
       </c>
     </row>
     <row r="60">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3294,19 +3294,19 @@
         </is>
       </c>
       <c r="J60">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="K60">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="L60">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M60">
-        <v>0.4265</v>
+        <v>0.4276</v>
       </c>
       <c r="N60">
-        <v>0.2633</v>
+        <v>0.2649</v>
       </c>
     </row>
     <row r="61">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3343,19 +3343,19 @@
         </is>
       </c>
       <c r="J61">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="K61">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L61">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M61">
-        <v>0.2352</v>
+        <v>0.2558</v>
       </c>
       <c r="N61">
-        <v>0.6667</v>
+        <v>0.6824</v>
       </c>
     </row>
     <row r="62">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3392,19 +3392,19 @@
         </is>
       </c>
       <c r="J62">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K62">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L62">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M62">
-        <v>0.4968</v>
+        <v>0.4979</v>
       </c>
       <c r="N62">
-        <v>0.7692</v>
+        <v>0.7745</v>
       </c>
     </row>
     <row r="63">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3441,19 +3441,19 @@
         </is>
       </c>
       <c r="J63">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K63">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L63">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M63">
-        <v>0.9182</v>
+        <v>0.9146</v>
       </c>
       <c r="N63">
-        <v>0.379</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="64">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3490,19 +3490,19 @@
         </is>
       </c>
       <c r="J64">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K64">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L64">
         <v>105</v>
       </c>
       <c r="M64">
-        <v>0.6888</v>
+        <v>0.6845</v>
       </c>
       <c r="N64">
-        <v>0.4605</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="65">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3539,19 +3539,19 @@
         </is>
       </c>
       <c r="J65">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K65">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L65">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M65">
-        <v>0.2929</v>
+        <v>0.3066</v>
       </c>
       <c r="N65">
-        <v>0.2099</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="66">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3588,19 +3588,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="K66">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="L66">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M66">
-        <v>0.6212</v>
+        <v>0.6385</v>
       </c>
       <c r="N66">
-        <v>0.8635</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="67">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="J67">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="K67">
-        <v>1158</v>
+        <v>1328</v>
       </c>
       <c r="L67">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="M67">
-        <v>0.8355</v>
+        <v>0.9492</v>
       </c>
       <c r="N67">
-        <v>0.3368</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="68">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3686,19 +3686,19 @@
         </is>
       </c>
       <c r="J68">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K68">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L68">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M68">
-        <v>0.7612</v>
+        <v>0.7766</v>
       </c>
       <c r="N68">
-        <v>0.631</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="69">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="J69">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3784,19 +3784,19 @@
         </is>
       </c>
       <c r="J70">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K70">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="L70">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M70">
-        <v>0.712</v>
+        <v>0.7613</v>
       </c>
       <c r="N70">
-        <v>0.6292</v>
+        <v>0.6375999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3833,19 +3833,19 @@
         </is>
       </c>
       <c r="J71">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K71">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L71">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M71">
-        <v>0.2964</v>
+        <v>0.3052</v>
       </c>
       <c r="N71">
-        <v>0.7007</v>
+        <v>0.7302999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3882,19 +3882,19 @@
         </is>
       </c>
       <c r="J72">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="K72">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L72">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M72">
-        <v>0.6615</v>
+        <v>0.6402</v>
       </c>
       <c r="N72">
-        <v>0.5183</v>
+        <v>0.5273</v>
       </c>
     </row>
     <row r="73">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3931,19 +3931,19 @@
         </is>
       </c>
       <c r="J73">
-        <v>12333</v>
+        <v>12443</v>
       </c>
       <c r="K73">
-        <v>6190</v>
+        <v>6597</v>
       </c>
       <c r="L73">
-        <v>3162</v>
+        <v>3266</v>
       </c>
       <c r="M73">
-        <v>0.5019</v>
+        <v>0.5302</v>
       </c>
       <c r="N73">
-        <v>0.5108</v>
+        <v>0.4951</v>
       </c>
     </row>
     <row r="74">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-23T16:54:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3980,19 +3980,19 @@
         </is>
       </c>
       <c r="J74">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K74">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L74">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M74">
-        <v>0.2828</v>
+        <v>0.2869</v>
       </c>
       <c r="N74">
-        <v>0.7988</v>
+        <v>0.8107</v>
       </c>
     </row>
     <row r="75">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4032,16 +4032,16 @@
         <v>349</v>
       </c>
       <c r="K75">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L75">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M75">
-        <v>0.7393</v>
+        <v>0.745</v>
       </c>
       <c r="N75">
-        <v>0.624</v>
+        <v>0.6346000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4078,19 +4078,19 @@
         </is>
       </c>
       <c r="J76">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K76">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="L76">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M76">
-        <v>0.3187</v>
+        <v>0.5593</v>
       </c>
       <c r="N76">
-        <v>0.4474</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="77">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4130,16 +4130,16 @@
         <v>349</v>
       </c>
       <c r="K77">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L77">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M77">
-        <v>0.5358000000000001</v>
+        <v>0.5501</v>
       </c>
       <c r="N77">
-        <v>0.7433</v>
+        <v>0.7448</v>
       </c>
     </row>
     <row r="78">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4176,19 +4176,19 @@
         </is>
       </c>
       <c r="J78">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="K78">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="L78">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M78">
-        <v>0.4265</v>
+        <v>0.4276</v>
       </c>
       <c r="N78">
-        <v>0.2633</v>
+        <v>0.2649</v>
       </c>
     </row>
     <row r="79">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4225,19 +4225,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="K79">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L79">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M79">
-        <v>0.2352</v>
+        <v>0.2558</v>
       </c>
       <c r="N79">
-        <v>0.6667</v>
+        <v>0.6824</v>
       </c>
     </row>
     <row r="80">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4274,19 +4274,19 @@
         </is>
       </c>
       <c r="J80">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K80">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L80">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M80">
-        <v>0.4968</v>
+        <v>0.4979</v>
       </c>
       <c r="N80">
-        <v>0.7692</v>
+        <v>0.7745</v>
       </c>
     </row>
     <row r="81">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4323,19 +4323,19 @@
         </is>
       </c>
       <c r="J81">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K81">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M81">
-        <v>0.9182</v>
+        <v>0.9146</v>
       </c>
       <c r="N81">
-        <v>0.379</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="82">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4372,19 +4372,19 @@
         </is>
       </c>
       <c r="J82">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K82">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L82">
         <v>105</v>
       </c>
       <c r="M82">
-        <v>0.6888</v>
+        <v>0.6845</v>
       </c>
       <c r="N82">
-        <v>0.4605</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="83">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4421,19 +4421,19 @@
         </is>
       </c>
       <c r="J83">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K83">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L83">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M83">
-        <v>0.2929</v>
+        <v>0.3066</v>
       </c>
       <c r="N83">
-        <v>0.2099</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="84">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4470,19 +4470,19 @@
         </is>
       </c>
       <c r="J84">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="K84">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="L84">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M84">
-        <v>0.6212</v>
+        <v>0.6385</v>
       </c>
       <c r="N84">
-        <v>0.8635</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="85">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4519,19 +4519,19 @@
         </is>
       </c>
       <c r="J85">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="K85">
-        <v>1158</v>
+        <v>1328</v>
       </c>
       <c r="L85">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="M85">
-        <v>0.8355</v>
+        <v>0.9492</v>
       </c>
       <c r="N85">
-        <v>0.3368</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="86">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4568,19 +4568,19 @@
         </is>
       </c>
       <c r="J86">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K86">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L86">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M86">
-        <v>0.7612</v>
+        <v>0.7766</v>
       </c>
       <c r="N86">
-        <v>0.631</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="87">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="J87">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4666,19 +4666,19 @@
         </is>
       </c>
       <c r="J88">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K88">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="L88">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M88">
-        <v>0.712</v>
+        <v>0.7613</v>
       </c>
       <c r="N88">
-        <v>0.6292</v>
+        <v>0.6375999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4715,19 +4715,19 @@
         </is>
       </c>
       <c r="J89">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K89">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L89">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M89">
-        <v>0.2964</v>
+        <v>0.3052</v>
       </c>
       <c r="N89">
-        <v>0.7007</v>
+        <v>0.7302999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4764,19 +4764,19 @@
         </is>
       </c>
       <c r="J90">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="K90">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L90">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M90">
-        <v>0.6615</v>
+        <v>0.6402</v>
       </c>
       <c r="N90">
-        <v>0.5183</v>
+        <v>0.5273</v>
       </c>
     </row>
     <row r="91">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4813,19 +4813,19 @@
         </is>
       </c>
       <c r="J91">
-        <v>12333</v>
+        <v>12443</v>
       </c>
       <c r="K91">
-        <v>6190</v>
+        <v>6597</v>
       </c>
       <c r="L91">
-        <v>3162</v>
+        <v>3266</v>
       </c>
       <c r="M91">
-        <v>0.5019</v>
+        <v>0.5302</v>
       </c>
       <c r="N91">
-        <v>0.5108</v>
+        <v>0.4951</v>
       </c>
     </row>
     <row r="92">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-23T16:54:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4862,19 +4862,19 @@
         </is>
       </c>
       <c r="J92">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K92">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L92">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M92">
-        <v>0.2828</v>
+        <v>0.2869</v>
       </c>
       <c r="N92">
-        <v>0.7988</v>
+        <v>0.8107</v>
       </c>
     </row>
     <row r="93">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4914,16 +4914,16 @@
         <v>349</v>
       </c>
       <c r="K93">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L93">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M93">
-        <v>0.7393</v>
+        <v>0.745</v>
       </c>
       <c r="N93">
-        <v>0.624</v>
+        <v>0.6346000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4960,19 +4960,19 @@
         </is>
       </c>
       <c r="J94">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K94">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="L94">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M94">
-        <v>0.3187</v>
+        <v>0.5593</v>
       </c>
       <c r="N94">
-        <v>0.4474</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="95">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5012,16 +5012,16 @@
         <v>349</v>
       </c>
       <c r="K95">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L95">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M95">
-        <v>0.5358000000000001</v>
+        <v>0.5501</v>
       </c>
       <c r="N95">
-        <v>0.7433</v>
+        <v>0.7448</v>
       </c>
     </row>
     <row r="96">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5058,19 +5058,19 @@
         </is>
       </c>
       <c r="J96">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="K96">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="L96">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M96">
-        <v>0.4265</v>
+        <v>0.4276</v>
       </c>
       <c r="N96">
-        <v>0.2633</v>
+        <v>0.2649</v>
       </c>
     </row>
     <row r="97">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5107,19 +5107,19 @@
         </is>
       </c>
       <c r="J97">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="K97">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L97">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M97">
-        <v>0.2352</v>
+        <v>0.2558</v>
       </c>
       <c r="N97">
-        <v>0.6667</v>
+        <v>0.6824</v>
       </c>
     </row>
     <row r="98">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5156,19 +5156,19 @@
         </is>
       </c>
       <c r="J98">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K98">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L98">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M98">
-        <v>0.4968</v>
+        <v>0.4979</v>
       </c>
       <c r="N98">
-        <v>0.7692</v>
+        <v>0.7745</v>
       </c>
     </row>
     <row r="99">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5205,19 +5205,19 @@
         </is>
       </c>
       <c r="J99">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K99">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L99">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M99">
-        <v>0.9182</v>
+        <v>0.9146</v>
       </c>
       <c r="N99">
-        <v>0.379</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="100">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="J100">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K100">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L100">
         <v>105</v>
       </c>
       <c r="M100">
-        <v>0.6888</v>
+        <v>0.6845</v>
       </c>
       <c r="N100">
-        <v>0.4605</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="101">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5303,19 +5303,19 @@
         </is>
       </c>
       <c r="J101">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K101">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L101">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M101">
-        <v>0.2929</v>
+        <v>0.3066</v>
       </c>
       <c r="N101">
-        <v>0.2099</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="102">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5352,19 +5352,19 @@
         </is>
       </c>
       <c r="J102">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="K102">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="L102">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M102">
-        <v>0.6212</v>
+        <v>0.6385</v>
       </c>
       <c r="N102">
-        <v>0.8635</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="103">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5401,19 +5401,19 @@
         </is>
       </c>
       <c r="J103">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="K103">
-        <v>1158</v>
+        <v>1328</v>
       </c>
       <c r="L103">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="M103">
-        <v>0.8355</v>
+        <v>0.9492</v>
       </c>
       <c r="N103">
-        <v>0.3368</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="104">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5450,19 +5450,19 @@
         </is>
       </c>
       <c r="J104">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K104">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L104">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M104">
-        <v>0.7612</v>
+        <v>0.7766</v>
       </c>
       <c r="N104">
-        <v>0.631</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="105">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="J105">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5548,19 +5548,19 @@
         </is>
       </c>
       <c r="J106">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K106">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="L106">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M106">
-        <v>0.712</v>
+        <v>0.7613</v>
       </c>
       <c r="N106">
-        <v>0.6292</v>
+        <v>0.6375999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5597,19 +5597,19 @@
         </is>
       </c>
       <c r="J107">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K107">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L107">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M107">
-        <v>0.2964</v>
+        <v>0.3052</v>
       </c>
       <c r="N107">
-        <v>0.7007</v>
+        <v>0.7302999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5646,19 +5646,19 @@
         </is>
       </c>
       <c r="J108">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="K108">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L108">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M108">
-        <v>0.6615</v>
+        <v>0.6402</v>
       </c>
       <c r="N108">
-        <v>0.5183</v>
+        <v>0.5273</v>
       </c>
     </row>
     <row r="109">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-23T16:52:00</t>
+          <t>2020-03-24T08:03:07</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5695,19 +5695,952 @@
         </is>
       </c>
       <c r="J109">
-        <v>12333</v>
+        <v>12443</v>
       </c>
       <c r="K109">
-        <v>6190</v>
+        <v>6597</v>
       </c>
       <c r="L109">
-        <v>3162</v>
+        <v>3266</v>
       </c>
       <c r="M109">
-        <v>0.5019</v>
+        <v>0.5302</v>
       </c>
       <c r="N109">
-        <v>0.5108</v>
+        <v>0.4951</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0.0833</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J110">
+        <v>589</v>
+      </c>
+      <c r="K110">
+        <v>169</v>
+      </c>
+      <c r="L110">
+        <v>137</v>
+      </c>
+      <c r="M110">
+        <v>0.2869</v>
+      </c>
+      <c r="N110">
+        <v>0.8107</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J111">
+        <v>349</v>
+      </c>
+      <c r="K111">
+        <v>260</v>
+      </c>
+      <c r="L111">
+        <v>165</v>
+      </c>
+      <c r="M111">
+        <v>0.745</v>
+      </c>
+      <c r="N111">
+        <v>0.6346000000000001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0.4545</v>
+      </c>
+      <c r="G112">
+        <v>0.2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J112">
+        <v>481</v>
+      </c>
+      <c r="K112">
+        <v>269</v>
+      </c>
+      <c r="L112">
+        <v>72</v>
+      </c>
+      <c r="M112">
+        <v>0.5593</v>
+      </c>
+      <c r="N112">
+        <v>0.2677</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0.5</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J113">
+        <v>349</v>
+      </c>
+      <c r="K113">
+        <v>192</v>
+      </c>
+      <c r="L113">
+        <v>143</v>
+      </c>
+      <c r="M113">
+        <v>0.5501</v>
+      </c>
+      <c r="N113">
+        <v>0.7448</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>31</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.0968</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J114">
+        <v>2163</v>
+      </c>
+      <c r="K114">
+        <v>925</v>
+      </c>
+      <c r="L114">
+        <v>245</v>
+      </c>
+      <c r="M114">
+        <v>0.4276</v>
+      </c>
+      <c r="N114">
+        <v>0.2649</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>21</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="F115">
+        <v>0.381</v>
+      </c>
+      <c r="G115">
+        <v>0.75</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J115">
+        <v>1243</v>
+      </c>
+      <c r="K115">
+        <v>318</v>
+      </c>
+      <c r="L115">
+        <v>217</v>
+      </c>
+      <c r="M115">
+        <v>0.2558</v>
+      </c>
+      <c r="N115">
+        <v>0.6824</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0.25</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J116">
+        <v>472</v>
+      </c>
+      <c r="K116">
+        <v>235</v>
+      </c>
+      <c r="L116">
+        <v>182</v>
+      </c>
+      <c r="M116">
+        <v>0.4979</v>
+      </c>
+      <c r="N116">
+        <v>0.7745</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>11</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>0.7272999999999999</v>
+      </c>
+      <c r="G117">
+        <v>0.5</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J117">
+        <v>480</v>
+      </c>
+      <c r="K117">
+        <v>439</v>
+      </c>
+      <c r="L117">
+        <v>167</v>
+      </c>
+      <c r="M117">
+        <v>0.9146</v>
+      </c>
+      <c r="N117">
+        <v>0.3804</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0.2222</v>
+      </c>
+      <c r="G118">
+        <v>0.5</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J118">
+        <v>336</v>
+      </c>
+      <c r="K118">
+        <v>230</v>
+      </c>
+      <c r="L118">
+        <v>105</v>
+      </c>
+      <c r="M118">
+        <v>0.6845</v>
+      </c>
+      <c r="N118">
+        <v>0.4565</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>0.5833</v>
+      </c>
+      <c r="G119">
+        <v>0.2857</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J119">
+        <v>623</v>
+      </c>
+      <c r="K119">
+        <v>191</v>
+      </c>
+      <c r="L119">
+        <v>42</v>
+      </c>
+      <c r="M119">
+        <v>0.3066</v>
+      </c>
+      <c r="N119">
+        <v>0.2199</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>0.3</v>
+      </c>
+      <c r="G120">
+        <v>0.6667</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J120">
+        <v>1090</v>
+      </c>
+      <c r="K120">
+        <v>696</v>
+      </c>
+      <c r="L120">
+        <v>577</v>
+      </c>
+      <c r="M120">
+        <v>0.6385</v>
+      </c>
+      <c r="N120">
+        <v>0.829</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>14</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>0.6087</v>
+      </c>
+      <c r="G121">
+        <v>0.1429</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J121">
+        <v>1399</v>
+      </c>
+      <c r="K121">
+        <v>1328</v>
+      </c>
+      <c r="L121">
+        <v>408</v>
+      </c>
+      <c r="M121">
+        <v>0.9492</v>
+      </c>
+      <c r="N121">
+        <v>0.3072</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>0.6</v>
+      </c>
+      <c r="G122">
+        <v>0.6667</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J122">
+        <v>385</v>
+      </c>
+      <c r="K122">
+        <v>299</v>
+      </c>
+      <c r="L122">
+        <v>192</v>
+      </c>
+      <c r="M122">
+        <v>0.7766</v>
+      </c>
+      <c r="N122">
+        <v>0.6421</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J123">
+        <v>664</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0.003</v>
+      </c>
+      <c r="N123">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0.5</v>
+      </c>
+      <c r="G124">
+        <v>0.5</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J124">
+        <v>377</v>
+      </c>
+      <c r="K124">
+        <v>287</v>
+      </c>
+      <c r="L124">
+        <v>183</v>
+      </c>
+      <c r="M124">
+        <v>0.7613</v>
+      </c>
+      <c r="N124">
+        <v>0.6375999999999999</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0.375</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J125">
+        <v>498</v>
+      </c>
+      <c r="K125">
+        <v>152</v>
+      </c>
+      <c r="L125">
+        <v>111</v>
+      </c>
+      <c r="M125">
+        <v>0.3052</v>
+      </c>
+      <c r="N125">
+        <v>0.7302999999999999</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>85</v>
+      </c>
+      <c r="D126">
+        <v>16</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>0.1882</v>
+      </c>
+      <c r="G126">
+        <v>0.625</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J126">
+        <v>945</v>
+      </c>
+      <c r="K126">
+        <v>605</v>
+      </c>
+      <c r="L126">
+        <v>319</v>
+      </c>
+      <c r="M126">
+        <v>0.6402</v>
+      </c>
+      <c r="N126">
+        <v>0.5273</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2020-03-23T00:00:00</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>267</v>
+      </c>
+      <c r="D127">
+        <v>82</v>
+      </c>
+      <c r="E127">
+        <v>36</v>
+      </c>
+      <c r="F127">
+        <v>0.3071</v>
+      </c>
+      <c r="G127">
+        <v>0.439</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2020-03-24T08:03:07</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J127">
+        <v>12443</v>
+      </c>
+      <c r="K127">
+        <v>6597</v>
+      </c>
+      <c r="L127">
+        <v>3266</v>
+      </c>
+      <c r="M127">
+        <v>0.5302</v>
+      </c>
+      <c r="N127">
+        <v>0.4951</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -452,19 +452,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="K2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M2">
-        <v>0.2869</v>
+        <v>0.316</v>
       </c>
       <c r="N2">
-        <v>0.8107</v>
+        <v>0.7795</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -501,19 +501,19 @@
         </is>
       </c>
       <c r="J3">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K3">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="L3">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M3">
-        <v>0.745</v>
+        <v>0.8665</v>
       </c>
       <c r="N3">
-        <v>0.6346000000000001</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="J4">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K4">
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="L4">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>0.5593</v>
+        <v>0.8673</v>
       </c>
       <c r="N4">
-        <v>0.2677</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K5">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L5">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M5">
-        <v>0.5501</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="N5">
-        <v>0.7448</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="6">
@@ -639,7 +639,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>2163</v>
+        <v>2206</v>
       </c>
       <c r="K6">
-        <v>925</v>
+        <v>1099</v>
       </c>
       <c r="L6">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M6">
-        <v>0.4276</v>
+        <v>0.4982</v>
       </c>
       <c r="N6">
-        <v>0.2649</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +688,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="K7">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="L7">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M7">
-        <v>0.2558</v>
+        <v>0.3763</v>
       </c>
       <c r="N7">
-        <v>0.6824</v>
+        <v>0.4947</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K8">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L8">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M8">
-        <v>0.4979</v>
+        <v>0.5041</v>
       </c>
       <c r="N8">
-        <v>0.7745</v>
+        <v>0.7796</v>
       </c>
     </row>
     <row r="9">
@@ -786,7 +786,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K9">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L9">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M9">
-        <v>0.9146</v>
+        <v>0.9237</v>
       </c>
       <c r="N9">
-        <v>0.3804</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K10">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M10">
-        <v>0.6845</v>
+        <v>0.6764</v>
       </c>
       <c r="N10">
-        <v>0.4565</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="11">
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K11">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>0.3066</v>
+        <v>0.4408</v>
       </c>
       <c r="N11">
-        <v>0.2199</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="12">
@@ -933,7 +933,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -942,19 +942,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="K12">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="L12">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M12">
-        <v>0.6385</v>
+        <v>0.6488</v>
       </c>
       <c r="N12">
-        <v>0.829</v>
+        <v>0.8264</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -991,19 +991,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="K13">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="L13">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M13">
-        <v>0.9492</v>
+        <v>0.9657</v>
       </c>
       <c r="N13">
-        <v>0.3072</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="14">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K14">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L14">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M14">
-        <v>0.7766</v>
+        <v>0.798</v>
       </c>
       <c r="N14">
-        <v>0.6421</v>
+        <v>0.6699000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="J15">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="N15">
         <v>0.5</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1138,19 +1138,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K16">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L16">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M16">
-        <v>0.7613</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="N16">
-        <v>0.6375999999999999</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1187,19 +1187,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K17">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>0.3052</v>
+        <v>0.3249</v>
       </c>
       <c r="N17">
-        <v>0.7302999999999999</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>945</v>
+        <v>1012</v>
       </c>
       <c r="K18">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="L18">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M18">
-        <v>0.6402</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="N18">
-        <v>0.5273</v>
+        <v>0.5261</v>
       </c>
     </row>
     <row r="19">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>12443</v>
+        <v>12818</v>
       </c>
       <c r="K19">
-        <v>6597</v>
+        <v>7463</v>
       </c>
       <c r="L19">
-        <v>3266</v>
+        <v>3569</v>
       </c>
       <c r="M19">
-        <v>0.5302</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="N19">
-        <v>0.4951</v>
+        <v>0.4782</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="K20">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L20">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M20">
-        <v>0.2869</v>
+        <v>0.316</v>
       </c>
       <c r="N20">
-        <v>0.8107</v>
+        <v>0.7795</v>
       </c>
     </row>
     <row r="21">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1383,19 +1383,19 @@
         </is>
       </c>
       <c r="J21">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K21">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="L21">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M21">
-        <v>0.745</v>
+        <v>0.8665</v>
       </c>
       <c r="N21">
-        <v>0.6346000000000001</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="22">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="J22">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K22">
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="L22">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M22">
-        <v>0.5593</v>
+        <v>0.8673</v>
       </c>
       <c r="N22">
-        <v>0.2677</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="23">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K23">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L23">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M23">
-        <v>0.5501</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="N23">
-        <v>0.7448</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="24">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>2163</v>
+        <v>2206</v>
       </c>
       <c r="K24">
-        <v>925</v>
+        <v>1099</v>
       </c>
       <c r="L24">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M24">
-        <v>0.4276</v>
+        <v>0.4982</v>
       </c>
       <c r="N24">
-        <v>0.2649</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1579,19 +1579,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="K25">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="L25">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M25">
-        <v>0.2558</v>
+        <v>0.3763</v>
       </c>
       <c r="N25">
-        <v>0.6824</v>
+        <v>0.4947</v>
       </c>
     </row>
     <row r="26">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="J26">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K26">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L26">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M26">
-        <v>0.4979</v>
+        <v>0.5041</v>
       </c>
       <c r="N26">
-        <v>0.7745</v>
+        <v>0.7796</v>
       </c>
     </row>
     <row r="27">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1677,19 +1677,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K27">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L27">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M27">
-        <v>0.9146</v>
+        <v>0.9237</v>
       </c>
       <c r="N27">
-        <v>0.3804</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="28">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1726,19 +1726,19 @@
         </is>
       </c>
       <c r="J28">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K28">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L28">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M28">
-        <v>0.6845</v>
+        <v>0.6764</v>
       </c>
       <c r="N28">
-        <v>0.4565</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="29">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1775,19 +1775,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K29">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>0.3066</v>
+        <v>0.4408</v>
       </c>
       <c r="N29">
-        <v>0.2199</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="30">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="K30">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="L30">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M30">
-        <v>0.6385</v>
+        <v>0.6488</v>
       </c>
       <c r="N30">
-        <v>0.829</v>
+        <v>0.8264</v>
       </c>
     </row>
     <row r="31">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="K31">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="L31">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M31">
-        <v>0.9492</v>
+        <v>0.9657</v>
       </c>
       <c r="N31">
-        <v>0.3072</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="32">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K32">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L32">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M32">
-        <v>0.7766</v>
+        <v>0.798</v>
       </c>
       <c r="N32">
-        <v>0.6421</v>
+        <v>0.6699000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="J33">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="N33">
         <v>0.5</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K34">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L34">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M34">
-        <v>0.7613</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="N34">
-        <v>0.6375999999999999</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="35">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2069,19 +2069,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K35">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L35">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M35">
-        <v>0.3052</v>
+        <v>0.3249</v>
       </c>
       <c r="N35">
-        <v>0.7302999999999999</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="36">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2118,19 +2118,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>945</v>
+        <v>1012</v>
       </c>
       <c r="K36">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="L36">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M36">
-        <v>0.6402</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="N36">
-        <v>0.5273</v>
+        <v>0.5261</v>
       </c>
     </row>
     <row r="37">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2167,19 +2167,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>12443</v>
+        <v>12818</v>
       </c>
       <c r="K37">
-        <v>6597</v>
+        <v>7463</v>
       </c>
       <c r="L37">
-        <v>3266</v>
+        <v>3569</v>
       </c>
       <c r="M37">
-        <v>0.5302</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="N37">
-        <v>0.4951</v>
+        <v>0.4782</v>
       </c>
     </row>
     <row r="38">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="J38">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="K38">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L38">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M38">
-        <v>0.2869</v>
+        <v>0.316</v>
       </c>
       <c r="N38">
-        <v>0.8107</v>
+        <v>0.7795</v>
       </c>
     </row>
     <row r="39">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="J39">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K39">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="L39">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M39">
-        <v>0.745</v>
+        <v>0.8665</v>
       </c>
       <c r="N39">
-        <v>0.6346000000000001</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="40">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="J40">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K40">
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="L40">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M40">
-        <v>0.5593</v>
+        <v>0.8673</v>
       </c>
       <c r="N40">
-        <v>0.2677</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="41">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="J41">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K41">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L41">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M41">
-        <v>0.5501</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="N41">
-        <v>0.7448</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="42">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="J42">
-        <v>2163</v>
+        <v>2206</v>
       </c>
       <c r="K42">
-        <v>925</v>
+        <v>1099</v>
       </c>
       <c r="L42">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M42">
-        <v>0.4276</v>
+        <v>0.4982</v>
       </c>
       <c r="N42">
-        <v>0.2649</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="43">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2461,19 +2461,19 @@
         </is>
       </c>
       <c r="J43">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="K43">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="L43">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M43">
-        <v>0.2558</v>
+        <v>0.3763</v>
       </c>
       <c r="N43">
-        <v>0.6824</v>
+        <v>0.4947</v>
       </c>
     </row>
     <row r="44">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2510,19 +2510,19 @@
         </is>
       </c>
       <c r="J44">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K44">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L44">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M44">
-        <v>0.4979</v>
+        <v>0.5041</v>
       </c>
       <c r="N44">
-        <v>0.7745</v>
+        <v>0.7796</v>
       </c>
     </row>
     <row r="45">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2559,19 +2559,19 @@
         </is>
       </c>
       <c r="J45">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K45">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L45">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M45">
-        <v>0.9146</v>
+        <v>0.9237</v>
       </c>
       <c r="N45">
-        <v>0.3804</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="46">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="J46">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K46">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L46">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M46">
-        <v>0.6845</v>
+        <v>0.6764</v>
       </c>
       <c r="N46">
-        <v>0.4565</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="47">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2657,19 +2657,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K47">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>0.3066</v>
+        <v>0.4408</v>
       </c>
       <c r="N47">
-        <v>0.2199</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="48">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="J48">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="K48">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="L48">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M48">
-        <v>0.6385</v>
+        <v>0.6488</v>
       </c>
       <c r="N48">
-        <v>0.829</v>
+        <v>0.8264</v>
       </c>
     </row>
     <row r="49">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2755,19 +2755,19 @@
         </is>
       </c>
       <c r="J49">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="K49">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="L49">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M49">
-        <v>0.9492</v>
+        <v>0.9657</v>
       </c>
       <c r="N49">
-        <v>0.3072</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="50">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="J50">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K50">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L50">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M50">
-        <v>0.7766</v>
+        <v>0.798</v>
       </c>
       <c r="N50">
-        <v>0.6421</v>
+        <v>0.6699000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="J51">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="N51">
         <v>0.5</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2902,19 +2902,19 @@
         </is>
       </c>
       <c r="J52">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K52">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L52">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M52">
-        <v>0.7613</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="N52">
-        <v>0.6375999999999999</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="53">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2951,19 +2951,19 @@
         </is>
       </c>
       <c r="J53">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K53">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L53">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M53">
-        <v>0.3052</v>
+        <v>0.3249</v>
       </c>
       <c r="N53">
-        <v>0.7302999999999999</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="54">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>945</v>
+        <v>1012</v>
       </c>
       <c r="K54">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="L54">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M54">
-        <v>0.6402</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="N54">
-        <v>0.5273</v>
+        <v>0.5261</v>
       </c>
     </row>
     <row r="55">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3049,19 +3049,19 @@
         </is>
       </c>
       <c r="J55">
-        <v>12443</v>
+        <v>12818</v>
       </c>
       <c r="K55">
-        <v>6597</v>
+        <v>7463</v>
       </c>
       <c r="L55">
-        <v>3266</v>
+        <v>3569</v>
       </c>
       <c r="M55">
-        <v>0.5302</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="N55">
-        <v>0.4951</v>
+        <v>0.4782</v>
       </c>
     </row>
     <row r="56">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3098,19 +3098,19 @@
         </is>
       </c>
       <c r="J56">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="K56">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L56">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M56">
-        <v>0.2869</v>
+        <v>0.316</v>
       </c>
       <c r="N56">
-        <v>0.8107</v>
+        <v>0.7795</v>
       </c>
     </row>
     <row r="57">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="J57">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K57">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="L57">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M57">
-        <v>0.745</v>
+        <v>0.8665</v>
       </c>
       <c r="N57">
-        <v>0.6346000000000001</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="58">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="J58">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K58">
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="L58">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M58">
-        <v>0.5593</v>
+        <v>0.8673</v>
       </c>
       <c r="N58">
-        <v>0.2677</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="59">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3245,19 +3245,19 @@
         </is>
       </c>
       <c r="J59">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K59">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L59">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M59">
-        <v>0.5501</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="N59">
-        <v>0.7448</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="60">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3294,19 +3294,19 @@
         </is>
       </c>
       <c r="J60">
-        <v>2163</v>
+        <v>2206</v>
       </c>
       <c r="K60">
-        <v>925</v>
+        <v>1099</v>
       </c>
       <c r="L60">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M60">
-        <v>0.4276</v>
+        <v>0.4982</v>
       </c>
       <c r="N60">
-        <v>0.2649</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="61">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3343,19 +3343,19 @@
         </is>
       </c>
       <c r="J61">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="K61">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="L61">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M61">
-        <v>0.2558</v>
+        <v>0.3763</v>
       </c>
       <c r="N61">
-        <v>0.6824</v>
+        <v>0.4947</v>
       </c>
     </row>
     <row r="62">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3392,19 +3392,19 @@
         </is>
       </c>
       <c r="J62">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K62">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L62">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M62">
-        <v>0.4979</v>
+        <v>0.5041</v>
       </c>
       <c r="N62">
-        <v>0.7745</v>
+        <v>0.7796</v>
       </c>
     </row>
     <row r="63">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3441,19 +3441,19 @@
         </is>
       </c>
       <c r="J63">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K63">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L63">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M63">
-        <v>0.9146</v>
+        <v>0.9237</v>
       </c>
       <c r="N63">
-        <v>0.3804</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="64">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3490,19 +3490,19 @@
         </is>
       </c>
       <c r="J64">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K64">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L64">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M64">
-        <v>0.6845</v>
+        <v>0.6764</v>
       </c>
       <c r="N64">
-        <v>0.4565</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="65">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3539,19 +3539,19 @@
         </is>
       </c>
       <c r="J65">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K65">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="L65">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>0.3066</v>
+        <v>0.4408</v>
       </c>
       <c r="N65">
-        <v>0.2199</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="66">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3588,19 +3588,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="K66">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="L66">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M66">
-        <v>0.6385</v>
+        <v>0.6488</v>
       </c>
       <c r="N66">
-        <v>0.829</v>
+        <v>0.8264</v>
       </c>
     </row>
     <row r="67">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="J67">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="K67">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="L67">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M67">
-        <v>0.9492</v>
+        <v>0.9657</v>
       </c>
       <c r="N67">
-        <v>0.3072</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="68">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3686,19 +3686,19 @@
         </is>
       </c>
       <c r="J68">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K68">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L68">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M68">
-        <v>0.7766</v>
+        <v>0.798</v>
       </c>
       <c r="N68">
-        <v>0.6421</v>
+        <v>0.6699000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="J69">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="N69">
         <v>0.5</v>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3784,19 +3784,19 @@
         </is>
       </c>
       <c r="J70">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K70">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L70">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M70">
-        <v>0.7613</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="N70">
-        <v>0.6375999999999999</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="71">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3833,19 +3833,19 @@
         </is>
       </c>
       <c r="J71">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K71">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L71">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M71">
-        <v>0.3052</v>
+        <v>0.3249</v>
       </c>
       <c r="N71">
-        <v>0.7302999999999999</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="72">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3882,19 +3882,19 @@
         </is>
       </c>
       <c r="J72">
-        <v>945</v>
+        <v>1012</v>
       </c>
       <c r="K72">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="L72">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M72">
-        <v>0.6402</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="N72">
-        <v>0.5273</v>
+        <v>0.5261</v>
       </c>
     </row>
     <row r="73">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3931,19 +3931,19 @@
         </is>
       </c>
       <c r="J73">
-        <v>12443</v>
+        <v>12818</v>
       </c>
       <c r="K73">
-        <v>6597</v>
+        <v>7463</v>
       </c>
       <c r="L73">
-        <v>3266</v>
+        <v>3569</v>
       </c>
       <c r="M73">
-        <v>0.5302</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="N73">
-        <v>0.4951</v>
+        <v>0.4782</v>
       </c>
     </row>
     <row r="74">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3980,19 +3980,19 @@
         </is>
       </c>
       <c r="J74">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="K74">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L74">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M74">
-        <v>0.2869</v>
+        <v>0.316</v>
       </c>
       <c r="N74">
-        <v>0.8107</v>
+        <v>0.7795</v>
       </c>
     </row>
     <row r="75">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4029,19 +4029,19 @@
         </is>
       </c>
       <c r="J75">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K75">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="L75">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M75">
-        <v>0.745</v>
+        <v>0.8665</v>
       </c>
       <c r="N75">
-        <v>0.6346000000000001</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="76">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4078,19 +4078,19 @@
         </is>
       </c>
       <c r="J76">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K76">
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="L76">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M76">
-        <v>0.5593</v>
+        <v>0.8673</v>
       </c>
       <c r="N76">
-        <v>0.2677</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="77">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4127,19 +4127,19 @@
         </is>
       </c>
       <c r="J77">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K77">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L77">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M77">
-        <v>0.5501</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="N77">
-        <v>0.7448</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="78">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4176,19 +4176,19 @@
         </is>
       </c>
       <c r="J78">
-        <v>2163</v>
+        <v>2206</v>
       </c>
       <c r="K78">
-        <v>925</v>
+        <v>1099</v>
       </c>
       <c r="L78">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M78">
-        <v>0.4276</v>
+        <v>0.4982</v>
       </c>
       <c r="N78">
-        <v>0.2649</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="79">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4225,19 +4225,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="K79">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="L79">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M79">
-        <v>0.2558</v>
+        <v>0.3763</v>
       </c>
       <c r="N79">
-        <v>0.6824</v>
+        <v>0.4947</v>
       </c>
     </row>
     <row r="80">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4274,19 +4274,19 @@
         </is>
       </c>
       <c r="J80">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K80">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L80">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M80">
-        <v>0.4979</v>
+        <v>0.5041</v>
       </c>
       <c r="N80">
-        <v>0.7745</v>
+        <v>0.7796</v>
       </c>
     </row>
     <row r="81">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4323,19 +4323,19 @@
         </is>
       </c>
       <c r="J81">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K81">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L81">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M81">
-        <v>0.9146</v>
+        <v>0.9237</v>
       </c>
       <c r="N81">
-        <v>0.3804</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="82">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4372,19 +4372,19 @@
         </is>
       </c>
       <c r="J82">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K82">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L82">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M82">
-        <v>0.6845</v>
+        <v>0.6764</v>
       </c>
       <c r="N82">
-        <v>0.4565</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="83">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4421,19 +4421,19 @@
         </is>
       </c>
       <c r="J83">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K83">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="L83">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M83">
-        <v>0.3066</v>
+        <v>0.4408</v>
       </c>
       <c r="N83">
-        <v>0.2199</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="84">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4470,19 +4470,19 @@
         </is>
       </c>
       <c r="J84">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="K84">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="L84">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M84">
-        <v>0.6385</v>
+        <v>0.6488</v>
       </c>
       <c r="N84">
-        <v>0.829</v>
+        <v>0.8264</v>
       </c>
     </row>
     <row r="85">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4519,19 +4519,19 @@
         </is>
       </c>
       <c r="J85">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="K85">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="L85">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M85">
-        <v>0.9492</v>
+        <v>0.9657</v>
       </c>
       <c r="N85">
-        <v>0.3072</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="86">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4568,19 +4568,19 @@
         </is>
       </c>
       <c r="J86">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K86">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L86">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M86">
-        <v>0.7766</v>
+        <v>0.798</v>
       </c>
       <c r="N86">
-        <v>0.6421</v>
+        <v>0.6699000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="J87">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="M87">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="N87">
         <v>0.5</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4666,19 +4666,19 @@
         </is>
       </c>
       <c r="J88">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K88">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L88">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M88">
-        <v>0.7613</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="N88">
-        <v>0.6375999999999999</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="89">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4715,19 +4715,19 @@
         </is>
       </c>
       <c r="J89">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K89">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L89">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M89">
-        <v>0.3052</v>
+        <v>0.3249</v>
       </c>
       <c r="N89">
-        <v>0.7302999999999999</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="90">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4764,19 +4764,19 @@
         </is>
       </c>
       <c r="J90">
-        <v>945</v>
+        <v>1012</v>
       </c>
       <c r="K90">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="L90">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M90">
-        <v>0.6402</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="N90">
-        <v>0.5273</v>
+        <v>0.5261</v>
       </c>
     </row>
     <row r="91">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4813,19 +4813,19 @@
         </is>
       </c>
       <c r="J91">
-        <v>12443</v>
+        <v>12818</v>
       </c>
       <c r="K91">
-        <v>6597</v>
+        <v>7463</v>
       </c>
       <c r="L91">
-        <v>3266</v>
+        <v>3569</v>
       </c>
       <c r="M91">
-        <v>0.5302</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="N91">
-        <v>0.4951</v>
+        <v>0.4782</v>
       </c>
     </row>
     <row r="92">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4862,19 +4862,19 @@
         </is>
       </c>
       <c r="J92">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="K92">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L92">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M92">
-        <v>0.2869</v>
+        <v>0.316</v>
       </c>
       <c r="N92">
-        <v>0.8107</v>
+        <v>0.7795</v>
       </c>
     </row>
     <row r="93">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4911,19 +4911,19 @@
         </is>
       </c>
       <c r="J93">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K93">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="L93">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M93">
-        <v>0.745</v>
+        <v>0.8665</v>
       </c>
       <c r="N93">
-        <v>0.6346000000000001</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="94">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4960,19 +4960,19 @@
         </is>
       </c>
       <c r="J94">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K94">
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="L94">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M94">
-        <v>0.5593</v>
+        <v>0.8673</v>
       </c>
       <c r="N94">
-        <v>0.2677</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="95">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5009,19 +5009,19 @@
         </is>
       </c>
       <c r="J95">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K95">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L95">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M95">
-        <v>0.5501</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="N95">
-        <v>0.7448</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="96">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5058,19 +5058,19 @@
         </is>
       </c>
       <c r="J96">
-        <v>2163</v>
+        <v>2206</v>
       </c>
       <c r="K96">
-        <v>925</v>
+        <v>1099</v>
       </c>
       <c r="L96">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M96">
-        <v>0.4276</v>
+        <v>0.4982</v>
       </c>
       <c r="N96">
-        <v>0.2649</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="97">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5107,19 +5107,19 @@
         </is>
       </c>
       <c r="J97">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="K97">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="L97">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M97">
-        <v>0.2558</v>
+        <v>0.3763</v>
       </c>
       <c r="N97">
-        <v>0.6824</v>
+        <v>0.4947</v>
       </c>
     </row>
     <row r="98">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5156,19 +5156,19 @@
         </is>
       </c>
       <c r="J98">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K98">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L98">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M98">
-        <v>0.4979</v>
+        <v>0.5041</v>
       </c>
       <c r="N98">
-        <v>0.7745</v>
+        <v>0.7796</v>
       </c>
     </row>
     <row r="99">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5205,19 +5205,19 @@
         </is>
       </c>
       <c r="J99">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K99">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L99">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M99">
-        <v>0.9146</v>
+        <v>0.9237</v>
       </c>
       <c r="N99">
-        <v>0.3804</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="100">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="J100">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K100">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L100">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M100">
-        <v>0.6845</v>
+        <v>0.6764</v>
       </c>
       <c r="N100">
-        <v>0.4565</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="101">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5303,19 +5303,19 @@
         </is>
       </c>
       <c r="J101">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K101">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="L101">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M101">
-        <v>0.3066</v>
+        <v>0.4408</v>
       </c>
       <c r="N101">
-        <v>0.2199</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="102">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5352,19 +5352,19 @@
         </is>
       </c>
       <c r="J102">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="K102">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="L102">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M102">
-        <v>0.6385</v>
+        <v>0.6488</v>
       </c>
       <c r="N102">
-        <v>0.829</v>
+        <v>0.8264</v>
       </c>
     </row>
     <row r="103">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5401,19 +5401,19 @@
         </is>
       </c>
       <c r="J103">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="K103">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="L103">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M103">
-        <v>0.9492</v>
+        <v>0.9657</v>
       </c>
       <c r="N103">
-        <v>0.3072</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="104">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5450,19 +5450,19 @@
         </is>
       </c>
       <c r="J104">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K104">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L104">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M104">
-        <v>0.7766</v>
+        <v>0.798</v>
       </c>
       <c r="N104">
-        <v>0.6421</v>
+        <v>0.6699000000000001</v>
       </c>
     </row>
     <row r="105">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="J105">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="M105">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="N105">
         <v>0.5</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5548,19 +5548,19 @@
         </is>
       </c>
       <c r="J106">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K106">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L106">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M106">
-        <v>0.7613</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="N106">
-        <v>0.6375999999999999</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="107">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5597,19 +5597,19 @@
         </is>
       </c>
       <c r="J107">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K107">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L107">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M107">
-        <v>0.3052</v>
+        <v>0.3249</v>
       </c>
       <c r="N107">
-        <v>0.7302999999999999</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="108">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5646,19 +5646,19 @@
         </is>
       </c>
       <c r="J108">
-        <v>945</v>
+        <v>1012</v>
       </c>
       <c r="K108">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="L108">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M108">
-        <v>0.6402</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="N108">
-        <v>0.5273</v>
+        <v>0.5261</v>
       </c>
     </row>
     <row r="109">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5695,19 +5695,19 @@
         </is>
       </c>
       <c r="J109">
-        <v>12443</v>
+        <v>12818</v>
       </c>
       <c r="K109">
-        <v>6597</v>
+        <v>7463</v>
       </c>
       <c r="L109">
-        <v>3266</v>
+        <v>3569</v>
       </c>
       <c r="M109">
-        <v>0.5302</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="N109">
-        <v>0.4951</v>
+        <v>0.4782</v>
       </c>
     </row>
     <row r="110">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5747,19 +5747,19 @@
         </is>
       </c>
       <c r="J110">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="K110">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L110">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M110">
-        <v>0.2869</v>
+        <v>0.316</v>
       </c>
       <c r="N110">
-        <v>0.8107</v>
+        <v>0.7795</v>
       </c>
     </row>
     <row r="111">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5799,19 +5799,19 @@
         </is>
       </c>
       <c r="J111">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K111">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="L111">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M111">
-        <v>0.745</v>
+        <v>0.8665</v>
       </c>
       <c r="N111">
-        <v>0.6346000000000001</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="112">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5851,19 +5851,19 @@
         </is>
       </c>
       <c r="J112">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K112">
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="L112">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M112">
-        <v>0.5593</v>
+        <v>0.8673</v>
       </c>
       <c r="N112">
-        <v>0.2677</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="113">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5903,19 +5903,19 @@
         </is>
       </c>
       <c r="J113">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K113">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L113">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M113">
-        <v>0.5501</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="N113">
-        <v>0.7448</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="114">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -5955,19 +5955,19 @@
         </is>
       </c>
       <c r="J114">
-        <v>2163</v>
+        <v>2206</v>
       </c>
       <c r="K114">
-        <v>925</v>
+        <v>1099</v>
       </c>
       <c r="L114">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M114">
-        <v>0.4276</v>
+        <v>0.4982</v>
       </c>
       <c r="N114">
-        <v>0.2649</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="115">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6007,19 +6007,19 @@
         </is>
       </c>
       <c r="J115">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="K115">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="L115">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M115">
-        <v>0.2558</v>
+        <v>0.3763</v>
       </c>
       <c r="N115">
-        <v>0.6824</v>
+        <v>0.4947</v>
       </c>
     </row>
     <row r="116">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6059,19 +6059,19 @@
         </is>
       </c>
       <c r="J116">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K116">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L116">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M116">
-        <v>0.4979</v>
+        <v>0.5041</v>
       </c>
       <c r="N116">
-        <v>0.7745</v>
+        <v>0.7796</v>
       </c>
     </row>
     <row r="117">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6111,19 +6111,19 @@
         </is>
       </c>
       <c r="J117">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K117">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L117">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M117">
-        <v>0.9146</v>
+        <v>0.9237</v>
       </c>
       <c r="N117">
-        <v>0.3804</v>
+        <v>0.3929</v>
       </c>
     </row>
     <row r="118">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6163,19 +6163,19 @@
         </is>
       </c>
       <c r="J118">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K118">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L118">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M118">
-        <v>0.6845</v>
+        <v>0.6764</v>
       </c>
       <c r="N118">
-        <v>0.4565</v>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="119">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6215,19 +6215,19 @@
         </is>
       </c>
       <c r="J119">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K119">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="L119">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M119">
-        <v>0.3066</v>
+        <v>0.4408</v>
       </c>
       <c r="N119">
-        <v>0.2199</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="120">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6267,19 +6267,19 @@
         </is>
       </c>
       <c r="J120">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="K120">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="L120">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M120">
-        <v>0.6385</v>
+        <v>0.6488</v>
       </c>
       <c r="N120">
-        <v>0.829</v>
+        <v>0.8264</v>
       </c>
     </row>
     <row r="121">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6319,19 +6319,19 @@
         </is>
       </c>
       <c r="J121">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="K121">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="L121">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M121">
-        <v>0.9492</v>
+        <v>0.9657</v>
       </c>
       <c r="N121">
-        <v>0.3072</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="122">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6371,19 +6371,19 @@
         </is>
       </c>
       <c r="J122">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K122">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L122">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M122">
-        <v>0.7766</v>
+        <v>0.798</v>
       </c>
       <c r="N122">
-        <v>0.6421</v>
+        <v>0.6699000000000001</v>
       </c>
     </row>
     <row r="123">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="J123">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="K123">
         <v>2</v>
@@ -6429,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="M123">
-        <v>0.003</v>
+        <v>0.0029</v>
       </c>
       <c r="N123">
         <v>0.5</v>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="J124">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K124">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="L124">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M124">
-        <v>0.7613</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="N124">
-        <v>0.6375999999999999</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="125">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6524,19 +6524,19 @@
         </is>
       </c>
       <c r="J125">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K125">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L125">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M125">
-        <v>0.3052</v>
+        <v>0.3249</v>
       </c>
       <c r="N125">
-        <v>0.7302999999999999</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="126">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6576,19 +6576,19 @@
         </is>
       </c>
       <c r="J126">
-        <v>945</v>
+        <v>1012</v>
       </c>
       <c r="K126">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="L126">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M126">
-        <v>0.6402</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="N126">
-        <v>0.5273</v>
+        <v>0.5261</v>
       </c>
     </row>
     <row r="127">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-03-24T08:03:07</t>
+          <t>2020-03-25T08:00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6628,19 +6628,1225 @@
         </is>
       </c>
       <c r="J127">
-        <v>12443</v>
+        <v>12818</v>
       </c>
       <c r="K127">
-        <v>6597</v>
+        <v>7463</v>
       </c>
       <c r="L127">
-        <v>3266</v>
+        <v>3569</v>
       </c>
       <c r="M127">
-        <v>0.5302</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="N127">
-        <v>0.4951</v>
+        <v>0.4782</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>43</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>0.1395</v>
+      </c>
+      <c r="G128">
+        <v>0.3333</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J128">
+        <v>2206</v>
+      </c>
+      <c r="K128">
+        <v>1099</v>
+      </c>
+      <c r="L128">
+        <v>272</v>
+      </c>
+      <c r="M128">
+        <v>0.4982</v>
+      </c>
+      <c r="N128">
+        <v>0.2475</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J129">
+        <v>352</v>
+      </c>
+      <c r="K129">
+        <v>305</v>
+      </c>
+      <c r="L129">
+        <v>190</v>
+      </c>
+      <c r="M129">
+        <v>0.8665</v>
+      </c>
+      <c r="N129">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J130">
+        <v>362</v>
+      </c>
+      <c r="K130">
+        <v>210</v>
+      </c>
+      <c r="L130">
+        <v>157</v>
+      </c>
+      <c r="M130">
+        <v>0.5800999999999999</v>
+      </c>
+      <c r="N130">
+        <v>0.7476</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J131">
+        <v>12</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0.0833</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J132">
+        <v>486</v>
+      </c>
+      <c r="K132">
+        <v>245</v>
+      </c>
+      <c r="L132">
+        <v>191</v>
+      </c>
+      <c r="M132">
+        <v>0.5041</v>
+      </c>
+      <c r="N132">
+        <v>0.7796</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J133">
+        <v>485</v>
+      </c>
+      <c r="K133">
+        <v>448</v>
+      </c>
+      <c r="L133">
+        <v>176</v>
+      </c>
+      <c r="M133">
+        <v>0.9237</v>
+      </c>
+      <c r="N133">
+        <v>0.3929</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J134">
+        <v>343</v>
+      </c>
+      <c r="K134">
+        <v>232</v>
+      </c>
+      <c r="L134">
+        <v>109</v>
+      </c>
+      <c r="M134">
+        <v>0.6764</v>
+      </c>
+      <c r="N134">
+        <v>0.4698</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>25</v>
+      </c>
+      <c r="D135">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>6</v>
+      </c>
+      <c r="F135">
+        <v>0.44</v>
+      </c>
+      <c r="G135">
+        <v>0.5455</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J135">
+        <v>617</v>
+      </c>
+      <c r="K135">
+        <v>195</v>
+      </c>
+      <c r="L135">
+        <v>152</v>
+      </c>
+      <c r="M135">
+        <v>0.316</v>
+      </c>
+      <c r="N135">
+        <v>0.7795</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J136">
+        <v>10</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0.2</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>28</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0.1429</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J137">
+        <v>1119</v>
+      </c>
+      <c r="K137">
+        <v>726</v>
+      </c>
+      <c r="L137">
+        <v>600</v>
+      </c>
+      <c r="M137">
+        <v>0.6488</v>
+      </c>
+      <c r="N137">
+        <v>0.8264</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0.5</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J138">
+        <v>380</v>
+      </c>
+      <c r="K138">
+        <v>330</v>
+      </c>
+      <c r="L138">
+        <v>211</v>
+      </c>
+      <c r="M138">
+        <v>0.8683999999999999</v>
+      </c>
+      <c r="N138">
+        <v>0.6394</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>27</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J139">
+        <v>690</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0.0029</v>
+      </c>
+      <c r="N139">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>0.8333</v>
+      </c>
+      <c r="G140">
+        <v>0.4</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J140">
+        <v>1257</v>
+      </c>
+      <c r="K140">
+        <v>473</v>
+      </c>
+      <c r="L140">
+        <v>234</v>
+      </c>
+      <c r="M140">
+        <v>0.3763</v>
+      </c>
+      <c r="N140">
+        <v>0.4947</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J141">
+        <v>13</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0.1538</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0.5</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J142">
+        <v>633</v>
+      </c>
+      <c r="K142">
+        <v>279</v>
+      </c>
+      <c r="L142">
+        <v>43</v>
+      </c>
+      <c r="M142">
+        <v>0.4408</v>
+      </c>
+      <c r="N142">
+        <v>0.1541</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J143">
+        <v>10</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0.1</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J144">
+        <v>511</v>
+      </c>
+      <c r="K144">
+        <v>166</v>
+      </c>
+      <c r="L144">
+        <v>121</v>
+      </c>
+      <c r="M144">
+        <v>0.3249</v>
+      </c>
+      <c r="N144">
+        <v>0.7289</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0.5556</v>
+      </c>
+      <c r="G145">
+        <v>0.2</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J145">
+        <v>490</v>
+      </c>
+      <c r="K145">
+        <v>425</v>
+      </c>
+      <c r="L145">
+        <v>113</v>
+      </c>
+      <c r="M145">
+        <v>0.8673</v>
+      </c>
+      <c r="N145">
+        <v>0.2659</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0.25</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J146">
+        <v>8</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0.125</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>28</v>
+      </c>
+      <c r="D147">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>0.4286</v>
+      </c>
+      <c r="G147">
+        <v>0.3333</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J147">
+        <v>1427</v>
+      </c>
+      <c r="K147">
+        <v>1378</v>
+      </c>
+      <c r="L147">
+        <v>454</v>
+      </c>
+      <c r="M147">
+        <v>0.9657</v>
+      </c>
+      <c r="N147">
+        <v>0.3295</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J148">
+        <v>4</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J149">
+        <v>391</v>
+      </c>
+      <c r="K149">
+        <v>312</v>
+      </c>
+      <c r="L149">
+        <v>209</v>
+      </c>
+      <c r="M149">
+        <v>0.798</v>
+      </c>
+      <c r="N149">
+        <v>0.6699000000000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>98</v>
+      </c>
+      <c r="D150">
+        <v>13</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+      <c r="F150">
+        <v>0.1327</v>
+      </c>
+      <c r="G150">
+        <v>0.3846</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J150">
+        <v>1012</v>
+      </c>
+      <c r="K150">
+        <v>631</v>
+      </c>
+      <c r="L150">
+        <v>332</v>
+      </c>
+      <c r="M150">
+        <v>0.6235000000000001</v>
+      </c>
+      <c r="N150">
+        <v>0.5261</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2020-03-24T00:00:00</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>355</v>
+      </c>
+      <c r="D151">
+        <v>69</v>
+      </c>
+      <c r="E151">
+        <v>23</v>
+      </c>
+      <c r="F151">
+        <v>0.1944</v>
+      </c>
+      <c r="G151">
+        <v>0.3333</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2020-03-25T08:00:00</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J151">
+        <v>12818</v>
+      </c>
+      <c r="K151">
+        <v>7463</v>
+      </c>
+      <c r="L151">
+        <v>3569</v>
+      </c>
+      <c r="M151">
+        <v>0.5822000000000001</v>
+      </c>
+      <c r="N151">
+        <v>0.4782</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -452,19 +452,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K2">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L2">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M2">
-        <v>0.316</v>
+        <v>0.4976</v>
       </c>
       <c r="N2">
-        <v>0.7795</v>
+        <v>0.7853</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -501,19 +501,19 @@
         </is>
       </c>
       <c r="J3">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K3">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L3">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M3">
-        <v>0.8665</v>
+        <v>0.9155</v>
       </c>
       <c r="N3">
-        <v>0.623</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="J4">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K4">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M4">
-        <v>0.8673</v>
+        <v>0.9411</v>
       </c>
       <c r="N4">
-        <v>0.2659</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K5">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L5">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M5">
-        <v>0.5800999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="N5">
-        <v>0.7476</v>
+        <v>0.7511</v>
       </c>
     </row>
     <row r="6">
@@ -639,7 +639,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>2206</v>
+        <v>2237</v>
       </c>
       <c r="K6">
-        <v>1099</v>
+        <v>1628</v>
       </c>
       <c r="L6">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M6">
-        <v>0.4982</v>
+        <v>0.7278</v>
       </c>
       <c r="N6">
-        <v>0.2475</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +688,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K7">
-        <v>473</v>
+        <v>1248</v>
       </c>
       <c r="L7">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M7">
-        <v>0.3763</v>
+        <v>0.9866</v>
       </c>
       <c r="N7">
-        <v>0.4947</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K8">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L8">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M8">
-        <v>0.5041</v>
+        <v>0.5194</v>
       </c>
       <c r="N8">
-        <v>0.7796</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="9">
@@ -786,7 +786,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K9">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="L9">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M9">
-        <v>0.9237</v>
+        <v>0.9755</v>
       </c>
       <c r="N9">
-        <v>0.3929</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K10">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M10">
-        <v>0.6764</v>
+        <v>0.6877</v>
       </c>
       <c r="N10">
-        <v>0.4698</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="11">
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K11">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>0.4408</v>
+        <v>0.6656</v>
       </c>
       <c r="N11">
-        <v>0.1541</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="12">
@@ -933,7 +933,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -942,19 +942,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="K12">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L12">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M12">
-        <v>0.6488</v>
+        <v>0.6676</v>
       </c>
       <c r="N12">
-        <v>0.8264</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -991,19 +991,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K13">
-        <v>1378</v>
+        <v>1433</v>
       </c>
       <c r="L13">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="M13">
-        <v>0.9657</v>
+        <v>0.9979</v>
       </c>
       <c r="N13">
-        <v>0.3295</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="14">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K14">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L14">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M14">
-        <v>0.798</v>
+        <v>0.802</v>
       </c>
       <c r="N14">
-        <v>0.6699000000000001</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="J15">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1138,19 +1138,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K16">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L16">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M16">
-        <v>0.8683999999999999</v>
+        <v>0.9347</v>
       </c>
       <c r="N16">
-        <v>0.6394</v>
+        <v>0.6397</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1187,19 +1187,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K17">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M17">
-        <v>0.3249</v>
+        <v>0.3372</v>
       </c>
       <c r="N17">
-        <v>0.7289</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="K18">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="L18">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M18">
-        <v>0.6235000000000001</v>
+        <v>0.6189</v>
       </c>
       <c r="N18">
-        <v>0.5261</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="19">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>12818</v>
+        <v>13016</v>
       </c>
       <c r="K19">
-        <v>7463</v>
+        <v>9314</v>
       </c>
       <c r="L19">
-        <v>3569</v>
+        <v>3892</v>
       </c>
       <c r="M19">
-        <v>0.5822000000000001</v>
+        <v>0.7156</v>
       </c>
       <c r="N19">
-        <v>0.4782</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K20">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L20">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M20">
-        <v>0.316</v>
+        <v>0.4976</v>
       </c>
       <c r="N20">
-        <v>0.7795</v>
+        <v>0.7853</v>
       </c>
     </row>
     <row r="21">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1383,19 +1383,19 @@
         </is>
       </c>
       <c r="J21">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K21">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L21">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21">
-        <v>0.8665</v>
+        <v>0.9155</v>
       </c>
       <c r="N21">
-        <v>0.623</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="22">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="J22">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K22">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="L22">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M22">
-        <v>0.8673</v>
+        <v>0.9411</v>
       </c>
       <c r="N22">
-        <v>0.2659</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="23">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K23">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L23">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M23">
-        <v>0.5800999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="N23">
-        <v>0.7476</v>
+        <v>0.7511</v>
       </c>
     </row>
     <row r="24">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>2206</v>
+        <v>2237</v>
       </c>
       <c r="K24">
-        <v>1099</v>
+        <v>1628</v>
       </c>
       <c r="L24">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M24">
-        <v>0.4982</v>
+        <v>0.7278</v>
       </c>
       <c r="N24">
-        <v>0.2475</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1579,19 +1579,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K25">
-        <v>473</v>
+        <v>1248</v>
       </c>
       <c r="L25">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M25">
-        <v>0.3763</v>
+        <v>0.9866</v>
       </c>
       <c r="N25">
-        <v>0.4947</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="26">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="J26">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K26">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L26">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M26">
-        <v>0.5041</v>
+        <v>0.5194</v>
       </c>
       <c r="N26">
-        <v>0.7796</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="27">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1677,19 +1677,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K27">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="L27">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M27">
-        <v>0.9237</v>
+        <v>0.9755</v>
       </c>
       <c r="N27">
-        <v>0.3929</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="28">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1726,19 +1726,19 @@
         </is>
       </c>
       <c r="J28">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K28">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L28">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M28">
-        <v>0.6764</v>
+        <v>0.6877</v>
       </c>
       <c r="N28">
-        <v>0.4698</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="29">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1775,19 +1775,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K29">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>0.4408</v>
+        <v>0.6656</v>
       </c>
       <c r="N29">
-        <v>0.1541</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="30">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="K30">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L30">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M30">
-        <v>0.6488</v>
+        <v>0.6676</v>
       </c>
       <c r="N30">
-        <v>0.8264</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="31">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K31">
-        <v>1378</v>
+        <v>1433</v>
       </c>
       <c r="L31">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="M31">
-        <v>0.9657</v>
+        <v>0.9979</v>
       </c>
       <c r="N31">
-        <v>0.3295</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="32">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K32">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L32">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M32">
-        <v>0.798</v>
+        <v>0.802</v>
       </c>
       <c r="N32">
-        <v>0.6699000000000001</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="33">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="J33">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K34">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L34">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M34">
-        <v>0.8683999999999999</v>
+        <v>0.9347</v>
       </c>
       <c r="N34">
-        <v>0.6394</v>
+        <v>0.6397</v>
       </c>
     </row>
     <row r="35">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2069,19 +2069,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K35">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L35">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M35">
-        <v>0.3249</v>
+        <v>0.3372</v>
       </c>
       <c r="N35">
-        <v>0.7289</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2118,19 +2118,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="K36">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="L36">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M36">
-        <v>0.6235000000000001</v>
+        <v>0.6189</v>
       </c>
       <c r="N36">
-        <v>0.5261</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="37">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2167,19 +2167,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>12818</v>
+        <v>13016</v>
       </c>
       <c r="K37">
-        <v>7463</v>
+        <v>9314</v>
       </c>
       <c r="L37">
-        <v>3569</v>
+        <v>3892</v>
       </c>
       <c r="M37">
-        <v>0.5822000000000001</v>
+        <v>0.7156</v>
       </c>
       <c r="N37">
-        <v>0.4782</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="38">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="J38">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K38">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L38">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M38">
-        <v>0.316</v>
+        <v>0.4976</v>
       </c>
       <c r="N38">
-        <v>0.7795</v>
+        <v>0.7853</v>
       </c>
     </row>
     <row r="39">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="J39">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K39">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L39">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M39">
-        <v>0.8665</v>
+        <v>0.9155</v>
       </c>
       <c r="N39">
-        <v>0.623</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="40">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="J40">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K40">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="L40">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M40">
-        <v>0.8673</v>
+        <v>0.9411</v>
       </c>
       <c r="N40">
-        <v>0.2659</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="41">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="J41">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K41">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L41">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M41">
-        <v>0.5800999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="N41">
-        <v>0.7476</v>
+        <v>0.7511</v>
       </c>
     </row>
     <row r="42">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="J42">
-        <v>2206</v>
+        <v>2237</v>
       </c>
       <c r="K42">
-        <v>1099</v>
+        <v>1628</v>
       </c>
       <c r="L42">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M42">
-        <v>0.4982</v>
+        <v>0.7278</v>
       </c>
       <c r="N42">
-        <v>0.2475</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="43">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2461,19 +2461,19 @@
         </is>
       </c>
       <c r="J43">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K43">
-        <v>473</v>
+        <v>1248</v>
       </c>
       <c r="L43">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M43">
-        <v>0.3763</v>
+        <v>0.9866</v>
       </c>
       <c r="N43">
-        <v>0.4947</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="44">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2510,19 +2510,19 @@
         </is>
       </c>
       <c r="J44">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K44">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L44">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M44">
-        <v>0.5041</v>
+        <v>0.5194</v>
       </c>
       <c r="N44">
-        <v>0.7796</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="45">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2559,19 +2559,19 @@
         </is>
       </c>
       <c r="J45">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K45">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="L45">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M45">
-        <v>0.9237</v>
+        <v>0.9755</v>
       </c>
       <c r="N45">
-        <v>0.3929</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="46">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="J46">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K46">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L46">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M46">
-        <v>0.6764</v>
+        <v>0.6877</v>
       </c>
       <c r="N46">
-        <v>0.4698</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="47">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2657,19 +2657,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K47">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M47">
-        <v>0.4408</v>
+        <v>0.6656</v>
       </c>
       <c r="N47">
-        <v>0.1541</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="48">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="J48">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="K48">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L48">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M48">
-        <v>0.6488</v>
+        <v>0.6676</v>
       </c>
       <c r="N48">
-        <v>0.8264</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="49">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2755,19 +2755,19 @@
         </is>
       </c>
       <c r="J49">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K49">
-        <v>1378</v>
+        <v>1433</v>
       </c>
       <c r="L49">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="M49">
-        <v>0.9657</v>
+        <v>0.9979</v>
       </c>
       <c r="N49">
-        <v>0.3295</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="50">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="J50">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K50">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L50">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M50">
-        <v>0.798</v>
+        <v>0.802</v>
       </c>
       <c r="N50">
-        <v>0.6699000000000001</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="51">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="J51">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2902,19 +2902,19 @@
         </is>
       </c>
       <c r="J52">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K52">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L52">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M52">
-        <v>0.8683999999999999</v>
+        <v>0.9347</v>
       </c>
       <c r="N52">
-        <v>0.6394</v>
+        <v>0.6397</v>
       </c>
     </row>
     <row r="53">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2951,19 +2951,19 @@
         </is>
       </c>
       <c r="J53">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K53">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L53">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M53">
-        <v>0.3249</v>
+        <v>0.3372</v>
       </c>
       <c r="N53">
-        <v>0.7289</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="K54">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="L54">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M54">
-        <v>0.6235000000000001</v>
+        <v>0.6189</v>
       </c>
       <c r="N54">
-        <v>0.5261</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="55">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3049,19 +3049,19 @@
         </is>
       </c>
       <c r="J55">
-        <v>12818</v>
+        <v>13016</v>
       </c>
       <c r="K55">
-        <v>7463</v>
+        <v>9314</v>
       </c>
       <c r="L55">
-        <v>3569</v>
+        <v>3892</v>
       </c>
       <c r="M55">
-        <v>0.5822000000000001</v>
+        <v>0.7156</v>
       </c>
       <c r="N55">
-        <v>0.4782</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="56">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3098,19 +3098,19 @@
         </is>
       </c>
       <c r="J56">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K56">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L56">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M56">
-        <v>0.316</v>
+        <v>0.4976</v>
       </c>
       <c r="N56">
-        <v>0.7795</v>
+        <v>0.7853</v>
       </c>
     </row>
     <row r="57">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="J57">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K57">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L57">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M57">
-        <v>0.8665</v>
+        <v>0.9155</v>
       </c>
       <c r="N57">
-        <v>0.623</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="58">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="J58">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K58">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="L58">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M58">
-        <v>0.8673</v>
+        <v>0.9411</v>
       </c>
       <c r="N58">
-        <v>0.2659</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="59">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3245,19 +3245,19 @@
         </is>
       </c>
       <c r="J59">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K59">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L59">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M59">
-        <v>0.5800999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="N59">
-        <v>0.7476</v>
+        <v>0.7511</v>
       </c>
     </row>
     <row r="60">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3294,19 +3294,19 @@
         </is>
       </c>
       <c r="J60">
-        <v>2206</v>
+        <v>2237</v>
       </c>
       <c r="K60">
-        <v>1099</v>
+        <v>1628</v>
       </c>
       <c r="L60">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M60">
-        <v>0.4982</v>
+        <v>0.7278</v>
       </c>
       <c r="N60">
-        <v>0.2475</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="61">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3343,19 +3343,19 @@
         </is>
       </c>
       <c r="J61">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K61">
-        <v>473</v>
+        <v>1248</v>
       </c>
       <c r="L61">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M61">
-        <v>0.3763</v>
+        <v>0.9866</v>
       </c>
       <c r="N61">
-        <v>0.4947</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="62">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3392,19 +3392,19 @@
         </is>
       </c>
       <c r="J62">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K62">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L62">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M62">
-        <v>0.5041</v>
+        <v>0.5194</v>
       </c>
       <c r="N62">
-        <v>0.7796</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="63">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3441,19 +3441,19 @@
         </is>
       </c>
       <c r="J63">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K63">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="L63">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M63">
-        <v>0.9237</v>
+        <v>0.9755</v>
       </c>
       <c r="N63">
-        <v>0.3929</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="64">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3490,19 +3490,19 @@
         </is>
       </c>
       <c r="J64">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K64">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L64">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M64">
-        <v>0.6764</v>
+        <v>0.6877</v>
       </c>
       <c r="N64">
-        <v>0.4698</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="65">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3539,19 +3539,19 @@
         </is>
       </c>
       <c r="J65">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K65">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="L65">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M65">
-        <v>0.4408</v>
+        <v>0.6656</v>
       </c>
       <c r="N65">
-        <v>0.1541</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="66">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3588,19 +3588,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="K66">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L66">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M66">
-        <v>0.6488</v>
+        <v>0.6676</v>
       </c>
       <c r="N66">
-        <v>0.8264</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="67">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="J67">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K67">
-        <v>1378</v>
+        <v>1433</v>
       </c>
       <c r="L67">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="M67">
-        <v>0.9657</v>
+        <v>0.9979</v>
       </c>
       <c r="N67">
-        <v>0.3295</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="68">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3686,19 +3686,19 @@
         </is>
       </c>
       <c r="J68">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K68">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L68">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M68">
-        <v>0.798</v>
+        <v>0.802</v>
       </c>
       <c r="N68">
-        <v>0.6699000000000001</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="69">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="J69">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3784,19 +3784,19 @@
         </is>
       </c>
       <c r="J70">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K70">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L70">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M70">
-        <v>0.8683999999999999</v>
+        <v>0.9347</v>
       </c>
       <c r="N70">
-        <v>0.6394</v>
+        <v>0.6397</v>
       </c>
     </row>
     <row r="71">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3833,19 +3833,19 @@
         </is>
       </c>
       <c r="J71">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K71">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L71">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M71">
-        <v>0.3249</v>
+        <v>0.3372</v>
       </c>
       <c r="N71">
-        <v>0.7289</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3882,19 +3882,19 @@
         </is>
       </c>
       <c r="J72">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="K72">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="L72">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M72">
-        <v>0.6235000000000001</v>
+        <v>0.6189</v>
       </c>
       <c r="N72">
-        <v>0.5261</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="73">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3931,19 +3931,19 @@
         </is>
       </c>
       <c r="J73">
-        <v>12818</v>
+        <v>13016</v>
       </c>
       <c r="K73">
-        <v>7463</v>
+        <v>9314</v>
       </c>
       <c r="L73">
-        <v>3569</v>
+        <v>3892</v>
       </c>
       <c r="M73">
-        <v>0.5822000000000001</v>
+        <v>0.7156</v>
       </c>
       <c r="N73">
-        <v>0.4782</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="74">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3980,19 +3980,19 @@
         </is>
       </c>
       <c r="J74">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K74">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L74">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M74">
-        <v>0.316</v>
+        <v>0.4976</v>
       </c>
       <c r="N74">
-        <v>0.7795</v>
+        <v>0.7853</v>
       </c>
     </row>
     <row r="75">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4029,19 +4029,19 @@
         </is>
       </c>
       <c r="J75">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K75">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L75">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M75">
-        <v>0.8665</v>
+        <v>0.9155</v>
       </c>
       <c r="N75">
-        <v>0.623</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="76">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4078,19 +4078,19 @@
         </is>
       </c>
       <c r="J76">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K76">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="L76">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M76">
-        <v>0.8673</v>
+        <v>0.9411</v>
       </c>
       <c r="N76">
-        <v>0.2659</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="77">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4127,19 +4127,19 @@
         </is>
       </c>
       <c r="J77">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K77">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L77">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M77">
-        <v>0.5800999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="N77">
-        <v>0.7476</v>
+        <v>0.7511</v>
       </c>
     </row>
     <row r="78">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4176,19 +4176,19 @@
         </is>
       </c>
       <c r="J78">
-        <v>2206</v>
+        <v>2237</v>
       </c>
       <c r="K78">
-        <v>1099</v>
+        <v>1628</v>
       </c>
       <c r="L78">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M78">
-        <v>0.4982</v>
+        <v>0.7278</v>
       </c>
       <c r="N78">
-        <v>0.2475</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="79">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4225,19 +4225,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K79">
-        <v>473</v>
+        <v>1248</v>
       </c>
       <c r="L79">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M79">
-        <v>0.3763</v>
+        <v>0.9866</v>
       </c>
       <c r="N79">
-        <v>0.4947</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="80">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4274,19 +4274,19 @@
         </is>
       </c>
       <c r="J80">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K80">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L80">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M80">
-        <v>0.5041</v>
+        <v>0.5194</v>
       </c>
       <c r="N80">
-        <v>0.7796</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="81">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4323,19 +4323,19 @@
         </is>
       </c>
       <c r="J81">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K81">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="L81">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M81">
-        <v>0.9237</v>
+        <v>0.9755</v>
       </c>
       <c r="N81">
-        <v>0.3929</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="82">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4372,19 +4372,19 @@
         </is>
       </c>
       <c r="J82">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K82">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L82">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M82">
-        <v>0.6764</v>
+        <v>0.6877</v>
       </c>
       <c r="N82">
-        <v>0.4698</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="83">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4421,19 +4421,19 @@
         </is>
       </c>
       <c r="J83">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K83">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="L83">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M83">
-        <v>0.4408</v>
+        <v>0.6656</v>
       </c>
       <c r="N83">
-        <v>0.1541</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="84">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4470,19 +4470,19 @@
         </is>
       </c>
       <c r="J84">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="K84">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L84">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M84">
-        <v>0.6488</v>
+        <v>0.6676</v>
       </c>
       <c r="N84">
-        <v>0.8264</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="85">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4519,19 +4519,19 @@
         </is>
       </c>
       <c r="J85">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K85">
-        <v>1378</v>
+        <v>1433</v>
       </c>
       <c r="L85">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="M85">
-        <v>0.9657</v>
+        <v>0.9979</v>
       </c>
       <c r="N85">
-        <v>0.3295</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="86">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4568,19 +4568,19 @@
         </is>
       </c>
       <c r="J86">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K86">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L86">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M86">
-        <v>0.798</v>
+        <v>0.802</v>
       </c>
       <c r="N86">
-        <v>0.6699000000000001</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="87">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="J87">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4666,19 +4666,19 @@
         </is>
       </c>
       <c r="J88">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K88">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L88">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M88">
-        <v>0.8683999999999999</v>
+        <v>0.9347</v>
       </c>
       <c r="N88">
-        <v>0.6394</v>
+        <v>0.6397</v>
       </c>
     </row>
     <row r="89">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4715,19 +4715,19 @@
         </is>
       </c>
       <c r="J89">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K89">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L89">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M89">
-        <v>0.3249</v>
+        <v>0.3372</v>
       </c>
       <c r="N89">
-        <v>0.7289</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4764,19 +4764,19 @@
         </is>
       </c>
       <c r="J90">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="K90">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="L90">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M90">
-        <v>0.6235000000000001</v>
+        <v>0.6189</v>
       </c>
       <c r="N90">
-        <v>0.5261</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="91">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4813,19 +4813,19 @@
         </is>
       </c>
       <c r="J91">
-        <v>12818</v>
+        <v>13016</v>
       </c>
       <c r="K91">
-        <v>7463</v>
+        <v>9314</v>
       </c>
       <c r="L91">
-        <v>3569</v>
+        <v>3892</v>
       </c>
       <c r="M91">
-        <v>0.5822000000000001</v>
+        <v>0.7156</v>
       </c>
       <c r="N91">
-        <v>0.4782</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="92">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4862,19 +4862,19 @@
         </is>
       </c>
       <c r="J92">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K92">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L92">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M92">
-        <v>0.316</v>
+        <v>0.4976</v>
       </c>
       <c r="N92">
-        <v>0.7795</v>
+        <v>0.7853</v>
       </c>
     </row>
     <row r="93">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4911,19 +4911,19 @@
         </is>
       </c>
       <c r="J93">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K93">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L93">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M93">
-        <v>0.8665</v>
+        <v>0.9155</v>
       </c>
       <c r="N93">
-        <v>0.623</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="94">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4960,19 +4960,19 @@
         </is>
       </c>
       <c r="J94">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K94">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="L94">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M94">
-        <v>0.8673</v>
+        <v>0.9411</v>
       </c>
       <c r="N94">
-        <v>0.2659</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="95">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5009,19 +5009,19 @@
         </is>
       </c>
       <c r="J95">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K95">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L95">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M95">
-        <v>0.5800999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="N95">
-        <v>0.7476</v>
+        <v>0.7511</v>
       </c>
     </row>
     <row r="96">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5058,19 +5058,19 @@
         </is>
       </c>
       <c r="J96">
-        <v>2206</v>
+        <v>2237</v>
       </c>
       <c r="K96">
-        <v>1099</v>
+        <v>1628</v>
       </c>
       <c r="L96">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M96">
-        <v>0.4982</v>
+        <v>0.7278</v>
       </c>
       <c r="N96">
-        <v>0.2475</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="97">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5107,19 +5107,19 @@
         </is>
       </c>
       <c r="J97">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K97">
-        <v>473</v>
+        <v>1248</v>
       </c>
       <c r="L97">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M97">
-        <v>0.3763</v>
+        <v>0.9866</v>
       </c>
       <c r="N97">
-        <v>0.4947</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="98">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5156,19 +5156,19 @@
         </is>
       </c>
       <c r="J98">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K98">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L98">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M98">
-        <v>0.5041</v>
+        <v>0.5194</v>
       </c>
       <c r="N98">
-        <v>0.7796</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="99">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5205,19 +5205,19 @@
         </is>
       </c>
       <c r="J99">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K99">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="L99">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M99">
-        <v>0.9237</v>
+        <v>0.9755</v>
       </c>
       <c r="N99">
-        <v>0.3929</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="100">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="J100">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K100">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L100">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M100">
-        <v>0.6764</v>
+        <v>0.6877</v>
       </c>
       <c r="N100">
-        <v>0.4698</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="101">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5303,19 +5303,19 @@
         </is>
       </c>
       <c r="J101">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K101">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="L101">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M101">
-        <v>0.4408</v>
+        <v>0.6656</v>
       </c>
       <c r="N101">
-        <v>0.1541</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="102">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5352,19 +5352,19 @@
         </is>
       </c>
       <c r="J102">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="K102">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L102">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M102">
-        <v>0.6488</v>
+        <v>0.6676</v>
       </c>
       <c r="N102">
-        <v>0.8264</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="103">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5401,19 +5401,19 @@
         </is>
       </c>
       <c r="J103">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K103">
-        <v>1378</v>
+        <v>1433</v>
       </c>
       <c r="L103">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="M103">
-        <v>0.9657</v>
+        <v>0.9979</v>
       </c>
       <c r="N103">
-        <v>0.3295</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="104">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5450,19 +5450,19 @@
         </is>
       </c>
       <c r="J104">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K104">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L104">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M104">
-        <v>0.798</v>
+        <v>0.802</v>
       </c>
       <c r="N104">
-        <v>0.6699000000000001</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="105">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="J105">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5548,19 +5548,19 @@
         </is>
       </c>
       <c r="J106">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K106">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L106">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M106">
-        <v>0.8683999999999999</v>
+        <v>0.9347</v>
       </c>
       <c r="N106">
-        <v>0.6394</v>
+        <v>0.6397</v>
       </c>
     </row>
     <row r="107">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5597,19 +5597,19 @@
         </is>
       </c>
       <c r="J107">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K107">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L107">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M107">
-        <v>0.3249</v>
+        <v>0.3372</v>
       </c>
       <c r="N107">
-        <v>0.7289</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5646,19 +5646,19 @@
         </is>
       </c>
       <c r="J108">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="K108">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="L108">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M108">
-        <v>0.6235000000000001</v>
+        <v>0.6189</v>
       </c>
       <c r="N108">
-        <v>0.5261</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="109">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5695,19 +5695,19 @@
         </is>
       </c>
       <c r="J109">
-        <v>12818</v>
+        <v>13016</v>
       </c>
       <c r="K109">
-        <v>7463</v>
+        <v>9314</v>
       </c>
       <c r="L109">
-        <v>3569</v>
+        <v>3892</v>
       </c>
       <c r="M109">
-        <v>0.5822000000000001</v>
+        <v>0.7156</v>
       </c>
       <c r="N109">
-        <v>0.4782</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="110">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5747,19 +5747,19 @@
         </is>
       </c>
       <c r="J110">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K110">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L110">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M110">
-        <v>0.316</v>
+        <v>0.4976</v>
       </c>
       <c r="N110">
-        <v>0.7795</v>
+        <v>0.7853</v>
       </c>
     </row>
     <row r="111">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5799,19 +5799,19 @@
         </is>
       </c>
       <c r="J111">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K111">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L111">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M111">
-        <v>0.8665</v>
+        <v>0.9155</v>
       </c>
       <c r="N111">
-        <v>0.623</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="112">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5851,19 +5851,19 @@
         </is>
       </c>
       <c r="J112">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K112">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="L112">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M112">
-        <v>0.8673</v>
+        <v>0.9411</v>
       </c>
       <c r="N112">
-        <v>0.2659</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="113">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5903,19 +5903,19 @@
         </is>
       </c>
       <c r="J113">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K113">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L113">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M113">
-        <v>0.5800999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="N113">
-        <v>0.7476</v>
+        <v>0.7511</v>
       </c>
     </row>
     <row r="114">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -5955,19 +5955,19 @@
         </is>
       </c>
       <c r="J114">
-        <v>2206</v>
+        <v>2237</v>
       </c>
       <c r="K114">
-        <v>1099</v>
+        <v>1628</v>
       </c>
       <c r="L114">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M114">
-        <v>0.4982</v>
+        <v>0.7278</v>
       </c>
       <c r="N114">
-        <v>0.2475</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="115">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6007,19 +6007,19 @@
         </is>
       </c>
       <c r="J115">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K115">
-        <v>473</v>
+        <v>1248</v>
       </c>
       <c r="L115">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M115">
-        <v>0.3763</v>
+        <v>0.9866</v>
       </c>
       <c r="N115">
-        <v>0.4947</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="116">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6059,19 +6059,19 @@
         </is>
       </c>
       <c r="J116">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K116">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L116">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M116">
-        <v>0.5041</v>
+        <v>0.5194</v>
       </c>
       <c r="N116">
-        <v>0.7796</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="117">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6111,19 +6111,19 @@
         </is>
       </c>
       <c r="J117">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K117">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="L117">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M117">
-        <v>0.9237</v>
+        <v>0.9755</v>
       </c>
       <c r="N117">
-        <v>0.3929</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="118">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6163,19 +6163,19 @@
         </is>
       </c>
       <c r="J118">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K118">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L118">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M118">
-        <v>0.6764</v>
+        <v>0.6877</v>
       </c>
       <c r="N118">
-        <v>0.4698</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="119">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6215,19 +6215,19 @@
         </is>
       </c>
       <c r="J119">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K119">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="L119">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M119">
-        <v>0.4408</v>
+        <v>0.6656</v>
       </c>
       <c r="N119">
-        <v>0.1541</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="120">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6267,19 +6267,19 @@
         </is>
       </c>
       <c r="J120">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="K120">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L120">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M120">
-        <v>0.6488</v>
+        <v>0.6676</v>
       </c>
       <c r="N120">
-        <v>0.8264</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="121">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6319,19 +6319,19 @@
         </is>
       </c>
       <c r="J121">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K121">
-        <v>1378</v>
+        <v>1433</v>
       </c>
       <c r="L121">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="M121">
-        <v>0.9657</v>
+        <v>0.9979</v>
       </c>
       <c r="N121">
-        <v>0.3295</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="122">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6371,19 +6371,19 @@
         </is>
       </c>
       <c r="J122">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K122">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L122">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M122">
-        <v>0.798</v>
+        <v>0.802</v>
       </c>
       <c r="N122">
-        <v>0.6699000000000001</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="123">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="J123">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K123">
         <v>2</v>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="J124">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K124">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L124">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M124">
-        <v>0.8683999999999999</v>
+        <v>0.9347</v>
       </c>
       <c r="N124">
-        <v>0.6394</v>
+        <v>0.6397</v>
       </c>
     </row>
     <row r="125">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6524,19 +6524,19 @@
         </is>
       </c>
       <c r="J125">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K125">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L125">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M125">
-        <v>0.3249</v>
+        <v>0.3372</v>
       </c>
       <c r="N125">
-        <v>0.7289</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6576,19 +6576,19 @@
         </is>
       </c>
       <c r="J126">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="K126">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="L126">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M126">
-        <v>0.6235000000000001</v>
+        <v>0.6189</v>
       </c>
       <c r="N126">
-        <v>0.5261</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="127">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6628,19 +6628,19 @@
         </is>
       </c>
       <c r="J127">
-        <v>12818</v>
+        <v>13016</v>
       </c>
       <c r="K127">
-        <v>7463</v>
+        <v>9314</v>
       </c>
       <c r="L127">
-        <v>3569</v>
+        <v>3892</v>
       </c>
       <c r="M127">
-        <v>0.5822000000000001</v>
+        <v>0.7156</v>
       </c>
       <c r="N127">
-        <v>0.4782</v>
+        <v>0.4179</v>
       </c>
     </row>
     <row r="128">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6680,19 +6680,19 @@
         </is>
       </c>
       <c r="J128">
-        <v>2206</v>
+        <v>2237</v>
       </c>
       <c r="K128">
-        <v>1099</v>
+        <v>1628</v>
       </c>
       <c r="L128">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M128">
-        <v>0.4982</v>
+        <v>0.7278</v>
       </c>
       <c r="N128">
-        <v>0.2475</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="129">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6729,19 +6729,19 @@
         </is>
       </c>
       <c r="J129">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K129">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L129">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M129">
-        <v>0.8665</v>
+        <v>0.9155</v>
       </c>
       <c r="N129">
-        <v>0.623</v>
+        <v>0.6462</v>
       </c>
     </row>
     <row r="130">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6778,19 +6778,19 @@
         </is>
       </c>
       <c r="J130">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K130">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L130">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M130">
-        <v>0.5800999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="N130">
-        <v>0.7476</v>
+        <v>0.7511</v>
       </c>
     </row>
     <row r="131">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6827,19 +6827,19 @@
         </is>
       </c>
       <c r="J131">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131">
-        <v>0.0833</v>
+        <v>0.1429</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6876,19 +6876,19 @@
         </is>
       </c>
       <c r="J132">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K132">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L132">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M132">
-        <v>0.5041</v>
+        <v>0.5194</v>
       </c>
       <c r="N132">
-        <v>0.7796</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="133">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6925,19 +6925,19 @@
         </is>
       </c>
       <c r="J133">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K133">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="L133">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M133">
-        <v>0.9237</v>
+        <v>0.9755</v>
       </c>
       <c r="N133">
-        <v>0.3929</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="134">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6974,19 +6974,19 @@
         </is>
       </c>
       <c r="J134">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K134">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L134">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M134">
-        <v>0.6764</v>
+        <v>0.6877</v>
       </c>
       <c r="N134">
-        <v>0.4698</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="135">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7026,19 +7026,19 @@
         </is>
       </c>
       <c r="J135">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K135">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L135">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="M135">
-        <v>0.316</v>
+        <v>0.4976</v>
       </c>
       <c r="N135">
-        <v>0.7795</v>
+        <v>0.7853</v>
       </c>
     </row>
     <row r="136">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="J136">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K136">
         <v>2</v>
@@ -7084,7 +7084,7 @@
         <v>2</v>
       </c>
       <c r="M136">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7127,19 +7127,19 @@
         </is>
       </c>
       <c r="J137">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="K137">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="L137">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M137">
-        <v>0.6488</v>
+        <v>0.6676</v>
       </c>
       <c r="N137">
-        <v>0.8264</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="138">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7179,19 +7179,19 @@
         </is>
       </c>
       <c r="J138">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K138">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L138">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="M138">
-        <v>0.8683999999999999</v>
+        <v>0.9347</v>
       </c>
       <c r="N138">
-        <v>0.6394</v>
+        <v>0.6397</v>
       </c>
     </row>
     <row r="139">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="J139">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K139">
         <v>2</v>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7280,19 +7280,19 @@
         </is>
       </c>
       <c r="J140">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K140">
-        <v>473</v>
+        <v>1248</v>
       </c>
       <c r="L140">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M140">
-        <v>0.3763</v>
+        <v>0.9866</v>
       </c>
       <c r="N140">
-        <v>0.4947</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="141">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7332,16 +7332,16 @@
         <v>13</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>0.1538</v>
+        <v>0.2308</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7381,19 +7381,19 @@
         </is>
       </c>
       <c r="J142">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K142">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="L142">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M142">
-        <v>0.4408</v>
+        <v>0.6656</v>
       </c>
       <c r="N142">
-        <v>0.1541</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="143">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7430,16 +7430,16 @@
         </is>
       </c>
       <c r="J143">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>0.1</v>
+        <v>0.2727</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7479,19 +7479,19 @@
         </is>
       </c>
       <c r="J144">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K144">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L144">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M144">
-        <v>0.3249</v>
+        <v>0.3372</v>
       </c>
       <c r="N144">
-        <v>0.7289</v>
+        <v>0.7314000000000001</v>
       </c>
     </row>
     <row r="145">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7531,19 +7531,19 @@
         </is>
       </c>
       <c r="J145">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K145">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="L145">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M145">
-        <v>0.8673</v>
+        <v>0.9411</v>
       </c>
       <c r="N145">
-        <v>0.2659</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="146">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="J146">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K146">
         <v>1</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7635,19 +7635,19 @@
         </is>
       </c>
       <c r="J147">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="K147">
-        <v>1378</v>
+        <v>1433</v>
       </c>
       <c r="L147">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="M147">
-        <v>0.9657</v>
+        <v>0.9979</v>
       </c>
       <c r="N147">
-        <v>0.3295</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="148">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7687,12 +7687,15 @@
         <v>4</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
       <c r="M148">
+        <v>0.25</v>
+      </c>
+      <c r="N148">
         <v>0</v>
       </c>
     </row>
@@ -7721,7 +7724,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7730,19 +7733,19 @@
         </is>
       </c>
       <c r="J149">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K149">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L149">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M149">
-        <v>0.798</v>
+        <v>0.802</v>
       </c>
       <c r="N149">
-        <v>0.6699000000000001</v>
+        <v>0.6688</v>
       </c>
     </row>
     <row r="150">
@@ -7773,7 +7776,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7782,19 +7785,19 @@
         </is>
       </c>
       <c r="J150">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="K150">
-        <v>631</v>
+        <v>669</v>
       </c>
       <c r="L150">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M150">
-        <v>0.6235000000000001</v>
+        <v>0.6189</v>
       </c>
       <c r="N150">
-        <v>0.5261</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="151">
@@ -7825,7 +7828,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-03-25T08:00:00</t>
+          <t>2020-03-26T08:00:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7834,19 +7837,1246 @@
         </is>
       </c>
       <c r="J151">
-        <v>12818</v>
+        <v>13016</v>
       </c>
       <c r="K151">
-        <v>7463</v>
+        <v>9314</v>
       </c>
       <c r="L151">
-        <v>3569</v>
+        <v>3892</v>
       </c>
       <c r="M151">
-        <v>0.5822000000000001</v>
+        <v>0.7156</v>
       </c>
       <c r="N151">
-        <v>0.4782</v>
+        <v>0.4179</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>32</v>
+      </c>
+      <c r="D152">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152">
+        <v>0.375</v>
+      </c>
+      <c r="G152">
+        <v>0.25</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J152">
+        <v>2237</v>
+      </c>
+      <c r="K152">
+        <v>1628</v>
+      </c>
+      <c r="L152">
+        <v>283</v>
+      </c>
+      <c r="M152">
+        <v>0.7278</v>
+      </c>
+      <c r="N152">
+        <v>0.1738</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0.6667</v>
+      </c>
+      <c r="G153">
+        <v>0.5</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J153">
+        <v>355</v>
+      </c>
+      <c r="K153">
+        <v>325</v>
+      </c>
+      <c r="L153">
+        <v>210</v>
+      </c>
+      <c r="M153">
+        <v>0.9155</v>
+      </c>
+      <c r="N153">
+        <v>0.6462</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>0.4444</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J154">
+        <v>368</v>
+      </c>
+      <c r="K154">
+        <v>221</v>
+      </c>
+      <c r="L154">
+        <v>166</v>
+      </c>
+      <c r="M154">
+        <v>0.6005</v>
+      </c>
+      <c r="N154">
+        <v>0.7511</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0.3333</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J155">
+        <v>14</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0.1429</v>
+      </c>
+      <c r="N155">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0.1667</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J156">
+        <v>489</v>
+      </c>
+      <c r="K156">
+        <v>254</v>
+      </c>
+      <c r="L156">
+        <v>199</v>
+      </c>
+      <c r="M156">
+        <v>0.5194</v>
+      </c>
+      <c r="N156">
+        <v>0.7835</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>0.25</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J157">
+        <v>489</v>
+      </c>
+      <c r="K157">
+        <v>477</v>
+      </c>
+      <c r="L157">
+        <v>185</v>
+      </c>
+      <c r="M157">
+        <v>0.9755</v>
+      </c>
+      <c r="N157">
+        <v>0.3878</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0.1667</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J158">
+        <v>349</v>
+      </c>
+      <c r="K158">
+        <v>240</v>
+      </c>
+      <c r="L158">
+        <v>117</v>
+      </c>
+      <c r="M158">
+        <v>0.6877</v>
+      </c>
+      <c r="N158">
+        <v>0.4875</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>14</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>0.6429</v>
+      </c>
+      <c r="G159">
+        <v>0.5556</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J159">
+        <v>627</v>
+      </c>
+      <c r="K159">
+        <v>312</v>
+      </c>
+      <c r="L159">
+        <v>245</v>
+      </c>
+      <c r="M159">
+        <v>0.4976</v>
+      </c>
+      <c r="N159">
+        <v>0.7853</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J160">
+        <v>12</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>0.1667</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C161">
+        <v>14</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J161">
+        <v>1128</v>
+      </c>
+      <c r="K161">
+        <v>753</v>
+      </c>
+      <c r="L161">
+        <v>622</v>
+      </c>
+      <c r="M161">
+        <v>0.6676</v>
+      </c>
+      <c r="N161">
+        <v>0.826</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0.6667</v>
+      </c>
+      <c r="G162">
+        <v>0.5</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J162">
+        <v>383</v>
+      </c>
+      <c r="K162">
+        <v>358</v>
+      </c>
+      <c r="L162">
+        <v>229</v>
+      </c>
+      <c r="M162">
+        <v>0.9347</v>
+      </c>
+      <c r="N162">
+        <v>0.6397</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C163">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J163">
+        <v>699</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0.0029</v>
+      </c>
+      <c r="N163">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C164">
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>8</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>0.8889</v>
+      </c>
+      <c r="G164">
+        <v>0.375</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J164">
+        <v>1265</v>
+      </c>
+      <c r="K164">
+        <v>1248</v>
+      </c>
+      <c r="L164">
+        <v>257</v>
+      </c>
+      <c r="M164">
+        <v>0.9866</v>
+      </c>
+      <c r="N164">
+        <v>0.2059</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J165">
+        <v>13</v>
+      </c>
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>0.2308</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0.5</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J166">
+        <v>637</v>
+      </c>
+      <c r="K166">
+        <v>424</v>
+      </c>
+      <c r="L166">
+        <v>46</v>
+      </c>
+      <c r="M166">
+        <v>0.6656</v>
+      </c>
+      <c r="N166">
+        <v>0.1085</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J167">
+        <v>11</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>0.2727</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C168">
+        <v>9</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168">
+        <v>0.5556</v>
+      </c>
+      <c r="G168">
+        <v>0.6</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J168">
+        <v>519</v>
+      </c>
+      <c r="K168">
+        <v>175</v>
+      </c>
+      <c r="L168">
+        <v>128</v>
+      </c>
+      <c r="M168">
+        <v>0.3372</v>
+      </c>
+      <c r="N168">
+        <v>0.7314000000000001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J169">
+        <v>492</v>
+      </c>
+      <c r="K169">
+        <v>463</v>
+      </c>
+      <c r="L169">
+        <v>135</v>
+      </c>
+      <c r="M169">
+        <v>0.9411</v>
+      </c>
+      <c r="N169">
+        <v>0.2916</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J170">
+        <v>9</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0.1111</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C171">
+        <v>9</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>0.7778</v>
+      </c>
+      <c r="G171">
+        <v>0.2857</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J171">
+        <v>1436</v>
+      </c>
+      <c r="K171">
+        <v>1433</v>
+      </c>
+      <c r="L171">
+        <v>490</v>
+      </c>
+      <c r="M171">
+        <v>0.9979</v>
+      </c>
+      <c r="N171">
+        <v>0.3419</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J172">
+        <v>4</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0.25</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>9</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0.2222</v>
+      </c>
+      <c r="G173">
+        <v>0.5</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J173">
+        <v>399</v>
+      </c>
+      <c r="K173">
+        <v>320</v>
+      </c>
+      <c r="L173">
+        <v>214</v>
+      </c>
+      <c r="M173">
+        <v>0.802</v>
+      </c>
+      <c r="N173">
+        <v>0.6688</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C174">
+        <v>73</v>
+      </c>
+      <c r="D174">
+        <v>15</v>
+      </c>
+      <c r="E174">
+        <v>8</v>
+      </c>
+      <c r="F174">
+        <v>0.2055</v>
+      </c>
+      <c r="G174">
+        <v>0.5333</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J174">
+        <v>1081</v>
+      </c>
+      <c r="K174">
+        <v>669</v>
+      </c>
+      <c r="L174">
+        <v>356</v>
+      </c>
+      <c r="M174">
+        <v>0.6189</v>
+      </c>
+      <c r="N174">
+        <v>0.5321</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2020-03-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C175">
+        <v>222</v>
+      </c>
+      <c r="D175">
+        <v>78</v>
+      </c>
+      <c r="E175">
+        <v>35</v>
+      </c>
+      <c r="F175">
+        <v>0.3514</v>
+      </c>
+      <c r="G175">
+        <v>0.4487</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2020-03-26T08:00:00</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J175">
+        <v>13016</v>
+      </c>
+      <c r="K175">
+        <v>9314</v>
+      </c>
+      <c r="L175">
+        <v>3892</v>
+      </c>
+      <c r="M175">
+        <v>0.7156</v>
+      </c>
+      <c r="N175">
+        <v>0.4179</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -452,19 +452,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K2">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L2">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M2">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N2">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -501,19 +501,19 @@
         </is>
       </c>
       <c r="J3">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K3">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L3">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M3">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N3">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="J4">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K4">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L4">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M4">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N4">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K5">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L5">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M5">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N5">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="6">
@@ -639,7 +639,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K6">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L6">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M6">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N6">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +688,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K7">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L7">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M7">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N7">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K8">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M8">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N8">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="9">
@@ -786,7 +786,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K9">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L9">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M9">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N9">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K10">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L10">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M10">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N10">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="11">
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K11">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N11">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="12">
@@ -933,7 +933,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -942,19 +942,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K12">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L12">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M12">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N12">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -991,19 +991,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K13">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L13">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M13">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N13">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="14">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K14">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L14">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M14">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N14">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1089,19 +1089,19 @@
         </is>
       </c>
       <c r="J15">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1138,19 +1138,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K16">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L16">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M16">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N16">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1187,19 +1187,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K17">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L17">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M17">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N17">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K18">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L18">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M18">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N18">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="19">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K19">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L19">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M19">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N19">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K20">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L20">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M20">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N20">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="21">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1383,19 +1383,19 @@
         </is>
       </c>
       <c r="J21">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K21">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L21">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M21">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N21">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="22">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="J22">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K22">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L22">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M22">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N22">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="23">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K23">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L23">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M23">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N23">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="24">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K24">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L24">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M24">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N24">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1579,19 +1579,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K25">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L25">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M25">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N25">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="26">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="J26">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K26">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L26">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M26">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N26">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="27">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1677,19 +1677,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K27">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L27">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M27">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N27">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="28">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1726,19 +1726,19 @@
         </is>
       </c>
       <c r="J28">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K28">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L28">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M28">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N28">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="29">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1775,19 +1775,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K29">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M29">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N29">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="30">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K30">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L30">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M30">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N30">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="31">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K31">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L31">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M31">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N31">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="32">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K32">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L32">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M32">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N32">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="33">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1971,19 +1971,19 @@
         </is>
       </c>
       <c r="J33">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K34">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L34">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M34">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N34">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="35">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2069,19 +2069,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K35">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L35">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M35">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N35">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="36">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2118,19 +2118,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K36">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L36">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M36">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N36">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="37">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2167,19 +2167,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K37">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L37">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M37">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N37">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="38">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="J38">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K38">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L38">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M38">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N38">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="39">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="J39">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K39">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L39">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M39">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N39">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="40">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="J40">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K40">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L40">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M40">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N40">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="41">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="J41">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K41">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L41">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M41">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N41">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="42">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="J42">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K42">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L42">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M42">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N42">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="43">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2461,19 +2461,19 @@
         </is>
       </c>
       <c r="J43">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K43">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L43">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M43">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N43">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="44">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2510,19 +2510,19 @@
         </is>
       </c>
       <c r="J44">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K44">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L44">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M44">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N44">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="45">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2559,19 +2559,19 @@
         </is>
       </c>
       <c r="J45">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K45">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L45">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M45">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N45">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="46">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="J46">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K46">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L46">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M46">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N46">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="47">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2657,19 +2657,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K47">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M47">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N47">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="48">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="J48">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K48">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L48">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M48">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N48">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="49">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2755,19 +2755,19 @@
         </is>
       </c>
       <c r="J49">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K49">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L49">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M49">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N49">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="50">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="J50">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K50">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L50">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M50">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N50">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="51">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2853,19 +2853,19 @@
         </is>
       </c>
       <c r="J51">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N51">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2902,19 +2902,19 @@
         </is>
       </c>
       <c r="J52">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K52">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L52">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M52">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N52">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="53">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2951,19 +2951,19 @@
         </is>
       </c>
       <c r="J53">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K53">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L53">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M53">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N53">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="54">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K54">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L54">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M54">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N54">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="55">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3049,19 +3049,19 @@
         </is>
       </c>
       <c r="J55">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K55">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L55">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M55">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N55">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="56">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3098,19 +3098,19 @@
         </is>
       </c>
       <c r="J56">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K56">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L56">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M56">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N56">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="57">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="J57">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K57">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L57">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M57">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N57">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="58">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="J58">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K58">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L58">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M58">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N58">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="59">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3245,19 +3245,19 @@
         </is>
       </c>
       <c r="J59">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K59">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L59">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M59">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N59">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="60">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3294,19 +3294,19 @@
         </is>
       </c>
       <c r="J60">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K60">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L60">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M60">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N60">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="61">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3343,19 +3343,19 @@
         </is>
       </c>
       <c r="J61">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K61">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L61">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M61">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N61">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="62">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3392,19 +3392,19 @@
         </is>
       </c>
       <c r="J62">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K62">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L62">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M62">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N62">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="63">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3441,19 +3441,19 @@
         </is>
       </c>
       <c r="J63">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K63">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L63">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M63">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N63">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="64">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3490,19 +3490,19 @@
         </is>
       </c>
       <c r="J64">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K64">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L64">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M64">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N64">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="65">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3539,19 +3539,19 @@
         </is>
       </c>
       <c r="J65">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K65">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L65">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M65">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N65">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="66">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3588,19 +3588,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K66">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L66">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M66">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N66">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="67">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="J67">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K67">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L67">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M67">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N67">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="68">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3686,19 +3686,19 @@
         </is>
       </c>
       <c r="J68">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K68">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L68">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M68">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N68">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="69">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3735,19 +3735,19 @@
         </is>
       </c>
       <c r="J69">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N69">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3784,19 +3784,19 @@
         </is>
       </c>
       <c r="J70">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K70">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L70">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M70">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N70">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="71">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3833,19 +3833,19 @@
         </is>
       </c>
       <c r="J71">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K71">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L71">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M71">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N71">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="72">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3882,19 +3882,19 @@
         </is>
       </c>
       <c r="J72">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K72">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L72">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M72">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N72">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="73">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3931,19 +3931,19 @@
         </is>
       </c>
       <c r="J73">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K73">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L73">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M73">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N73">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="74">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3980,19 +3980,19 @@
         </is>
       </c>
       <c r="J74">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K74">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L74">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M74">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N74">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="75">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4029,19 +4029,19 @@
         </is>
       </c>
       <c r="J75">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K75">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L75">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M75">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N75">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="76">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4078,19 +4078,19 @@
         </is>
       </c>
       <c r="J76">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K76">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L76">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M76">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N76">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="77">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4127,19 +4127,19 @@
         </is>
       </c>
       <c r="J77">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K77">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L77">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M77">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N77">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="78">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4176,19 +4176,19 @@
         </is>
       </c>
       <c r="J78">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K78">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L78">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M78">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N78">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="79">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4225,19 +4225,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K79">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L79">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M79">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N79">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="80">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4274,19 +4274,19 @@
         </is>
       </c>
       <c r="J80">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K80">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L80">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M80">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N80">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="81">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4323,19 +4323,19 @@
         </is>
       </c>
       <c r="J81">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K81">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L81">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M81">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N81">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="82">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4372,19 +4372,19 @@
         </is>
       </c>
       <c r="J82">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K82">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L82">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M82">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N82">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="83">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4421,19 +4421,19 @@
         </is>
       </c>
       <c r="J83">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K83">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L83">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M83">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N83">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="84">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4470,19 +4470,19 @@
         </is>
       </c>
       <c r="J84">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K84">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L84">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M84">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N84">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="85">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4519,19 +4519,19 @@
         </is>
       </c>
       <c r="J85">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K85">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L85">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M85">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N85">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="86">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4568,19 +4568,19 @@
         </is>
       </c>
       <c r="J86">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K86">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L86">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M86">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N86">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="87">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4617,19 +4617,19 @@
         </is>
       </c>
       <c r="J87">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N87">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="88">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4666,19 +4666,19 @@
         </is>
       </c>
       <c r="J88">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K88">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L88">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M88">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N88">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="89">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4715,19 +4715,19 @@
         </is>
       </c>
       <c r="J89">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K89">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L89">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M89">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N89">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="90">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4764,19 +4764,19 @@
         </is>
       </c>
       <c r="J90">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K90">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L90">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M90">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N90">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="91">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4813,19 +4813,19 @@
         </is>
       </c>
       <c r="J91">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K91">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L91">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M91">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N91">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="92">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4862,19 +4862,19 @@
         </is>
       </c>
       <c r="J92">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K92">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L92">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M92">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N92">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="93">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4911,19 +4911,19 @@
         </is>
       </c>
       <c r="J93">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K93">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L93">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M93">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N93">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="94">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4960,19 +4960,19 @@
         </is>
       </c>
       <c r="J94">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K94">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L94">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M94">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N94">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="95">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5009,19 +5009,19 @@
         </is>
       </c>
       <c r="J95">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K95">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L95">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M95">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N95">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="96">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5058,19 +5058,19 @@
         </is>
       </c>
       <c r="J96">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K96">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L96">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M96">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N96">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="97">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5107,19 +5107,19 @@
         </is>
       </c>
       <c r="J97">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K97">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L97">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M97">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N97">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="98">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5156,19 +5156,19 @@
         </is>
       </c>
       <c r="J98">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K98">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L98">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M98">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N98">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="99">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5205,19 +5205,19 @@
         </is>
       </c>
       <c r="J99">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K99">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L99">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M99">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N99">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="100">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="J100">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K100">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L100">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M100">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N100">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="101">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5303,19 +5303,19 @@
         </is>
       </c>
       <c r="J101">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K101">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L101">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M101">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N101">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="102">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5352,19 +5352,19 @@
         </is>
       </c>
       <c r="J102">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K102">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L102">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M102">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N102">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="103">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5401,19 +5401,19 @@
         </is>
       </c>
       <c r="J103">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K103">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L103">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M103">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N103">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="104">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5450,19 +5450,19 @@
         </is>
       </c>
       <c r="J104">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K104">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L104">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M104">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N104">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="105">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5499,19 +5499,19 @@
         </is>
       </c>
       <c r="J105">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N105">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="106">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5548,19 +5548,19 @@
         </is>
       </c>
       <c r="J106">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K106">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L106">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M106">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N106">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="107">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5597,19 +5597,19 @@
         </is>
       </c>
       <c r="J107">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K107">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L107">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M107">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N107">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="108">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5646,19 +5646,19 @@
         </is>
       </c>
       <c r="J108">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K108">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L108">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M108">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N108">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="109">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5695,19 +5695,19 @@
         </is>
       </c>
       <c r="J109">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K109">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L109">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M109">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N109">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="110">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5747,19 +5747,19 @@
         </is>
       </c>
       <c r="J110">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K110">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L110">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M110">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N110">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="111">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5799,19 +5799,19 @@
         </is>
       </c>
       <c r="J111">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K111">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L111">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M111">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N111">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="112">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5851,19 +5851,19 @@
         </is>
       </c>
       <c r="J112">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K112">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L112">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M112">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N112">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="113">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5903,19 +5903,19 @@
         </is>
       </c>
       <c r="J113">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K113">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L113">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M113">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N113">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="114">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -5955,19 +5955,19 @@
         </is>
       </c>
       <c r="J114">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K114">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L114">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M114">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N114">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="115">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6007,19 +6007,19 @@
         </is>
       </c>
       <c r="J115">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K115">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L115">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M115">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N115">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="116">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6059,19 +6059,19 @@
         </is>
       </c>
       <c r="J116">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K116">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L116">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M116">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N116">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="117">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6111,19 +6111,19 @@
         </is>
       </c>
       <c r="J117">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K117">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L117">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M117">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N117">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="118">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6163,19 +6163,19 @@
         </is>
       </c>
       <c r="J118">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K118">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L118">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M118">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N118">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="119">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6215,19 +6215,19 @@
         </is>
       </c>
       <c r="J119">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K119">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L119">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M119">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N119">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="120">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6267,19 +6267,19 @@
         </is>
       </c>
       <c r="J120">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K120">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L120">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M120">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N120">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="121">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6319,19 +6319,19 @@
         </is>
       </c>
       <c r="J121">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K121">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L121">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M121">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N121">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="122">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6371,19 +6371,19 @@
         </is>
       </c>
       <c r="J122">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K122">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L122">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M122">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N122">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="123">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6420,19 +6420,19 @@
         </is>
       </c>
       <c r="J123">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N123">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="124">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="J124">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K124">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L124">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M124">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N124">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="125">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6524,19 +6524,19 @@
         </is>
       </c>
       <c r="J125">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K125">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L125">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M125">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N125">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="126">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6576,19 +6576,19 @@
         </is>
       </c>
       <c r="J126">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K126">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L126">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M126">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N126">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="127">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6628,19 +6628,19 @@
         </is>
       </c>
       <c r="J127">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K127">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L127">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M127">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N127">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="128">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6680,19 +6680,19 @@
         </is>
       </c>
       <c r="J128">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K128">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L128">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M128">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N128">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="129">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6729,19 +6729,19 @@
         </is>
       </c>
       <c r="J129">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K129">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L129">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M129">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N129">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="130">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6778,19 +6778,19 @@
         </is>
       </c>
       <c r="J130">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K130">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L130">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M130">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N130">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="131">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6827,19 +6827,19 @@
         </is>
       </c>
       <c r="J131">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
         <v>2</v>
       </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
       <c r="M131">
-        <v>0.1429</v>
+        <v>0.1875</v>
       </c>
       <c r="N131">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="132">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6876,19 +6876,19 @@
         </is>
       </c>
       <c r="J132">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K132">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L132">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M132">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N132">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="133">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6925,19 +6925,19 @@
         </is>
       </c>
       <c r="J133">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K133">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L133">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M133">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N133">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="134">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6974,19 +6974,19 @@
         </is>
       </c>
       <c r="J134">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K134">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L134">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M134">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N134">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="135">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7026,19 +7026,19 @@
         </is>
       </c>
       <c r="J135">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K135">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L135">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M135">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N135">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="136">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7075,16 +7075,16 @@
         </is>
       </c>
       <c r="J136">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>0.1667</v>
+        <v>0.2308</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7127,19 +7127,19 @@
         </is>
       </c>
       <c r="J137">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K137">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L137">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M137">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N137">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="138">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7179,19 +7179,19 @@
         </is>
       </c>
       <c r="J138">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K138">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L138">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M138">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N138">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="139">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7228,19 +7228,19 @@
         </is>
       </c>
       <c r="J139">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N139">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="140">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7280,19 +7280,19 @@
         </is>
       </c>
       <c r="J140">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K140">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L140">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M140">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N140">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="141">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="J141">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>0.2308</v>
+        <v>0.3571</v>
       </c>
       <c r="N141">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7381,19 +7381,19 @@
         </is>
       </c>
       <c r="J142">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K142">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L142">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M142">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N142">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="143">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="J143">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K143">
         <v>3</v>
@@ -7439,7 +7439,7 @@
         <v>3</v>
       </c>
       <c r="M143">
-        <v>0.2727</v>
+        <v>0.25</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7479,19 +7479,19 @@
         </is>
       </c>
       <c r="J144">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K144">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L144">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M144">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N144">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="145">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7531,19 +7531,19 @@
         </is>
       </c>
       <c r="J145">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K145">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L145">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M145">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N145">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="146">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7583,16 +7583,16 @@
         </is>
       </c>
       <c r="J146">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.1111</v>
+        <v>0.2</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7635,19 +7635,19 @@
         </is>
       </c>
       <c r="J147">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K147">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L147">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M147">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N147">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="148">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="J148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7733,19 +7733,19 @@
         </is>
       </c>
       <c r="J149">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K149">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L149">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M149">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N149">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="150">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7785,19 +7785,19 @@
         </is>
       </c>
       <c r="J150">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K150">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L150">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M150">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N150">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="151">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7837,19 +7837,19 @@
         </is>
       </c>
       <c r="J151">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K151">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L151">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M151">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N151">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="152">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7889,19 +7889,19 @@
         </is>
       </c>
       <c r="J152">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K152">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L152">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M152">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N152">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="153">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7941,19 +7941,19 @@
         </is>
       </c>
       <c r="J153">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K153">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L153">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M153">
-        <v>0.9155</v>
+        <v>0.9171</v>
       </c>
       <c r="N153">
-        <v>0.6462</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="154">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7993,19 +7993,19 @@
         </is>
       </c>
       <c r="J154">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K154">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L154">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M154">
-        <v>0.6005</v>
+        <v>0.624</v>
       </c>
       <c r="N154">
-        <v>0.7511</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="155">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8045,19 +8045,19 @@
         </is>
       </c>
       <c r="J155">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
         <v>2</v>
       </c>
-      <c r="L155">
-        <v>1</v>
-      </c>
       <c r="M155">
-        <v>0.1429</v>
+        <v>0.1875</v>
       </c>
       <c r="N155">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="156">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8097,19 +8097,19 @@
         </is>
       </c>
       <c r="J156">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K156">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L156">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M156">
-        <v>0.5194</v>
+        <v>0.5294</v>
       </c>
       <c r="N156">
-        <v>0.7835</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="157">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8149,19 +8149,19 @@
         </is>
       </c>
       <c r="J157">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K157">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L157">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M157">
-        <v>0.9755</v>
+        <v>0.9396</v>
       </c>
       <c r="N157">
-        <v>0.3878</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="158">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8201,19 +8201,19 @@
         </is>
       </c>
       <c r="J158">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K158">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L158">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M158">
-        <v>0.6877</v>
+        <v>0.6958</v>
       </c>
       <c r="N158">
-        <v>0.4875</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="159">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8253,19 +8253,19 @@
         </is>
       </c>
       <c r="J159">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K159">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="L159">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="M159">
-        <v>0.4976</v>
+        <v>0.7504</v>
       </c>
       <c r="N159">
-        <v>0.7853</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="160">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8302,16 +8302,16 @@
         </is>
       </c>
       <c r="J160">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M160">
-        <v>0.1667</v>
+        <v>0.2308</v>
       </c>
       <c r="N160">
         <v>1</v>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8351,19 +8351,19 @@
         </is>
       </c>
       <c r="J161">
-        <v>1128</v>
+        <v>1178</v>
       </c>
       <c r="K161">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="L161">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="M161">
-        <v>0.6676</v>
+        <v>0.652</v>
       </c>
       <c r="N161">
-        <v>0.826</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="162">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8403,19 +8403,19 @@
         </is>
       </c>
       <c r="J162">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K162">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L162">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M162">
-        <v>0.9347</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N162">
-        <v>0.6397</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="163">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8452,19 +8452,19 @@
         </is>
       </c>
       <c r="J163">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M163">
-        <v>0.0029</v>
+        <v>0.0071</v>
       </c>
       <c r="N163">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="164">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8504,19 +8504,19 @@
         </is>
       </c>
       <c r="J164">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="K164">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="L164">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M164">
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="N164">
-        <v>0.2059</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="165">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8553,19 +8553,19 @@
         </is>
       </c>
       <c r="J165">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>0.2308</v>
+        <v>0.3571</v>
       </c>
       <c r="N165">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8605,19 +8605,19 @@
         </is>
       </c>
       <c r="J166">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K166">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L166">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M166">
-        <v>0.6656</v>
+        <v>0.679</v>
       </c>
       <c r="N166">
-        <v>0.1085</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="167">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="J167">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K167">
         <v>3</v>
@@ -8666,7 +8666,7 @@
         <v>3</v>
       </c>
       <c r="M167">
-        <v>0.2727</v>
+        <v>0.25</v>
       </c>
       <c r="N167">
         <v>1</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8709,19 +8709,19 @@
         </is>
       </c>
       <c r="J168">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K168">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L168">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M168">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
       <c r="N168">
-        <v>0.7314000000000001</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="169">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -8761,19 +8761,19 @@
         </is>
       </c>
       <c r="J169">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K169">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L169">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M169">
-        <v>0.9411</v>
+        <v>0.9701</v>
       </c>
       <c r="N169">
-        <v>0.2916</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="170">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -8810,16 +8810,16 @@
         </is>
       </c>
       <c r="J170">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L170">
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.1111</v>
+        <v>0.2</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8862,19 +8862,19 @@
         </is>
       </c>
       <c r="J171">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="K171">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="L171">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="M171">
-        <v>0.9979</v>
+        <v>0.9671</v>
       </c>
       <c r="N171">
-        <v>0.3419</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="172">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="J172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K172">
         <v>1</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -8960,19 +8960,19 @@
         </is>
       </c>
       <c r="J173">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K173">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L173">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M173">
-        <v>0.802</v>
+        <v>0.8084</v>
       </c>
       <c r="N173">
-        <v>0.6688</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="174">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9012,19 +9012,19 @@
         </is>
       </c>
       <c r="J174">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K174">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L174">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M174">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N174">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="175">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9064,19 +9064,2461 @@
         </is>
       </c>
       <c r="J175">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="K175">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="L175">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="M175">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="N175">
-        <v>0.4179</v>
+        <v>0.4231</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C176">
+        <v>19</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>0.2632</v>
+      </c>
+      <c r="G176">
+        <v>0.4</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J176">
+        <v>2325</v>
+      </c>
+      <c r="K176">
+        <v>1951</v>
+      </c>
+      <c r="L176">
+        <v>316</v>
+      </c>
+      <c r="M176">
+        <v>0.8391</v>
+      </c>
+      <c r="N176">
+        <v>0.162</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J177">
+        <v>362</v>
+      </c>
+      <c r="K177">
+        <v>332</v>
+      </c>
+      <c r="L177">
+        <v>218</v>
+      </c>
+      <c r="M177">
+        <v>0.9171</v>
+      </c>
+      <c r="N177">
+        <v>0.6566</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J178">
+        <v>383</v>
+      </c>
+      <c r="K178">
+        <v>239</v>
+      </c>
+      <c r="L178">
+        <v>177</v>
+      </c>
+      <c r="M178">
+        <v>0.624</v>
+      </c>
+      <c r="N178">
+        <v>0.7406</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J179">
+        <v>16</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>0.1875</v>
+      </c>
+      <c r="N179">
+        <v>0.6667</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J180">
+        <v>493</v>
+      </c>
+      <c r="K180">
+        <v>261</v>
+      </c>
+      <c r="L180">
+        <v>204</v>
+      </c>
+      <c r="M180">
+        <v>0.5294</v>
+      </c>
+      <c r="N180">
+        <v>0.7816</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0.6667</v>
+      </c>
+      <c r="G181">
+        <v>0.5</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J181">
+        <v>513</v>
+      </c>
+      <c r="K181">
+        <v>482</v>
+      </c>
+      <c r="L181">
+        <v>195</v>
+      </c>
+      <c r="M181">
+        <v>0.9396</v>
+      </c>
+      <c r="N181">
+        <v>0.4046</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0.5</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J182">
+        <v>355</v>
+      </c>
+      <c r="K182">
+        <v>247</v>
+      </c>
+      <c r="L182">
+        <v>123</v>
+      </c>
+      <c r="M182">
+        <v>0.6958</v>
+      </c>
+      <c r="N182">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J183">
+        <v>637</v>
+      </c>
+      <c r="K183">
+        <v>478</v>
+      </c>
+      <c r="L183">
+        <v>341</v>
+      </c>
+      <c r="M183">
+        <v>0.7504</v>
+      </c>
+      <c r="N183">
+        <v>0.7134</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J184">
+        <v>13</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>0.2308</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J185">
+        <v>1178</v>
+      </c>
+      <c r="K185">
+        <v>768</v>
+      </c>
+      <c r="L185">
+        <v>655</v>
+      </c>
+      <c r="M185">
+        <v>0.652</v>
+      </c>
+      <c r="N185">
+        <v>0.8529</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0.6667</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J186">
+        <v>387</v>
+      </c>
+      <c r="K186">
+        <v>370</v>
+      </c>
+      <c r="L186">
+        <v>234</v>
+      </c>
+      <c r="M186">
+        <v>0.9560999999999999</v>
+      </c>
+      <c r="N186">
+        <v>0.6324</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J187">
+        <v>705</v>
+      </c>
+      <c r="K187">
+        <v>5</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>0.0071</v>
+      </c>
+      <c r="N187">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>0.4</v>
+      </c>
+      <c r="G188">
+        <v>0.5</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J188">
+        <v>1315</v>
+      </c>
+      <c r="K188">
+        <v>1259</v>
+      </c>
+      <c r="L188">
+        <v>301</v>
+      </c>
+      <c r="M188">
+        <v>0.9574</v>
+      </c>
+      <c r="N188">
+        <v>0.2391</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J189">
+        <v>14</v>
+      </c>
+      <c r="K189">
+        <v>5</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>0.3571</v>
+      </c>
+      <c r="N189">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>0.5</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J190">
+        <v>648</v>
+      </c>
+      <c r="K190">
+        <v>440</v>
+      </c>
+      <c r="L190">
+        <v>53</v>
+      </c>
+      <c r="M190">
+        <v>0.679</v>
+      </c>
+      <c r="N190">
+        <v>0.1205</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J191">
+        <v>12</v>
+      </c>
+      <c r="K191">
+        <v>3</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>0.25</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J192">
+        <v>542</v>
+      </c>
+      <c r="K192">
+        <v>183</v>
+      </c>
+      <c r="L192">
+        <v>133</v>
+      </c>
+      <c r="M192">
+        <v>0.3376</v>
+      </c>
+      <c r="N192">
+        <v>0.7268</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>0.5</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J193">
+        <v>501</v>
+      </c>
+      <c r="K193">
+        <v>486</v>
+      </c>
+      <c r="L193">
+        <v>141</v>
+      </c>
+      <c r="M193">
+        <v>0.9701</v>
+      </c>
+      <c r="N193">
+        <v>0.2901</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J194">
+        <v>10</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0.2</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>0.4</v>
+      </c>
+      <c r="G195">
+        <v>0.5</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J195">
+        <v>1490</v>
+      </c>
+      <c r="K195">
+        <v>1441</v>
+      </c>
+      <c r="L195">
+        <v>516</v>
+      </c>
+      <c r="M195">
+        <v>0.9671</v>
+      </c>
+      <c r="N195">
+        <v>0.3581</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J196">
+        <v>5</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0.2</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>0.75</v>
+      </c>
+      <c r="G197">
+        <v>0.3333</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J197">
+        <v>407</v>
+      </c>
+      <c r="K197">
+        <v>329</v>
+      </c>
+      <c r="L197">
+        <v>221</v>
+      </c>
+      <c r="M197">
+        <v>0.8084</v>
+      </c>
+      <c r="N197">
+        <v>0.6717</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C198">
+        <v>37</v>
+      </c>
+      <c r="D198">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198">
+        <v>0.1892</v>
+      </c>
+      <c r="G198">
+        <v>0.7143</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J198">
+        <v>953</v>
+      </c>
+      <c r="K198">
+        <v>710</v>
+      </c>
+      <c r="L198">
+        <v>387</v>
+      </c>
+      <c r="M198">
+        <v>0.745</v>
+      </c>
+      <c r="N198">
+        <v>0.5451</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2020-03-26T00:00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C199">
+        <v>105</v>
+      </c>
+      <c r="D199">
+        <v>30</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
+      </c>
+      <c r="F199">
+        <v>0.2857</v>
+      </c>
+      <c r="G199">
+        <v>0.5</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J199">
+        <v>13264</v>
+      </c>
+      <c r="K199">
+        <v>9998</v>
+      </c>
+      <c r="L199">
+        <v>4230</v>
+      </c>
+      <c r="M199">
+        <v>0.7538</v>
+      </c>
+      <c r="N199">
+        <v>0.4231</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C200">
+        <v>26</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>5</v>
+      </c>
+      <c r="F200">
+        <v>0.3462</v>
+      </c>
+      <c r="G200">
+        <v>0.5556</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J200">
+        <v>2325</v>
+      </c>
+      <c r="K200">
+        <v>1951</v>
+      </c>
+      <c r="L200">
+        <v>316</v>
+      </c>
+      <c r="M200">
+        <v>0.8391</v>
+      </c>
+      <c r="N200">
+        <v>0.162</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>0.3333</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J201">
+        <v>362</v>
+      </c>
+      <c r="K201">
+        <v>332</v>
+      </c>
+      <c r="L201">
+        <v>218</v>
+      </c>
+      <c r="M201">
+        <v>0.9171</v>
+      </c>
+      <c r="N201">
+        <v>0.6566</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>11</v>
+      </c>
+      <c r="E202">
+        <v>3</v>
+      </c>
+      <c r="F202">
+        <v>0.9167</v>
+      </c>
+      <c r="G202">
+        <v>0.2727</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J202">
+        <v>383</v>
+      </c>
+      <c r="K202">
+        <v>239</v>
+      </c>
+      <c r="L202">
+        <v>177</v>
+      </c>
+      <c r="M202">
+        <v>0.624</v>
+      </c>
+      <c r="N202">
+        <v>0.7406</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J203">
+        <v>16</v>
+      </c>
+      <c r="K203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>0.1875</v>
+      </c>
+      <c r="N203">
+        <v>0.6667</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J204">
+        <v>493</v>
+      </c>
+      <c r="K204">
+        <v>261</v>
+      </c>
+      <c r="L204">
+        <v>204</v>
+      </c>
+      <c r="M204">
+        <v>0.5294</v>
+      </c>
+      <c r="N204">
+        <v>0.7816</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0.5</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J205">
+        <v>513</v>
+      </c>
+      <c r="K205">
+        <v>482</v>
+      </c>
+      <c r="L205">
+        <v>195</v>
+      </c>
+      <c r="M205">
+        <v>0.9396</v>
+      </c>
+      <c r="N205">
+        <v>0.4046</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>0.6</v>
+      </c>
+      <c r="G206">
+        <v>0.6667</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J206">
+        <v>355</v>
+      </c>
+      <c r="K206">
+        <v>247</v>
+      </c>
+      <c r="L206">
+        <v>123</v>
+      </c>
+      <c r="M206">
+        <v>0.6958</v>
+      </c>
+      <c r="N206">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C207">
+        <v>7</v>
+      </c>
+      <c r="D207">
+        <v>7</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0.4286</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J207">
+        <v>637</v>
+      </c>
+      <c r="K207">
+        <v>478</v>
+      </c>
+      <c r="L207">
+        <v>341</v>
+      </c>
+      <c r="M207">
+        <v>0.7504</v>
+      </c>
+      <c r="N207">
+        <v>0.7134</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J208">
+        <v>13</v>
+      </c>
+      <c r="K208">
+        <v>3</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>0.2308</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C209">
+        <v>12</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209">
+        <v>0.5833</v>
+      </c>
+      <c r="G209">
+        <v>0.4286</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J209">
+        <v>1178</v>
+      </c>
+      <c r="K209">
+        <v>768</v>
+      </c>
+      <c r="L209">
+        <v>655</v>
+      </c>
+      <c r="M209">
+        <v>0.652</v>
+      </c>
+      <c r="N209">
+        <v>0.8529</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J210">
+        <v>387</v>
+      </c>
+      <c r="K210">
+        <v>370</v>
+      </c>
+      <c r="L210">
+        <v>234</v>
+      </c>
+      <c r="M210">
+        <v>0.9560999999999999</v>
+      </c>
+      <c r="N210">
+        <v>0.6324</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J211">
+        <v>705</v>
+      </c>
+      <c r="K211">
+        <v>5</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>0.0071</v>
+      </c>
+      <c r="N211">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>4</v>
+      </c>
+      <c r="F212">
+        <v>0.7</v>
+      </c>
+      <c r="G212">
+        <v>0.5714</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J212">
+        <v>1315</v>
+      </c>
+      <c r="K212">
+        <v>1259</v>
+      </c>
+      <c r="L212">
+        <v>301</v>
+      </c>
+      <c r="M212">
+        <v>0.9574</v>
+      </c>
+      <c r="N212">
+        <v>0.2391</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J213">
+        <v>14</v>
+      </c>
+      <c r="K213">
+        <v>5</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>0.3571</v>
+      </c>
+      <c r="N213">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>0.5714</v>
+      </c>
+      <c r="G214">
+        <v>0.25</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J214">
+        <v>648</v>
+      </c>
+      <c r="K214">
+        <v>440</v>
+      </c>
+      <c r="L214">
+        <v>53</v>
+      </c>
+      <c r="M214">
+        <v>0.679</v>
+      </c>
+      <c r="N214">
+        <v>0.1205</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J215">
+        <v>12</v>
+      </c>
+      <c r="K215">
+        <v>3</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>0.25</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J216">
+        <v>542</v>
+      </c>
+      <c r="K216">
+        <v>183</v>
+      </c>
+      <c r="L216">
+        <v>133</v>
+      </c>
+      <c r="M216">
+        <v>0.3376</v>
+      </c>
+      <c r="N216">
+        <v>0.7268</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C217">
+        <v>7</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217">
+        <v>0.7143</v>
+      </c>
+      <c r="G217">
+        <v>0.4</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J217">
+        <v>501</v>
+      </c>
+      <c r="K217">
+        <v>486</v>
+      </c>
+      <c r="L217">
+        <v>141</v>
+      </c>
+      <c r="M217">
+        <v>0.9701</v>
+      </c>
+      <c r="N217">
+        <v>0.2901</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J218">
+        <v>10</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0.2</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C219">
+        <v>11</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0.4545</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J219">
+        <v>1490</v>
+      </c>
+      <c r="K219">
+        <v>1441</v>
+      </c>
+      <c r="L219">
+        <v>516</v>
+      </c>
+      <c r="M219">
+        <v>0.9671</v>
+      </c>
+      <c r="N219">
+        <v>0.3581</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J220">
+        <v>5</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0.2</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0.75</v>
+      </c>
+      <c r="G221">
+        <v>0.3333</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J221">
+        <v>407</v>
+      </c>
+      <c r="K221">
+        <v>329</v>
+      </c>
+      <c r="L221">
+        <v>221</v>
+      </c>
+      <c r="M221">
+        <v>0.8084</v>
+      </c>
+      <c r="N221">
+        <v>0.6717</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C222">
+        <v>38</v>
+      </c>
+      <c r="D222">
+        <v>14</v>
+      </c>
+      <c r="E222">
+        <v>9</v>
+      </c>
+      <c r="F222">
+        <v>0.3684</v>
+      </c>
+      <c r="G222">
+        <v>0.6429</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J222">
+        <v>953</v>
+      </c>
+      <c r="K222">
+        <v>710</v>
+      </c>
+      <c r="L222">
+        <v>387</v>
+      </c>
+      <c r="M222">
+        <v>0.745</v>
+      </c>
+      <c r="N222">
+        <v>0.5451</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2020-03-27T00:00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C223">
+        <v>154</v>
+      </c>
+      <c r="D223">
+        <v>89</v>
+      </c>
+      <c r="E223">
+        <v>40</v>
+      </c>
+      <c r="F223">
+        <v>0.5779</v>
+      </c>
+      <c r="G223">
+        <v>0.4494</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J223">
+        <v>13264</v>
+      </c>
+      <c r="K223">
+        <v>9998</v>
+      </c>
+      <c r="L223">
+        <v>4230</v>
+      </c>
+      <c r="M223">
+        <v>0.7538</v>
+      </c>
+      <c r="N223">
+        <v>0.4231</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N223"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -455,16 +455,16 @@
         <v>637</v>
       </c>
       <c r="K2">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M2">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N2">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -501,19 +501,19 @@
         </is>
       </c>
       <c r="J3">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K3">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L3">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M3">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N3">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -553,16 +553,16 @@
         <v>501</v>
       </c>
       <c r="K4">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L4">
         <v>141</v>
       </c>
       <c r="M4">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N4">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K5">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L5">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M5">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N5">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="6">
@@ -639,7 +639,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K6">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L6">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M6">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N6">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +688,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K7">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L7">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M7">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N7">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="8">
@@ -737,7 +737,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -752,13 +752,13 @@
         <v>261</v>
       </c>
       <c r="L8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M8">
         <v>0.5294</v>
       </c>
       <c r="N8">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="9">
@@ -786,7 +786,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K9">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L9">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M9">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N9">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K10">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L10">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M10">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N10">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="11">
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K11">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N11">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="12">
@@ -933,7 +933,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -942,19 +942,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K12">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L12">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M12">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N12">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -991,19 +991,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K13">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L13">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M13">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N13">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="14">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1046,13 +1046,13 @@
         <v>329</v>
       </c>
       <c r="L14">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M14">
         <v>0.8084</v>
       </c>
       <c r="N14">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1089,19 +1089,19 @@
         </is>
       </c>
       <c r="J15">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1187,19 +1187,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K17">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L17">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M17">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N17">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K18">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L18">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M18">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N18">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="19">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K19">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L19">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M19">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N19">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1337,16 +1337,16 @@
         <v>637</v>
       </c>
       <c r="K20">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L20">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M20">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N20">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="21">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1383,19 +1383,19 @@
         </is>
       </c>
       <c r="J21">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K21">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L21">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N21">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="22">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1435,16 +1435,16 @@
         <v>501</v>
       </c>
       <c r="K22">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L22">
         <v>141</v>
       </c>
       <c r="M22">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N22">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="23">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K23">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L23">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M23">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N23">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="24">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K24">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L24">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M24">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N24">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1579,19 +1579,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K25">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L25">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M25">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N25">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="26">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1634,13 +1634,13 @@
         <v>261</v>
       </c>
       <c r="L26">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M26">
         <v>0.5294</v>
       </c>
       <c r="N26">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="27">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1677,19 +1677,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K27">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L27">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M27">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N27">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="28">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1726,19 +1726,19 @@
         </is>
       </c>
       <c r="J28">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K28">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M28">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N28">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="29">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1775,19 +1775,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K29">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L29">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M29">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N29">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="30">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K30">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L30">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M30">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N30">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K31">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L31">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M31">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N31">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="32">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1928,13 +1928,13 @@
         <v>329</v>
       </c>
       <c r="L32">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M32">
         <v>0.8084</v>
       </c>
       <c r="N32">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="33">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1971,19 +1971,19 @@
         </is>
       </c>
       <c r="J33">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2069,19 +2069,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K35">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L35">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M35">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N35">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="36">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2118,19 +2118,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K36">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L36">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M36">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N36">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="37">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2167,19 +2167,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K37">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L37">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M37">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N37">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="38">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2219,16 +2219,16 @@
         <v>637</v>
       </c>
       <c r="K38">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L38">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M38">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N38">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="39">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="J39">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K39">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L39">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M39">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N39">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="40">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2317,16 +2317,16 @@
         <v>501</v>
       </c>
       <c r="K40">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L40">
         <v>141</v>
       </c>
       <c r="M40">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N40">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="41">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="J41">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K41">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L41">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M41">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N41">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="42">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="J42">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K42">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L42">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M42">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N42">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="43">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2461,19 +2461,19 @@
         </is>
       </c>
       <c r="J43">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K43">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L43">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M43">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N43">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="44">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2516,13 +2516,13 @@
         <v>261</v>
       </c>
       <c r="L44">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M44">
         <v>0.5294</v>
       </c>
       <c r="N44">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="45">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2559,19 +2559,19 @@
         </is>
       </c>
       <c r="J45">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K45">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L45">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M45">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N45">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="46">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="J46">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K46">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L46">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M46">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N46">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="47">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2657,19 +2657,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K47">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L47">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M47">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N47">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="48">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="J48">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K48">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L48">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M48">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N48">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2755,19 +2755,19 @@
         </is>
       </c>
       <c r="J49">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K49">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L49">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M49">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N49">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="50">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2810,13 +2810,13 @@
         <v>329</v>
       </c>
       <c r="L50">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M50">
         <v>0.8084</v>
       </c>
       <c r="N50">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="51">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2853,19 +2853,19 @@
         </is>
       </c>
       <c r="J51">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N51">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2951,19 +2951,19 @@
         </is>
       </c>
       <c r="J53">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K53">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L53">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M53">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N53">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="54">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K54">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L54">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M54">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N54">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="55">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3049,19 +3049,19 @@
         </is>
       </c>
       <c r="J55">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K55">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L55">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M55">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N55">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="56">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3101,16 +3101,16 @@
         <v>637</v>
       </c>
       <c r="K56">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L56">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M56">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N56">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="57">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="J57">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K57">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L57">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M57">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N57">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="58">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3199,16 +3199,16 @@
         <v>501</v>
       </c>
       <c r="K58">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L58">
         <v>141</v>
       </c>
       <c r="M58">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N58">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="59">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3245,19 +3245,19 @@
         </is>
       </c>
       <c r="J59">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K59">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L59">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M59">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N59">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="60">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3294,19 +3294,19 @@
         </is>
       </c>
       <c r="J60">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K60">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L60">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M60">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N60">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="61">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3343,19 +3343,19 @@
         </is>
       </c>
       <c r="J61">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K61">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L61">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M61">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N61">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="62">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3398,13 +3398,13 @@
         <v>261</v>
       </c>
       <c r="L62">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M62">
         <v>0.5294</v>
       </c>
       <c r="N62">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="63">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3441,19 +3441,19 @@
         </is>
       </c>
       <c r="J63">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K63">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L63">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M63">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N63">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="64">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3490,19 +3490,19 @@
         </is>
       </c>
       <c r="J64">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K64">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L64">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M64">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N64">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="65">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3539,19 +3539,19 @@
         </is>
       </c>
       <c r="J65">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K65">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L65">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M65">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N65">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="66">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3588,19 +3588,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K66">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L66">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M66">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N66">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="J67">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K67">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L67">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M67">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N67">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="68">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3692,13 +3692,13 @@
         <v>329</v>
       </c>
       <c r="L68">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M68">
         <v>0.8084</v>
       </c>
       <c r="N68">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="69">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3735,19 +3735,19 @@
         </is>
       </c>
       <c r="J69">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L69">
         <v>3</v>
       </c>
       <c r="M69">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N69">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3833,19 +3833,19 @@
         </is>
       </c>
       <c r="J71">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K71">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L71">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M71">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N71">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="72">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3882,19 +3882,19 @@
         </is>
       </c>
       <c r="J72">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K72">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L72">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M72">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N72">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="73">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3931,19 +3931,19 @@
         </is>
       </c>
       <c r="J73">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K73">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L73">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M73">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N73">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="74">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3983,16 +3983,16 @@
         <v>637</v>
       </c>
       <c r="K74">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L74">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M74">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N74">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="75">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4029,19 +4029,19 @@
         </is>
       </c>
       <c r="J75">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K75">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L75">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M75">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N75">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="76">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4081,16 +4081,16 @@
         <v>501</v>
       </c>
       <c r="K76">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L76">
         <v>141</v>
       </c>
       <c r="M76">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N76">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="77">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4127,19 +4127,19 @@
         </is>
       </c>
       <c r="J77">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K77">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L77">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M77">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N77">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="78">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4176,19 +4176,19 @@
         </is>
       </c>
       <c r="J78">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K78">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L78">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M78">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N78">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="79">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4225,19 +4225,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K79">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L79">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M79">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N79">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="80">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4280,13 +4280,13 @@
         <v>261</v>
       </c>
       <c r="L80">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M80">
         <v>0.5294</v>
       </c>
       <c r="N80">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="81">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4323,19 +4323,19 @@
         </is>
       </c>
       <c r="J81">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K81">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L81">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M81">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N81">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="82">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4372,19 +4372,19 @@
         </is>
       </c>
       <c r="J82">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K82">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L82">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M82">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N82">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="83">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4421,19 +4421,19 @@
         </is>
       </c>
       <c r="J83">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K83">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L83">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M83">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N83">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="84">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4470,19 +4470,19 @@
         </is>
       </c>
       <c r="J84">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K84">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L84">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M84">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N84">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4519,19 +4519,19 @@
         </is>
       </c>
       <c r="J85">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K85">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L85">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M85">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N85">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="86">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4574,13 +4574,13 @@
         <v>329</v>
       </c>
       <c r="L86">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M86">
         <v>0.8084</v>
       </c>
       <c r="N86">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="87">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4617,19 +4617,19 @@
         </is>
       </c>
       <c r="J87">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N87">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4715,19 +4715,19 @@
         </is>
       </c>
       <c r="J89">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K89">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L89">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M89">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N89">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="90">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4764,19 +4764,19 @@
         </is>
       </c>
       <c r="J90">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K90">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L90">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M90">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N90">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="91">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4813,19 +4813,19 @@
         </is>
       </c>
       <c r="J91">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K91">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L91">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M91">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N91">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="92">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4865,16 +4865,16 @@
         <v>637</v>
       </c>
       <c r="K92">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L92">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M92">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N92">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="93">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4911,19 +4911,19 @@
         </is>
       </c>
       <c r="J93">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K93">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L93">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M93">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N93">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="94">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4963,16 +4963,16 @@
         <v>501</v>
       </c>
       <c r="K94">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L94">
         <v>141</v>
       </c>
       <c r="M94">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N94">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="95">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5009,19 +5009,19 @@
         </is>
       </c>
       <c r="J95">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K95">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L95">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M95">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N95">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="96">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5058,19 +5058,19 @@
         </is>
       </c>
       <c r="J96">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K96">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L96">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M96">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N96">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="97">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5107,19 +5107,19 @@
         </is>
       </c>
       <c r="J97">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K97">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L97">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M97">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N97">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="98">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5162,13 +5162,13 @@
         <v>261</v>
       </c>
       <c r="L98">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M98">
         <v>0.5294</v>
       </c>
       <c r="N98">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="99">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5205,19 +5205,19 @@
         </is>
       </c>
       <c r="J99">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K99">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L99">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M99">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N99">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="100">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="J100">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K100">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L100">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M100">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N100">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="101">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5303,19 +5303,19 @@
         </is>
       </c>
       <c r="J101">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K101">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L101">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M101">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N101">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="102">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5352,19 +5352,19 @@
         </is>
       </c>
       <c r="J102">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K102">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L102">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M102">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N102">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5401,19 +5401,19 @@
         </is>
       </c>
       <c r="J103">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K103">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L103">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M103">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N103">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="104">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5456,13 +5456,13 @@
         <v>329</v>
       </c>
       <c r="L104">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M104">
         <v>0.8084</v>
       </c>
       <c r="N104">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="105">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5499,19 +5499,19 @@
         </is>
       </c>
       <c r="J105">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L105">
         <v>3</v>
       </c>
       <c r="M105">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N105">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5597,19 +5597,19 @@
         </is>
       </c>
       <c r="J107">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K107">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L107">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M107">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N107">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="108">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5646,19 +5646,19 @@
         </is>
       </c>
       <c r="J108">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K108">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L108">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M108">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N108">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="109">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5695,19 +5695,19 @@
         </is>
       </c>
       <c r="J109">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K109">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L109">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M109">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N109">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="110">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5750,16 +5750,16 @@
         <v>637</v>
       </c>
       <c r="K110">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L110">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M110">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N110">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="111">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5799,19 +5799,19 @@
         </is>
       </c>
       <c r="J111">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K111">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L111">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M111">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N111">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="112">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5854,16 +5854,16 @@
         <v>501</v>
       </c>
       <c r="K112">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L112">
         <v>141</v>
       </c>
       <c r="M112">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N112">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="113">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5903,19 +5903,19 @@
         </is>
       </c>
       <c r="J113">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K113">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L113">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M113">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N113">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="114">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -5955,19 +5955,19 @@
         </is>
       </c>
       <c r="J114">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K114">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L114">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M114">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N114">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="115">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6007,19 +6007,19 @@
         </is>
       </c>
       <c r="J115">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K115">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L115">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M115">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N115">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="116">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6065,13 +6065,13 @@
         <v>261</v>
       </c>
       <c r="L116">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M116">
         <v>0.5294</v>
       </c>
       <c r="N116">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="117">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6111,19 +6111,19 @@
         </is>
       </c>
       <c r="J117">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K117">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L117">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M117">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N117">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="118">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6163,19 +6163,19 @@
         </is>
       </c>
       <c r="J118">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L118">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M118">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N118">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="119">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6215,19 +6215,19 @@
         </is>
       </c>
       <c r="J119">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K119">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L119">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M119">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N119">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="120">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6267,19 +6267,19 @@
         </is>
       </c>
       <c r="J120">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K120">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L120">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M120">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N120">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="121">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6319,19 +6319,19 @@
         </is>
       </c>
       <c r="J121">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K121">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L121">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M121">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N121">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="122">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6377,13 +6377,13 @@
         <v>329</v>
       </c>
       <c r="L122">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M122">
         <v>0.8084</v>
       </c>
       <c r="N122">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="123">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6420,19 +6420,19 @@
         </is>
       </c>
       <c r="J123">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L123">
         <v>3</v>
       </c>
       <c r="M123">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N123">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6524,19 +6524,19 @@
         </is>
       </c>
       <c r="J125">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K125">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L125">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M125">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N125">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="126">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6576,19 +6576,19 @@
         </is>
       </c>
       <c r="J126">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K126">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L126">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M126">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N126">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="127">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6628,19 +6628,19 @@
         </is>
       </c>
       <c r="J127">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K127">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L127">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M127">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N127">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="128">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6680,19 +6680,19 @@
         </is>
       </c>
       <c r="J128">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K128">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L128">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M128">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N128">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="129">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6729,19 +6729,19 @@
         </is>
       </c>
       <c r="J129">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K129">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L129">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M129">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N129">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="130">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6778,19 +6778,19 @@
         </is>
       </c>
       <c r="J130">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K130">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L130">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M130">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N130">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="131">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6882,13 +6882,13 @@
         <v>261</v>
       </c>
       <c r="L132">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M132">
         <v>0.5294</v>
       </c>
       <c r="N132">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="133">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6925,19 +6925,19 @@
         </is>
       </c>
       <c r="J133">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K133">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L133">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M133">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N133">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="134">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6974,19 +6974,19 @@
         </is>
       </c>
       <c r="J134">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K134">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L134">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M134">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N134">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="135">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7029,16 +7029,16 @@
         <v>637</v>
       </c>
       <c r="K135">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L135">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M135">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N135">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="136">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7127,19 +7127,19 @@
         </is>
       </c>
       <c r="J137">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K137">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L137">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M137">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N137">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="138">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7228,19 +7228,19 @@
         </is>
       </c>
       <c r="J139">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N139">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7280,19 +7280,19 @@
         </is>
       </c>
       <c r="J140">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K140">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L140">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M140">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N140">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="141">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="J141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K141">
+        <v>6</v>
+      </c>
+      <c r="L141">
         <v>5</v>
       </c>
-      <c r="L141">
-        <v>4</v>
-      </c>
       <c r="M141">
-        <v>0.3571</v>
+        <v>0.4</v>
       </c>
       <c r="N141">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="142">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7381,19 +7381,19 @@
         </is>
       </c>
       <c r="J142">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K142">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L142">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M142">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N142">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="143">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7479,19 +7479,19 @@
         </is>
       </c>
       <c r="J144">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K144">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L144">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M144">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N144">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="145">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7534,16 +7534,16 @@
         <v>501</v>
       </c>
       <c r="K145">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L145">
         <v>141</v>
       </c>
       <c r="M145">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N145">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="146">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7635,19 +7635,19 @@
         </is>
       </c>
       <c r="J147">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K147">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L147">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M147">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N147">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="148">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7739,13 +7739,13 @@
         <v>329</v>
       </c>
       <c r="L149">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M149">
         <v>0.8084</v>
       </c>
       <c r="N149">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="150">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7785,19 +7785,19 @@
         </is>
       </c>
       <c r="J150">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K150">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L150">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M150">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N150">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="151">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7837,19 +7837,19 @@
         </is>
       </c>
       <c r="J151">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K151">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L151">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M151">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N151">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="152">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7889,19 +7889,19 @@
         </is>
       </c>
       <c r="J152">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K152">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L152">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M152">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N152">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="153">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7941,19 +7941,19 @@
         </is>
       </c>
       <c r="J153">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K153">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L153">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M153">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N153">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="154">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7993,19 +7993,19 @@
         </is>
       </c>
       <c r="J154">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K154">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L154">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M154">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N154">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="155">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8103,13 +8103,13 @@
         <v>261</v>
       </c>
       <c r="L156">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M156">
         <v>0.5294</v>
       </c>
       <c r="N156">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="157">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8149,19 +8149,19 @@
         </is>
       </c>
       <c r="J157">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K157">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L157">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M157">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N157">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="158">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8201,19 +8201,19 @@
         </is>
       </c>
       <c r="J158">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K158">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L158">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M158">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N158">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="159">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8256,16 +8256,16 @@
         <v>637</v>
       </c>
       <c r="K159">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L159">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M159">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N159">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="160">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8351,19 +8351,19 @@
         </is>
       </c>
       <c r="J161">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K161">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L161">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M161">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N161">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="162">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8452,19 +8452,19 @@
         </is>
       </c>
       <c r="J163">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L163">
         <v>3</v>
       </c>
       <c r="M163">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N163">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8504,19 +8504,19 @@
         </is>
       </c>
       <c r="J164">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K164">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L164">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M164">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N164">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="165">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8553,19 +8553,19 @@
         </is>
       </c>
       <c r="J165">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K165">
+        <v>6</v>
+      </c>
+      <c r="L165">
         <v>5</v>
       </c>
-      <c r="L165">
-        <v>4</v>
-      </c>
       <c r="M165">
-        <v>0.3571</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="166">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8605,19 +8605,19 @@
         </is>
       </c>
       <c r="J166">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K166">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L166">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M166">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N166">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="167">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8709,19 +8709,19 @@
         </is>
       </c>
       <c r="J168">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K168">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L168">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M168">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N168">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="169">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -8764,16 +8764,16 @@
         <v>501</v>
       </c>
       <c r="K169">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L169">
         <v>141</v>
       </c>
       <c r="M169">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N169">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="170">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8862,19 +8862,19 @@
         </is>
       </c>
       <c r="J171">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K171">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L171">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M171">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N171">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="172">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -8966,13 +8966,13 @@
         <v>329</v>
       </c>
       <c r="L173">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M173">
         <v>0.8084</v>
       </c>
       <c r="N173">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="174">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9012,19 +9012,19 @@
         </is>
       </c>
       <c r="J174">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K174">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L174">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M174">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N174">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="175">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9064,19 +9064,19 @@
         </is>
       </c>
       <c r="J175">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K175">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L175">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M175">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N175">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="176">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9116,19 +9116,19 @@
         </is>
       </c>
       <c r="J176">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K176">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L176">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M176">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N176">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="177">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -9165,19 +9165,19 @@
         </is>
       </c>
       <c r="J177">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K177">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L177">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M177">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N177">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="178">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9214,19 +9214,19 @@
         </is>
       </c>
       <c r="J178">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K178">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L178">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M178">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N178">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="179">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9315,13 +9315,13 @@
         <v>261</v>
       </c>
       <c r="L180">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M180">
         <v>0.5294</v>
       </c>
       <c r="N180">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="181">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9361,19 +9361,19 @@
         </is>
       </c>
       <c r="J181">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K181">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L181">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M181">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N181">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="182">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9413,19 +9413,19 @@
         </is>
       </c>
       <c r="J182">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K182">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L182">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M182">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N182">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="183">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9465,16 +9465,16 @@
         <v>637</v>
       </c>
       <c r="K183">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L183">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M183">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N183">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="184">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -9560,19 +9560,19 @@
         </is>
       </c>
       <c r="J185">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K185">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L185">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M185">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N185">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="186">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9661,19 +9661,19 @@
         </is>
       </c>
       <c r="J187">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K187">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L187">
         <v>3</v>
       </c>
       <c r="M187">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N187">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="188">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9713,19 +9713,19 @@
         </is>
       </c>
       <c r="J188">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K188">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L188">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M188">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N188">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="189">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -9765,19 +9765,19 @@
         </is>
       </c>
       <c r="J189">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K189">
+        <v>6</v>
+      </c>
+      <c r="L189">
         <v>5</v>
       </c>
-      <c r="L189">
-        <v>4</v>
-      </c>
       <c r="M189">
-        <v>0.3571</v>
+        <v>0.4</v>
       </c>
       <c r="N189">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="190">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -9817,19 +9817,19 @@
         </is>
       </c>
       <c r="J190">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K190">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L190">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M190">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N190">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="191">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -9915,19 +9915,19 @@
         </is>
       </c>
       <c r="J192">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K192">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L192">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M192">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N192">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="193">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -9970,16 +9970,16 @@
         <v>501</v>
       </c>
       <c r="K193">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L193">
         <v>141</v>
       </c>
       <c r="M193">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N193">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="194">
@@ -10007,7 +10007,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10068,19 +10068,19 @@
         </is>
       </c>
       <c r="J195">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K195">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L195">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M195">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N195">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="196">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10175,13 +10175,13 @@
         <v>329</v>
       </c>
       <c r="L197">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M197">
         <v>0.8084</v>
       </c>
       <c r="N197">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="198">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10221,19 +10221,19 @@
         </is>
       </c>
       <c r="J198">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K198">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L198">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M198">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N198">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="199">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10273,19 +10273,19 @@
         </is>
       </c>
       <c r="J199">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K199">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L199">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M199">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N199">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="200">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10325,19 +10325,19 @@
         </is>
       </c>
       <c r="J200">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K200">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L200">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M200">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N200">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="201">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10377,19 +10377,19 @@
         </is>
       </c>
       <c r="J201">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K201">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L201">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M201">
-        <v>0.9171</v>
+        <v>0.9174</v>
       </c>
       <c r="N201">
-        <v>0.6566</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="202">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -10429,19 +10429,19 @@
         </is>
       </c>
       <c r="J202">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K202">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L202">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M202">
-        <v>0.624</v>
+        <v>0.6286</v>
       </c>
       <c r="N202">
-        <v>0.7406</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="203">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -10536,13 +10536,13 @@
         <v>261</v>
       </c>
       <c r="L204">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M204">
         <v>0.5294</v>
       </c>
       <c r="N204">
-        <v>0.7816</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="205">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -10582,19 +10582,19 @@
         </is>
       </c>
       <c r="J205">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K205">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L205">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M205">
-        <v>0.9396</v>
+        <v>0.9883</v>
       </c>
       <c r="N205">
-        <v>0.4046</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="206">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -10634,19 +10634,19 @@
         </is>
       </c>
       <c r="J206">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K206">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L206">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M206">
-        <v>0.6958</v>
+        <v>0.6947</v>
       </c>
       <c r="N206">
-        <v>0.498</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="207">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -10689,16 +10689,16 @@
         <v>637</v>
       </c>
       <c r="K207">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L207">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M207">
-        <v>0.7504</v>
+        <v>0.7896</v>
       </c>
       <c r="N207">
-        <v>0.7134</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="208">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -10790,19 +10790,19 @@
         </is>
       </c>
       <c r="J209">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="K209">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="L209">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="M209">
-        <v>0.652</v>
+        <v>0.6596</v>
       </c>
       <c r="N209">
-        <v>0.8529</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="210">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -10894,19 +10894,19 @@
         </is>
       </c>
       <c r="J211">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K211">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L211">
         <v>3</v>
       </c>
       <c r="M211">
-        <v>0.0071</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N211">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="212">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -10946,19 +10946,19 @@
         </is>
       </c>
       <c r="J212">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="K212">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="L212">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M212">
-        <v>0.9574</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N212">
-        <v>0.2391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="213">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -10998,19 +10998,19 @@
         </is>
       </c>
       <c r="J213">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K213">
+        <v>6</v>
+      </c>
+      <c r="L213">
         <v>5</v>
       </c>
-      <c r="L213">
-        <v>4</v>
-      </c>
       <c r="M213">
-        <v>0.3571</v>
+        <v>0.4</v>
       </c>
       <c r="N213">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="214">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -11050,19 +11050,19 @@
         </is>
       </c>
       <c r="J214">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K214">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L214">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M214">
-        <v>0.679</v>
+        <v>0.6805</v>
       </c>
       <c r="N214">
-        <v>0.1205</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="215">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -11148,19 +11148,19 @@
         </is>
       </c>
       <c r="J216">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K216">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L216">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M216">
-        <v>0.3376</v>
+        <v>0.3438</v>
       </c>
       <c r="N216">
-        <v>0.7268</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="217">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -11203,16 +11203,16 @@
         <v>501</v>
       </c>
       <c r="K217">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L217">
         <v>141</v>
       </c>
       <c r="M217">
-        <v>0.9701</v>
+        <v>0.986</v>
       </c>
       <c r="N217">
-        <v>0.2901</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="218">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -11304,19 +11304,19 @@
         </is>
       </c>
       <c r="J219">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="K219">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="L219">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M219">
-        <v>0.9671</v>
+        <v>0.9686</v>
       </c>
       <c r="N219">
-        <v>0.3581</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="220">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -11408,13 +11408,13 @@
         <v>329</v>
       </c>
       <c r="L221">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M221">
         <v>0.8084</v>
       </c>
       <c r="N221">
-        <v>0.6717</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="222">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -11454,19 +11454,19 @@
         </is>
       </c>
       <c r="J222">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K222">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L222">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M222">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N222">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="223">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -11506,19 +11506,1198 @@
         </is>
       </c>
       <c r="J223">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="K223">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="L223">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="M223">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="N223">
-        <v>0.4231</v>
+        <v>0.4154</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0.6667</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J224">
+        <v>2330</v>
+      </c>
+      <c r="K224">
+        <v>2254</v>
+      </c>
+      <c r="L224">
+        <v>335</v>
+      </c>
+      <c r="M224">
+        <v>0.9674</v>
+      </c>
+      <c r="N224">
+        <v>0.1486</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J225">
+        <v>363</v>
+      </c>
+      <c r="K225">
+        <v>333</v>
+      </c>
+      <c r="L225">
+        <v>219</v>
+      </c>
+      <c r="M225">
+        <v>0.9174</v>
+      </c>
+      <c r="N225">
+        <v>0.6577</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0.5</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J226">
+        <v>385</v>
+      </c>
+      <c r="K226">
+        <v>242</v>
+      </c>
+      <c r="L226">
+        <v>180</v>
+      </c>
+      <c r="M226">
+        <v>0.6286</v>
+      </c>
+      <c r="N226">
+        <v>0.7438</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J227">
+        <v>16</v>
+      </c>
+      <c r="K227">
+        <v>3</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>0.1875</v>
+      </c>
+      <c r="N227">
+        <v>0.6667</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J228">
+        <v>493</v>
+      </c>
+      <c r="K228">
+        <v>261</v>
+      </c>
+      <c r="L228">
+        <v>205</v>
+      </c>
+      <c r="M228">
+        <v>0.5294</v>
+      </c>
+      <c r="N228">
+        <v>0.7854</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J229">
+        <v>514</v>
+      </c>
+      <c r="K229">
+        <v>508</v>
+      </c>
+      <c r="L229">
+        <v>203</v>
+      </c>
+      <c r="M229">
+        <v>0.9883</v>
+      </c>
+      <c r="N229">
+        <v>0.3996</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J230">
+        <v>357</v>
+      </c>
+      <c r="K230">
+        <v>248</v>
+      </c>
+      <c r="L230">
+        <v>125</v>
+      </c>
+      <c r="M230">
+        <v>0.6947</v>
+      </c>
+      <c r="N230">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J231">
+        <v>637</v>
+      </c>
+      <c r="K231">
+        <v>503</v>
+      </c>
+      <c r="L231">
+        <v>349</v>
+      </c>
+      <c r="M231">
+        <v>0.7896</v>
+      </c>
+      <c r="N231">
+        <v>0.6938</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J232">
+        <v>13</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+      <c r="L232">
+        <v>3</v>
+      </c>
+      <c r="M232">
+        <v>0.2308</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>0.6</v>
+      </c>
+      <c r="G233">
+        <v>0.6667</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J233">
+        <v>1184</v>
+      </c>
+      <c r="K233">
+        <v>781</v>
+      </c>
+      <c r="L233">
+        <v>672</v>
+      </c>
+      <c r="M233">
+        <v>0.6596</v>
+      </c>
+      <c r="N233">
+        <v>0.8604000000000001</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J234">
+        <v>387</v>
+      </c>
+      <c r="K234">
+        <v>370</v>
+      </c>
+      <c r="L234">
+        <v>234</v>
+      </c>
+      <c r="M234">
+        <v>0.9560999999999999</v>
+      </c>
+      <c r="N234">
+        <v>0.6324</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0.5</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J235">
+        <v>707</v>
+      </c>
+      <c r="K235">
+        <v>6</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="N235">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J236">
+        <v>1317</v>
+      </c>
+      <c r="K236">
+        <v>1262</v>
+      </c>
+      <c r="L236">
+        <v>313</v>
+      </c>
+      <c r="M236">
+        <v>0.9582000000000001</v>
+      </c>
+      <c r="N236">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J237">
+        <v>15</v>
+      </c>
+      <c r="K237">
+        <v>6</v>
+      </c>
+      <c r="L237">
+        <v>5</v>
+      </c>
+      <c r="M237">
+        <v>0.4</v>
+      </c>
+      <c r="N237">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>0.5</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J238">
+        <v>651</v>
+      </c>
+      <c r="K238">
+        <v>443</v>
+      </c>
+      <c r="L238">
+        <v>55</v>
+      </c>
+      <c r="M238">
+        <v>0.6805</v>
+      </c>
+      <c r="N238">
+        <v>0.1242</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J239">
+        <v>12</v>
+      </c>
+      <c r="K239">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+      <c r="M239">
+        <v>0.25</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J240">
+        <v>541</v>
+      </c>
+      <c r="K240">
+        <v>186</v>
+      </c>
+      <c r="L240">
+        <v>135</v>
+      </c>
+      <c r="M240">
+        <v>0.3438</v>
+      </c>
+      <c r="N240">
+        <v>0.7258</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J241">
+        <v>501</v>
+      </c>
+      <c r="K241">
+        <v>494</v>
+      </c>
+      <c r="L241">
+        <v>141</v>
+      </c>
+      <c r="M241">
+        <v>0.986</v>
+      </c>
+      <c r="N241">
+        <v>0.2854</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J242">
+        <v>10</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0.2</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+      <c r="D243">
+        <v>4</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>0.8</v>
+      </c>
+      <c r="G243">
+        <v>0.5</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J243">
+        <v>1495</v>
+      </c>
+      <c r="K243">
+        <v>1448</v>
+      </c>
+      <c r="L243">
+        <v>525</v>
+      </c>
+      <c r="M243">
+        <v>0.9686</v>
+      </c>
+      <c r="N243">
+        <v>0.3626</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J244">
+        <v>5</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0.2</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J245">
+        <v>407</v>
+      </c>
+      <c r="K245">
+        <v>329</v>
+      </c>
+      <c r="L245">
+        <v>222</v>
+      </c>
+      <c r="M245">
+        <v>0.8084</v>
+      </c>
+      <c r="N245">
+        <v>0.6748</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C246">
+        <v>23</v>
+      </c>
+      <c r="D246">
+        <v>6</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>0.2609</v>
+      </c>
+      <c r="G246">
+        <v>0.3333</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J246">
+        <v>976</v>
+      </c>
+      <c r="K246">
+        <v>719</v>
+      </c>
+      <c r="L246">
+        <v>393</v>
+      </c>
+      <c r="M246">
+        <v>0.7367</v>
+      </c>
+      <c r="N246">
+        <v>0.5466</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2020-03-28T00:00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C247">
+        <v>52</v>
+      </c>
+      <c r="D247">
+        <v>26</v>
+      </c>
+      <c r="E247">
+        <v>9</v>
+      </c>
+      <c r="F247">
+        <v>0.5</v>
+      </c>
+      <c r="G247">
+        <v>0.3462</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J247">
+        <v>13316</v>
+      </c>
+      <c r="K247">
+        <v>10405</v>
+      </c>
+      <c r="L247">
+        <v>4322</v>
+      </c>
+      <c r="M247">
+        <v>0.7814</v>
+      </c>
+      <c r="N247">
+        <v>0.4154</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24060" windowHeight="9940"/>
+    <workbookView windowWidth="24060" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$A$1:$N$295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$A$1:$N$319</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>当日_时间</t>
   </si>
@@ -67,7 +67,7 @@
     <t>郑州</t>
   </si>
   <si>
-    <t>2020-03-31T08:00:00</t>
+    <t>2020-04-01T08:00:00</t>
   </si>
   <si>
     <t>大连</t>
@@ -177,14 +177,17 @@
   <si>
     <t>2020-03-30T00:00:00</t>
   </si>
+  <si>
+    <t>2020-03-31T00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -197,34 +200,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,8 +221,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -258,17 +268,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,7 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,16 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,15 +343,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,7 +360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,25 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +450,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,97 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +496,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -548,6 +551,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,17 +582,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -616,24 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -648,151 +631,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,16 +1147,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N295"/>
+  <dimension ref="A1:N319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G267" sqref="G267"/>
+      <selection activeCell="F324" sqref="F324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
-  <cols>
-    <col min="1" max="1" width="14.8839285714286" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -1225,19 +1225,19 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K2">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L2">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M2">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N2">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:14">
@@ -1266,19 +1266,19 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K3">
         <v>334</v>
       </c>
       <c r="L3">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M3">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N3">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="1:14">
@@ -1307,19 +1307,19 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K4">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M4">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N4">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:14">
@@ -1348,19 +1348,19 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K5">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L5">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M5">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N5">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="1:14">
@@ -1389,19 +1389,19 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K6">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L6">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M6">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N6">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="1:14">
@@ -1430,19 +1430,19 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K7">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L7">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M7">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N7">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:14">
@@ -1474,16 +1474,16 @@
         <v>497</v>
       </c>
       <c r="K8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M8">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N8">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:14">
@@ -1512,19 +1512,19 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K9">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L9">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M9">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N9">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:14">
@@ -1553,19 +1553,19 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K10">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N10">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:14">
@@ -1594,19 +1594,19 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K11">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N11">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="1:14">
@@ -1635,19 +1635,19 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K12">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L12">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M12">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N12">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="13" hidden="1" spans="1:14">
@@ -1676,19 +1676,19 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K13">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L13">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M13">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N13">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:14">
@@ -1717,19 +1717,19 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K14">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L14">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M14">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N14">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="15" hidden="1" spans="1:14">
@@ -1758,19 +1758,19 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L15">
         <v>7</v>
       </c>
       <c r="M15">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N15">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="1:14">
@@ -1799,19 +1799,19 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K16">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L16">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M16">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N16">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:14">
@@ -1840,19 +1840,19 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K17">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M17">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N17">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="18" hidden="1" spans="1:14">
@@ -1881,19 +1881,19 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K18">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L18">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M18">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N18">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="19" hidden="1" spans="1:14">
@@ -1922,19 +1922,19 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K19">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L19">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M19">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N19">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:14">
@@ -1963,19 +1963,19 @@
         <v>15</v>
       </c>
       <c r="J20">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K20">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L20">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M20">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N20">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="21" hidden="1" spans="1:14">
@@ -2004,19 +2004,19 @@
         <v>17</v>
       </c>
       <c r="J21">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K21">
         <v>334</v>
       </c>
       <c r="L21">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N21">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:14">
@@ -2045,19 +2045,19 @@
         <v>18</v>
       </c>
       <c r="J22">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K22">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L22">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N22">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="1:14">
@@ -2086,19 +2086,19 @@
         <v>19</v>
       </c>
       <c r="J23">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K23">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L23">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M23">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N23">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:14">
@@ -2127,19 +2127,19 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K24">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L24">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M24">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N24">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:14">
@@ -2168,19 +2168,19 @@
         <v>21</v>
       </c>
       <c r="J25">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K25">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L25">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M25">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N25">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:14">
@@ -2212,16 +2212,16 @@
         <v>497</v>
       </c>
       <c r="K26">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L26">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N26">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:14">
@@ -2250,19 +2250,19 @@
         <v>23</v>
       </c>
       <c r="J27">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K27">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L27">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M27">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N27">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:14">
@@ -2291,19 +2291,19 @@
         <v>24</v>
       </c>
       <c r="J28">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K28">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L28">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M28">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N28">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:14">
@@ -2332,19 +2332,19 @@
         <v>25</v>
       </c>
       <c r="J29">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K29">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L29">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M29">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N29">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:14">
@@ -2373,19 +2373,19 @@
         <v>26</v>
       </c>
       <c r="J30">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K30">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L30">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M30">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N30">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:14">
@@ -2414,19 +2414,19 @@
         <v>27</v>
       </c>
       <c r="J31">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K31">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L31">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M31">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N31">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:14">
@@ -2455,19 +2455,19 @@
         <v>28</v>
       </c>
       <c r="J32">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K32">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L32">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M32">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N32">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:14">
@@ -2496,19 +2496,19 @@
         <v>29</v>
       </c>
       <c r="J33">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L33">
         <v>7</v>
       </c>
       <c r="M33">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N33">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:14">
@@ -2537,19 +2537,19 @@
         <v>30</v>
       </c>
       <c r="J34">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K34">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L34">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M34">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N34">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:14">
@@ -2578,19 +2578,19 @@
         <v>31</v>
       </c>
       <c r="J35">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K35">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L35">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M35">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N35">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:14">
@@ -2619,19 +2619,19 @@
         <v>32</v>
       </c>
       <c r="J36">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K36">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L36">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M36">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N36">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:14">
@@ -2660,19 +2660,19 @@
         <v>33</v>
       </c>
       <c r="J37">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K37">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L37">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M37">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N37">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:14">
@@ -2701,19 +2701,19 @@
         <v>15</v>
       </c>
       <c r="J38">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K38">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L38">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M38">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N38">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:14">
@@ -2742,19 +2742,19 @@
         <v>17</v>
       </c>
       <c r="J39">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K39">
         <v>334</v>
       </c>
       <c r="L39">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M39">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N39">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:14">
@@ -2783,19 +2783,19 @@
         <v>18</v>
       </c>
       <c r="J40">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K40">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L40">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M40">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N40">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:14">
@@ -2824,19 +2824,19 @@
         <v>19</v>
       </c>
       <c r="J41">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K41">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L41">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M41">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N41">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:14">
@@ -2865,19 +2865,19 @@
         <v>20</v>
       </c>
       <c r="J42">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K42">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L42">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M42">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N42">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:14">
@@ -2906,19 +2906,19 @@
         <v>21</v>
       </c>
       <c r="J43">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K43">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L43">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M43">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N43">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:14">
@@ -2950,16 +2950,16 @@
         <v>497</v>
       </c>
       <c r="K44">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L44">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M44">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N44">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:14">
@@ -2988,19 +2988,19 @@
         <v>23</v>
       </c>
       <c r="J45">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K45">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L45">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M45">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N45">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:14">
@@ -3029,19 +3029,19 @@
         <v>24</v>
       </c>
       <c r="J46">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K46">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L46">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M46">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N46">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:14">
@@ -3070,19 +3070,19 @@
         <v>25</v>
       </c>
       <c r="J47">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K47">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L47">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M47">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N47">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="48" hidden="1" spans="1:14">
@@ -3111,19 +3111,19 @@
         <v>26</v>
       </c>
       <c r="J48">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K48">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L48">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M48">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N48">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:14">
@@ -3152,19 +3152,19 @@
         <v>27</v>
       </c>
       <c r="J49">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K49">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L49">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M49">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N49">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:14">
@@ -3193,19 +3193,19 @@
         <v>28</v>
       </c>
       <c r="J50">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K50">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L50">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M50">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N50">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:14">
@@ -3234,19 +3234,19 @@
         <v>29</v>
       </c>
       <c r="J51">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L51">
         <v>7</v>
       </c>
       <c r="M51">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N51">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:14">
@@ -3275,19 +3275,19 @@
         <v>30</v>
       </c>
       <c r="J52">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K52">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L52">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M52">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N52">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="53" hidden="1" spans="1:14">
@@ -3316,19 +3316,19 @@
         <v>31</v>
       </c>
       <c r="J53">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K53">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L53">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M53">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N53">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="54" hidden="1" spans="1:14">
@@ -3357,19 +3357,19 @@
         <v>32</v>
       </c>
       <c r="J54">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K54">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L54">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M54">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N54">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:14">
@@ -3398,19 +3398,19 @@
         <v>33</v>
       </c>
       <c r="J55">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K55">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L55">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M55">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N55">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="56" hidden="1" spans="1:14">
@@ -3439,19 +3439,19 @@
         <v>15</v>
       </c>
       <c r="J56">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K56">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L56">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M56">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N56">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:14">
@@ -3480,19 +3480,19 @@
         <v>17</v>
       </c>
       <c r="J57">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K57">
         <v>334</v>
       </c>
       <c r="L57">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M57">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N57">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:14">
@@ -3521,19 +3521,19 @@
         <v>18</v>
       </c>
       <c r="J58">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K58">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L58">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M58">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N58">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="59" hidden="1" spans="1:14">
@@ -3562,19 +3562,19 @@
         <v>19</v>
       </c>
       <c r="J59">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K59">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L59">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M59">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N59">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:14">
@@ -3603,19 +3603,19 @@
         <v>20</v>
       </c>
       <c r="J60">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K60">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L60">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M60">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N60">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:14">
@@ -3644,19 +3644,19 @@
         <v>21</v>
       </c>
       <c r="J61">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K61">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L61">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M61">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N61">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="62" hidden="1" spans="1:14">
@@ -3688,16 +3688,16 @@
         <v>497</v>
       </c>
       <c r="K62">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L62">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N62">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:14">
@@ -3726,19 +3726,19 @@
         <v>23</v>
       </c>
       <c r="J63">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K63">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L63">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M63">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N63">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:14">
@@ -3767,19 +3767,19 @@
         <v>24</v>
       </c>
       <c r="J64">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K64">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L64">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M64">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N64">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="65" hidden="1" spans="1:14">
@@ -3808,19 +3808,19 @@
         <v>25</v>
       </c>
       <c r="J65">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K65">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L65">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M65">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N65">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:14">
@@ -3849,19 +3849,19 @@
         <v>26</v>
       </c>
       <c r="J66">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K66">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L66">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M66">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N66">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:14">
@@ -3890,19 +3890,19 @@
         <v>27</v>
       </c>
       <c r="J67">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K67">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L67">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M67">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N67">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="68" hidden="1" spans="1:14">
@@ -3931,19 +3931,19 @@
         <v>28</v>
       </c>
       <c r="J68">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K68">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L68">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M68">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N68">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="69" hidden="1" spans="1:14">
@@ -3972,19 +3972,19 @@
         <v>29</v>
       </c>
       <c r="J69">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L69">
         <v>7</v>
       </c>
       <c r="M69">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N69">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" hidden="1" spans="1:14">
@@ -4013,19 +4013,19 @@
         <v>30</v>
       </c>
       <c r="J70">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K70">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L70">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M70">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N70">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="71" hidden="1" spans="1:14">
@@ -4054,19 +4054,19 @@
         <v>31</v>
       </c>
       <c r="J71">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K71">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L71">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M71">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N71">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:14">
@@ -4095,19 +4095,19 @@
         <v>32</v>
       </c>
       <c r="J72">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K72">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L72">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M72">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N72">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="73" hidden="1" spans="1:14">
@@ -4136,19 +4136,19 @@
         <v>33</v>
       </c>
       <c r="J73">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K73">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L73">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M73">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N73">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="74" hidden="1" spans="1:14">
@@ -4177,19 +4177,19 @@
         <v>15</v>
       </c>
       <c r="J74">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K74">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L74">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M74">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N74">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="75" hidden="1" spans="1:14">
@@ -4218,19 +4218,19 @@
         <v>17</v>
       </c>
       <c r="J75">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K75">
         <v>334</v>
       </c>
       <c r="L75">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M75">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N75">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="76" hidden="1" spans="1:14">
@@ -4259,19 +4259,19 @@
         <v>18</v>
       </c>
       <c r="J76">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K76">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L76">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M76">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N76">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="77" hidden="1" spans="1:14">
@@ -4300,19 +4300,19 @@
         <v>19</v>
       </c>
       <c r="J77">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K77">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L77">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M77">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N77">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="78" hidden="1" spans="1:14">
@@ -4341,19 +4341,19 @@
         <v>20</v>
       </c>
       <c r="J78">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K78">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L78">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M78">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N78">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="79" hidden="1" spans="1:14">
@@ -4382,19 +4382,19 @@
         <v>21</v>
       </c>
       <c r="J79">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K79">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L79">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M79">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N79">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="80" hidden="1" spans="1:14">
@@ -4426,16 +4426,16 @@
         <v>497</v>
       </c>
       <c r="K80">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L80">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M80">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N80">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="81" hidden="1" spans="1:14">
@@ -4464,19 +4464,19 @@
         <v>23</v>
       </c>
       <c r="J81">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K81">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L81">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M81">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N81">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="82" hidden="1" spans="1:14">
@@ -4505,19 +4505,19 @@
         <v>24</v>
       </c>
       <c r="J82">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K82">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L82">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M82">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N82">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="83" hidden="1" spans="1:14">
@@ -4546,19 +4546,19 @@
         <v>25</v>
       </c>
       <c r="J83">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K83">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L83">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M83">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N83">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="84" hidden="1" spans="1:14">
@@ -4587,19 +4587,19 @@
         <v>26</v>
       </c>
       <c r="J84">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K84">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L84">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M84">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N84">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="85" hidden="1" spans="1:14">
@@ -4628,19 +4628,19 @@
         <v>27</v>
       </c>
       <c r="J85">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K85">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L85">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M85">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N85">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="86" hidden="1" spans="1:14">
@@ -4669,19 +4669,19 @@
         <v>28</v>
       </c>
       <c r="J86">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K86">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L86">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M86">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N86">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="87" hidden="1" spans="1:14">
@@ -4710,19 +4710,19 @@
         <v>29</v>
       </c>
       <c r="J87">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K87">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L87">
         <v>7</v>
       </c>
       <c r="M87">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N87">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="88" hidden="1" spans="1:14">
@@ -4751,19 +4751,19 @@
         <v>30</v>
       </c>
       <c r="J88">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K88">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L88">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M88">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N88">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="89" hidden="1" spans="1:14">
@@ -4792,19 +4792,19 @@
         <v>31</v>
       </c>
       <c r="J89">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L89">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M89">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N89">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="90" hidden="1" spans="1:14">
@@ -4833,19 +4833,19 @@
         <v>32</v>
       </c>
       <c r="J90">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K90">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L90">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M90">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N90">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="91" hidden="1" spans="1:14">
@@ -4874,19 +4874,19 @@
         <v>33</v>
       </c>
       <c r="J91">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K91">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L91">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M91">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N91">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="92" hidden="1" spans="1:14">
@@ -4915,19 +4915,19 @@
         <v>15</v>
       </c>
       <c r="J92">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K92">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L92">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M92">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N92">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="93" hidden="1" spans="1:14">
@@ -4956,19 +4956,19 @@
         <v>17</v>
       </c>
       <c r="J93">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K93">
         <v>334</v>
       </c>
       <c r="L93">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M93">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N93">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="94" hidden="1" spans="1:14">
@@ -4997,19 +4997,19 @@
         <v>18</v>
       </c>
       <c r="J94">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K94">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L94">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M94">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N94">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="95" hidden="1" spans="1:14">
@@ -5038,19 +5038,19 @@
         <v>19</v>
       </c>
       <c r="J95">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K95">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L95">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M95">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N95">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="96" hidden="1" spans="1:14">
@@ -5079,19 +5079,19 @@
         <v>20</v>
       </c>
       <c r="J96">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K96">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L96">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M96">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N96">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="97" hidden="1" spans="1:14">
@@ -5120,19 +5120,19 @@
         <v>21</v>
       </c>
       <c r="J97">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K97">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L97">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M97">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N97">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="98" hidden="1" spans="1:14">
@@ -5164,16 +5164,16 @@
         <v>497</v>
       </c>
       <c r="K98">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L98">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M98">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N98">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="99" hidden="1" spans="1:14">
@@ -5202,19 +5202,19 @@
         <v>23</v>
       </c>
       <c r="J99">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K99">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L99">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M99">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N99">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="100" hidden="1" spans="1:14">
@@ -5243,19 +5243,19 @@
         <v>24</v>
       </c>
       <c r="J100">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K100">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L100">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M100">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N100">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="101" hidden="1" spans="1:14">
@@ -5284,19 +5284,19 @@
         <v>25</v>
       </c>
       <c r="J101">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K101">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L101">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M101">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N101">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="102" hidden="1" spans="1:14">
@@ -5325,19 +5325,19 @@
         <v>26</v>
       </c>
       <c r="J102">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K102">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L102">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M102">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N102">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="103" hidden="1" spans="1:14">
@@ -5366,19 +5366,19 @@
         <v>27</v>
       </c>
       <c r="J103">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K103">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L103">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M103">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N103">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="104" hidden="1" spans="1:14">
@@ -5407,19 +5407,19 @@
         <v>28</v>
       </c>
       <c r="J104">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K104">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L104">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M104">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N104">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="105" hidden="1" spans="1:14">
@@ -5448,19 +5448,19 @@
         <v>29</v>
       </c>
       <c r="J105">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K105">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L105">
         <v>7</v>
       </c>
       <c r="M105">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N105">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="106" hidden="1" spans="1:14">
@@ -5489,19 +5489,19 @@
         <v>30</v>
       </c>
       <c r="J106">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K106">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L106">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M106">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N106">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="107" hidden="1" spans="1:14">
@@ -5530,19 +5530,19 @@
         <v>31</v>
       </c>
       <c r="J107">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K107">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L107">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M107">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N107">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="108" hidden="1" spans="1:14">
@@ -5571,19 +5571,19 @@
         <v>32</v>
       </c>
       <c r="J108">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K108">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L108">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M108">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N108">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="109" hidden="1" spans="1:14">
@@ -5612,19 +5612,19 @@
         <v>33</v>
       </c>
       <c r="J109">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K109">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L109">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M109">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N109">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="110" hidden="1" spans="1:14">
@@ -5656,19 +5656,19 @@
         <v>15</v>
       </c>
       <c r="J110">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K110">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L110">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M110">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N110">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="111" hidden="1" spans="1:14">
@@ -5700,19 +5700,19 @@
         <v>17</v>
       </c>
       <c r="J111">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K111">
         <v>334</v>
       </c>
       <c r="L111">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M111">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N111">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="112" hidden="1" spans="1:14">
@@ -5744,19 +5744,19 @@
         <v>18</v>
       </c>
       <c r="J112">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K112">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L112">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M112">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N112">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="113" hidden="1" spans="1:14">
@@ -5788,19 +5788,19 @@
         <v>19</v>
       </c>
       <c r="J113">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K113">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L113">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M113">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N113">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="114" hidden="1" spans="1:14">
@@ -5832,19 +5832,19 @@
         <v>20</v>
       </c>
       <c r="J114">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K114">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L114">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M114">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N114">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="115" hidden="1" spans="1:14">
@@ -5876,19 +5876,19 @@
         <v>21</v>
       </c>
       <c r="J115">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K115">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L115">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M115">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N115">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="116" hidden="1" spans="1:14">
@@ -5923,16 +5923,16 @@
         <v>497</v>
       </c>
       <c r="K116">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L116">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M116">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N116">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="117" hidden="1" spans="1:14">
@@ -5964,19 +5964,19 @@
         <v>23</v>
       </c>
       <c r="J117">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K117">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L117">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M117">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N117">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="118" hidden="1" spans="1:14">
@@ -6008,19 +6008,19 @@
         <v>24</v>
       </c>
       <c r="J118">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K118">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L118">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M118">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N118">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="119" hidden="1" spans="1:14">
@@ -6052,19 +6052,19 @@
         <v>25</v>
       </c>
       <c r="J119">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K119">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L119">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M119">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N119">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="120" hidden="1" spans="1:14">
@@ -6096,19 +6096,19 @@
         <v>26</v>
       </c>
       <c r="J120">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K120">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L120">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M120">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N120">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="121" hidden="1" spans="1:14">
@@ -6140,19 +6140,19 @@
         <v>27</v>
       </c>
       <c r="J121">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K121">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L121">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M121">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N121">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="122" hidden="1" spans="1:14">
@@ -6184,19 +6184,19 @@
         <v>28</v>
       </c>
       <c r="J122">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K122">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L122">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M122">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N122">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="123" hidden="1" spans="1:14">
@@ -6225,19 +6225,19 @@
         <v>29</v>
       </c>
       <c r="J123">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K123">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L123">
         <v>7</v>
       </c>
       <c r="M123">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N123">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="124" hidden="1" spans="1:14">
@@ -6269,19 +6269,19 @@
         <v>30</v>
       </c>
       <c r="J124">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K124">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L124">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M124">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N124">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="125" hidden="1" spans="1:14">
@@ -6313,19 +6313,19 @@
         <v>31</v>
       </c>
       <c r="J125">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K125">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L125">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M125">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N125">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="126" hidden="1" spans="1:14">
@@ -6357,19 +6357,19 @@
         <v>32</v>
       </c>
       <c r="J126">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K126">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L126">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M126">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N126">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="127" hidden="1" spans="1:14">
@@ -6401,19 +6401,19 @@
         <v>33</v>
       </c>
       <c r="J127">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K127">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L127">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M127">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N127">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="128" hidden="1" spans="1:14">
@@ -6445,19 +6445,19 @@
         <v>20</v>
       </c>
       <c r="J128">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K128">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L128">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M128">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N128">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="129" hidden="1" spans="1:14">
@@ -6486,19 +6486,19 @@
         <v>17</v>
       </c>
       <c r="J129">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K129">
         <v>334</v>
       </c>
       <c r="L129">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M129">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N129">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="130" hidden="1" spans="1:14">
@@ -6527,19 +6527,19 @@
         <v>19</v>
       </c>
       <c r="J130">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K130">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L130">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M130">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N130">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="131" hidden="1" spans="1:14">
@@ -6568,19 +6568,19 @@
         <v>41</v>
       </c>
       <c r="J131">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K131">
+        <v>14</v>
+      </c>
+      <c r="L131">
         <v>10</v>
       </c>
-      <c r="L131">
-        <v>7</v>
-      </c>
       <c r="M131">
-        <v>0.5556</v>
+        <v>0.6087</v>
       </c>
       <c r="N131">
-        <v>0.7</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="132" hidden="1" spans="1:14">
@@ -6612,16 +6612,16 @@
         <v>497</v>
       </c>
       <c r="K132">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L132">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M132">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N132">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="133" hidden="1" spans="1:14">
@@ -6650,19 +6650,19 @@
         <v>23</v>
       </c>
       <c r="J133">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K133">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L133">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M133">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N133">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="134" hidden="1" spans="1:14">
@@ -6691,19 +6691,19 @@
         <v>24</v>
       </c>
       <c r="J134">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K134">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L134">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M134">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N134">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="135" hidden="1" spans="1:14">
@@ -6735,19 +6735,19 @@
         <v>15</v>
       </c>
       <c r="J135">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K135">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L135">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M135">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N135">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="136" hidden="1" spans="1:14">
@@ -6820,19 +6820,19 @@
         <v>26</v>
       </c>
       <c r="J137">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K137">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L137">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M137">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N137">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="138" hidden="1" spans="1:14">
@@ -6864,19 +6864,19 @@
         <v>30</v>
       </c>
       <c r="J138">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K138">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L138">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M138">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N138">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="139" hidden="1" spans="1:14">
@@ -6905,19 +6905,19 @@
         <v>29</v>
       </c>
       <c r="J139">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K139">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L139">
         <v>7</v>
       </c>
       <c r="M139">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N139">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="140" hidden="1" spans="1:14">
@@ -6949,19 +6949,19 @@
         <v>21</v>
       </c>
       <c r="J140">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K140">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L140">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M140">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N140">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="141" hidden="1" spans="1:14">
@@ -6990,19 +6990,19 @@
         <v>43</v>
       </c>
       <c r="J141">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K141">
+        <v>12</v>
+      </c>
+      <c r="L141">
         <v>10</v>
       </c>
-      <c r="L141">
-        <v>8</v>
-      </c>
       <c r="M141">
-        <v>0.5263</v>
+        <v>0.5714</v>
       </c>
       <c r="N141">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="142" hidden="1" spans="1:14">
@@ -7034,19 +7034,19 @@
         <v>25</v>
       </c>
       <c r="J142">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K142">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L142">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M142">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N142">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="143" hidden="1" spans="1:14">
@@ -7116,19 +7116,19 @@
         <v>31</v>
       </c>
       <c r="J144">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K144">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L144">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M144">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N144">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="145" hidden="1" spans="1:14">
@@ -7160,19 +7160,19 @@
         <v>18</v>
       </c>
       <c r="J145">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K145">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L145">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M145">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N145">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="146" hidden="1" spans="1:14">
@@ -7248,19 +7248,19 @@
         <v>27</v>
       </c>
       <c r="J147">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K147">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L147">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M147">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N147">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="148" hidden="1" spans="1:14">
@@ -7289,19 +7289,19 @@
         <v>46</v>
       </c>
       <c r="J148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148">
-        <v>0.2</v>
+        <v>0.2727</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="149" hidden="1" spans="1:14">
@@ -7330,19 +7330,19 @@
         <v>28</v>
       </c>
       <c r="J149">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K149">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L149">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M149">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N149">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="150" hidden="1" spans="1:14">
@@ -7374,19 +7374,19 @@
         <v>32</v>
       </c>
       <c r="J150">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K150">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L150">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M150">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N150">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="151" hidden="1" spans="1:14">
@@ -7418,19 +7418,19 @@
         <v>33</v>
       </c>
       <c r="J151">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K151">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L151">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M151">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N151">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="152" hidden="1" spans="1:14">
@@ -7462,19 +7462,19 @@
         <v>20</v>
       </c>
       <c r="J152">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K152">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L152">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M152">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N152">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="153" hidden="1" spans="1:14">
@@ -7506,19 +7506,19 @@
         <v>17</v>
       </c>
       <c r="J153">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K153">
         <v>334</v>
       </c>
       <c r="L153">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M153">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N153">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="154" hidden="1" spans="1:14">
@@ -7550,19 +7550,19 @@
         <v>19</v>
       </c>
       <c r="J154">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K154">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L154">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M154">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N154">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="155" hidden="1" spans="1:14">
@@ -7594,19 +7594,19 @@
         <v>41</v>
       </c>
       <c r="J155">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K155">
+        <v>14</v>
+      </c>
+      <c r="L155">
         <v>10</v>
       </c>
-      <c r="L155">
-        <v>7</v>
-      </c>
       <c r="M155">
-        <v>0.5556</v>
+        <v>0.6087</v>
       </c>
       <c r="N155">
-        <v>0.7</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="156" hidden="1" spans="1:14">
@@ -7641,16 +7641,16 @@
         <v>497</v>
       </c>
       <c r="K156">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L156">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M156">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N156">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="157" hidden="1" spans="1:14">
@@ -7682,19 +7682,19 @@
         <v>23</v>
       </c>
       <c r="J157">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K157">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L157">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M157">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N157">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="158" hidden="1" spans="1:14">
@@ -7726,19 +7726,19 @@
         <v>24</v>
       </c>
       <c r="J158">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K158">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L158">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M158">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N158">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="159" hidden="1" spans="1:14">
@@ -7770,19 +7770,19 @@
         <v>15</v>
       </c>
       <c r="J159">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K159">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L159">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M159">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N159">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="160" hidden="1" spans="1:14">
@@ -7852,19 +7852,19 @@
         <v>26</v>
       </c>
       <c r="J161">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K161">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L161">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M161">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N161">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="162" hidden="1" spans="1:14">
@@ -7896,19 +7896,19 @@
         <v>30</v>
       </c>
       <c r="J162">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K162">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L162">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M162">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N162">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="163" hidden="1" spans="1:14">
@@ -7937,19 +7937,19 @@
         <v>29</v>
       </c>
       <c r="J163">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K163">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L163">
         <v>7</v>
       </c>
       <c r="M163">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N163">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="164" hidden="1" spans="1:14">
@@ -7981,19 +7981,19 @@
         <v>21</v>
       </c>
       <c r="J164">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K164">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L164">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M164">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N164">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="165" hidden="1" spans="1:14">
@@ -8022,19 +8022,19 @@
         <v>43</v>
       </c>
       <c r="J165">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K165">
+        <v>12</v>
+      </c>
+      <c r="L165">
         <v>10</v>
       </c>
-      <c r="L165">
-        <v>8</v>
-      </c>
       <c r="M165">
-        <v>0.5263</v>
+        <v>0.5714</v>
       </c>
       <c r="N165">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="166" hidden="1" spans="1:14">
@@ -8066,19 +8066,19 @@
         <v>25</v>
       </c>
       <c r="J166">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K166">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L166">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M166">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N166">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="167" hidden="1" spans="1:14">
@@ -8154,19 +8154,19 @@
         <v>31</v>
       </c>
       <c r="J168">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K168">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L168">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M168">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N168">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="169" hidden="1" spans="1:14">
@@ -8198,19 +8198,19 @@
         <v>18</v>
       </c>
       <c r="J169">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K169">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L169">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M169">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N169">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="170" hidden="1" spans="1:14">
@@ -8283,19 +8283,19 @@
         <v>27</v>
       </c>
       <c r="J171">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K171">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L171">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M171">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N171">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="172" hidden="1" spans="1:14">
@@ -8321,19 +8321,19 @@
         <v>46</v>
       </c>
       <c r="J172">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172">
-        <v>0.2</v>
+        <v>0.2727</v>
       </c>
       <c r="N172">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="173" hidden="1" spans="1:14">
@@ -8365,19 +8365,19 @@
         <v>28</v>
       </c>
       <c r="J173">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K173">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L173">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M173">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N173">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="174" hidden="1" spans="1:14">
@@ -8409,19 +8409,19 @@
         <v>32</v>
       </c>
       <c r="J174">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K174">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L174">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M174">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N174">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="175" hidden="1" spans="1:14">
@@ -8453,19 +8453,19 @@
         <v>33</v>
       </c>
       <c r="J175">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K175">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L175">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M175">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N175">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="176" hidden="1" spans="1:14">
@@ -8497,19 +8497,19 @@
         <v>20</v>
       </c>
       <c r="J176">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K176">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L176">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M176">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N176">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="177" hidden="1" spans="1:14">
@@ -8538,19 +8538,19 @@
         <v>17</v>
       </c>
       <c r="J177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K177">
         <v>334</v>
       </c>
       <c r="L177">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M177">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N177">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="178" hidden="1" spans="1:14">
@@ -8579,19 +8579,19 @@
         <v>19</v>
       </c>
       <c r="J178">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K178">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L178">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M178">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N178">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="179" hidden="1" spans="1:14">
@@ -8620,19 +8620,19 @@
         <v>41</v>
       </c>
       <c r="J179">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K179">
+        <v>14</v>
+      </c>
+      <c r="L179">
         <v>10</v>
       </c>
-      <c r="L179">
-        <v>7</v>
-      </c>
       <c r="M179">
-        <v>0.5556</v>
+        <v>0.6087</v>
       </c>
       <c r="N179">
-        <v>0.7</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="180" hidden="1" spans="1:14">
@@ -8661,16 +8661,16 @@
         <v>497</v>
       </c>
       <c r="K180">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L180">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M180">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N180">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="181" hidden="1" spans="1:14">
@@ -8702,19 +8702,19 @@
         <v>23</v>
       </c>
       <c r="J181">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K181">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L181">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M181">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N181">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="182" hidden="1" spans="1:14">
@@ -8746,19 +8746,19 @@
         <v>24</v>
       </c>
       <c r="J182">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K182">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L182">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M182">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N182">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="183" hidden="1" spans="1:14">
@@ -8787,19 +8787,19 @@
         <v>15</v>
       </c>
       <c r="J183">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K183">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L183">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M183">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N183">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="184" hidden="1" spans="1:14">
@@ -8869,19 +8869,19 @@
         <v>26</v>
       </c>
       <c r="J185">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K185">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L185">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M185">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N185">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="186" hidden="1" spans="1:14">
@@ -8913,19 +8913,19 @@
         <v>30</v>
       </c>
       <c r="J186">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K186">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L186">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M186">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N186">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="187" hidden="1" spans="1:14">
@@ -8954,19 +8954,19 @@
         <v>29</v>
       </c>
       <c r="J187">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K187">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L187">
         <v>7</v>
       </c>
       <c r="M187">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N187">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="188" hidden="1" spans="1:14">
@@ -8998,19 +8998,19 @@
         <v>21</v>
       </c>
       <c r="J188">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K188">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L188">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M188">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N188">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="189" hidden="1" spans="1:14">
@@ -9042,19 +9042,19 @@
         <v>43</v>
       </c>
       <c r="J189">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K189">
+        <v>12</v>
+      </c>
+      <c r="L189">
         <v>10</v>
       </c>
-      <c r="L189">
-        <v>8</v>
-      </c>
       <c r="M189">
-        <v>0.5263</v>
+        <v>0.5714</v>
       </c>
       <c r="N189">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="190" hidden="1" spans="1:14">
@@ -9086,19 +9086,19 @@
         <v>25</v>
       </c>
       <c r="J190">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K190">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L190">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M190">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N190">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="191" hidden="1" spans="1:14">
@@ -9168,19 +9168,19 @@
         <v>31</v>
       </c>
       <c r="J192">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K192">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L192">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M192">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N192">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="193" hidden="1" spans="1:14">
@@ -9212,19 +9212,19 @@
         <v>18</v>
       </c>
       <c r="J193">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K193">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L193">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M193">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N193">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="194" hidden="1" spans="1:14">
@@ -9297,19 +9297,19 @@
         <v>27</v>
       </c>
       <c r="J195">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K195">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L195">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M195">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N195">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="196" hidden="1" spans="1:14">
@@ -9338,19 +9338,19 @@
         <v>46</v>
       </c>
       <c r="J196">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196">
-        <v>0.2</v>
+        <v>0.2727</v>
       </c>
       <c r="N196">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="197" hidden="1" spans="1:14">
@@ -9382,19 +9382,19 @@
         <v>28</v>
       </c>
       <c r="J197">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K197">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L197">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M197">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N197">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="198" hidden="1" spans="1:14">
@@ -9426,19 +9426,19 @@
         <v>32</v>
       </c>
       <c r="J198">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K198">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L198">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M198">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N198">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="199" hidden="1" spans="1:14">
@@ -9470,19 +9470,19 @@
         <v>33</v>
       </c>
       <c r="J199">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K199">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L199">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M199">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N199">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="200" hidden="1" spans="1:14">
@@ -9514,19 +9514,19 @@
         <v>20</v>
       </c>
       <c r="J200">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K200">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L200">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M200">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N200">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="201" hidden="1" spans="1:14">
@@ -9558,19 +9558,19 @@
         <v>17</v>
       </c>
       <c r="J201">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K201">
         <v>334</v>
       </c>
       <c r="L201">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M201">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N201">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="202" hidden="1" spans="1:14">
@@ -9602,19 +9602,19 @@
         <v>19</v>
       </c>
       <c r="J202">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K202">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L202">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M202">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N202">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="203" hidden="1" spans="1:14">
@@ -9643,19 +9643,19 @@
         <v>41</v>
       </c>
       <c r="J203">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K203">
+        <v>14</v>
+      </c>
+      <c r="L203">
         <v>10</v>
       </c>
-      <c r="L203">
-        <v>7</v>
-      </c>
       <c r="M203">
-        <v>0.5556</v>
+        <v>0.6087</v>
       </c>
       <c r="N203">
-        <v>0.7</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="204" hidden="1" spans="1:14">
@@ -9690,16 +9690,16 @@
         <v>497</v>
       </c>
       <c r="K204">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L204">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M204">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N204">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="205" hidden="1" spans="1:14">
@@ -9731,19 +9731,19 @@
         <v>23</v>
       </c>
       <c r="J205">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K205">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L205">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M205">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N205">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="206" hidden="1" spans="1:14">
@@ -9775,19 +9775,19 @@
         <v>24</v>
       </c>
       <c r="J206">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K206">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L206">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M206">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N206">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="207" hidden="1" spans="1:14">
@@ -9819,19 +9819,19 @@
         <v>15</v>
       </c>
       <c r="J207">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K207">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L207">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M207">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N207">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="208" hidden="1" spans="1:14">
@@ -9907,19 +9907,19 @@
         <v>26</v>
       </c>
       <c r="J209">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K209">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L209">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M209">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N209">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="210" hidden="1" spans="1:14">
@@ -9951,19 +9951,19 @@
         <v>30</v>
       </c>
       <c r="J210">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K210">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L210">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M210">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N210">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="211" hidden="1" spans="1:14">
@@ -9995,19 +9995,19 @@
         <v>29</v>
       </c>
       <c r="J211">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K211">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L211">
         <v>7</v>
       </c>
       <c r="M211">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N211">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="212" hidden="1" spans="1:14">
@@ -10039,19 +10039,19 @@
         <v>21</v>
       </c>
       <c r="J212">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K212">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L212">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M212">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N212">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="213" hidden="1" spans="1:14">
@@ -10083,19 +10083,19 @@
         <v>43</v>
       </c>
       <c r="J213">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K213">
+        <v>12</v>
+      </c>
+      <c r="L213">
         <v>10</v>
       </c>
-      <c r="L213">
-        <v>8</v>
-      </c>
       <c r="M213">
-        <v>0.5263</v>
+        <v>0.5714</v>
       </c>
       <c r="N213">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="214" hidden="1" spans="1:14">
@@ -10127,19 +10127,19 @@
         <v>25</v>
       </c>
       <c r="J214">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K214">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L214">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M214">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N214">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="215" hidden="1" spans="1:14">
@@ -10209,19 +10209,19 @@
         <v>31</v>
       </c>
       <c r="J216">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K216">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L216">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M216">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N216">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="217" hidden="1" spans="1:14">
@@ -10253,19 +10253,19 @@
         <v>18</v>
       </c>
       <c r="J217">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K217">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L217">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M217">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N217">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="218" hidden="1" spans="1:14">
@@ -10341,19 +10341,19 @@
         <v>27</v>
       </c>
       <c r="J219">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K219">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L219">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M219">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N219">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="220" hidden="1" spans="1:14">
@@ -10379,19 +10379,19 @@
         <v>46</v>
       </c>
       <c r="J220">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M220">
-        <v>0.2</v>
+        <v>0.2727</v>
       </c>
       <c r="N220">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="221" hidden="1" spans="1:14">
@@ -10423,19 +10423,19 @@
         <v>28</v>
       </c>
       <c r="J221">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K221">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L221">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M221">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N221">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="222" hidden="1" spans="1:14">
@@ -10467,19 +10467,19 @@
         <v>32</v>
       </c>
       <c r="J222">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K222">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L222">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M222">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N222">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="223" hidden="1" spans="1:14">
@@ -10511,19 +10511,19 @@
         <v>33</v>
       </c>
       <c r="J223">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K223">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L223">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M223">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N223">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="224" hidden="1" spans="1:14">
@@ -10555,19 +10555,19 @@
         <v>20</v>
       </c>
       <c r="J224">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K224">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L224">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M224">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N224">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="225" hidden="1" spans="1:14">
@@ -10593,19 +10593,19 @@
         <v>17</v>
       </c>
       <c r="J225">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K225">
         <v>334</v>
       </c>
       <c r="L225">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M225">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N225">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="226" hidden="1" spans="1:14">
@@ -10637,19 +10637,19 @@
         <v>19</v>
       </c>
       <c r="J226">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K226">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L226">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M226">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N226">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="227" hidden="1" spans="1:14">
@@ -10675,19 +10675,19 @@
         <v>41</v>
       </c>
       <c r="J227">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K227">
+        <v>14</v>
+      </c>
+      <c r="L227">
         <v>10</v>
       </c>
-      <c r="L227">
-        <v>7</v>
-      </c>
       <c r="M227">
-        <v>0.5556</v>
+        <v>0.6087</v>
       </c>
       <c r="N227">
-        <v>0.7</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="228" hidden="1" spans="1:14">
@@ -10716,16 +10716,16 @@
         <v>497</v>
       </c>
       <c r="K228">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L228">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M228">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N228">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="229" hidden="1" spans="1:14">
@@ -10757,19 +10757,19 @@
         <v>23</v>
       </c>
       <c r="J229">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K229">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L229">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M229">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N229">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="230" hidden="1" spans="1:14">
@@ -10798,19 +10798,19 @@
         <v>24</v>
       </c>
       <c r="J230">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K230">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L230">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M230">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N230">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="231" hidden="1" spans="1:14">
@@ -10842,19 +10842,19 @@
         <v>15</v>
       </c>
       <c r="J231">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K231">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L231">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M231">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N231">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="232" hidden="1" spans="1:14">
@@ -10924,19 +10924,19 @@
         <v>26</v>
       </c>
       <c r="J233">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K233">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L233">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M233">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N233">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="234" hidden="1" spans="1:14">
@@ -10962,19 +10962,19 @@
         <v>30</v>
       </c>
       <c r="J234">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K234">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L234">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M234">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N234">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="235" hidden="1" spans="1:14">
@@ -11006,19 +11006,19 @@
         <v>29</v>
       </c>
       <c r="J235">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K235">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L235">
         <v>7</v>
       </c>
       <c r="M235">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N235">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="236" hidden="1" spans="1:14">
@@ -11050,19 +11050,19 @@
         <v>21</v>
       </c>
       <c r="J236">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K236">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L236">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M236">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N236">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="237" hidden="1" spans="1:14">
@@ -11094,19 +11094,19 @@
         <v>43</v>
       </c>
       <c r="J237">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K237">
+        <v>12</v>
+      </c>
+      <c r="L237">
         <v>10</v>
       </c>
-      <c r="L237">
-        <v>8</v>
-      </c>
       <c r="M237">
-        <v>0.5263</v>
+        <v>0.5714</v>
       </c>
       <c r="N237">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="238" hidden="1" spans="1:14">
@@ -11138,19 +11138,19 @@
         <v>25</v>
       </c>
       <c r="J238">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K238">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L238">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M238">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N238">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="239" hidden="1" spans="1:14">
@@ -11214,19 +11214,19 @@
         <v>31</v>
       </c>
       <c r="J240">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K240">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L240">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M240">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N240">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="241" hidden="1" spans="1:14">
@@ -11252,19 +11252,19 @@
         <v>18</v>
       </c>
       <c r="J241">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K241">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L241">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M241">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N241">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="242" hidden="1" spans="1:14">
@@ -11334,19 +11334,19 @@
         <v>27</v>
       </c>
       <c r="J243">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K243">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L243">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M243">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N243">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="244" hidden="1" spans="1:14">
@@ -11372,19 +11372,19 @@
         <v>46</v>
       </c>
       <c r="J244">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M244">
-        <v>0.2</v>
+        <v>0.2727</v>
       </c>
       <c r="N244">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="245" hidden="1" spans="1:14">
@@ -11410,19 +11410,19 @@
         <v>28</v>
       </c>
       <c r="J245">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K245">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L245">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M245">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N245">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="246" hidden="1" spans="1:14">
@@ -11454,19 +11454,19 @@
         <v>32</v>
       </c>
       <c r="J246">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K246">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L246">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M246">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N246">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="247" hidden="1" spans="1:14">
@@ -11498,22 +11498,22 @@
         <v>33</v>
       </c>
       <c r="J247">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K247">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L247">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M247">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N247">
-        <v>0.4229</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14">
+        <v>0.4304</v>
+      </c>
+    </row>
+    <row r="248" hidden="1" spans="1:14">
       <c r="A248" t="s">
         <v>51</v>
       </c>
@@ -11542,22 +11542,22 @@
         <v>20</v>
       </c>
       <c r="J248">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K248">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L248">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M248">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N248">
-        <v>0.1539</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14">
+        <v>0.1547</v>
+      </c>
+    </row>
+    <row r="249" hidden="1" spans="1:14">
       <c r="A249" t="s">
         <v>51</v>
       </c>
@@ -11586,22 +11586,22 @@
         <v>17</v>
       </c>
       <c r="J249">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K249">
         <v>334</v>
       </c>
       <c r="L249">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M249">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N249">
-        <v>0.6677</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14">
+        <v>0.6707</v>
+      </c>
+    </row>
+    <row r="250" hidden="1" spans="1:14">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -11630,22 +11630,22 @@
         <v>19</v>
       </c>
       <c r="J250">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K250">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L250">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M250">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N250">
-        <v>0.7197</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14">
+        <v>0.7331</v>
+      </c>
+    </row>
+    <row r="251" hidden="1" spans="1:14">
       <c r="A251" t="s">
         <v>51</v>
       </c>
@@ -11674,22 +11674,22 @@
         <v>41</v>
       </c>
       <c r="J251">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K251">
+        <v>14</v>
+      </c>
+      <c r="L251">
         <v>10</v>
       </c>
-      <c r="L251">
-        <v>7</v>
-      </c>
       <c r="M251">
-        <v>0.5556</v>
+        <v>0.6087</v>
       </c>
       <c r="N251">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14">
+        <v>0.7143</v>
+      </c>
+    </row>
+    <row r="252" hidden="1" spans="1:14">
       <c r="A252" t="s">
         <v>51</v>
       </c>
@@ -11721,19 +11721,19 @@
         <v>497</v>
       </c>
       <c r="K252">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L252">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M252">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N252">
-        <v>0.7978</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14">
+        <v>0.7985</v>
+      </c>
+    </row>
+    <row r="253" hidden="1" spans="1:14">
       <c r="A253" t="s">
         <v>51</v>
       </c>
@@ -11762,22 +11762,22 @@
         <v>23</v>
       </c>
       <c r="J253">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K253">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L253">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M253">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N253">
-        <v>0.4047</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14">
+        <v>0.4109</v>
+      </c>
+    </row>
+    <row r="254" hidden="1" spans="1:14">
       <c r="A254" t="s">
         <v>51</v>
       </c>
@@ -11803,22 +11803,22 @@
         <v>24</v>
       </c>
       <c r="J254">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K254">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L254">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M254">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N254">
-        <v>0.512</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14">
+        <v>0.5159</v>
+      </c>
+    </row>
+    <row r="255" hidden="1" spans="1:14">
       <c r="A255" t="s">
         <v>51</v>
       </c>
@@ -11847,22 +11847,22 @@
         <v>15</v>
       </c>
       <c r="J255">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K255">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L255">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M255">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N255">
-        <v>0.719</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14">
+        <v>0.7311</v>
+      </c>
+    </row>
+    <row r="256" hidden="1" spans="1:14">
       <c r="A256" t="s">
         <v>51</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" hidden="1" spans="1:14">
       <c r="A257" t="s">
         <v>51</v>
       </c>
@@ -11929,22 +11929,22 @@
         <v>26</v>
       </c>
       <c r="J257">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K257">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L257">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M257">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N257">
-        <v>0.858</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14">
+        <v>0.8592</v>
+      </c>
+    </row>
+    <row r="258" hidden="1" spans="1:14">
       <c r="A258" t="s">
         <v>51</v>
       </c>
@@ -11973,22 +11973,22 @@
         <v>30</v>
       </c>
       <c r="J258">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K258">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L258">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M258">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N258">
-        <v>0.639</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14">
+        <v>0.6383</v>
+      </c>
+    </row>
+    <row r="259" hidden="1" spans="1:14">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -12017,22 +12017,22 @@
         <v>29</v>
       </c>
       <c r="J259">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K259">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L259">
         <v>7</v>
       </c>
       <c r="M259">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N259">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="260" hidden="1" spans="1:14">
       <c r="A260" t="s">
         <v>51</v>
       </c>
@@ -12061,22 +12061,22 @@
         <v>21</v>
       </c>
       <c r="J260">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K260">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L260">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M260">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N260">
-        <v>0.2573</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14">
+        <v>0.2778</v>
+      </c>
+    </row>
+    <row r="261" hidden="1" spans="1:14">
       <c r="A261" t="s">
         <v>51</v>
       </c>
@@ -12105,22 +12105,22 @@
         <v>43</v>
       </c>
       <c r="J261">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K261">
+        <v>12</v>
+      </c>
+      <c r="L261">
         <v>10</v>
       </c>
-      <c r="L261">
-        <v>8</v>
-      </c>
       <c r="M261">
-        <v>0.5263</v>
+        <v>0.5714</v>
       </c>
       <c r="N261">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="262" hidden="1" spans="1:14">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -12149,22 +12149,22 @@
         <v>25</v>
       </c>
       <c r="J262">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K262">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L262">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M262">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N262">
-        <v>0.1239</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14">
+        <v>0.1279</v>
+      </c>
+    </row>
+    <row r="263" hidden="1" spans="1:14">
       <c r="A263" t="s">
         <v>51</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" hidden="1" spans="1:14">
       <c r="A264" t="s">
         <v>51</v>
       </c>
@@ -12231,22 +12231,22 @@
         <v>31</v>
       </c>
       <c r="J264">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K264">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L264">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M264">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N264">
-        <v>0.7447</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14">
+        <v>0.7566</v>
+      </c>
+    </row>
+    <row r="265" hidden="1" spans="1:14">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -12275,22 +12275,22 @@
         <v>18</v>
       </c>
       <c r="J265">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K265">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L265">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M265">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N265">
-        <v>0.2908</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14">
+        <v>0.2931</v>
+      </c>
+    </row>
+    <row r="266" hidden="1" spans="1:14">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" hidden="1" spans="1:14">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -12357,22 +12357,22 @@
         <v>27</v>
       </c>
       <c r="J267">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K267">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L267">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M267">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N267">
-        <v>0.3732</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="268" hidden="1" spans="1:14">
       <c r="A268" t="s">
         <v>51</v>
       </c>
@@ -12401,22 +12401,22 @@
         <v>46</v>
       </c>
       <c r="J268">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M268">
-        <v>0.2</v>
+        <v>0.2727</v>
       </c>
       <c r="N268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="269" hidden="1" spans="1:14">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -12439,22 +12439,22 @@
         <v>28</v>
       </c>
       <c r="J269">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K269">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L269">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M269">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N269">
-        <v>0.6737</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14">
+        <v>0.6746</v>
+      </c>
+    </row>
+    <row r="270" hidden="1" spans="1:14">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -12483,22 +12483,22 @@
         <v>32</v>
       </c>
       <c r="J270">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K270">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L270">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M270">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N270">
-        <v>0.5478</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14">
+        <v>0.5495</v>
+      </c>
+    </row>
+    <row r="271" hidden="1" spans="1:14">
       <c r="A271" t="s">
         <v>51</v>
       </c>
@@ -12527,19 +12527,19 @@
         <v>33</v>
       </c>
       <c r="J271">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K271">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L271">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M271">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N271">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="272" hidden="1" spans="1:14">
@@ -12571,19 +12571,19 @@
         <v>20</v>
       </c>
       <c r="J272">
-        <v>2363</v>
+        <v>2376</v>
       </c>
       <c r="K272">
-        <v>2294</v>
+        <v>2353</v>
       </c>
       <c r="L272">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M272">
-        <v>0.9708</v>
+        <v>0.9903</v>
       </c>
       <c r="N272">
-        <v>0.1539</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="273" hidden="1" spans="1:14">
@@ -12615,19 +12615,19 @@
         <v>17</v>
       </c>
       <c r="J273">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K273">
         <v>334</v>
       </c>
       <c r="L273">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M273">
-        <v>0.9176</v>
+        <v>0.9151</v>
       </c>
       <c r="N273">
-        <v>0.6677</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="274" hidden="1" spans="1:14">
@@ -12659,19 +12659,19 @@
         <v>19</v>
       </c>
       <c r="J274">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K274">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L274">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M274">
-        <v>0.6787</v>
+        <v>0.6786</v>
       </c>
       <c r="N274">
-        <v>0.7197</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="275" hidden="1" spans="1:14">
@@ -12697,19 +12697,19 @@
         <v>41</v>
       </c>
       <c r="J275">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K275">
+        <v>14</v>
+      </c>
+      <c r="L275">
         <v>10</v>
       </c>
-      <c r="L275">
-        <v>7</v>
-      </c>
       <c r="M275">
-        <v>0.5556</v>
+        <v>0.6087</v>
       </c>
       <c r="N275">
-        <v>0.7</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="276" hidden="1" spans="1:14">
@@ -12738,16 +12738,16 @@
         <v>497</v>
       </c>
       <c r="K276">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L276">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M276">
-        <v>0.5372</v>
+        <v>0.5392</v>
       </c>
       <c r="N276">
-        <v>0.7978</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="277" hidden="1" spans="1:14">
@@ -12779,19 +12779,19 @@
         <v>23</v>
       </c>
       <c r="J277">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K277">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L277">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M277">
-        <v>0.9847</v>
+        <v>0.9829</v>
       </c>
       <c r="N277">
-        <v>0.4047</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="278" hidden="1" spans="1:14">
@@ -12823,19 +12823,19 @@
         <v>24</v>
       </c>
       <c r="J278">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K278">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L278">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M278">
-        <v>0.6906</v>
+        <v>0.6904</v>
       </c>
       <c r="N278">
-        <v>0.512</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="279" hidden="1" spans="1:14">
@@ -12867,19 +12867,19 @@
         <v>15</v>
       </c>
       <c r="J279">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K279">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="L279">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="M279">
-        <v>0.8536</v>
+        <v>0.9985</v>
       </c>
       <c r="N279">
-        <v>0.719</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="280" hidden="1" spans="1:14">
@@ -12955,19 +12955,19 @@
         <v>26</v>
       </c>
       <c r="J281">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K281">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="L281">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="M281">
-        <v>0.6756</v>
+        <v>0.6749</v>
       </c>
       <c r="N281">
-        <v>0.858</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="282" hidden="1" spans="1:14">
@@ -12999,19 +12999,19 @@
         <v>30</v>
       </c>
       <c r="J282">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K282">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L282">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M282">
-        <v>0.9492</v>
+        <v>0.9495</v>
       </c>
       <c r="N282">
-        <v>0.639</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="283" hidden="1" spans="1:14">
@@ -13043,19 +13043,19 @@
         <v>29</v>
       </c>
       <c r="J283">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K283">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L283">
         <v>7</v>
       </c>
       <c r="M283">
-        <v>0.0195</v>
+        <v>0.0223</v>
       </c>
       <c r="N283">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="284" hidden="1" spans="1:14">
@@ -13087,19 +13087,19 @@
         <v>21</v>
       </c>
       <c r="J284">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K284">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L284">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M284">
-        <v>0.9715</v>
+        <v>0.9701</v>
       </c>
       <c r="N284">
-        <v>0.2573</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="285" hidden="1" spans="1:14">
@@ -13131,19 +13131,19 @@
         <v>43</v>
       </c>
       <c r="J285">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K285">
+        <v>12</v>
+      </c>
+      <c r="L285">
         <v>10</v>
       </c>
-      <c r="L285">
-        <v>8</v>
-      </c>
       <c r="M285">
-        <v>0.5263</v>
+        <v>0.5714</v>
       </c>
       <c r="N285">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="286" hidden="1" spans="1:14">
@@ -13169,19 +13169,19 @@
         <v>25</v>
       </c>
       <c r="J286">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K286">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L286">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M286">
-        <v>0.7245</v>
+        <v>0.7238</v>
       </c>
       <c r="N286">
-        <v>0.1239</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="287" hidden="1" spans="1:14">
@@ -13251,19 +13251,19 @@
         <v>31</v>
       </c>
       <c r="J288">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K288">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L288">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M288">
-        <v>0.3462</v>
+        <v>0.3474</v>
       </c>
       <c r="N288">
-        <v>0.7447</v>
+        <v>0.7566</v>
       </c>
     </row>
     <row r="289" hidden="1" spans="1:14">
@@ -13295,19 +13295,19 @@
         <v>18</v>
       </c>
       <c r="J289">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K289">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L289">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M289">
-        <v>0.9862</v>
+        <v>0.9863</v>
       </c>
       <c r="N289">
-        <v>0.2908</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="290" hidden="1" spans="1:14">
@@ -13380,19 +13380,19 @@
         <v>27</v>
       </c>
       <c r="J291">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="K291">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="L291">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="M291">
-        <v>0.9663</v>
+        <v>0.9645</v>
       </c>
       <c r="N291">
-        <v>0.3732</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="292" hidden="1" spans="1:14">
@@ -13421,19 +13421,19 @@
         <v>46</v>
       </c>
       <c r="J292">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M292">
-        <v>0.2</v>
+        <v>0.2727</v>
       </c>
       <c r="N292">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="293" hidden="1" spans="1:14">
@@ -13465,19 +13465,19 @@
         <v>28</v>
       </c>
       <c r="J293">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K293">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L293">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M293">
-        <v>0.8127</v>
+        <v>0.8131</v>
       </c>
       <c r="N293">
-        <v>0.6737</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="294" hidden="1" spans="1:14">
@@ -13509,19 +13509,19 @@
         <v>32</v>
       </c>
       <c r="J294">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="K294">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="L294">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M294">
-        <v>0.7342</v>
+        <v>0.724</v>
       </c>
       <c r="N294">
-        <v>0.5478</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="295" hidden="1" spans="1:14">
@@ -13553,26 +13553,1061 @@
         <v>33</v>
       </c>
       <c r="J295">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="K295">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="L295">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="M295">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="N295">
-        <v>0.4229</v>
+        <v>0.4304</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296" t="s">
+        <v>53</v>
+      </c>
+      <c r="B296" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296">
+        <v>14</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>0.2143</v>
+      </c>
+      <c r="G296">
+        <v>0.3333</v>
+      </c>
+      <c r="H296" t="s">
+        <v>16</v>
+      </c>
+      <c r="I296" t="s">
+        <v>20</v>
+      </c>
+      <c r="J296">
+        <v>2376</v>
+      </c>
+      <c r="K296">
+        <v>2353</v>
+      </c>
+      <c r="L296">
+        <v>364</v>
+      </c>
+      <c r="M296">
+        <v>0.9903</v>
+      </c>
+      <c r="N296">
+        <v>0.1547</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297" t="s">
+        <v>53</v>
+      </c>
+      <c r="B297" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="H297" t="s">
+        <v>16</v>
+      </c>
+      <c r="I297" t="s">
+        <v>17</v>
+      </c>
+      <c r="J297">
+        <v>365</v>
+      </c>
+      <c r="K297">
+        <v>334</v>
+      </c>
+      <c r="L297">
+        <v>224</v>
+      </c>
+      <c r="M297">
+        <v>0.9151</v>
+      </c>
+      <c r="N297">
+        <v>0.6707</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298" t="s">
+        <v>53</v>
+      </c>
+      <c r="B298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C298">
+        <v>3</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>0.3333</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298" t="s">
+        <v>16</v>
+      </c>
+      <c r="I298" t="s">
+        <v>19</v>
+      </c>
+      <c r="J298">
+        <v>392</v>
+      </c>
+      <c r="K298">
+        <v>266</v>
+      </c>
+      <c r="L298">
+        <v>195</v>
+      </c>
+      <c r="M298">
+        <v>0.6786</v>
+      </c>
+      <c r="N298">
+        <v>0.7331</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299" t="s">
+        <v>53</v>
+      </c>
+      <c r="B299" t="s">
+        <v>41</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>4</v>
+      </c>
+      <c r="E299">
+        <v>3</v>
+      </c>
+      <c r="F299">
+        <v>0.8</v>
+      </c>
+      <c r="G299">
+        <v>0.75</v>
+      </c>
+      <c r="H299" t="s">
+        <v>16</v>
+      </c>
+      <c r="I299" t="s">
+        <v>41</v>
+      </c>
+      <c r="J299">
+        <v>23</v>
+      </c>
+      <c r="K299">
+        <v>14</v>
+      </c>
+      <c r="L299">
+        <v>10</v>
+      </c>
+      <c r="M299">
+        <v>0.6087</v>
+      </c>
+      <c r="N299">
+        <v>0.7143</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300" t="s">
+        <v>53</v>
+      </c>
+      <c r="B300" t="s">
+        <v>22</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300" t="s">
+        <v>16</v>
+      </c>
+      <c r="I300" t="s">
+        <v>22</v>
+      </c>
+      <c r="J300">
+        <v>497</v>
+      </c>
+      <c r="K300">
+        <v>268</v>
+      </c>
+      <c r="L300">
+        <v>214</v>
+      </c>
+      <c r="M300">
+        <v>0.5392</v>
+      </c>
+      <c r="N300">
+        <v>0.7985</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301" t="s">
+        <v>53</v>
+      </c>
+      <c r="B301" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+      <c r="D301">
+        <v>2</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>0.6667</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301" t="s">
+        <v>16</v>
+      </c>
+      <c r="I301" t="s">
+        <v>23</v>
+      </c>
+      <c r="J301">
+        <v>525</v>
+      </c>
+      <c r="K301">
+        <v>516</v>
+      </c>
+      <c r="L301">
+        <v>212</v>
+      </c>
+      <c r="M301">
+        <v>0.9829</v>
+      </c>
+      <c r="N301">
+        <v>0.4109</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="A302" t="s">
+        <v>53</v>
+      </c>
+      <c r="B302" t="s">
+        <v>24</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302" t="s">
+        <v>16</v>
+      </c>
+      <c r="I302" t="s">
+        <v>24</v>
+      </c>
+      <c r="J302">
+        <v>365</v>
+      </c>
+      <c r="K302">
+        <v>252</v>
+      </c>
+      <c r="L302">
+        <v>130</v>
+      </c>
+      <c r="M302">
+        <v>0.6904</v>
+      </c>
+      <c r="N302">
+        <v>0.5159</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303" t="s">
+        <v>53</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303">
+        <v>6</v>
+      </c>
+      <c r="D303">
+        <v>5</v>
+      </c>
+      <c r="E303">
+        <v>3</v>
+      </c>
+      <c r="F303">
+        <v>0.8333</v>
+      </c>
+      <c r="G303">
+        <v>0.6</v>
+      </c>
+      <c r="H303" t="s">
+        <v>16</v>
+      </c>
+      <c r="I303" t="s">
+        <v>15</v>
+      </c>
+      <c r="J303">
+        <v>648</v>
+      </c>
+      <c r="K303">
+        <v>647</v>
+      </c>
+      <c r="L303">
+        <v>473</v>
+      </c>
+      <c r="M303">
+        <v>0.9985</v>
+      </c>
+      <c r="N303">
+        <v>0.7311</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
+      <c r="A304" t="s">
+        <v>53</v>
+      </c>
+      <c r="B304" t="s">
+        <v>42</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="H304" t="s">
+        <v>16</v>
+      </c>
+      <c r="I304" t="s">
+        <v>42</v>
+      </c>
+      <c r="J304">
+        <v>14</v>
+      </c>
+      <c r="K304">
+        <v>4</v>
+      </c>
+      <c r="L304">
+        <v>3</v>
+      </c>
+      <c r="M304">
+        <v>0.2857</v>
+      </c>
+      <c r="N304">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
+      <c r="A305" t="s">
+        <v>53</v>
+      </c>
+      <c r="B305" t="s">
+        <v>26</v>
+      </c>
+      <c r="C305">
+        <v>20</v>
+      </c>
+      <c r="D305">
+        <v>14</v>
+      </c>
+      <c r="E305">
+        <v>8</v>
+      </c>
+      <c r="F305">
+        <v>0.7</v>
+      </c>
+      <c r="G305">
+        <v>0.5714</v>
+      </c>
+      <c r="H305" t="s">
+        <v>16</v>
+      </c>
+      <c r="I305" t="s">
+        <v>26</v>
+      </c>
+      <c r="J305">
+        <v>1221</v>
+      </c>
+      <c r="K305">
+        <v>824</v>
+      </c>
+      <c r="L305">
+        <v>708</v>
+      </c>
+      <c r="M305">
+        <v>0.6749</v>
+      </c>
+      <c r="N305">
+        <v>0.8592</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
+      <c r="A306" t="s">
+        <v>53</v>
+      </c>
+      <c r="B306" t="s">
+        <v>30</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306" t="s">
+        <v>16</v>
+      </c>
+      <c r="I306" t="s">
+        <v>30</v>
+      </c>
+      <c r="J306">
+        <v>396</v>
+      </c>
+      <c r="K306">
+        <v>376</v>
+      </c>
+      <c r="L306">
+        <v>240</v>
+      </c>
+      <c r="M306">
+        <v>0.9495</v>
+      </c>
+      <c r="N306">
+        <v>0.6383</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
+      <c r="A307" t="s">
+        <v>53</v>
+      </c>
+      <c r="B307" t="s">
+        <v>29</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307" t="s">
+        <v>16</v>
+      </c>
+      <c r="I307" t="s">
+        <v>29</v>
+      </c>
+      <c r="J307">
+        <v>719</v>
+      </c>
+      <c r="K307">
+        <v>16</v>
+      </c>
+      <c r="L307">
+        <v>7</v>
+      </c>
+      <c r="M307">
+        <v>0.0223</v>
+      </c>
+      <c r="N307">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
+      <c r="A308" t="s">
+        <v>53</v>
+      </c>
+      <c r="B308" t="s">
+        <v>21</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <v>4</v>
+      </c>
+      <c r="E308">
+        <v>3</v>
+      </c>
+      <c r="F308">
+        <v>0.8</v>
+      </c>
+      <c r="G308">
+        <v>0.75</v>
+      </c>
+      <c r="H308" t="s">
+        <v>16</v>
+      </c>
+      <c r="I308" t="s">
+        <v>21</v>
+      </c>
+      <c r="J308">
+        <v>1336</v>
+      </c>
+      <c r="K308">
+        <v>1296</v>
+      </c>
+      <c r="L308">
+        <v>360</v>
+      </c>
+      <c r="M308">
+        <v>0.9701</v>
+      </c>
+      <c r="N308">
+        <v>0.2778</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
+      <c r="A309" t="s">
+        <v>53</v>
+      </c>
+      <c r="B309" t="s">
+        <v>43</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309" t="s">
+        <v>16</v>
+      </c>
+      <c r="I309" t="s">
+        <v>43</v>
+      </c>
+      <c r="J309">
+        <v>21</v>
+      </c>
+      <c r="K309">
+        <v>12</v>
+      </c>
+      <c r="L309">
+        <v>10</v>
+      </c>
+      <c r="M309">
+        <v>0.5714</v>
+      </c>
+      <c r="N309">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
+      <c r="A310" t="s">
+        <v>53</v>
+      </c>
+      <c r="B310" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>0.5</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+      <c r="H310" t="s">
+        <v>16</v>
+      </c>
+      <c r="I310" t="s">
+        <v>25</v>
+      </c>
+      <c r="J310">
+        <v>659</v>
+      </c>
+      <c r="K310">
+        <v>477</v>
+      </c>
+      <c r="L310">
+        <v>61</v>
+      </c>
+      <c r="M310">
+        <v>0.7238</v>
+      </c>
+      <c r="N310">
+        <v>0.1279</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
+      <c r="A311" t="s">
+        <v>53</v>
+      </c>
+      <c r="B311" t="s">
+        <v>44</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="H311" t="s">
+        <v>16</v>
+      </c>
+      <c r="I311" t="s">
+        <v>44</v>
+      </c>
+      <c r="J311">
+        <v>14</v>
+      </c>
+      <c r="K311">
+        <v>4</v>
+      </c>
+      <c r="L311">
+        <v>3</v>
+      </c>
+      <c r="M311">
+        <v>0.2857</v>
+      </c>
+      <c r="N311">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
+      <c r="A312" t="s">
+        <v>53</v>
+      </c>
+      <c r="B312" t="s">
+        <v>31</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312" t="s">
+        <v>16</v>
+      </c>
+      <c r="I312" t="s">
+        <v>31</v>
+      </c>
+      <c r="J312">
+        <v>544</v>
+      </c>
+      <c r="K312">
+        <v>189</v>
+      </c>
+      <c r="L312">
+        <v>143</v>
+      </c>
+      <c r="M312">
+        <v>0.3474</v>
+      </c>
+      <c r="N312">
+        <v>0.7566</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
+      <c r="A313" t="s">
+        <v>53</v>
+      </c>
+      <c r="B313" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313">
+        <v>3</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>0.6667</v>
+      </c>
+      <c r="G313">
+        <v>0.5</v>
+      </c>
+      <c r="H313" t="s">
+        <v>16</v>
+      </c>
+      <c r="I313" t="s">
+        <v>18</v>
+      </c>
+      <c r="J313">
+        <v>512</v>
+      </c>
+      <c r="K313">
+        <v>505</v>
+      </c>
+      <c r="L313">
+        <v>148</v>
+      </c>
+      <c r="M313">
+        <v>0.9863</v>
+      </c>
+      <c r="N313">
+        <v>0.2931</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
+      <c r="A314" t="s">
+        <v>53</v>
+      </c>
+      <c r="B314" t="s">
+        <v>45</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="H314" t="s">
+        <v>16</v>
+      </c>
+      <c r="I314" t="s">
+        <v>45</v>
+      </c>
+      <c r="J314">
+        <v>12</v>
+      </c>
+      <c r="K314">
+        <v>2</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <v>0.1667</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
+      <c r="A315" t="s">
+        <v>53</v>
+      </c>
+      <c r="B315" t="s">
+        <v>27</v>
+      </c>
+      <c r="C315">
+        <v>8</v>
+      </c>
+      <c r="D315">
+        <v>5</v>
+      </c>
+      <c r="E315">
+        <v>4</v>
+      </c>
+      <c r="F315">
+        <v>0.625</v>
+      </c>
+      <c r="G315">
+        <v>0.8</v>
+      </c>
+      <c r="H315" t="s">
+        <v>16</v>
+      </c>
+      <c r="I315" t="s">
+        <v>27</v>
+      </c>
+      <c r="J315">
+        <v>1521</v>
+      </c>
+      <c r="K315">
+        <v>1467</v>
+      </c>
+      <c r="L315">
+        <v>553</v>
+      </c>
+      <c r="M315">
+        <v>0.9645</v>
+      </c>
+      <c r="N315">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
+      <c r="A316" t="s">
+        <v>53</v>
+      </c>
+      <c r="B316" t="s">
+        <v>46</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316" t="s">
+        <v>16</v>
+      </c>
+      <c r="I316" t="s">
+        <v>46</v>
+      </c>
+      <c r="J316">
+        <v>11</v>
+      </c>
+      <c r="K316">
+        <v>3</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+      <c r="M316">
+        <v>0.2727</v>
+      </c>
+      <c r="N316">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
+      <c r="A317" t="s">
+        <v>53</v>
+      </c>
+      <c r="B317" t="s">
+        <v>28</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317" t="s">
+        <v>16</v>
+      </c>
+      <c r="I317" t="s">
+        <v>28</v>
+      </c>
+      <c r="J317">
+        <v>412</v>
+      </c>
+      <c r="K317">
+        <v>335</v>
+      </c>
+      <c r="L317">
+        <v>226</v>
+      </c>
+      <c r="M317">
+        <v>0.8131</v>
+      </c>
+      <c r="N317">
+        <v>0.6746</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
+      <c r="A318" t="s">
+        <v>53</v>
+      </c>
+      <c r="B318" t="s">
+        <v>32</v>
+      </c>
+      <c r="C318">
+        <v>22</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>0.0909</v>
+      </c>
+      <c r="G318">
+        <v>0.5</v>
+      </c>
+      <c r="H318" t="s">
+        <v>16</v>
+      </c>
+      <c r="I318" t="s">
+        <v>32</v>
+      </c>
+      <c r="J318">
+        <v>1018</v>
+      </c>
+      <c r="K318">
+        <v>737</v>
+      </c>
+      <c r="L318">
+        <v>405</v>
+      </c>
+      <c r="M318">
+        <v>0.724</v>
+      </c>
+      <c r="N318">
+        <v>0.5495</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
+      <c r="A319" t="s">
+        <v>53</v>
+      </c>
+      <c r="B319" t="s">
+        <v>33</v>
+      </c>
+      <c r="C319">
+        <v>104</v>
+      </c>
+      <c r="D319">
+        <v>55</v>
+      </c>
+      <c r="E319">
+        <v>35</v>
+      </c>
+      <c r="F319">
+        <v>0.5288</v>
+      </c>
+      <c r="G319">
+        <v>0.6364</v>
+      </c>
+      <c r="H319" t="s">
+        <v>16</v>
+      </c>
+      <c r="I319" t="s">
+        <v>33</v>
+      </c>
+      <c r="J319">
+        <v>13601</v>
+      </c>
+      <c r="K319">
+        <v>10897</v>
+      </c>
+      <c r="L319">
+        <v>4690</v>
+      </c>
+      <c r="M319">
+        <v>0.8012</v>
+      </c>
+      <c r="N319">
+        <v>0.4304</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N295">
+  <autoFilter ref="A1:N319">
     <filterColumn colId="0">
       <customFilters>
-        <customFilter operator="equal" val="2020-03-29T00:00:00"/>
+        <customFilter operator="equal" val="2020-03-31T00:00:00"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>当日_时间</t>
   </si>
@@ -64,7 +64,7 @@
     <t>郑州</t>
   </si>
   <si>
-    <t>2020-04-05T08:00:00</t>
+    <t>2020-04-06T08:00:00</t>
   </si>
   <si>
     <t>大连</t>
@@ -204,6 +204,9 @@
   <si>
     <t>2020-04-04T00:00:00</t>
   </si>
+  <si>
+    <t>2020-04-05T00:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -211,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,14 +228,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -246,26 +249,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,9 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,9 +303,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,40 +341,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,22 +355,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,7 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +399,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +441,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,31 +477,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,67 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,43 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,8 +584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +595,60 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,205 +678,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N430"/>
+  <dimension ref="A1:N459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
@@ -1249,19 +1252,19 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M2">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N2">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1296,13 +1299,13 @@
         <v>339</v>
       </c>
       <c r="L3">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M3">
         <v>0.9187</v>
       </c>
       <c r="N3">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1331,10 +1334,10 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K4">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L4">
         <v>152</v>
@@ -1343,7 +1346,7 @@
         <v>0.9923</v>
       </c>
       <c r="N4">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1372,19 +1375,19 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K5">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L5">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M5">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N5">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1413,19 +1416,19 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K6">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L6">
         <v>389</v>
       </c>
       <c r="M6">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N6">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1454,19 +1457,19 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K7">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L7">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M7">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N7">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1495,19 +1498,19 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L8">
         <v>214</v>
       </c>
       <c r="M8">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N8">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1577,19 +1580,19 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K10">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N10">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1659,19 +1662,19 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K12">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L12">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M12">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N12">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1700,19 +1703,19 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K13">
         <v>1473</v>
       </c>
       <c r="L13">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M13">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N13">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1782,19 +1785,19 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15">
         <v>11</v>
       </c>
       <c r="M15">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N15">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1823,19 +1826,19 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K16">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L16">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M16">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N16">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1864,19 +1867,19 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K17">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M17">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N17">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1905,7 +1908,7 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K18">
         <v>756</v>
@@ -1914,7 +1917,7 @@
         <v>421</v>
       </c>
       <c r="M18">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N18">
         <v>0.5569</v>
@@ -1946,19 +1949,19 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K19">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L19">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M19">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N19">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1987,19 +1990,19 @@
         <v>15</v>
       </c>
       <c r="J20">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K20">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L20">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M20">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N20">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2034,13 +2037,13 @@
         <v>339</v>
       </c>
       <c r="L21">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21">
         <v>0.9187</v>
       </c>
       <c r="N21">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2069,10 +2072,10 @@
         <v>18</v>
       </c>
       <c r="J22">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K22">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L22">
         <v>152</v>
@@ -2081,7 +2084,7 @@
         <v>0.9923</v>
       </c>
       <c r="N22">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2110,19 +2113,19 @@
         <v>19</v>
       </c>
       <c r="J23">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K23">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L23">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N23">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2151,19 +2154,19 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K24">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L24">
         <v>389</v>
       </c>
       <c r="M24">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N24">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2192,19 +2195,19 @@
         <v>21</v>
       </c>
       <c r="J25">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K25">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L25">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M25">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N25">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2233,19 +2236,19 @@
         <v>22</v>
       </c>
       <c r="J26">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K26">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L26">
         <v>214</v>
       </c>
       <c r="M26">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N26">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2315,19 +2318,19 @@
         <v>24</v>
       </c>
       <c r="J28">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K28">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L28">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M28">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N28">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2397,19 +2400,19 @@
         <v>26</v>
       </c>
       <c r="J30">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K30">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L30">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M30">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N30">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2438,19 +2441,19 @@
         <v>27</v>
       </c>
       <c r="J31">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K31">
         <v>1473</v>
       </c>
       <c r="L31">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M31">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N31">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2520,19 +2523,19 @@
         <v>29</v>
       </c>
       <c r="J33">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L33">
         <v>11</v>
       </c>
       <c r="M33">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N33">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2561,19 +2564,19 @@
         <v>30</v>
       </c>
       <c r="J34">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K34">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L34">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N34">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2602,19 +2605,19 @@
         <v>31</v>
       </c>
       <c r="J35">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K35">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L35">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M35">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N35">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2643,7 +2646,7 @@
         <v>32</v>
       </c>
       <c r="J36">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K36">
         <v>756</v>
@@ -2652,7 +2655,7 @@
         <v>421</v>
       </c>
       <c r="M36">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N36">
         <v>0.5569</v>
@@ -2684,19 +2687,19 @@
         <v>33</v>
       </c>
       <c r="J37">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K37">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L37">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M37">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N37">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2725,19 +2728,19 @@
         <v>15</v>
       </c>
       <c r="J38">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K38">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L38">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M38">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N38">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2772,13 +2775,13 @@
         <v>339</v>
       </c>
       <c r="L39">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M39">
         <v>0.9187</v>
       </c>
       <c r="N39">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2807,10 +2810,10 @@
         <v>18</v>
       </c>
       <c r="J40">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K40">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L40">
         <v>152</v>
@@ -2819,7 +2822,7 @@
         <v>0.9923</v>
       </c>
       <c r="N40">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2848,19 +2851,19 @@
         <v>19</v>
       </c>
       <c r="J41">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K41">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L41">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M41">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N41">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2889,19 +2892,19 @@
         <v>20</v>
       </c>
       <c r="J42">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K42">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L42">
         <v>389</v>
       </c>
       <c r="M42">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N42">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2930,19 +2933,19 @@
         <v>21</v>
       </c>
       <c r="J43">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K43">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L43">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M43">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N43">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2971,19 +2974,19 @@
         <v>22</v>
       </c>
       <c r="J44">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K44">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L44">
         <v>214</v>
       </c>
       <c r="M44">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N44">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3053,19 +3056,19 @@
         <v>24</v>
       </c>
       <c r="J46">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K46">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L46">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M46">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N46">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3135,19 +3138,19 @@
         <v>26</v>
       </c>
       <c r="J48">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K48">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L48">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M48">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N48">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3176,19 +3179,19 @@
         <v>27</v>
       </c>
       <c r="J49">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K49">
         <v>1473</v>
       </c>
       <c r="L49">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M49">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N49">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3258,19 +3261,19 @@
         <v>29</v>
       </c>
       <c r="J51">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L51">
         <v>11</v>
       </c>
       <c r="M51">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N51">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3299,19 +3302,19 @@
         <v>30</v>
       </c>
       <c r="J52">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K52">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L52">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M52">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N52">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3340,19 +3343,19 @@
         <v>31</v>
       </c>
       <c r="J53">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K53">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L53">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M53">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N53">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3381,7 +3384,7 @@
         <v>32</v>
       </c>
       <c r="J54">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K54">
         <v>756</v>
@@ -3390,7 +3393,7 @@
         <v>421</v>
       </c>
       <c r="M54">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N54">
         <v>0.5569</v>
@@ -3422,19 +3425,19 @@
         <v>33</v>
       </c>
       <c r="J55">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K55">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L55">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M55">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N55">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3463,19 +3466,19 @@
         <v>15</v>
       </c>
       <c r="J56">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K56">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L56">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M56">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N56">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3510,13 +3513,13 @@
         <v>339</v>
       </c>
       <c r="L57">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M57">
         <v>0.9187</v>
       </c>
       <c r="N57">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3545,10 +3548,10 @@
         <v>18</v>
       </c>
       <c r="J58">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K58">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L58">
         <v>152</v>
@@ -3557,7 +3560,7 @@
         <v>0.9923</v>
       </c>
       <c r="N58">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3586,19 +3589,19 @@
         <v>19</v>
       </c>
       <c r="J59">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K59">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L59">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M59">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N59">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3627,19 +3630,19 @@
         <v>20</v>
       </c>
       <c r="J60">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K60">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L60">
         <v>389</v>
       </c>
       <c r="M60">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N60">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3668,19 +3671,19 @@
         <v>21</v>
       </c>
       <c r="J61">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K61">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L61">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M61">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N61">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3709,19 +3712,19 @@
         <v>22</v>
       </c>
       <c r="J62">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K62">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L62">
         <v>214</v>
       </c>
       <c r="M62">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N62">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3791,19 +3794,19 @@
         <v>24</v>
       </c>
       <c r="J64">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K64">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L64">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M64">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N64">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3873,19 +3876,19 @@
         <v>26</v>
       </c>
       <c r="J66">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K66">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L66">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M66">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N66">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3914,19 +3917,19 @@
         <v>27</v>
       </c>
       <c r="J67">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K67">
         <v>1473</v>
       </c>
       <c r="L67">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M67">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N67">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3996,19 +3999,19 @@
         <v>29</v>
       </c>
       <c r="J69">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K69">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L69">
         <v>11</v>
       </c>
       <c r="M69">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N69">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4037,19 +4040,19 @@
         <v>30</v>
       </c>
       <c r="J70">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K70">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L70">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M70">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N70">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4078,19 +4081,19 @@
         <v>31</v>
       </c>
       <c r="J71">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K71">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L71">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M71">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N71">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4119,7 +4122,7 @@
         <v>32</v>
       </c>
       <c r="J72">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K72">
         <v>756</v>
@@ -4128,7 +4131,7 @@
         <v>421</v>
       </c>
       <c r="M72">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N72">
         <v>0.5569</v>
@@ -4160,19 +4163,19 @@
         <v>33</v>
       </c>
       <c r="J73">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K73">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L73">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M73">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N73">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4201,19 +4204,19 @@
         <v>15</v>
       </c>
       <c r="J74">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K74">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L74">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M74">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N74">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4248,13 +4251,13 @@
         <v>339</v>
       </c>
       <c r="L75">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M75">
         <v>0.9187</v>
       </c>
       <c r="N75">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4283,10 +4286,10 @@
         <v>18</v>
       </c>
       <c r="J76">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K76">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L76">
         <v>152</v>
@@ -4295,7 +4298,7 @@
         <v>0.9923</v>
       </c>
       <c r="N76">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4324,19 +4327,19 @@
         <v>19</v>
       </c>
       <c r="J77">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K77">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L77">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M77">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N77">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4365,19 +4368,19 @@
         <v>20</v>
       </c>
       <c r="J78">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K78">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L78">
         <v>389</v>
       </c>
       <c r="M78">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N78">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4406,19 +4409,19 @@
         <v>21</v>
       </c>
       <c r="J79">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K79">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L79">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M79">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N79">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4447,19 +4450,19 @@
         <v>22</v>
       </c>
       <c r="J80">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K80">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L80">
         <v>214</v>
       </c>
       <c r="M80">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N80">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4529,19 +4532,19 @@
         <v>24</v>
       </c>
       <c r="J82">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K82">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L82">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M82">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N82">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4611,19 +4614,19 @@
         <v>26</v>
       </c>
       <c r="J84">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K84">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L84">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M84">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N84">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4652,19 +4655,19 @@
         <v>27</v>
       </c>
       <c r="J85">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K85">
         <v>1473</v>
       </c>
       <c r="L85">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M85">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N85">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4734,19 +4737,19 @@
         <v>29</v>
       </c>
       <c r="J87">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K87">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L87">
         <v>11</v>
       </c>
       <c r="M87">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N87">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4775,19 +4778,19 @@
         <v>30</v>
       </c>
       <c r="J88">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K88">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L88">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M88">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N88">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4816,19 +4819,19 @@
         <v>31</v>
       </c>
       <c r="J89">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K89">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L89">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M89">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N89">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4857,7 +4860,7 @@
         <v>32</v>
       </c>
       <c r="J90">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K90">
         <v>756</v>
@@ -4866,7 +4869,7 @@
         <v>421</v>
       </c>
       <c r="M90">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N90">
         <v>0.5569</v>
@@ -4898,19 +4901,19 @@
         <v>33</v>
       </c>
       <c r="J91">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K91">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L91">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M91">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N91">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4939,19 +4942,19 @@
         <v>15</v>
       </c>
       <c r="J92">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K92">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L92">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M92">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N92">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4986,13 +4989,13 @@
         <v>339</v>
       </c>
       <c r="L93">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M93">
         <v>0.9187</v>
       </c>
       <c r="N93">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5021,10 +5024,10 @@
         <v>18</v>
       </c>
       <c r="J94">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K94">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L94">
         <v>152</v>
@@ -5033,7 +5036,7 @@
         <v>0.9923</v>
       </c>
       <c r="N94">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5062,19 +5065,19 @@
         <v>19</v>
       </c>
       <c r="J95">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K95">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L95">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M95">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N95">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5103,19 +5106,19 @@
         <v>20</v>
       </c>
       <c r="J96">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K96">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L96">
         <v>389</v>
       </c>
       <c r="M96">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N96">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5144,19 +5147,19 @@
         <v>21</v>
       </c>
       <c r="J97">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K97">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L97">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M97">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N97">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5185,19 +5188,19 @@
         <v>22</v>
       </c>
       <c r="J98">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K98">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L98">
         <v>214</v>
       </c>
       <c r="M98">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N98">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5267,19 +5270,19 @@
         <v>24</v>
       </c>
       <c r="J100">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K100">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L100">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M100">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N100">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5349,19 +5352,19 @@
         <v>26</v>
       </c>
       <c r="J102">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K102">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L102">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M102">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N102">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5390,19 +5393,19 @@
         <v>27</v>
       </c>
       <c r="J103">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K103">
         <v>1473</v>
       </c>
       <c r="L103">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M103">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N103">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5472,19 +5475,19 @@
         <v>29</v>
       </c>
       <c r="J105">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K105">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L105">
         <v>11</v>
       </c>
       <c r="M105">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N105">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5513,19 +5516,19 @@
         <v>30</v>
       </c>
       <c r="J106">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K106">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L106">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M106">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N106">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5554,19 +5557,19 @@
         <v>31</v>
       </c>
       <c r="J107">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K107">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L107">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M107">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N107">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5595,7 +5598,7 @@
         <v>32</v>
       </c>
       <c r="J108">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K108">
         <v>756</v>
@@ -5604,7 +5607,7 @@
         <v>421</v>
       </c>
       <c r="M108">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N108">
         <v>0.5569</v>
@@ -5636,19 +5639,19 @@
         <v>33</v>
       </c>
       <c r="J109">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K109">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L109">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M109">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N109">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5680,19 +5683,19 @@
         <v>15</v>
       </c>
       <c r="J110">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K110">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L110">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M110">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N110">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5730,13 +5733,13 @@
         <v>339</v>
       </c>
       <c r="L111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M111">
         <v>0.9187</v>
       </c>
       <c r="N111">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5768,10 +5771,10 @@
         <v>18</v>
       </c>
       <c r="J112">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K112">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L112">
         <v>152</v>
@@ -5780,7 +5783,7 @@
         <v>0.9923</v>
       </c>
       <c r="N112">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5812,19 +5815,19 @@
         <v>19</v>
       </c>
       <c r="J113">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K113">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L113">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M113">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N113">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5856,19 +5859,19 @@
         <v>20</v>
       </c>
       <c r="J114">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K114">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L114">
         <v>389</v>
       </c>
       <c r="M114">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N114">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5900,19 +5903,19 @@
         <v>21</v>
       </c>
       <c r="J115">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K115">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L115">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M115">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N115">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5944,19 +5947,19 @@
         <v>22</v>
       </c>
       <c r="J116">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K116">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L116">
         <v>214</v>
       </c>
       <c r="M116">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N116">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6032,19 +6035,19 @@
         <v>24</v>
       </c>
       <c r="J118">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K118">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L118">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M118">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N118">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6120,19 +6123,19 @@
         <v>26</v>
       </c>
       <c r="J120">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K120">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L120">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M120">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N120">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6164,19 +6167,19 @@
         <v>27</v>
       </c>
       <c r="J121">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K121">
         <v>1473</v>
       </c>
       <c r="L121">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M121">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N121">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6249,19 +6252,19 @@
         <v>29</v>
       </c>
       <c r="J123">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K123">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L123">
         <v>11</v>
       </c>
       <c r="M123">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N123">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6293,19 +6296,19 @@
         <v>30</v>
       </c>
       <c r="J124">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K124">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L124">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M124">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N124">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6337,19 +6340,19 @@
         <v>31</v>
       </c>
       <c r="J125">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K125">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L125">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M125">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N125">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6381,7 +6384,7 @@
         <v>32</v>
       </c>
       <c r="J126">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K126">
         <v>756</v>
@@ -6390,7 +6393,7 @@
         <v>421</v>
       </c>
       <c r="M126">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N126">
         <v>0.5569</v>
@@ -6425,19 +6428,19 @@
         <v>33</v>
       </c>
       <c r="J127">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K127">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L127">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M127">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N127">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6469,19 +6472,19 @@
         <v>20</v>
       </c>
       <c r="J128">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K128">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L128">
         <v>389</v>
       </c>
       <c r="M128">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N128">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6516,13 +6519,13 @@
         <v>339</v>
       </c>
       <c r="L129">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M129">
         <v>0.9187</v>
       </c>
       <c r="N129">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6551,19 +6554,19 @@
         <v>19</v>
       </c>
       <c r="J130">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K130">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L130">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M130">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N130">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6633,19 +6636,19 @@
         <v>22</v>
       </c>
       <c r="J132">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K132">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L132">
         <v>214</v>
       </c>
       <c r="M132">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N132">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6715,19 +6718,19 @@
         <v>24</v>
       </c>
       <c r="J134">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K134">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L134">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M134">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N134">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6759,19 +6762,19 @@
         <v>15</v>
       </c>
       <c r="J135">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K135">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L135">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M135">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N135">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6800,19 +6803,19 @@
         <v>42</v>
       </c>
       <c r="J136">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K136">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L136">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M136">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N136">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6844,19 +6847,19 @@
         <v>26</v>
       </c>
       <c r="J137">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K137">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L137">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M137">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N137">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6888,19 +6891,19 @@
         <v>30</v>
       </c>
       <c r="J138">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K138">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L138">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M138">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N138">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6929,19 +6932,19 @@
         <v>29</v>
       </c>
       <c r="J139">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K139">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L139">
         <v>11</v>
       </c>
       <c r="M139">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N139">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6973,19 +6976,19 @@
         <v>21</v>
       </c>
       <c r="J140">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K140">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L140">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M140">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N140">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7140,19 +7143,19 @@
         <v>31</v>
       </c>
       <c r="J144">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K144">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L144">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M144">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N144">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7184,10 +7187,10 @@
         <v>18</v>
       </c>
       <c r="J145">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K145">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L145">
         <v>152</v>
@@ -7196,7 +7199,7 @@
         <v>0.9923</v>
       </c>
       <c r="N145">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7272,19 +7275,19 @@
         <v>27</v>
       </c>
       <c r="J147">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K147">
         <v>1473</v>
       </c>
       <c r="L147">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M147">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N147">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7313,19 +7316,19 @@
         <v>46</v>
       </c>
       <c r="J148">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K148">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N148">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7398,7 +7401,7 @@
         <v>32</v>
       </c>
       <c r="J150">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K150">
         <v>756</v>
@@ -7407,7 +7410,7 @@
         <v>421</v>
       </c>
       <c r="M150">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N150">
         <v>0.5569</v>
@@ -7442,19 +7445,19 @@
         <v>33</v>
       </c>
       <c r="J151">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K151">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L151">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M151">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N151">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7486,19 +7489,19 @@
         <v>20</v>
       </c>
       <c r="J152">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K152">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L152">
         <v>389</v>
       </c>
       <c r="M152">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N152">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7536,13 +7539,13 @@
         <v>339</v>
       </c>
       <c r="L153">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M153">
         <v>0.9187</v>
       </c>
       <c r="N153">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7574,19 +7577,19 @@
         <v>19</v>
       </c>
       <c r="J154">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K154">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L154">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M154">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N154">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7662,19 +7665,19 @@
         <v>22</v>
       </c>
       <c r="J156">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K156">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L156">
         <v>214</v>
       </c>
       <c r="M156">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N156">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7750,19 +7753,19 @@
         <v>24</v>
       </c>
       <c r="J158">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K158">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L158">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M158">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N158">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7794,19 +7797,19 @@
         <v>15</v>
       </c>
       <c r="J159">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K159">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L159">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M159">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N159">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7835,19 +7838,19 @@
         <v>42</v>
       </c>
       <c r="J160">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K160">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L160">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M160">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N160">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7876,19 +7879,19 @@
         <v>26</v>
       </c>
       <c r="J161">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K161">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L161">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M161">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N161">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -7920,19 +7923,19 @@
         <v>30</v>
       </c>
       <c r="J162">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K162">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L162">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M162">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N162">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7961,19 +7964,19 @@
         <v>29</v>
       </c>
       <c r="J163">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K163">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L163">
         <v>11</v>
       </c>
       <c r="M163">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N163">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -8005,19 +8008,19 @@
         <v>21</v>
       </c>
       <c r="J164">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K164">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L164">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M164">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N164">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8178,19 +8181,19 @@
         <v>31</v>
       </c>
       <c r="J168">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K168">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L168">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M168">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N168">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8222,10 +8225,10 @@
         <v>18</v>
       </c>
       <c r="J169">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K169">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L169">
         <v>152</v>
@@ -8234,7 +8237,7 @@
         <v>0.9923</v>
       </c>
       <c r="N169">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -8307,19 +8310,19 @@
         <v>27</v>
       </c>
       <c r="J171">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K171">
         <v>1473</v>
       </c>
       <c r="L171">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M171">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N171">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8345,19 +8348,19 @@
         <v>46</v>
       </c>
       <c r="J172">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K172">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N172">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8433,7 +8436,7 @@
         <v>32</v>
       </c>
       <c r="J174">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K174">
         <v>756</v>
@@ -8442,7 +8445,7 @@
         <v>421</v>
       </c>
       <c r="M174">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N174">
         <v>0.5569</v>
@@ -8477,19 +8480,19 @@
         <v>33</v>
       </c>
       <c r="J175">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K175">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L175">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M175">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N175">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8521,19 +8524,19 @@
         <v>20</v>
       </c>
       <c r="J176">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K176">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L176">
         <v>389</v>
       </c>
       <c r="M176">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N176">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8568,13 +8571,13 @@
         <v>339</v>
       </c>
       <c r="L177">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M177">
         <v>0.9187</v>
       </c>
       <c r="N177">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -8603,19 +8606,19 @@
         <v>19</v>
       </c>
       <c r="J178">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K178">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L178">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M178">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N178">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -8682,19 +8685,19 @@
         <v>22</v>
       </c>
       <c r="J180">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K180">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L180">
         <v>214</v>
       </c>
       <c r="M180">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N180">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8770,19 +8773,19 @@
         <v>24</v>
       </c>
       <c r="J182">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K182">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L182">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M182">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N182">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -8811,19 +8814,19 @@
         <v>15</v>
       </c>
       <c r="J183">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K183">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L183">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M183">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N183">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8852,19 +8855,19 @@
         <v>42</v>
       </c>
       <c r="J184">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K184">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M184">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N184">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -8893,19 +8896,19 @@
         <v>26</v>
       </c>
       <c r="J185">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K185">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L185">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M185">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N185">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -8937,19 +8940,19 @@
         <v>30</v>
       </c>
       <c r="J186">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K186">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L186">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M186">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N186">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -8978,19 +8981,19 @@
         <v>29</v>
       </c>
       <c r="J187">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K187">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L187">
         <v>11</v>
       </c>
       <c r="M187">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N187">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9022,19 +9025,19 @@
         <v>21</v>
       </c>
       <c r="J188">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K188">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L188">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M188">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N188">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9192,19 +9195,19 @@
         <v>31</v>
       </c>
       <c r="J192">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K192">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L192">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M192">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N192">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9236,10 +9239,10 @@
         <v>18</v>
       </c>
       <c r="J193">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K193">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L193">
         <v>152</v>
@@ -9248,7 +9251,7 @@
         <v>0.9923</v>
       </c>
       <c r="N193">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -9321,19 +9324,19 @@
         <v>27</v>
       </c>
       <c r="J195">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K195">
         <v>1473</v>
       </c>
       <c r="L195">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M195">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N195">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9362,19 +9365,19 @@
         <v>46</v>
       </c>
       <c r="J196">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K196">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N196">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9450,7 +9453,7 @@
         <v>32</v>
       </c>
       <c r="J198">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K198">
         <v>756</v>
@@ -9459,7 +9462,7 @@
         <v>421</v>
       </c>
       <c r="M198">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N198">
         <v>0.5569</v>
@@ -9494,19 +9497,19 @@
         <v>33</v>
       </c>
       <c r="J199">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K199">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L199">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M199">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N199">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9538,19 +9541,19 @@
         <v>20</v>
       </c>
       <c r="J200">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K200">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L200">
         <v>389</v>
       </c>
       <c r="M200">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N200">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9588,13 +9591,13 @@
         <v>339</v>
       </c>
       <c r="L201">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M201">
         <v>0.9187</v>
       </c>
       <c r="N201">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -9626,19 +9629,19 @@
         <v>19</v>
       </c>
       <c r="J202">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K202">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L202">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M202">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N202">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9711,19 +9714,19 @@
         <v>22</v>
       </c>
       <c r="J204">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K204">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L204">
         <v>214</v>
       </c>
       <c r="M204">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N204">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9799,19 +9802,19 @@
         <v>24</v>
       </c>
       <c r="J206">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K206">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L206">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M206">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N206">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -9843,19 +9846,19 @@
         <v>15</v>
       </c>
       <c r="J207">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K207">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L207">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M207">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N207">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9887,19 +9890,19 @@
         <v>42</v>
       </c>
       <c r="J208">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K208">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L208">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M208">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N208">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -9931,19 +9934,19 @@
         <v>26</v>
       </c>
       <c r="J209">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K209">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L209">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M209">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N209">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -9975,19 +9978,19 @@
         <v>30</v>
       </c>
       <c r="J210">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K210">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L210">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M210">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N210">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10019,19 +10022,19 @@
         <v>29</v>
       </c>
       <c r="J211">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K211">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L211">
         <v>11</v>
       </c>
       <c r="M211">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N211">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10063,19 +10066,19 @@
         <v>21</v>
       </c>
       <c r="J212">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K212">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L212">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M212">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N212">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10233,19 +10236,19 @@
         <v>31</v>
       </c>
       <c r="J216">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K216">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L216">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M216">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N216">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10277,10 +10280,10 @@
         <v>18</v>
       </c>
       <c r="J217">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K217">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L217">
         <v>152</v>
@@ -10289,7 +10292,7 @@
         <v>0.9923</v>
       </c>
       <c r="N217">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10365,19 +10368,19 @@
         <v>27</v>
       </c>
       <c r="J219">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K219">
         <v>1473</v>
       </c>
       <c r="L219">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M219">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N219">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10403,19 +10406,19 @@
         <v>46</v>
       </c>
       <c r="J220">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K220">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M220">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N220">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10491,7 +10494,7 @@
         <v>32</v>
       </c>
       <c r="J222">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K222">
         <v>756</v>
@@ -10500,7 +10503,7 @@
         <v>421</v>
       </c>
       <c r="M222">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N222">
         <v>0.5569</v>
@@ -10535,19 +10538,19 @@
         <v>33</v>
       </c>
       <c r="J223">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K223">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L223">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M223">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N223">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10579,19 +10582,19 @@
         <v>20</v>
       </c>
       <c r="J224">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K224">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L224">
         <v>389</v>
       </c>
       <c r="M224">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N224">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -10623,13 +10626,13 @@
         <v>339</v>
       </c>
       <c r="L225">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M225">
         <v>0.9187</v>
       </c>
       <c r="N225">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -10661,19 +10664,19 @@
         <v>19</v>
       </c>
       <c r="J226">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K226">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L226">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M226">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N226">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -10737,19 +10740,19 @@
         <v>22</v>
       </c>
       <c r="J228">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K228">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L228">
         <v>214</v>
       </c>
       <c r="M228">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N228">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -10822,19 +10825,19 @@
         <v>24</v>
       </c>
       <c r="J230">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K230">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L230">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M230">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N230">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -10866,19 +10869,19 @@
         <v>15</v>
       </c>
       <c r="J231">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K231">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L231">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M231">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N231">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -10904,19 +10907,19 @@
         <v>42</v>
       </c>
       <c r="J232">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K232">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L232">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M232">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N232">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -10948,19 +10951,19 @@
         <v>26</v>
       </c>
       <c r="J233">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K233">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L233">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M233">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N233">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -10986,19 +10989,19 @@
         <v>30</v>
       </c>
       <c r="J234">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K234">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L234">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M234">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N234">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11030,19 +11033,19 @@
         <v>29</v>
       </c>
       <c r="J235">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K235">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L235">
         <v>11</v>
       </c>
       <c r="M235">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N235">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11074,19 +11077,19 @@
         <v>21</v>
       </c>
       <c r="J236">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K236">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L236">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M236">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N236">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11238,19 +11241,19 @@
         <v>31</v>
       </c>
       <c r="J240">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K240">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L240">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M240">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N240">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11276,10 +11279,10 @@
         <v>18</v>
       </c>
       <c r="J241">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K241">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L241">
         <v>152</v>
@@ -11288,7 +11291,7 @@
         <v>0.9923</v>
       </c>
       <c r="N241">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -11358,19 +11361,19 @@
         <v>27</v>
       </c>
       <c r="J243">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K243">
         <v>1473</v>
       </c>
       <c r="L243">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M243">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N243">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -11396,19 +11399,19 @@
         <v>46</v>
       </c>
       <c r="J244">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K244">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N244">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -11478,7 +11481,7 @@
         <v>32</v>
       </c>
       <c r="J246">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K246">
         <v>756</v>
@@ -11487,7 +11490,7 @@
         <v>421</v>
       </c>
       <c r="M246">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N246">
         <v>0.5569</v>
@@ -11522,19 +11525,19 @@
         <v>33</v>
       </c>
       <c r="J247">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K247">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L247">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M247">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N247">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11566,19 +11569,19 @@
         <v>20</v>
       </c>
       <c r="J248">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K248">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L248">
         <v>389</v>
       </c>
       <c r="M248">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N248">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -11616,13 +11619,13 @@
         <v>339</v>
       </c>
       <c r="L249">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M249">
         <v>0.9187</v>
       </c>
       <c r="N249">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -11654,19 +11657,19 @@
         <v>19</v>
       </c>
       <c r="J250">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K250">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L250">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M250">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N250">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -11742,19 +11745,19 @@
         <v>22</v>
       </c>
       <c r="J252">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K252">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L252">
         <v>214</v>
       </c>
       <c r="M252">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N252">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -11827,19 +11830,19 @@
         <v>24</v>
       </c>
       <c r="J254">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K254">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L254">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M254">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N254">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -11871,19 +11874,19 @@
         <v>15</v>
       </c>
       <c r="J255">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K255">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L255">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M255">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N255">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -11909,19 +11912,19 @@
         <v>42</v>
       </c>
       <c r="J256">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K256">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L256">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M256">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N256">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -11953,19 +11956,19 @@
         <v>26</v>
       </c>
       <c r="J257">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K257">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L257">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M257">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N257">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -11997,19 +12000,19 @@
         <v>30</v>
       </c>
       <c r="J258">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K258">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L258">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M258">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N258">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12041,19 +12044,19 @@
         <v>29</v>
       </c>
       <c r="J259">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K259">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L259">
         <v>11</v>
       </c>
       <c r="M259">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N259">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -12085,19 +12088,19 @@
         <v>21</v>
       </c>
       <c r="J260">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K260">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L260">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M260">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N260">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12255,19 +12258,19 @@
         <v>31</v>
       </c>
       <c r="J264">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K264">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L264">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M264">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N264">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12299,10 +12302,10 @@
         <v>18</v>
       </c>
       <c r="J265">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K265">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L265">
         <v>152</v>
@@ -12311,7 +12314,7 @@
         <v>0.9923</v>
       </c>
       <c r="N265">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -12381,19 +12384,19 @@
         <v>27</v>
       </c>
       <c r="J267">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K267">
         <v>1473</v>
       </c>
       <c r="L267">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M267">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N267">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -12425,19 +12428,19 @@
         <v>46</v>
       </c>
       <c r="J268">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K268">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M268">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N268">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -12507,7 +12510,7 @@
         <v>32</v>
       </c>
       <c r="J270">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K270">
         <v>756</v>
@@ -12516,7 +12519,7 @@
         <v>421</v>
       </c>
       <c r="M270">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N270">
         <v>0.5569</v>
@@ -12551,19 +12554,19 @@
         <v>33</v>
       </c>
       <c r="J271">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K271">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L271">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M271">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N271">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -12595,19 +12598,19 @@
         <v>20</v>
       </c>
       <c r="J272">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K272">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L272">
         <v>389</v>
       </c>
       <c r="M272">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N272">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -12645,13 +12648,13 @@
         <v>339</v>
       </c>
       <c r="L273">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M273">
         <v>0.9187</v>
       </c>
       <c r="N273">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -12683,19 +12686,19 @@
         <v>19</v>
       </c>
       <c r="J274">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K274">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L274">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M274">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N274">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -12763,19 +12766,19 @@
         <v>22</v>
       </c>
       <c r="J276">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K276">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L276">
         <v>214</v>
       </c>
       <c r="M276">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N276">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -12851,19 +12854,19 @@
         <v>24</v>
       </c>
       <c r="J278">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K278">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L278">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M278">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N278">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -12895,19 +12898,19 @@
         <v>15</v>
       </c>
       <c r="J279">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K279">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L279">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M279">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N279">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -12939,19 +12942,19 @@
         <v>42</v>
       </c>
       <c r="J280">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K280">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L280">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M280">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N280">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -12983,19 +12986,19 @@
         <v>26</v>
       </c>
       <c r="J281">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K281">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L281">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M281">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N281">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13027,19 +13030,19 @@
         <v>30</v>
       </c>
       <c r="J282">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K282">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L282">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M282">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N282">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -13071,19 +13074,19 @@
         <v>29</v>
       </c>
       <c r="J283">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K283">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L283">
         <v>11</v>
       </c>
       <c r="M283">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N283">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -13115,19 +13118,19 @@
         <v>21</v>
       </c>
       <c r="J284">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K284">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L284">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M284">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N284">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -13283,19 +13286,19 @@
         <v>31</v>
       </c>
       <c r="J288">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K288">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L288">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M288">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N288">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -13327,10 +13330,10 @@
         <v>18</v>
       </c>
       <c r="J289">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K289">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L289">
         <v>152</v>
@@ -13339,7 +13342,7 @@
         <v>0.9923</v>
       </c>
       <c r="N289">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -13412,19 +13415,19 @@
         <v>27</v>
       </c>
       <c r="J291">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K291">
         <v>1473</v>
       </c>
       <c r="L291">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M291">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N291">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13454,19 +13457,19 @@
         <v>46</v>
       </c>
       <c r="J292">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K292">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M292">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N292">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -13542,7 +13545,7 @@
         <v>32</v>
       </c>
       <c r="J294">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K294">
         <v>756</v>
@@ -13551,7 +13554,7 @@
         <v>421</v>
       </c>
       <c r="M294">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N294">
         <v>0.5569</v>
@@ -13586,19 +13589,19 @@
         <v>33</v>
       </c>
       <c r="J295">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K295">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L295">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M295">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N295">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -13630,19 +13633,19 @@
         <v>20</v>
       </c>
       <c r="J296">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K296">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L296">
         <v>389</v>
       </c>
       <c r="M296">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N296">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -13678,13 +13681,13 @@
         <v>339</v>
       </c>
       <c r="L297">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M297">
         <v>0.9187</v>
       </c>
       <c r="N297">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -13716,19 +13719,19 @@
         <v>19</v>
       </c>
       <c r="J298">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K298">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L298">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M298">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N298">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -13804,19 +13807,19 @@
         <v>22</v>
       </c>
       <c r="J300">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K300">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L300">
         <v>214</v>
       </c>
       <c r="M300">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N300">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -13892,19 +13895,19 @@
         <v>24</v>
       </c>
       <c r="J302">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K302">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L302">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M302">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N302">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -13936,19 +13939,19 @@
         <v>15</v>
       </c>
       <c r="J303">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K303">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L303">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M303">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N303">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -13976,19 +13979,19 @@
         <v>42</v>
       </c>
       <c r="J304">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K304">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L304">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M304">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N304">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14020,19 +14023,19 @@
         <v>26</v>
       </c>
       <c r="J305">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K305">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L305">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M305">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N305">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -14064,19 +14067,19 @@
         <v>30</v>
       </c>
       <c r="J306">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K306">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L306">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M306">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N306">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -14108,19 +14111,19 @@
         <v>29</v>
       </c>
       <c r="J307">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K307">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L307">
         <v>11</v>
       </c>
       <c r="M307">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N307">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -14152,19 +14155,19 @@
         <v>21</v>
       </c>
       <c r="J308">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K308">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L308">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M308">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N308">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -14322,19 +14325,19 @@
         <v>31</v>
       </c>
       <c r="J312">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K312">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L312">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M312">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N312">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14366,10 +14369,10 @@
         <v>18</v>
       </c>
       <c r="J313">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K313">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L313">
         <v>152</v>
@@ -14378,7 +14381,7 @@
         <v>0.9923</v>
       </c>
       <c r="N313">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -14449,19 +14452,19 @@
         <v>27</v>
       </c>
       <c r="J315">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K315">
         <v>1473</v>
       </c>
       <c r="L315">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M315">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N315">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14493,19 +14496,19 @@
         <v>46</v>
       </c>
       <c r="J316">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K316">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L316">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M316">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N316">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14581,7 +14584,7 @@
         <v>32</v>
       </c>
       <c r="J318">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K318">
         <v>756</v>
@@ -14590,7 +14593,7 @@
         <v>421</v>
       </c>
       <c r="M318">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N318">
         <v>0.5569</v>
@@ -14625,19 +14628,19 @@
         <v>33</v>
       </c>
       <c r="J319">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K319">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L319">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M319">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N319">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -14669,19 +14672,19 @@
         <v>20</v>
       </c>
       <c r="J320">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K320">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L320">
         <v>389</v>
       </c>
       <c r="M320">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N320">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -14714,13 +14717,13 @@
         <v>339</v>
       </c>
       <c r="L321">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M321">
         <v>0.9187</v>
       </c>
       <c r="N321">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -14750,19 +14753,19 @@
         <v>19</v>
       </c>
       <c r="J322">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K322">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L322">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M322">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N322">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -14838,19 +14841,19 @@
         <v>22</v>
       </c>
       <c r="J324">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K324">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L324">
         <v>214</v>
       </c>
       <c r="M324">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N324">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -14924,19 +14927,19 @@
         <v>24</v>
       </c>
       <c r="J326">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K326">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L326">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M326">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N326">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -14968,19 +14971,19 @@
         <v>15</v>
       </c>
       <c r="J327">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K327">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L327">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M327">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N327">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -15006,19 +15009,19 @@
         <v>42</v>
       </c>
       <c r="J328">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K328">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L328">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M328">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N328">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -15050,19 +15053,19 @@
         <v>26</v>
       </c>
       <c r="J329">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K329">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L329">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M329">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N329">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -15092,19 +15095,19 @@
         <v>30</v>
       </c>
       <c r="J330">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K330">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L330">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M330">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N330">
-        <v>0.6402</v>
+        <v>0.6412</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -15136,19 +15139,19 @@
         <v>29</v>
       </c>
       <c r="J331">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K331">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L331">
         <v>11</v>
       </c>
       <c r="M331">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N331">
-        <v>0.44</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -15180,19 +15183,19 @@
         <v>21</v>
       </c>
       <c r="J332">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K332">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L332">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M332">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N332">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -15346,19 +15349,19 @@
         <v>31</v>
       </c>
       <c r="J336">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K336">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L336">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M336">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N336">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -15388,10 +15391,10 @@
         <v>18</v>
       </c>
       <c r="J337">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K337">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L337">
         <v>152</v>
@@ -15400,7 +15403,7 @@
         <v>0.9923</v>
       </c>
       <c r="N337">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -15470,19 +15473,19 @@
         <v>27</v>
       </c>
       <c r="J339">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K339">
         <v>1473</v>
       </c>
       <c r="L339">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M339">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N339">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -15510,19 +15513,19 @@
         <v>46</v>
       </c>
       <c r="J340">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K340">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L340">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M340">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N340">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -15596,7 +15599,7 @@
         <v>32</v>
       </c>
       <c r="J342">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K342">
         <v>756</v>
@@ -15605,7 +15608,7 @@
         <v>421</v>
       </c>
       <c r="M342">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N342">
         <v>0.5569</v>
@@ -15640,19 +15643,19 @@
         <v>33</v>
       </c>
       <c r="J343">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K343">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L343">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M343">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N343">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="344" spans="1:14">
@@ -15684,19 +15687,19 @@
         <v>20</v>
       </c>
       <c r="J344">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K344">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L344">
         <v>389</v>
       </c>
       <c r="M344">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N344">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -15734,13 +15737,13 @@
         <v>339</v>
       </c>
       <c r="L345">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M345">
         <v>0.9187</v>
       </c>
       <c r="N345">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -15772,19 +15775,19 @@
         <v>19</v>
       </c>
       <c r="J346">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K346">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L346">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M346">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N346">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -15856,19 +15859,19 @@
         <v>22</v>
       </c>
       <c r="J348">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K348">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L348">
         <v>214</v>
       </c>
       <c r="M348">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N348">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -15940,19 +15943,19 @@
         <v>24</v>
       </c>
       <c r="J350">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K350">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L350">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M350">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N350">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -16028,19 +16031,19 @@
         <v>15</v>
       </c>
       <c r="J352">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K352">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L352">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M352">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N352">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -16072,19 +16075,19 @@
         <v>42</v>
       </c>
       <c r="J353">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K353">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L353">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M353">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N353">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="354" spans="1:14">
@@ -16116,19 +16119,19 @@
         <v>26</v>
       </c>
       <c r="J354">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K354">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L354">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M354">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N354">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -16156,22 +16159,22 @@
         <v>30</v>
       </c>
       <c r="J355">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K355">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L355">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M355">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N355">
-        <v>0.6402</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13">
+        <v>0.6412</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
       <c r="A356" t="s">
         <v>55</v>
       </c>
@@ -16198,16 +16201,19 @@
         <v>57</v>
       </c>
       <c r="J356">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M356">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="N356">
+        <v>0.5</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -16283,19 +16289,19 @@
         <v>21</v>
       </c>
       <c r="J358">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K358">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L358">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M358">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N358">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -16453,19 +16459,19 @@
         <v>31</v>
       </c>
       <c r="J362">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K362">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L362">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M362">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N362">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="363" spans="1:14">
@@ -16495,10 +16501,10 @@
         <v>18</v>
       </c>
       <c r="J363">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K363">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L363">
         <v>152</v>
@@ -16507,7 +16513,7 @@
         <v>0.9923</v>
       </c>
       <c r="N363">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="364" spans="1:14">
@@ -16535,19 +16541,19 @@
         <v>58</v>
       </c>
       <c r="J364">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K364">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L364">
         <v>3</v>
       </c>
       <c r="M364">
-        <v>0.7778</v>
+        <v>0.8</v>
       </c>
       <c r="N364">
-        <v>0.4286</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -16579,19 +16585,19 @@
         <v>27</v>
       </c>
       <c r="J365">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K365">
         <v>1473</v>
       </c>
       <c r="L365">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M365">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N365">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="366" spans="1:14">
@@ -16659,19 +16665,19 @@
         <v>46</v>
       </c>
       <c r="J367">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K367">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L367">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M367">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N367">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -16743,22 +16749,22 @@
         <v>29</v>
       </c>
       <c r="J369">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K369">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L369">
         <v>11</v>
       </c>
       <c r="M369">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N369">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12">
+        <v>0.4231</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
       <c r="A370" t="s">
         <v>55</v>
       </c>
@@ -16782,13 +16788,19 @@
         <v>60</v>
       </c>
       <c r="J370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L370">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -16818,7 +16830,7 @@
         <v>32</v>
       </c>
       <c r="J371">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K371">
         <v>756</v>
@@ -16827,7 +16839,7 @@
         <v>421</v>
       </c>
       <c r="M371">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N371">
         <v>0.5569</v>
@@ -16862,19 +16874,19 @@
         <v>33</v>
       </c>
       <c r="J372">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K372">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L372">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M372">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N372">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -16906,19 +16918,19 @@
         <v>20</v>
       </c>
       <c r="J373">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K373">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L373">
         <v>389</v>
       </c>
       <c r="M373">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N373">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -16956,13 +16968,13 @@
         <v>339</v>
       </c>
       <c r="L374">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M374">
         <v>0.9187</v>
       </c>
       <c r="N374">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -16990,19 +17002,19 @@
         <v>19</v>
       </c>
       <c r="J375">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K375">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L375">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M375">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N375">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="376" spans="1:14">
@@ -17078,19 +17090,19 @@
         <v>22</v>
       </c>
       <c r="J377">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K377">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L377">
         <v>214</v>
       </c>
       <c r="M377">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N377">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -17166,19 +17178,19 @@
         <v>24</v>
       </c>
       <c r="J379">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K379">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L379">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M379">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N379">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -17254,19 +17266,19 @@
         <v>15</v>
       </c>
       <c r="J381">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K381">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L381">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M381">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N381">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -17298,19 +17310,19 @@
         <v>42</v>
       </c>
       <c r="J382">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K382">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L382">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M382">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N382">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -17342,19 +17354,19 @@
         <v>26</v>
       </c>
       <c r="J383">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K383">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L383">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M383">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N383">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -17382,22 +17394,22 @@
         <v>30</v>
       </c>
       <c r="J384">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K384">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L384">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M384">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N384">
-        <v>0.6402</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13">
+        <v>0.6412</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
       <c r="A385" t="s">
         <v>61</v>
       </c>
@@ -17421,16 +17433,19 @@
         <v>57</v>
       </c>
       <c r="J385">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K385">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M385">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="N385">
+        <v>0.5</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -17506,19 +17521,19 @@
         <v>21</v>
       </c>
       <c r="J387">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K387">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L387">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M387">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N387">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -17672,19 +17687,19 @@
         <v>31</v>
       </c>
       <c r="J391">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K391">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L391">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M391">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N391">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -17716,10 +17731,10 @@
         <v>18</v>
       </c>
       <c r="J392">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K392">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L392">
         <v>152</v>
@@ -17728,7 +17743,7 @@
         <v>0.9923</v>
       </c>
       <c r="N392">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -17760,19 +17775,19 @@
         <v>58</v>
       </c>
       <c r="J393">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K393">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L393">
         <v>3</v>
       </c>
       <c r="M393">
-        <v>0.7778</v>
+        <v>0.8</v>
       </c>
       <c r="N393">
-        <v>0.4286</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -17802,19 +17817,19 @@
         <v>27</v>
       </c>
       <c r="J394">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K394">
         <v>1473</v>
       </c>
       <c r="L394">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M394">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N394">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -17890,19 +17905,19 @@
         <v>46</v>
       </c>
       <c r="J396">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K396">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L396">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M396">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N396">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -17976,22 +17991,22 @@
         <v>29</v>
       </c>
       <c r="J398">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K398">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L398">
         <v>11</v>
       </c>
       <c r="M398">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N398">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12">
+        <v>0.4231</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14">
       <c r="A399" t="s">
         <v>61</v>
       </c>
@@ -18016,13 +18031,19 @@
         <v>60</v>
       </c>
       <c r="J399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L399">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M399">
+        <v>1</v>
+      </c>
+      <c r="N399">
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -18054,7 +18075,7 @@
         <v>32</v>
       </c>
       <c r="J400">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K400">
         <v>756</v>
@@ -18063,7 +18084,7 @@
         <v>421</v>
       </c>
       <c r="M400">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N400">
         <v>0.5569</v>
@@ -18098,19 +18119,19 @@
         <v>33</v>
       </c>
       <c r="J401">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K401">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L401">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M401">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N401">
-        <v>0.4354</v>
+        <v>0.4358</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -18142,19 +18163,19 @@
         <v>20</v>
       </c>
       <c r="J402">
-        <v>2431</v>
+        <v>2436</v>
       </c>
       <c r="K402">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="L402">
         <v>389</v>
       </c>
       <c r="M402">
-        <v>0.9815</v>
+        <v>0.9803</v>
       </c>
       <c r="N402">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="403" spans="1:14">
@@ -18186,13 +18207,13 @@
         <v>339</v>
       </c>
       <c r="L403">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M403">
         <v>0.9187</v>
       </c>
       <c r="N403">
-        <v>0.6696</v>
+        <v>0.6726</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -18224,19 +18245,19 @@
         <v>19</v>
       </c>
       <c r="J404">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K404">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L404">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M404">
-        <v>0.6869</v>
+        <v>0.6877</v>
       </c>
       <c r="N404">
-        <v>0.7279</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -18312,19 +18333,19 @@
         <v>22</v>
       </c>
       <c r="J406">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K406">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L406">
         <v>214</v>
       </c>
       <c r="M406">
-        <v>0.5418</v>
+        <v>0.5427</v>
       </c>
       <c r="N406">
-        <v>0.7868</v>
+        <v>0.7839</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -18390,19 +18411,19 @@
         <v>24</v>
       </c>
       <c r="J408">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K408">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L408">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M408">
-        <v>0.6921</v>
+        <v>0.6935</v>
       </c>
       <c r="N408">
-        <v>0.5276</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -18470,19 +18491,19 @@
         <v>15</v>
       </c>
       <c r="J410">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K410">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L410">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M410">
-        <v>0.9939</v>
+        <v>0.9924</v>
       </c>
       <c r="N410">
-        <v>0.7435</v>
+        <v>0.7439</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -18509,19 +18530,19 @@
         <v>42</v>
       </c>
       <c r="J411">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K411">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L411">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M411">
-        <v>0.7667</v>
+        <v>0.7742</v>
       </c>
       <c r="N411">
-        <v>0.4348</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -18553,19 +18574,19 @@
         <v>26</v>
       </c>
       <c r="J412">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="K412">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="L412">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M412">
-        <v>0.6754</v>
+        <v>0.6762</v>
       </c>
       <c r="N412">
-        <v>0.8536</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -18597,22 +18618,22 @@
         <v>30</v>
       </c>
       <c r="J413">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K413">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L413">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M413">
-        <v>0.9497</v>
+        <v>0.9499</v>
       </c>
       <c r="N413">
-        <v>0.6402</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13">
+        <v>0.6412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14">
       <c r="A414" t="s">
         <v>62</v>
       </c>
@@ -18635,16 +18656,19 @@
         <v>57</v>
       </c>
       <c r="J414">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K414">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M414">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="N414">
+        <v>0.5</v>
       </c>
     </row>
     <row r="415" spans="1:14">
@@ -18720,19 +18744,19 @@
         <v>21</v>
       </c>
       <c r="J416">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="K416">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L416">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M416">
-        <v>0.9726</v>
+        <v>0.9704</v>
       </c>
       <c r="N416">
-        <v>0.2858</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -18889,19 +18913,19 @@
         <v>31</v>
       </c>
       <c r="J420">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K420">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L420">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M420">
-        <v>0.3498</v>
+        <v>0.3522</v>
       </c>
       <c r="N420">
-        <v>0.7592</v>
+        <v>0.7617</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -18929,10 +18953,10 @@
         <v>18</v>
       </c>
       <c r="J421">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K421">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L421">
         <v>152</v>
@@ -18941,7 +18965,7 @@
         <v>0.9923</v>
       </c>
       <c r="N421">
-        <v>0.2951</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="422" spans="1:14">
@@ -18969,19 +18993,19 @@
         <v>58</v>
       </c>
       <c r="J422">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K422">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L422">
         <v>3</v>
       </c>
       <c r="M422">
-        <v>0.7778</v>
+        <v>0.8</v>
       </c>
       <c r="N422">
-        <v>0.4286</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -19013,19 +19037,19 @@
         <v>27</v>
       </c>
       <c r="J423">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K423">
         <v>1473</v>
       </c>
       <c r="L423">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M423">
-        <v>0.9621</v>
+        <v>0.9615</v>
       </c>
       <c r="N423">
-        <v>0.3795</v>
+        <v>0.3802</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -19093,19 +19117,19 @@
         <v>46</v>
       </c>
       <c r="J425">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K425">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L425">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M425">
-        <v>0.4211</v>
+        <v>0.4545</v>
       </c>
       <c r="N425">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -19177,22 +19201,22 @@
         <v>29</v>
       </c>
       <c r="J427">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K427">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L427">
         <v>11</v>
       </c>
       <c r="M427">
-        <v>0.0343</v>
+        <v>0.0357</v>
       </c>
       <c r="N427">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12">
+        <v>0.4231</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14">
       <c r="A428" t="s">
         <v>62</v>
       </c>
@@ -19217,13 +19241,19 @@
         <v>60</v>
       </c>
       <c r="J428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L428">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M428">
+        <v>1</v>
+      </c>
+      <c r="N428">
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:14">
@@ -19255,7 +19285,7 @@
         <v>32</v>
       </c>
       <c r="J429">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="K429">
         <v>756</v>
@@ -19264,7 +19294,7 @@
         <v>421</v>
       </c>
       <c r="M429">
-        <v>0.7248</v>
+        <v>0.7159</v>
       </c>
       <c r="N429">
         <v>0.5569</v>
@@ -19299,19 +19329,1242 @@
         <v>33</v>
       </c>
       <c r="J430">
-        <v>13917</v>
+        <v>13966</v>
       </c>
       <c r="K430">
-        <v>11129</v>
+        <v>11154</v>
       </c>
       <c r="L430">
-        <v>4846</v>
+        <v>4861</v>
       </c>
       <c r="M430">
-        <v>0.7997</v>
+        <v>0.7987</v>
       </c>
       <c r="N430">
-        <v>0.4354</v>
+        <v>0.4358</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14">
+      <c r="A431" t="s">
+        <v>63</v>
+      </c>
+      <c r="B431" t="s">
+        <v>20</v>
+      </c>
+      <c r="C431">
+        <v>9</v>
+      </c>
+      <c r="D431">
+        <v>4</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>0.4444</v>
+      </c>
+      <c r="G431">
+        <v>0.25</v>
+      </c>
+      <c r="H431" t="s">
+        <v>16</v>
+      </c>
+      <c r="I431" t="s">
+        <v>20</v>
+      </c>
+      <c r="J431">
+        <v>2436</v>
+      </c>
+      <c r="K431">
+        <v>2388</v>
+      </c>
+      <c r="L431">
+        <v>389</v>
+      </c>
+      <c r="M431">
+        <v>0.9803</v>
+      </c>
+      <c r="N431">
+        <v>0.1629</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14">
+      <c r="A432" t="s">
+        <v>63</v>
+      </c>
+      <c r="B432" t="s">
+        <v>17</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="H432" t="s">
+        <v>16</v>
+      </c>
+      <c r="I432" t="s">
+        <v>17</v>
+      </c>
+      <c r="J432">
+        <v>369</v>
+      </c>
+      <c r="K432">
+        <v>339</v>
+      </c>
+      <c r="L432">
+        <v>228</v>
+      </c>
+      <c r="M432">
+        <v>0.9187</v>
+      </c>
+      <c r="N432">
+        <v>0.6726</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14">
+      <c r="A433" t="s">
+        <v>63</v>
+      </c>
+      <c r="B433" t="s">
+        <v>19</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433" t="s">
+        <v>16</v>
+      </c>
+      <c r="I433" t="s">
+        <v>19</v>
+      </c>
+      <c r="J433">
+        <v>397</v>
+      </c>
+      <c r="K433">
+        <v>273</v>
+      </c>
+      <c r="L433">
+        <v>199</v>
+      </c>
+      <c r="M433">
+        <v>0.6877</v>
+      </c>
+      <c r="N433">
+        <v>0.7289</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14">
+      <c r="A434" t="s">
+        <v>63</v>
+      </c>
+      <c r="B434" t="s">
+        <v>56</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434"/>
+      <c r="G434"/>
+      <c r="H434" t="s">
+        <v>16</v>
+      </c>
+      <c r="I434" t="s">
+        <v>56</v>
+      </c>
+      <c r="J434">
+        <v>45</v>
+      </c>
+      <c r="K434">
+        <v>2</v>
+      </c>
+      <c r="L434">
+        <v>2</v>
+      </c>
+      <c r="M434">
+        <v>0.0444</v>
+      </c>
+      <c r="N434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14">
+      <c r="A435" t="s">
+        <v>63</v>
+      </c>
+      <c r="B435" t="s">
+        <v>22</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435" t="s">
+        <v>16</v>
+      </c>
+      <c r="I435" t="s">
+        <v>22</v>
+      </c>
+      <c r="J435">
+        <v>503</v>
+      </c>
+      <c r="K435">
+        <v>273</v>
+      </c>
+      <c r="L435">
+        <v>214</v>
+      </c>
+      <c r="M435">
+        <v>0.5427</v>
+      </c>
+      <c r="N435">
+        <v>0.7839</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14">
+      <c r="A436" t="s">
+        <v>63</v>
+      </c>
+      <c r="B436" t="s">
+        <v>23</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="H436" t="s">
+        <v>16</v>
+      </c>
+      <c r="I436" t="s">
+        <v>23</v>
+      </c>
+      <c r="J436">
+        <v>542</v>
+      </c>
+      <c r="K436">
+        <v>528</v>
+      </c>
+      <c r="L436">
+        <v>218</v>
+      </c>
+      <c r="M436">
+        <v>0.9742</v>
+      </c>
+      <c r="N436">
+        <v>0.4129</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14">
+      <c r="A437" t="s">
+        <v>63</v>
+      </c>
+      <c r="B437" t="s">
+        <v>24</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+      <c r="D437">
+        <v>3</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437">
+        <v>0.75</v>
+      </c>
+      <c r="G437">
+        <v>0.3333</v>
+      </c>
+      <c r="H437" t="s">
+        <v>16</v>
+      </c>
+      <c r="I437" t="s">
+        <v>24</v>
+      </c>
+      <c r="J437">
+        <v>372</v>
+      </c>
+      <c r="K437">
+        <v>258</v>
+      </c>
+      <c r="L437">
+        <v>135</v>
+      </c>
+      <c r="M437">
+        <v>0.6935</v>
+      </c>
+      <c r="N437">
+        <v>0.5233</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14">
+      <c r="A438" t="s">
+        <v>63</v>
+      </c>
+      <c r="B438" t="s">
+        <v>45</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438"/>
+      <c r="G438"/>
+      <c r="H438" t="s">
+        <v>16</v>
+      </c>
+      <c r="I438" t="s">
+        <v>45</v>
+      </c>
+      <c r="J438">
+        <v>15</v>
+      </c>
+      <c r="K438">
+        <v>5</v>
+      </c>
+      <c r="L438">
+        <v>2</v>
+      </c>
+      <c r="M438">
+        <v>0.3333</v>
+      </c>
+      <c r="N438">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14">
+      <c r="A439" t="s">
+        <v>63</v>
+      </c>
+      <c r="B439" t="s">
+        <v>15</v>
+      </c>
+      <c r="C439">
+        <v>2</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
+      <c r="F439">
+        <v>0.5</v>
+      </c>
+      <c r="G439">
+        <v>1</v>
+      </c>
+      <c r="H439" t="s">
+        <v>16</v>
+      </c>
+      <c r="I439" t="s">
+        <v>15</v>
+      </c>
+      <c r="J439">
+        <v>661</v>
+      </c>
+      <c r="K439">
+        <v>656</v>
+      </c>
+      <c r="L439">
+        <v>488</v>
+      </c>
+      <c r="M439">
+        <v>0.9924</v>
+      </c>
+      <c r="N439">
+        <v>0.7439</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14">
+      <c r="A440" t="s">
+        <v>63</v>
+      </c>
+      <c r="B440" t="s">
+        <v>42</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>1</v>
+      </c>
+      <c r="G440">
+        <v>1</v>
+      </c>
+      <c r="H440" t="s">
+        <v>16</v>
+      </c>
+      <c r="I440" t="s">
+        <v>42</v>
+      </c>
+      <c r="J440">
+        <v>31</v>
+      </c>
+      <c r="K440">
+        <v>24</v>
+      </c>
+      <c r="L440">
+        <v>11</v>
+      </c>
+      <c r="M440">
+        <v>0.7742</v>
+      </c>
+      <c r="N440">
+        <v>0.4583</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14">
+      <c r="A441" t="s">
+        <v>63</v>
+      </c>
+      <c r="B441" t="s">
+        <v>26</v>
+      </c>
+      <c r="C441">
+        <v>3</v>
+      </c>
+      <c r="D441">
+        <v>3</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="G441">
+        <v>0.3333</v>
+      </c>
+      <c r="H441" t="s">
+        <v>16</v>
+      </c>
+      <c r="I441" t="s">
+        <v>26</v>
+      </c>
+      <c r="J441">
+        <v>1257</v>
+      </c>
+      <c r="K441">
+        <v>850</v>
+      </c>
+      <c r="L441">
+        <v>724</v>
+      </c>
+      <c r="M441">
+        <v>0.6762</v>
+      </c>
+      <c r="N441">
+        <v>0.8518</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14">
+      <c r="A442" t="s">
+        <v>63</v>
+      </c>
+      <c r="B442" t="s">
+        <v>30</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+      <c r="F442">
+        <v>1</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442" t="s">
+        <v>16</v>
+      </c>
+      <c r="I442" t="s">
+        <v>30</v>
+      </c>
+      <c r="J442">
+        <v>399</v>
+      </c>
+      <c r="K442">
+        <v>379</v>
+      </c>
+      <c r="L442">
+        <v>243</v>
+      </c>
+      <c r="M442">
+        <v>0.9499</v>
+      </c>
+      <c r="N442">
+        <v>0.6412</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14">
+      <c r="A443" t="s">
+        <v>63</v>
+      </c>
+      <c r="B443" t="s">
+        <v>57</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443" t="s">
+        <v>16</v>
+      </c>
+      <c r="I443" t="s">
+        <v>57</v>
+      </c>
+      <c r="J443">
+        <v>4</v>
+      </c>
+      <c r="K443">
+        <v>2</v>
+      </c>
+      <c r="L443">
+        <v>1</v>
+      </c>
+      <c r="M443">
+        <v>0.5</v>
+      </c>
+      <c r="N443">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14">
+      <c r="A444" t="s">
+        <v>63</v>
+      </c>
+      <c r="B444" t="s">
+        <v>41</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444"/>
+      <c r="G444"/>
+      <c r="H444" t="s">
+        <v>16</v>
+      </c>
+      <c r="I444" t="s">
+        <v>41</v>
+      </c>
+      <c r="J444">
+        <v>33</v>
+      </c>
+      <c r="K444">
+        <v>22</v>
+      </c>
+      <c r="L444">
+        <v>16</v>
+      </c>
+      <c r="M444">
+        <v>0.6667</v>
+      </c>
+      <c r="N444">
+        <v>0.7273</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14">
+      <c r="A445" t="s">
+        <v>63</v>
+      </c>
+      <c r="B445" t="s">
+        <v>21</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>1</v>
+      </c>
+      <c r="F445">
+        <v>0.3333</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+      <c r="H445" t="s">
+        <v>16</v>
+      </c>
+      <c r="I445" t="s">
+        <v>21</v>
+      </c>
+      <c r="J445">
+        <v>1353</v>
+      </c>
+      <c r="K445">
+        <v>1313</v>
+      </c>
+      <c r="L445">
+        <v>376</v>
+      </c>
+      <c r="M445">
+        <v>0.9704</v>
+      </c>
+      <c r="N445">
+        <v>0.2864</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14">
+      <c r="A446" t="s">
+        <v>63</v>
+      </c>
+      <c r="B446" t="s">
+        <v>43</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446"/>
+      <c r="G446"/>
+      <c r="H446" t="s">
+        <v>16</v>
+      </c>
+      <c r="I446" t="s">
+        <v>43</v>
+      </c>
+      <c r="J446">
+        <v>23</v>
+      </c>
+      <c r="K446">
+        <v>14</v>
+      </c>
+      <c r="L446">
+        <v>10</v>
+      </c>
+      <c r="M446">
+        <v>0.6087</v>
+      </c>
+      <c r="N446">
+        <v>0.7143</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14">
+      <c r="A447" t="s">
+        <v>63</v>
+      </c>
+      <c r="B447" t="s">
+        <v>25</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447">
+        <v>2</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
+      </c>
+      <c r="H447" t="s">
+        <v>16</v>
+      </c>
+      <c r="I447" t="s">
+        <v>25</v>
+      </c>
+      <c r="J447">
+        <v>674</v>
+      </c>
+      <c r="K447">
+        <v>496</v>
+      </c>
+      <c r="L447">
+        <v>65</v>
+      </c>
+      <c r="M447">
+        <v>0.7359</v>
+      </c>
+      <c r="N447">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14">
+      <c r="A448" t="s">
+        <v>63</v>
+      </c>
+      <c r="B448" t="s">
+        <v>44</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448"/>
+      <c r="G448"/>
+      <c r="H448" t="s">
+        <v>16</v>
+      </c>
+      <c r="I448" t="s">
+        <v>44</v>
+      </c>
+      <c r="J448">
+        <v>18</v>
+      </c>
+      <c r="K448">
+        <v>6</v>
+      </c>
+      <c r="L448">
+        <v>5</v>
+      </c>
+      <c r="M448">
+        <v>0.3333</v>
+      </c>
+      <c r="N448">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14">
+      <c r="A449" t="s">
+        <v>63</v>
+      </c>
+      <c r="B449" t="s">
+        <v>31</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449">
+        <v>2</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+      <c r="G449">
+        <v>0.5</v>
+      </c>
+      <c r="H449" t="s">
+        <v>16</v>
+      </c>
+      <c r="I449" t="s">
+        <v>31</v>
+      </c>
+      <c r="J449">
+        <v>548</v>
+      </c>
+      <c r="K449">
+        <v>193</v>
+      </c>
+      <c r="L449">
+        <v>147</v>
+      </c>
+      <c r="M449">
+        <v>0.3522</v>
+      </c>
+      <c r="N449">
+        <v>0.7617</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14">
+      <c r="A450" t="s">
+        <v>63</v>
+      </c>
+      <c r="B450" t="s">
+        <v>18</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450" t="s">
+        <v>16</v>
+      </c>
+      <c r="I450" t="s">
+        <v>18</v>
+      </c>
+      <c r="J450">
+        <v>520</v>
+      </c>
+      <c r="K450">
+        <v>516</v>
+      </c>
+      <c r="L450">
+        <v>152</v>
+      </c>
+      <c r="M450">
+        <v>0.9923</v>
+      </c>
+      <c r="N450">
+        <v>0.2946</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14">
+      <c r="A451" t="s">
+        <v>63</v>
+      </c>
+      <c r="B451" t="s">
+        <v>58</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451" t="s">
+        <v>16</v>
+      </c>
+      <c r="I451" t="s">
+        <v>58</v>
+      </c>
+      <c r="J451">
+        <v>10</v>
+      </c>
+      <c r="K451">
+        <v>8</v>
+      </c>
+      <c r="L451">
+        <v>3</v>
+      </c>
+      <c r="M451">
+        <v>0.8</v>
+      </c>
+      <c r="N451">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14">
+      <c r="A452" t="s">
+        <v>63</v>
+      </c>
+      <c r="B452" t="s">
+        <v>27</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452"/>
+      <c r="H452" t="s">
+        <v>16</v>
+      </c>
+      <c r="I452" t="s">
+        <v>27</v>
+      </c>
+      <c r="J452">
+        <v>1532</v>
+      </c>
+      <c r="K452">
+        <v>1473</v>
+      </c>
+      <c r="L452">
+        <v>560</v>
+      </c>
+      <c r="M452">
+        <v>0.9615</v>
+      </c>
+      <c r="N452">
+        <v>0.3802</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14">
+      <c r="A453" t="s">
+        <v>63</v>
+      </c>
+      <c r="B453" t="s">
+        <v>59</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453"/>
+      <c r="G453"/>
+      <c r="H453" t="s">
+        <v>16</v>
+      </c>
+      <c r="I453" t="s">
+        <v>59</v>
+      </c>
+      <c r="J453">
+        <v>1</v>
+      </c>
+      <c r="K453">
+        <v>1</v>
+      </c>
+      <c r="L453">
+        <v>1</v>
+      </c>
+      <c r="M453">
+        <v>1</v>
+      </c>
+      <c r="N453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14">
+      <c r="A454" t="s">
+        <v>63</v>
+      </c>
+      <c r="B454" t="s">
+        <v>46</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>0.5</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+      <c r="H454" t="s">
+        <v>16</v>
+      </c>
+      <c r="I454" t="s">
+        <v>46</v>
+      </c>
+      <c r="J454">
+        <v>22</v>
+      </c>
+      <c r="K454">
+        <v>10</v>
+      </c>
+      <c r="L454">
+        <v>4</v>
+      </c>
+      <c r="M454">
+        <v>0.4545</v>
+      </c>
+      <c r="N454">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14">
+      <c r="A455" t="s">
+        <v>63</v>
+      </c>
+      <c r="B455" t="s">
+        <v>28</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="H455" t="s">
+        <v>16</v>
+      </c>
+      <c r="I455" t="s">
+        <v>28</v>
+      </c>
+      <c r="J455">
+        <v>415</v>
+      </c>
+      <c r="K455">
+        <v>342</v>
+      </c>
+      <c r="L455">
+        <v>235</v>
+      </c>
+      <c r="M455">
+        <v>0.8241</v>
+      </c>
+      <c r="N455">
+        <v>0.6871</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14">
+      <c r="A456" t="s">
+        <v>63</v>
+      </c>
+      <c r="B456" t="s">
+        <v>29</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="H456" t="s">
+        <v>16</v>
+      </c>
+      <c r="I456" t="s">
+        <v>29</v>
+      </c>
+      <c r="J456">
+        <v>729</v>
+      </c>
+      <c r="K456">
+        <v>26</v>
+      </c>
+      <c r="L456">
+        <v>11</v>
+      </c>
+      <c r="M456">
+        <v>0.0357</v>
+      </c>
+      <c r="N456">
+        <v>0.4231</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14">
+      <c r="A457" t="s">
+        <v>63</v>
+      </c>
+      <c r="B457" t="s">
+        <v>60</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+      <c r="H457" t="s">
+        <v>16</v>
+      </c>
+      <c r="I457" t="s">
+        <v>60</v>
+      </c>
+      <c r="J457">
+        <v>1</v>
+      </c>
+      <c r="K457">
+        <v>1</v>
+      </c>
+      <c r="L457">
+        <v>1</v>
+      </c>
+      <c r="M457">
+        <v>1</v>
+      </c>
+      <c r="N457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14">
+      <c r="A458" t="s">
+        <v>63</v>
+      </c>
+      <c r="B458" t="s">
+        <v>32</v>
+      </c>
+      <c r="C458">
+        <v>12</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="H458" t="s">
+        <v>16</v>
+      </c>
+      <c r="I458" t="s">
+        <v>32</v>
+      </c>
+      <c r="J458">
+        <v>1056</v>
+      </c>
+      <c r="K458">
+        <v>756</v>
+      </c>
+      <c r="L458">
+        <v>421</v>
+      </c>
+      <c r="M458">
+        <v>0.7159</v>
+      </c>
+      <c r="N458">
+        <v>0.5569</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14">
+      <c r="A459" t="s">
+        <v>63</v>
+      </c>
+      <c r="B459" t="s">
+        <v>33</v>
+      </c>
+      <c r="C459">
+        <v>48</v>
+      </c>
+      <c r="D459">
+        <v>25</v>
+      </c>
+      <c r="E459">
+        <v>9</v>
+      </c>
+      <c r="F459">
+        <v>0.5208</v>
+      </c>
+      <c r="G459">
+        <v>0.36</v>
+      </c>
+      <c r="H459" t="s">
+        <v>16</v>
+      </c>
+      <c r="I459" t="s">
+        <v>33</v>
+      </c>
+      <c r="J459">
+        <v>13966</v>
+      </c>
+      <c r="K459">
+        <v>11154</v>
+      </c>
+      <c r="L459">
+        <v>4861</v>
+      </c>
+      <c r="M459">
+        <v>0.7987</v>
+      </c>
+      <c r="N459">
+        <v>0.4358</v>
       </c>
     </row>
   </sheetData>

--- a/data/漏斗数据.xlsx
+++ b/data/漏斗数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>当日_时间</t>
   </si>
@@ -64,7 +64,7 @@
     <t>郑州</t>
   </si>
   <si>
-    <t>2020-04-06T08:00:00</t>
+    <t>2020-04-07T08:00:00</t>
   </si>
   <si>
     <t>大连</t>
@@ -207,15 +207,18 @@
   <si>
     <t>2020-04-05T00:00:00</t>
   </si>
+  <si>
+    <t>2020-04-06T00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -228,74 +231,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +253,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -325,16 +291,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +324,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,24 +359,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,7 +396,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,163 +558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,24 +581,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -623,6 +608,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,6 +641,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -649,17 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,148 +684,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N459"/>
+  <dimension ref="A1:N488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C6" sqref="A$1:N$1048576 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
@@ -1252,19 +1255,19 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L2">
         <v>488</v>
       </c>
       <c r="M2">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N2">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1416,19 +1419,19 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K6">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L6">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M6">
         <v>0.9803</v>
       </c>
       <c r="N6">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1457,19 +1460,19 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K7">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L7">
         <v>376</v>
       </c>
       <c r="M7">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N7">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1498,19 +1501,19 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L8">
         <v>214</v>
       </c>
       <c r="M8">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N8">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1621,19 +1624,19 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K11">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N11">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1662,19 +1665,19 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K12">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L12">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M12">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N12">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1703,19 +1706,19 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K13">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L13">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M13">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N13">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1744,19 +1747,19 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K14">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L14">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M14">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N14">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1785,19 +1788,19 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N15">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1826,19 +1829,19 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K16">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L16">
         <v>243</v>
       </c>
       <c r="M16">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N16">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1867,19 +1870,19 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K17">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17">
         <v>147</v>
       </c>
       <c r="M17">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N17">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1908,19 +1911,19 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K18">
         <v>756</v>
       </c>
       <c r="L18">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M18">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N18">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1949,19 +1952,19 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K19">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L19">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M19">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N19">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1990,19 +1993,19 @@
         <v>15</v>
       </c>
       <c r="J20">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K20">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L20">
         <v>488</v>
       </c>
       <c r="M20">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N20">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2154,19 +2157,19 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K24">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L24">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M24">
         <v>0.9803</v>
       </c>
       <c r="N24">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2195,19 +2198,19 @@
         <v>21</v>
       </c>
       <c r="J25">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K25">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L25">
         <v>376</v>
       </c>
       <c r="M25">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N25">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2236,19 +2239,19 @@
         <v>22</v>
       </c>
       <c r="J26">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K26">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L26">
         <v>214</v>
       </c>
       <c r="M26">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N26">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2359,19 +2362,19 @@
         <v>25</v>
       </c>
       <c r="J29">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K29">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M29">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N29">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2400,19 +2403,19 @@
         <v>26</v>
       </c>
       <c r="J30">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K30">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L30">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M30">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N30">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2441,19 +2444,19 @@
         <v>27</v>
       </c>
       <c r="J31">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K31">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L31">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M31">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N31">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2482,19 +2485,19 @@
         <v>28</v>
       </c>
       <c r="J32">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K32">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L32">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M32">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N32">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2523,19 +2526,19 @@
         <v>29</v>
       </c>
       <c r="J33">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K33">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N33">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2564,19 +2567,19 @@
         <v>30</v>
       </c>
       <c r="J34">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K34">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L34">
         <v>243</v>
       </c>
       <c r="M34">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N34">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2605,19 +2608,19 @@
         <v>31</v>
       </c>
       <c r="J35">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K35">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L35">
         <v>147</v>
       </c>
       <c r="M35">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N35">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2646,19 +2649,19 @@
         <v>32</v>
       </c>
       <c r="J36">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K36">
         <v>756</v>
       </c>
       <c r="L36">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M36">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N36">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2687,19 +2690,19 @@
         <v>33</v>
       </c>
       <c r="J37">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K37">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L37">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M37">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N37">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2728,19 +2731,19 @@
         <v>15</v>
       </c>
       <c r="J38">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K38">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L38">
         <v>488</v>
       </c>
       <c r="M38">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N38">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2892,19 +2895,19 @@
         <v>20</v>
       </c>
       <c r="J42">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K42">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L42">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M42">
         <v>0.9803</v>
       </c>
       <c r="N42">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2933,19 +2936,19 @@
         <v>21</v>
       </c>
       <c r="J43">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K43">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L43">
         <v>376</v>
       </c>
       <c r="M43">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N43">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2974,19 +2977,19 @@
         <v>22</v>
       </c>
       <c r="J44">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K44">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L44">
         <v>214</v>
       </c>
       <c r="M44">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N44">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3097,19 +3100,19 @@
         <v>25</v>
       </c>
       <c r="J47">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K47">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L47">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M47">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N47">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3138,19 +3141,19 @@
         <v>26</v>
       </c>
       <c r="J48">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K48">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L48">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M48">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N48">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3179,19 +3182,19 @@
         <v>27</v>
       </c>
       <c r="J49">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K49">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L49">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M49">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N49">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3220,19 +3223,19 @@
         <v>28</v>
       </c>
       <c r="J50">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K50">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L50">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M50">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N50">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3261,19 +3264,19 @@
         <v>29</v>
       </c>
       <c r="J51">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K51">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L51">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N51">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3302,19 +3305,19 @@
         <v>30</v>
       </c>
       <c r="J52">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K52">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L52">
         <v>243</v>
       </c>
       <c r="M52">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N52">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3343,19 +3346,19 @@
         <v>31</v>
       </c>
       <c r="J53">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K53">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L53">
         <v>147</v>
       </c>
       <c r="M53">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N53">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3384,19 +3387,19 @@
         <v>32</v>
       </c>
       <c r="J54">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K54">
         <v>756</v>
       </c>
       <c r="L54">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M54">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N54">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3425,19 +3428,19 @@
         <v>33</v>
       </c>
       <c r="J55">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K55">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L55">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M55">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N55">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3466,19 +3469,19 @@
         <v>15</v>
       </c>
       <c r="J56">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K56">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L56">
         <v>488</v>
       </c>
       <c r="M56">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N56">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3630,19 +3633,19 @@
         <v>20</v>
       </c>
       <c r="J60">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K60">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L60">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M60">
         <v>0.9803</v>
       </c>
       <c r="N60">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3671,19 +3674,19 @@
         <v>21</v>
       </c>
       <c r="J61">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K61">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L61">
         <v>376</v>
       </c>
       <c r="M61">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N61">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3712,19 +3715,19 @@
         <v>22</v>
       </c>
       <c r="J62">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K62">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L62">
         <v>214</v>
       </c>
       <c r="M62">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N62">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3835,19 +3838,19 @@
         <v>25</v>
       </c>
       <c r="J65">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K65">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L65">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M65">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N65">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3876,19 +3879,19 @@
         <v>26</v>
       </c>
       <c r="J66">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K66">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L66">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M66">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N66">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3917,19 +3920,19 @@
         <v>27</v>
       </c>
       <c r="J67">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K67">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L67">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M67">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N67">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3958,19 +3961,19 @@
         <v>28</v>
       </c>
       <c r="J68">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K68">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L68">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M68">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N68">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3999,19 +4002,19 @@
         <v>29</v>
       </c>
       <c r="J69">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K69">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L69">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N69">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4040,19 +4043,19 @@
         <v>30</v>
       </c>
       <c r="J70">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K70">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L70">
         <v>243</v>
       </c>
       <c r="M70">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N70">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4081,19 +4084,19 @@
         <v>31</v>
       </c>
       <c r="J71">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K71">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L71">
         <v>147</v>
       </c>
       <c r="M71">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N71">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4122,19 +4125,19 @@
         <v>32</v>
       </c>
       <c r="J72">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K72">
         <v>756</v>
       </c>
       <c r="L72">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M72">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N72">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4163,19 +4166,19 @@
         <v>33</v>
       </c>
       <c r="J73">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K73">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L73">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M73">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N73">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4204,19 +4207,19 @@
         <v>15</v>
       </c>
       <c r="J74">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K74">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L74">
         <v>488</v>
       </c>
       <c r="M74">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N74">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4368,19 +4371,19 @@
         <v>20</v>
       </c>
       <c r="J78">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K78">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L78">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M78">
         <v>0.9803</v>
       </c>
       <c r="N78">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4409,19 +4412,19 @@
         <v>21</v>
       </c>
       <c r="J79">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K79">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L79">
         <v>376</v>
       </c>
       <c r="M79">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N79">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4450,19 +4453,19 @@
         <v>22</v>
       </c>
       <c r="J80">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K80">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L80">
         <v>214</v>
       </c>
       <c r="M80">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N80">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4573,19 +4576,19 @@
         <v>25</v>
       </c>
       <c r="J83">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K83">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L83">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M83">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N83">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4614,19 +4617,19 @@
         <v>26</v>
       </c>
       <c r="J84">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K84">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L84">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M84">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N84">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4655,19 +4658,19 @@
         <v>27</v>
       </c>
       <c r="J85">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K85">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L85">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M85">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N85">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4696,19 +4699,19 @@
         <v>28</v>
       </c>
       <c r="J86">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K86">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L86">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M86">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N86">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4737,19 +4740,19 @@
         <v>29</v>
       </c>
       <c r="J87">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K87">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L87">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M87">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N87">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4778,19 +4781,19 @@
         <v>30</v>
       </c>
       <c r="J88">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K88">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L88">
         <v>243</v>
       </c>
       <c r="M88">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N88">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4819,19 +4822,19 @@
         <v>31</v>
       </c>
       <c r="J89">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K89">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L89">
         <v>147</v>
       </c>
       <c r="M89">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N89">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4860,19 +4863,19 @@
         <v>32</v>
       </c>
       <c r="J90">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K90">
         <v>756</v>
       </c>
       <c r="L90">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M90">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N90">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4901,19 +4904,19 @@
         <v>33</v>
       </c>
       <c r="J91">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K91">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L91">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M91">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N91">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4942,19 +4945,19 @@
         <v>15</v>
       </c>
       <c r="J92">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K92">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L92">
         <v>488</v>
       </c>
       <c r="M92">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N92">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5106,19 +5109,19 @@
         <v>20</v>
       </c>
       <c r="J96">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K96">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L96">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M96">
         <v>0.9803</v>
       </c>
       <c r="N96">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5147,19 +5150,19 @@
         <v>21</v>
       </c>
       <c r="J97">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K97">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L97">
         <v>376</v>
       </c>
       <c r="M97">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N97">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5188,19 +5191,19 @@
         <v>22</v>
       </c>
       <c r="J98">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K98">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L98">
         <v>214</v>
       </c>
       <c r="M98">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N98">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5311,19 +5314,19 @@
         <v>25</v>
       </c>
       <c r="J101">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K101">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L101">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M101">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N101">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5352,19 +5355,19 @@
         <v>26</v>
       </c>
       <c r="J102">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K102">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L102">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M102">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N102">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5393,19 +5396,19 @@
         <v>27</v>
       </c>
       <c r="J103">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K103">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L103">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M103">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N103">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5434,19 +5437,19 @@
         <v>28</v>
       </c>
       <c r="J104">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K104">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L104">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M104">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N104">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5475,19 +5478,19 @@
         <v>29</v>
       </c>
       <c r="J105">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K105">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L105">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M105">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N105">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5516,19 +5519,19 @@
         <v>30</v>
       </c>
       <c r="J106">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K106">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L106">
         <v>243</v>
       </c>
       <c r="M106">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N106">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5557,19 +5560,19 @@
         <v>31</v>
       </c>
       <c r="J107">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K107">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L107">
         <v>147</v>
       </c>
       <c r="M107">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N107">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5598,19 +5601,19 @@
         <v>32</v>
       </c>
       <c r="J108">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K108">
         <v>756</v>
       </c>
       <c r="L108">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M108">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N108">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5639,19 +5642,19 @@
         <v>33</v>
       </c>
       <c r="J109">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K109">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L109">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M109">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N109">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5683,19 +5686,19 @@
         <v>15</v>
       </c>
       <c r="J110">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K110">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L110">
         <v>488</v>
       </c>
       <c r="M110">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N110">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5859,19 +5862,19 @@
         <v>20</v>
       </c>
       <c r="J114">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K114">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L114">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M114">
         <v>0.9803</v>
       </c>
       <c r="N114">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5903,19 +5906,19 @@
         <v>21</v>
       </c>
       <c r="J115">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K115">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L115">
         <v>376</v>
       </c>
       <c r="M115">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N115">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5947,19 +5950,19 @@
         <v>22</v>
       </c>
       <c r="J116">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K116">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L116">
         <v>214</v>
       </c>
       <c r="M116">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N116">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6079,19 +6082,19 @@
         <v>25</v>
       </c>
       <c r="J119">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K119">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L119">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M119">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N119">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6123,19 +6126,19 @@
         <v>26</v>
       </c>
       <c r="J120">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K120">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L120">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M120">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N120">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6167,19 +6170,19 @@
         <v>27</v>
       </c>
       <c r="J121">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K121">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L121">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M121">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N121">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6211,19 +6214,19 @@
         <v>28</v>
       </c>
       <c r="J122">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K122">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L122">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M122">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N122">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6252,19 +6255,19 @@
         <v>29</v>
       </c>
       <c r="J123">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K123">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L123">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M123">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N123">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6296,19 +6299,19 @@
         <v>30</v>
       </c>
       <c r="J124">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K124">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L124">
         <v>243</v>
       </c>
       <c r="M124">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N124">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6340,19 +6343,19 @@
         <v>31</v>
       </c>
       <c r="J125">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K125">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L125">
         <v>147</v>
       </c>
       <c r="M125">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N125">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6384,19 +6387,19 @@
         <v>32</v>
       </c>
       <c r="J126">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K126">
         <v>756</v>
       </c>
       <c r="L126">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M126">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N126">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6428,19 +6431,19 @@
         <v>33</v>
       </c>
       <c r="J127">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K127">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L127">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M127">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N127">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6472,19 +6475,19 @@
         <v>20</v>
       </c>
       <c r="J128">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K128">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L128">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M128">
         <v>0.9803</v>
       </c>
       <c r="N128">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6595,19 +6598,19 @@
         <v>41</v>
       </c>
       <c r="J131">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K131">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L131">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M131">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N131">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6636,19 +6639,19 @@
         <v>22</v>
       </c>
       <c r="J132">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K132">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L132">
         <v>214</v>
       </c>
       <c r="M132">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N132">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6762,19 +6765,19 @@
         <v>15</v>
       </c>
       <c r="J135">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K135">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L135">
         <v>488</v>
       </c>
       <c r="M135">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N135">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6803,19 +6806,19 @@
         <v>42</v>
       </c>
       <c r="J136">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K136">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L136">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M136">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N136">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6847,19 +6850,19 @@
         <v>26</v>
       </c>
       <c r="J137">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K137">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L137">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M137">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N137">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6891,19 +6894,19 @@
         <v>30</v>
       </c>
       <c r="J138">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K138">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L138">
         <v>243</v>
       </c>
       <c r="M138">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N138">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6932,19 +6935,19 @@
         <v>29</v>
       </c>
       <c r="J139">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K139">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L139">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M139">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N139">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6976,19 +6979,19 @@
         <v>21</v>
       </c>
       <c r="J140">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K140">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L140">
         <v>376</v>
       </c>
       <c r="M140">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N140">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7017,7 +7020,7 @@
         <v>43</v>
       </c>
       <c r="J141">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K141">
         <v>14</v>
@@ -7026,7 +7029,7 @@
         <v>10</v>
       </c>
       <c r="M141">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N141">
         <v>0.7143</v>
@@ -7061,19 +7064,19 @@
         <v>25</v>
       </c>
       <c r="J142">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K142">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L142">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M142">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N142">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7143,19 +7146,19 @@
         <v>31</v>
       </c>
       <c r="J144">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K144">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L144">
         <v>147</v>
       </c>
       <c r="M144">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N144">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7275,19 +7278,19 @@
         <v>27</v>
       </c>
       <c r="J147">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K147">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L147">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M147">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N147">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7316,19 +7319,19 @@
         <v>46</v>
       </c>
       <c r="J148">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K148">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N148">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7357,19 +7360,19 @@
         <v>28</v>
       </c>
       <c r="J149">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K149">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L149">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M149">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N149">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7401,19 +7404,19 @@
         <v>32</v>
       </c>
       <c r="J150">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K150">
         <v>756</v>
       </c>
       <c r="L150">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M150">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N150">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7445,19 +7448,19 @@
         <v>33</v>
       </c>
       <c r="J151">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K151">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L151">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M151">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N151">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7489,19 +7492,19 @@
         <v>20</v>
       </c>
       <c r="J152">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K152">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L152">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M152">
         <v>0.9803</v>
       </c>
       <c r="N152">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7621,19 +7624,19 @@
         <v>41</v>
       </c>
       <c r="J155">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K155">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M155">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N155">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7665,19 +7668,19 @@
         <v>22</v>
       </c>
       <c r="J156">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K156">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L156">
         <v>214</v>
       </c>
       <c r="M156">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N156">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7797,19 +7800,19 @@
         <v>15</v>
       </c>
       <c r="J159">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K159">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L159">
         <v>488</v>
       </c>
       <c r="M159">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N159">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7838,19 +7841,19 @@
         <v>42</v>
       </c>
       <c r="J160">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K160">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L160">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M160">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N160">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7879,19 +7882,19 @@
         <v>26</v>
       </c>
       <c r="J161">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K161">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L161">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M161">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N161">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -7923,19 +7926,19 @@
         <v>30</v>
       </c>
       <c r="J162">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K162">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L162">
         <v>243</v>
       </c>
       <c r="M162">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N162">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7964,19 +7967,19 @@
         <v>29</v>
       </c>
       <c r="J163">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K163">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L163">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M163">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N163">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -8008,19 +8011,19 @@
         <v>21</v>
       </c>
       <c r="J164">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K164">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L164">
         <v>376</v>
       </c>
       <c r="M164">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N164">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8049,7 +8052,7 @@
         <v>43</v>
       </c>
       <c r="J165">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K165">
         <v>14</v>
@@ -8058,7 +8061,7 @@
         <v>10</v>
       </c>
       <c r="M165">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N165">
         <v>0.7143</v>
@@ -8093,19 +8096,19 @@
         <v>25</v>
       </c>
       <c r="J166">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K166">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L166">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M166">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N166">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -8181,19 +8184,19 @@
         <v>31</v>
       </c>
       <c r="J168">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K168">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L168">
         <v>147</v>
       </c>
       <c r="M168">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N168">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8310,19 +8313,19 @@
         <v>27</v>
       </c>
       <c r="J171">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K171">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L171">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M171">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N171">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8348,19 +8351,19 @@
         <v>46</v>
       </c>
       <c r="J172">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K172">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M172">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N172">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8392,19 +8395,19 @@
         <v>28</v>
       </c>
       <c r="J173">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K173">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L173">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M173">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N173">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -8436,19 +8439,19 @@
         <v>32</v>
       </c>
       <c r="J174">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K174">
         <v>756</v>
       </c>
       <c r="L174">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M174">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N174">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8480,19 +8483,19 @@
         <v>33</v>
       </c>
       <c r="J175">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K175">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L175">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M175">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N175">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8524,19 +8527,19 @@
         <v>20</v>
       </c>
       <c r="J176">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K176">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L176">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M176">
         <v>0.9803</v>
       </c>
       <c r="N176">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8647,19 +8650,19 @@
         <v>41</v>
       </c>
       <c r="J179">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K179">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L179">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M179">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N179">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -8685,19 +8688,19 @@
         <v>22</v>
       </c>
       <c r="J180">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K180">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L180">
         <v>214</v>
       </c>
       <c r="M180">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N180">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8814,19 +8817,19 @@
         <v>15</v>
       </c>
       <c r="J183">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K183">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L183">
         <v>488</v>
       </c>
       <c r="M183">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N183">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8855,19 +8858,19 @@
         <v>42</v>
       </c>
       <c r="J184">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K184">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L184">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M184">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N184">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -8896,19 +8899,19 @@
         <v>26</v>
       </c>
       <c r="J185">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K185">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L185">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M185">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N185">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -8940,19 +8943,19 @@
         <v>30</v>
       </c>
       <c r="J186">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K186">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L186">
         <v>243</v>
       </c>
       <c r="M186">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N186">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -8981,19 +8984,19 @@
         <v>29</v>
       </c>
       <c r="J187">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K187">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L187">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M187">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N187">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9025,19 +9028,19 @@
         <v>21</v>
       </c>
       <c r="J188">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K188">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L188">
         <v>376</v>
       </c>
       <c r="M188">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N188">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9069,7 +9072,7 @@
         <v>43</v>
       </c>
       <c r="J189">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K189">
         <v>14</v>
@@ -9078,7 +9081,7 @@
         <v>10</v>
       </c>
       <c r="M189">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N189">
         <v>0.7143</v>
@@ -9113,19 +9116,19 @@
         <v>25</v>
       </c>
       <c r="J190">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K190">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L190">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M190">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N190">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -9195,19 +9198,19 @@
         <v>31</v>
       </c>
       <c r="J192">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K192">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L192">
         <v>147</v>
       </c>
       <c r="M192">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N192">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9324,19 +9327,19 @@
         <v>27</v>
       </c>
       <c r="J195">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K195">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L195">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M195">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N195">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9365,19 +9368,19 @@
         <v>46</v>
       </c>
       <c r="J196">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K196">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M196">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N196">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9409,19 +9412,19 @@
         <v>28</v>
       </c>
       <c r="J197">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K197">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L197">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M197">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N197">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9453,19 +9456,19 @@
         <v>32</v>
       </c>
       <c r="J198">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K198">
         <v>756</v>
       </c>
       <c r="L198">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M198">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N198">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9497,19 +9500,19 @@
         <v>33</v>
       </c>
       <c r="J199">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K199">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L199">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M199">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N199">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9541,19 +9544,19 @@
         <v>20</v>
       </c>
       <c r="J200">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K200">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L200">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M200">
         <v>0.9803</v>
       </c>
       <c r="N200">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9670,19 +9673,19 @@
         <v>41</v>
       </c>
       <c r="J203">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K203">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L203">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M203">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N203">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9714,19 +9717,19 @@
         <v>22</v>
       </c>
       <c r="J204">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K204">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L204">
         <v>214</v>
       </c>
       <c r="M204">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N204">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9846,19 +9849,19 @@
         <v>15</v>
       </c>
       <c r="J207">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K207">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L207">
         <v>488</v>
       </c>
       <c r="M207">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N207">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9890,19 +9893,19 @@
         <v>42</v>
       </c>
       <c r="J208">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K208">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L208">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M208">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N208">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -9934,19 +9937,19 @@
         <v>26</v>
       </c>
       <c r="J209">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K209">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L209">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M209">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N209">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -9978,19 +9981,19 @@
         <v>30</v>
       </c>
       <c r="J210">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K210">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L210">
         <v>243</v>
       </c>
       <c r="M210">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N210">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10022,19 +10025,19 @@
         <v>29</v>
       </c>
       <c r="J211">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K211">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L211">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M211">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N211">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10066,19 +10069,19 @@
         <v>21</v>
       </c>
       <c r="J212">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K212">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L212">
         <v>376</v>
       </c>
       <c r="M212">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N212">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10110,7 +10113,7 @@
         <v>43</v>
       </c>
       <c r="J213">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K213">
         <v>14</v>
@@ -10119,7 +10122,7 @@
         <v>10</v>
       </c>
       <c r="M213">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N213">
         <v>0.7143</v>
@@ -10154,19 +10157,19 @@
         <v>25</v>
       </c>
       <c r="J214">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K214">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L214">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M214">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N214">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -10236,19 +10239,19 @@
         <v>31</v>
       </c>
       <c r="J216">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K216">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L216">
         <v>147</v>
       </c>
       <c r="M216">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N216">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10368,19 +10371,19 @@
         <v>27</v>
       </c>
       <c r="J219">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K219">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L219">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M219">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N219">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10406,19 +10409,19 @@
         <v>46</v>
       </c>
       <c r="J220">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K220">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M220">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N220">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10450,19 +10453,19 @@
         <v>28</v>
       </c>
       <c r="J221">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K221">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L221">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M221">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N221">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10494,19 +10497,19 @@
         <v>32</v>
       </c>
       <c r="J222">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K222">
         <v>756</v>
       </c>
       <c r="L222">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M222">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N222">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10538,19 +10541,19 @@
         <v>33</v>
       </c>
       <c r="J223">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K223">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L223">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M223">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N223">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10582,19 +10585,19 @@
         <v>20</v>
       </c>
       <c r="J224">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K224">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L224">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M224">
         <v>0.9803</v>
       </c>
       <c r="N224">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -10702,19 +10705,19 @@
         <v>41</v>
       </c>
       <c r="J227">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K227">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L227">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M227">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N227">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -10740,19 +10743,19 @@
         <v>22</v>
       </c>
       <c r="J228">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K228">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L228">
         <v>214</v>
       </c>
       <c r="M228">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N228">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -10869,19 +10872,19 @@
         <v>15</v>
       </c>
       <c r="J231">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K231">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L231">
         <v>488</v>
       </c>
       <c r="M231">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N231">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -10907,19 +10910,19 @@
         <v>42</v>
       </c>
       <c r="J232">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K232">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L232">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M232">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N232">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -10951,19 +10954,19 @@
         <v>26</v>
       </c>
       <c r="J233">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K233">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L233">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M233">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N233">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -10989,19 +10992,19 @@
         <v>30</v>
       </c>
       <c r="J234">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K234">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L234">
         <v>243</v>
       </c>
       <c r="M234">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N234">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11033,19 +11036,19 @@
         <v>29</v>
       </c>
       <c r="J235">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K235">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L235">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M235">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N235">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11077,19 +11080,19 @@
         <v>21</v>
       </c>
       <c r="J236">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K236">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L236">
         <v>376</v>
       </c>
       <c r="M236">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N236">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11121,7 +11124,7 @@
         <v>43</v>
       </c>
       <c r="J237">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K237">
         <v>14</v>
@@ -11130,7 +11133,7 @@
         <v>10</v>
       </c>
       <c r="M237">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N237">
         <v>0.7143</v>
@@ -11165,19 +11168,19 @@
         <v>25</v>
       </c>
       <c r="J238">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K238">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L238">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M238">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N238">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11241,19 +11244,19 @@
         <v>31</v>
       </c>
       <c r="J240">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K240">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L240">
         <v>147</v>
       </c>
       <c r="M240">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N240">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11361,19 +11364,19 @@
         <v>27</v>
       </c>
       <c r="J243">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K243">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L243">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M243">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N243">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -11399,19 +11402,19 @@
         <v>46</v>
       </c>
       <c r="J244">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K244">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M244">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N244">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -11437,19 +11440,19 @@
         <v>28</v>
       </c>
       <c r="J245">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K245">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L245">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M245">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N245">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -11481,19 +11484,19 @@
         <v>32</v>
       </c>
       <c r="J246">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K246">
         <v>756</v>
       </c>
       <c r="L246">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M246">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N246">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11525,19 +11528,19 @@
         <v>33</v>
       </c>
       <c r="J247">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K247">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L247">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M247">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N247">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11569,19 +11572,19 @@
         <v>20</v>
       </c>
       <c r="J248">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K248">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L248">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M248">
         <v>0.9803</v>
       </c>
       <c r="N248">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -11701,19 +11704,19 @@
         <v>41</v>
       </c>
       <c r="J251">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K251">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L251">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M251">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N251">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -11745,19 +11748,19 @@
         <v>22</v>
       </c>
       <c r="J252">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K252">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L252">
         <v>214</v>
       </c>
       <c r="M252">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N252">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -11874,19 +11877,19 @@
         <v>15</v>
       </c>
       <c r="J255">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K255">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L255">
         <v>488</v>
       </c>
       <c r="M255">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N255">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -11912,19 +11915,19 @@
         <v>42</v>
       </c>
       <c r="J256">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K256">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L256">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M256">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N256">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -11956,19 +11959,19 @@
         <v>26</v>
       </c>
       <c r="J257">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K257">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L257">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M257">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N257">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12000,19 +12003,19 @@
         <v>30</v>
       </c>
       <c r="J258">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K258">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L258">
         <v>243</v>
       </c>
       <c r="M258">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N258">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12044,19 +12047,19 @@
         <v>29</v>
       </c>
       <c r="J259">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K259">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L259">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M259">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N259">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -12088,19 +12091,19 @@
         <v>21</v>
       </c>
       <c r="J260">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K260">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L260">
         <v>376</v>
       </c>
       <c r="M260">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N260">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12132,7 +12135,7 @@
         <v>43</v>
       </c>
       <c r="J261">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K261">
         <v>14</v>
@@ -12141,7 +12144,7 @@
         <v>10</v>
       </c>
       <c r="M261">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N261">
         <v>0.7143</v>
@@ -12176,19 +12179,19 @@
         <v>25</v>
       </c>
       <c r="J262">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K262">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L262">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M262">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N262">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -12258,19 +12261,19 @@
         <v>31</v>
       </c>
       <c r="J264">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K264">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L264">
         <v>147</v>
       </c>
       <c r="M264">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N264">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12384,19 +12387,19 @@
         <v>27</v>
       </c>
       <c r="J267">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K267">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L267">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M267">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N267">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -12428,19 +12431,19 @@
         <v>46</v>
       </c>
       <c r="J268">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K268">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M268">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N268">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -12466,19 +12469,19 @@
         <v>28</v>
       </c>
       <c r="J269">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K269">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L269">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M269">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N269">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12510,19 +12513,19 @@
         <v>32</v>
       </c>
       <c r="J270">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K270">
         <v>756</v>
       </c>
       <c r="L270">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M270">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N270">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -12554,19 +12557,19 @@
         <v>33</v>
       </c>
       <c r="J271">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K271">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L271">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M271">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N271">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -12598,19 +12601,19 @@
         <v>20</v>
       </c>
       <c r="J272">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K272">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L272">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M272">
         <v>0.9803</v>
       </c>
       <c r="N272">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -12726,19 +12729,19 @@
         <v>41</v>
       </c>
       <c r="J275">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K275">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L275">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M275">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N275">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -12766,19 +12769,19 @@
         <v>22</v>
       </c>
       <c r="J276">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K276">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L276">
         <v>214</v>
       </c>
       <c r="M276">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N276">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -12898,19 +12901,19 @@
         <v>15</v>
       </c>
       <c r="J279">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K279">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L279">
         <v>488</v>
       </c>
       <c r="M279">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N279">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -12942,19 +12945,19 @@
         <v>42</v>
       </c>
       <c r="J280">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K280">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L280">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M280">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N280">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -12986,19 +12989,19 @@
         <v>26</v>
       </c>
       <c r="J281">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K281">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L281">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M281">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N281">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13030,19 +13033,19 @@
         <v>30</v>
       </c>
       <c r="J282">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K282">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L282">
         <v>243</v>
       </c>
       <c r="M282">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N282">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -13074,19 +13077,19 @@
         <v>29</v>
       </c>
       <c r="J283">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K283">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L283">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M283">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N283">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -13118,19 +13121,19 @@
         <v>21</v>
       </c>
       <c r="J284">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K284">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L284">
         <v>376</v>
       </c>
       <c r="M284">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N284">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -13162,7 +13165,7 @@
         <v>43</v>
       </c>
       <c r="J285">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K285">
         <v>14</v>
@@ -13171,7 +13174,7 @@
         <v>10</v>
       </c>
       <c r="M285">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N285">
         <v>0.7143</v>
@@ -13202,19 +13205,19 @@
         <v>25</v>
       </c>
       <c r="J286">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K286">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L286">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M286">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N286">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13286,19 +13289,19 @@
         <v>31</v>
       </c>
       <c r="J288">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K288">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L288">
         <v>147</v>
       </c>
       <c r="M288">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N288">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -13415,19 +13418,19 @@
         <v>27</v>
       </c>
       <c r="J291">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K291">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L291">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M291">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N291">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13457,19 +13460,19 @@
         <v>46</v>
       </c>
       <c r="J292">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K292">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M292">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N292">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -13501,19 +13504,19 @@
         <v>28</v>
       </c>
       <c r="J293">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K293">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L293">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M293">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N293">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -13545,19 +13548,19 @@
         <v>32</v>
       </c>
       <c r="J294">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K294">
         <v>756</v>
       </c>
       <c r="L294">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M294">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N294">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -13589,19 +13592,19 @@
         <v>33</v>
       </c>
       <c r="J295">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K295">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L295">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M295">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N295">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -13633,19 +13636,19 @@
         <v>20</v>
       </c>
       <c r="J296">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K296">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L296">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M296">
         <v>0.9803</v>
       </c>
       <c r="N296">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -13763,19 +13766,19 @@
         <v>41</v>
       </c>
       <c r="J299">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K299">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L299">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M299">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N299">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -13807,19 +13810,19 @@
         <v>22</v>
       </c>
       <c r="J300">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K300">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L300">
         <v>214</v>
       </c>
       <c r="M300">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N300">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -13939,19 +13942,19 @@
         <v>15</v>
       </c>
       <c r="J303">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K303">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L303">
         <v>488</v>
       </c>
       <c r="M303">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N303">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -13979,19 +13982,19 @@
         <v>42</v>
       </c>
       <c r="J304">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K304">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L304">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M304">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N304">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14023,19 +14026,19 @@
         <v>26</v>
       </c>
       <c r="J305">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K305">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L305">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M305">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N305">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -14067,19 +14070,19 @@
         <v>30</v>
       </c>
       <c r="J306">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K306">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L306">
         <v>243</v>
       </c>
       <c r="M306">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N306">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -14111,19 +14114,19 @@
         <v>29</v>
       </c>
       <c r="J307">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K307">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L307">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M307">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N307">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -14155,19 +14158,19 @@
         <v>21</v>
       </c>
       <c r="J308">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K308">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L308">
         <v>376</v>
       </c>
       <c r="M308">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N308">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -14199,7 +14202,7 @@
         <v>43</v>
       </c>
       <c r="J309">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K309">
         <v>14</v>
@@ -14208,7 +14211,7 @@
         <v>10</v>
       </c>
       <c r="M309">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N309">
         <v>0.7143</v>
@@ -14243,19 +14246,19 @@
         <v>25</v>
       </c>
       <c r="J310">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K310">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L310">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M310">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N310">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -14325,19 +14328,19 @@
         <v>31</v>
       </c>
       <c r="J312">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K312">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L312">
         <v>147</v>
       </c>
       <c r="M312">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N312">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14452,19 +14455,19 @@
         <v>27</v>
       </c>
       <c r="J315">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K315">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L315">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M315">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N315">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14496,19 +14499,19 @@
         <v>46</v>
       </c>
       <c r="J316">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K316">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M316">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N316">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14540,19 +14543,19 @@
         <v>28</v>
       </c>
       <c r="J317">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K317">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L317">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M317">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N317">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -14584,19 +14587,19 @@
         <v>32</v>
       </c>
       <c r="J318">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K318">
         <v>756</v>
       </c>
       <c r="L318">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M318">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N318">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -14628,19 +14631,19 @@
         <v>33</v>
       </c>
       <c r="J319">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K319">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L319">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M319">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N319">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -14672,19 +14675,19 @@
         <v>20</v>
       </c>
       <c r="J320">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K320">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L320">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M320">
         <v>0.9803</v>
       </c>
       <c r="N320">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -14797,19 +14800,19 @@
         <v>41</v>
       </c>
       <c r="J323">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K323">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L323">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M323">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N323">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -14841,19 +14844,19 @@
         <v>22</v>
       </c>
       <c r="J324">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K324">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L324">
         <v>214</v>
       </c>
       <c r="M324">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N324">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -14971,19 +14974,19 @@
         <v>15</v>
       </c>
       <c r="J327">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K327">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L327">
         <v>488</v>
       </c>
       <c r="M327">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N327">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -15009,19 +15012,19 @@
         <v>42</v>
       </c>
       <c r="J328">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K328">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L328">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M328">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N328">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -15053,19 +15056,19 @@
         <v>26</v>
       </c>
       <c r="J329">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K329">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L329">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M329">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N329">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -15095,19 +15098,19 @@
         <v>30</v>
       </c>
       <c r="J330">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K330">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L330">
         <v>243</v>
       </c>
       <c r="M330">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N330">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -15139,19 +15142,19 @@
         <v>29</v>
       </c>
       <c r="J331">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K331">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L331">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M331">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N331">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -15183,19 +15186,19 @@
         <v>21</v>
       </c>
       <c r="J332">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K332">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L332">
         <v>376</v>
       </c>
       <c r="M332">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N332">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -15223,7 +15226,7 @@
         <v>43</v>
       </c>
       <c r="J333">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K333">
         <v>14</v>
@@ -15232,7 +15235,7 @@
         <v>10</v>
       </c>
       <c r="M333">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N333">
         <v>0.7143</v>
@@ -15267,19 +15270,19 @@
         <v>25</v>
       </c>
       <c r="J334">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K334">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L334">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M334">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N334">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -15349,19 +15352,19 @@
         <v>31</v>
       </c>
       <c r="J336">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K336">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L336">
         <v>147</v>
       </c>
       <c r="M336">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N336">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -15473,19 +15476,19 @@
         <v>27</v>
       </c>
       <c r="J339">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K339">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L339">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M339">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N339">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -15513,19 +15516,19 @@
         <v>46</v>
       </c>
       <c r="J340">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K340">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L340">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M340">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N340">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -15555,19 +15558,19 @@
         <v>28</v>
       </c>
       <c r="J341">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K341">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L341">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M341">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N341">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -15599,19 +15602,19 @@
         <v>32</v>
       </c>
       <c r="J342">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K342">
         <v>756</v>
       </c>
       <c r="L342">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M342">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N342">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -15643,19 +15646,19 @@
         <v>33</v>
       </c>
       <c r="J343">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K343">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L343">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M343">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N343">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="344" spans="1:14">
@@ -15687,19 +15690,19 @@
         <v>20</v>
       </c>
       <c r="J344">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K344">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L344">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M344">
         <v>0.9803</v>
       </c>
       <c r="N344">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -15859,19 +15862,19 @@
         <v>22</v>
       </c>
       <c r="J348">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K348">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L348">
         <v>214</v>
       </c>
       <c r="M348">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N348">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -16031,19 +16034,19 @@
         <v>15</v>
       </c>
       <c r="J352">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K352">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L352">
         <v>488</v>
       </c>
       <c r="M352">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N352">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -16075,19 +16078,19 @@
         <v>42</v>
       </c>
       <c r="J353">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K353">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L353">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M353">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N353">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="354" spans="1:14">
@@ -16119,19 +16122,19 @@
         <v>26</v>
       </c>
       <c r="J354">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K354">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L354">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M354">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N354">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -16159,19 +16162,19 @@
         <v>30</v>
       </c>
       <c r="J355">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K355">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L355">
         <v>243</v>
       </c>
       <c r="M355">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N355">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -16245,19 +16248,19 @@
         <v>41</v>
       </c>
       <c r="J357">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K357">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L357">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M357">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N357">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="358" spans="1:14">
@@ -16289,19 +16292,19 @@
         <v>21</v>
       </c>
       <c r="J358">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K358">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L358">
         <v>376</v>
       </c>
       <c r="M358">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N358">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -16327,7 +16330,7 @@
         <v>43</v>
       </c>
       <c r="J359">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K359">
         <v>14</v>
@@ -16336,7 +16339,7 @@
         <v>10</v>
       </c>
       <c r="M359">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N359">
         <v>0.7143</v>
@@ -16371,19 +16374,19 @@
         <v>25</v>
       </c>
       <c r="J360">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K360">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L360">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M360">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N360">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="361" spans="1:14">
@@ -16459,19 +16462,19 @@
         <v>31</v>
       </c>
       <c r="J362">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K362">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L362">
         <v>147</v>
       </c>
       <c r="M362">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N362">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="363" spans="1:14">
@@ -16547,13 +16550,13 @@
         <v>8</v>
       </c>
       <c r="L364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M364">
         <v>0.8</v>
       </c>
       <c r="N364">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -16585,19 +16588,19 @@
         <v>27</v>
       </c>
       <c r="J365">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K365">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L365">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M365">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N365">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="366" spans="1:14">
@@ -16665,19 +16668,19 @@
         <v>46</v>
       </c>
       <c r="J367">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K367">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L367">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M367">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N367">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -16705,19 +16708,19 @@
         <v>28</v>
       </c>
       <c r="J368">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K368">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L368">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M368">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N368">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -16749,19 +16752,19 @@
         <v>29</v>
       </c>
       <c r="J369">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K369">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L369">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M369">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N369">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -16830,19 +16833,19 @@
         <v>32</v>
       </c>
       <c r="J371">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K371">
         <v>756</v>
       </c>
       <c r="L371">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M371">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N371">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -16874,19 +16877,19 @@
         <v>33</v>
       </c>
       <c r="J372">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K372">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L372">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M372">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N372">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -16918,19 +16921,19 @@
         <v>20</v>
       </c>
       <c r="J373">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K373">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L373">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M373">
         <v>0.9803</v>
       </c>
       <c r="N373">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -17090,19 +17093,19 @@
         <v>22</v>
       </c>
       <c r="J377">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K377">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L377">
         <v>214</v>
       </c>
       <c r="M377">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N377">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -17266,19 +17269,19 @@
         <v>15</v>
       </c>
       <c r="J381">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K381">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L381">
         <v>488</v>
       </c>
       <c r="M381">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N381">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -17310,19 +17313,19 @@
         <v>42</v>
       </c>
       <c r="J382">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K382">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L382">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M382">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N382">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -17354,19 +17357,19 @@
         <v>26</v>
       </c>
       <c r="J383">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K383">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L383">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M383">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N383">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -17394,19 +17397,19 @@
         <v>30</v>
       </c>
       <c r="J384">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K384">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L384">
         <v>243</v>
       </c>
       <c r="M384">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N384">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -17477,19 +17480,19 @@
         <v>41</v>
       </c>
       <c r="J386">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K386">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L386">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M386">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N386">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -17521,19 +17524,19 @@
         <v>21</v>
       </c>
       <c r="J387">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K387">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L387">
         <v>376</v>
       </c>
       <c r="M387">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N387">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -17559,7 +17562,7 @@
         <v>43</v>
       </c>
       <c r="J388">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K388">
         <v>14</v>
@@ -17568,7 +17571,7 @@
         <v>10</v>
       </c>
       <c r="M388">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N388">
         <v>0.7143</v>
@@ -17603,19 +17606,19 @@
         <v>25</v>
       </c>
       <c r="J389">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K389">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L389">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M389">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N389">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="390" spans="1:14">
@@ -17687,19 +17690,19 @@
         <v>31</v>
       </c>
       <c r="J391">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K391">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L391">
         <v>147</v>
       </c>
       <c r="M391">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N391">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -17781,13 +17784,13 @@
         <v>8</v>
       </c>
       <c r="L393">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M393">
         <v>0.8</v>
       </c>
       <c r="N393">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -17817,19 +17820,19 @@
         <v>27</v>
       </c>
       <c r="J394">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K394">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L394">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M394">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N394">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -17905,19 +17908,19 @@
         <v>46</v>
       </c>
       <c r="J396">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K396">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L396">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M396">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N396">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -17947,19 +17950,19 @@
         <v>28</v>
       </c>
       <c r="J397">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K397">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L397">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M397">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N397">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -17991,19 +17994,19 @@
         <v>29</v>
       </c>
       <c r="J398">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K398">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L398">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M398">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N398">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -18075,19 +18078,19 @@
         <v>32</v>
       </c>
       <c r="J400">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K400">
         <v>756</v>
       </c>
       <c r="L400">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M400">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N400">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -18119,19 +18122,19 @@
         <v>33</v>
       </c>
       <c r="J401">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K401">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L401">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M401">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N401">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -18163,19 +18166,19 @@
         <v>20</v>
       </c>
       <c r="J402">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K402">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L402">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M402">
         <v>0.9803</v>
       </c>
       <c r="N402">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="403" spans="1:14">
@@ -18333,19 +18336,19 @@
         <v>22</v>
       </c>
       <c r="J406">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K406">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L406">
         <v>214</v>
       </c>
       <c r="M406">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N406">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -18491,19 +18494,19 @@
         <v>15</v>
       </c>
       <c r="J410">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K410">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L410">
         <v>488</v>
       </c>
       <c r="M410">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N410">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -18530,19 +18533,19 @@
         <v>42</v>
       </c>
       <c r="J411">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K411">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L411">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M411">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N411">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -18574,19 +18577,19 @@
         <v>26</v>
       </c>
       <c r="J412">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K412">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L412">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M412">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N412">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -18618,19 +18621,19 @@
         <v>30</v>
       </c>
       <c r="J413">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K413">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L413">
         <v>243</v>
       </c>
       <c r="M413">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N413">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="414" spans="1:14">
@@ -18700,19 +18703,19 @@
         <v>41</v>
       </c>
       <c r="J415">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K415">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L415">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M415">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N415">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -18744,19 +18747,19 @@
         <v>21</v>
       </c>
       <c r="J416">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K416">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L416">
         <v>376</v>
       </c>
       <c r="M416">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N416">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -18788,7 +18791,7 @@
         <v>43</v>
       </c>
       <c r="J417">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K417">
         <v>14</v>
@@ -18797,7 +18800,7 @@
         <v>10</v>
       </c>
       <c r="M417">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N417">
         <v>0.7143</v>
@@ -18832,19 +18835,19 @@
         <v>25</v>
       </c>
       <c r="J418">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K418">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L418">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M418">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N418">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="419" spans="1:14">
@@ -18913,19 +18916,19 @@
         <v>31</v>
       </c>
       <c r="J420">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K420">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L420">
         <v>147</v>
       </c>
       <c r="M420">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N420">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -18999,13 +19002,13 @@
         <v>8</v>
       </c>
       <c r="L422">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M422">
         <v>0.8</v>
       </c>
       <c r="N422">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -19037,19 +19040,19 @@
         <v>27</v>
       </c>
       <c r="J423">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K423">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L423">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M423">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N423">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -19117,19 +19120,19 @@
         <v>46</v>
       </c>
       <c r="J425">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K425">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L425">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M425">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N425">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -19157,19 +19160,19 @@
         <v>28</v>
       </c>
       <c r="J426">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K426">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L426">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M426">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N426">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -19201,19 +19204,19 @@
         <v>29</v>
       </c>
       <c r="J427">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K427">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L427">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M427">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N427">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="428" spans="1:14">
@@ -19285,19 +19288,19 @@
         <v>32</v>
       </c>
       <c r="J429">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K429">
         <v>756</v>
       </c>
       <c r="L429">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M429">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N429">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -19329,19 +19332,19 @@
         <v>33</v>
       </c>
       <c r="J430">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K430">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L430">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M430">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N430">
-        <v>0.4358</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="431" spans="1:14">
@@ -19373,19 +19376,19 @@
         <v>20</v>
       </c>
       <c r="J431">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="K431">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="L431">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M431">
         <v>0.9803</v>
       </c>
       <c r="N431">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="432" spans="1:14">
@@ -19539,19 +19542,19 @@
         <v>22</v>
       </c>
       <c r="J435">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K435">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L435">
         <v>214</v>
       </c>
       <c r="M435">
-        <v>0.5427</v>
+        <v>0.5437</v>
       </c>
       <c r="N435">
-        <v>0.7839</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -19705,19 +19708,19 @@
         <v>15</v>
       </c>
       <c r="J439">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K439">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L439">
         <v>488</v>
       </c>
       <c r="M439">
-        <v>0.9924</v>
+        <v>0.991</v>
       </c>
       <c r="N439">
-        <v>0.7439</v>
+        <v>0.7428</v>
       </c>
     </row>
     <row r="440" spans="1:14">
@@ -19749,19 +19752,19 @@
         <v>42</v>
       </c>
       <c r="J440">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K440">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L440">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M440">
-        <v>0.7742</v>
+        <v>0.7813</v>
       </c>
       <c r="N440">
-        <v>0.4583</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -19793,19 +19796,19 @@
         <v>26</v>
       </c>
       <c r="J441">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K441">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L441">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M441">
-        <v>0.6762</v>
+        <v>0.6759</v>
       </c>
       <c r="N441">
-        <v>0.8518</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="442" spans="1:14">
@@ -19837,19 +19840,19 @@
         <v>30</v>
       </c>
       <c r="J442">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K442">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L442">
         <v>243</v>
       </c>
       <c r="M442">
-        <v>0.9499</v>
+        <v>0.95</v>
       </c>
       <c r="N442">
-        <v>0.6412</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="443" spans="1:14">
@@ -19921,19 +19924,19 @@
         <v>41</v>
       </c>
       <c r="J444">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K444">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L444">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M444">
-        <v>0.6667</v>
+        <v>0.6857</v>
       </c>
       <c r="N444">
-        <v>0.7273</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="445" spans="1:14">
@@ -19965,19 +19968,19 @@
         <v>21</v>
       </c>
       <c r="J445">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K445">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="L445">
         <v>376</v>
       </c>
       <c r="M445">
-        <v>0.9704</v>
+        <v>0.9705</v>
       </c>
       <c r="N445">
-        <v>0.2864</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="446" spans="1:14">
@@ -20005,7 +20008,7 @@
         <v>43</v>
       </c>
       <c r="J446">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K446">
         <v>14</v>
@@ -20014,7 +20017,7 @@
         <v>10</v>
       </c>
       <c r="M446">
-        <v>0.6087</v>
+        <v>0.5833</v>
       </c>
       <c r="N446">
         <v>0.7143</v>
@@ -20049,19 +20052,19 @@
         <v>25</v>
       </c>
       <c r="J447">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K447">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L447">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M447">
-        <v>0.7359</v>
+        <v>0.7367</v>
       </c>
       <c r="N447">
-        <v>0.131</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -20133,19 +20136,19 @@
         <v>31</v>
       </c>
       <c r="J449">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K449">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L449">
         <v>147</v>
       </c>
       <c r="M449">
-        <v>0.3522</v>
+        <v>0.3534</v>
       </c>
       <c r="N449">
-        <v>0.7617</v>
+        <v>0.7577</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -20227,13 +20230,13 @@
         <v>8</v>
       </c>
       <c r="L451">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M451">
         <v>0.8</v>
       </c>
       <c r="N451">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="452" spans="1:14">
@@ -20263,19 +20266,19 @@
         <v>27</v>
       </c>
       <c r="J452">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="K452">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="L452">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M452">
-        <v>0.9615</v>
+        <v>0.961</v>
       </c>
       <c r="N452">
-        <v>0.3802</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="453" spans="1:14">
@@ -20347,19 +20350,19 @@
         <v>46</v>
       </c>
       <c r="J454">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K454">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L454">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M454">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="N454">
-        <v>0.4</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="455" spans="1:14">
@@ -20385,19 +20388,19 @@
         <v>28</v>
       </c>
       <c r="J455">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K455">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L455">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M455">
-        <v>0.8241</v>
+        <v>0.8245</v>
       </c>
       <c r="N455">
-        <v>0.6871</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="456" spans="1:14">
@@ -20423,19 +20426,19 @@
         <v>29</v>
       </c>
       <c r="J456">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K456">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L456">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M456">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
       <c r="N456">
-        <v>0.4231</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="457" spans="1:14">
@@ -20508,19 +20511,19 @@
         <v>32</v>
       </c>
       <c r="J458">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="K458">
         <v>756</v>
       </c>
       <c r="L458">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M458">
-        <v>0.7159</v>
+        <v>0.7112</v>
       </c>
       <c r="N458">
-        <v>0.5569</v>
+        <v>0.5582</v>
       </c>
     </row>
     <row r="459" spans="1:14">
@@ -20552,19 +20555,1234 @@
         <v>33</v>
       </c>
       <c r="J459">
-        <v>13966</v>
+        <v>14008</v>
       </c>
       <c r="K459">
-        <v>11154</v>
+        <v>11181</v>
       </c>
       <c r="L459">
-        <v>4861</v>
+        <v>4877</v>
       </c>
       <c r="M459">
-        <v>0.7987</v>
+        <v>0.7982</v>
       </c>
       <c r="N459">
-        <v>0.4358</v>
+        <v>0.4362</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14">
+      <c r="A460" t="s">
+        <v>64</v>
+      </c>
+      <c r="B460" t="s">
+        <v>20</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+      <c r="D460">
+        <v>2</v>
+      </c>
+      <c r="E460">
+        <v>2</v>
+      </c>
+      <c r="F460">
+        <v>1</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460" t="s">
+        <v>16</v>
+      </c>
+      <c r="I460" t="s">
+        <v>20</v>
+      </c>
+      <c r="J460">
+        <v>2438</v>
+      </c>
+      <c r="K460">
+        <v>2390</v>
+      </c>
+      <c r="L460">
+        <v>391</v>
+      </c>
+      <c r="M460">
+        <v>0.9803</v>
+      </c>
+      <c r="N460">
+        <v>0.1636</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14">
+      <c r="A461" t="s">
+        <v>64</v>
+      </c>
+      <c r="B461" t="s">
+        <v>17</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461"/>
+      <c r="G461"/>
+      <c r="H461" t="s">
+        <v>16</v>
+      </c>
+      <c r="I461" t="s">
+        <v>17</v>
+      </c>
+      <c r="J461">
+        <v>369</v>
+      </c>
+      <c r="K461">
+        <v>339</v>
+      </c>
+      <c r="L461">
+        <v>228</v>
+      </c>
+      <c r="M461">
+        <v>0.9187</v>
+      </c>
+      <c r="N461">
+        <v>0.6726</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14">
+      <c r="A462" t="s">
+        <v>64</v>
+      </c>
+      <c r="B462" t="s">
+        <v>19</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="H462" t="s">
+        <v>16</v>
+      </c>
+      <c r="I462" t="s">
+        <v>19</v>
+      </c>
+      <c r="J462">
+        <v>397</v>
+      </c>
+      <c r="K462">
+        <v>273</v>
+      </c>
+      <c r="L462">
+        <v>199</v>
+      </c>
+      <c r="M462">
+        <v>0.6877</v>
+      </c>
+      <c r="N462">
+        <v>0.7289</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14">
+      <c r="A463" t="s">
+        <v>64</v>
+      </c>
+      <c r="B463" t="s">
+        <v>56</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463"/>
+      <c r="G463"/>
+      <c r="H463" t="s">
+        <v>16</v>
+      </c>
+      <c r="I463" t="s">
+        <v>56</v>
+      </c>
+      <c r="J463">
+        <v>45</v>
+      </c>
+      <c r="K463">
+        <v>2</v>
+      </c>
+      <c r="L463">
+        <v>2</v>
+      </c>
+      <c r="M463">
+        <v>0.0444</v>
+      </c>
+      <c r="N463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14">
+      <c r="A464" t="s">
+        <v>64</v>
+      </c>
+      <c r="B464" t="s">
+        <v>22</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464"/>
+      <c r="G464"/>
+      <c r="H464" t="s">
+        <v>16</v>
+      </c>
+      <c r="I464" t="s">
+        <v>22</v>
+      </c>
+      <c r="J464">
+        <v>504</v>
+      </c>
+      <c r="K464">
+        <v>274</v>
+      </c>
+      <c r="L464">
+        <v>214</v>
+      </c>
+      <c r="M464">
+        <v>0.5437</v>
+      </c>
+      <c r="N464">
+        <v>0.781</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14">
+      <c r="A465" t="s">
+        <v>64</v>
+      </c>
+      <c r="B465" t="s">
+        <v>23</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465"/>
+      <c r="G465"/>
+      <c r="H465" t="s">
+        <v>16</v>
+      </c>
+      <c r="I465" t="s">
+        <v>23</v>
+      </c>
+      <c r="J465">
+        <v>542</v>
+      </c>
+      <c r="K465">
+        <v>528</v>
+      </c>
+      <c r="L465">
+        <v>218</v>
+      </c>
+      <c r="M465">
+        <v>0.9742</v>
+      </c>
+      <c r="N465">
+        <v>0.4129</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14">
+      <c r="A466" t="s">
+        <v>64</v>
+      </c>
+      <c r="B466" t="s">
+        <v>24</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+      <c r="H466" t="s">
+        <v>16</v>
+      </c>
+      <c r="I466" t="s">
+        <v>24</v>
+      </c>
+      <c r="J466">
+        <v>372</v>
+      </c>
+      <c r="K466">
+        <v>258</v>
+      </c>
+      <c r="L466">
+        <v>135</v>
+      </c>
+      <c r="M466">
+        <v>0.6935</v>
+      </c>
+      <c r="N466">
+        <v>0.5233</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14">
+      <c r="A467" t="s">
+        <v>64</v>
+      </c>
+      <c r="B467" t="s">
+        <v>45</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467"/>
+      <c r="H467" t="s">
+        <v>16</v>
+      </c>
+      <c r="I467" t="s">
+        <v>45</v>
+      </c>
+      <c r="J467">
+        <v>15</v>
+      </c>
+      <c r="K467">
+        <v>5</v>
+      </c>
+      <c r="L467">
+        <v>2</v>
+      </c>
+      <c r="M467">
+        <v>0.3333</v>
+      </c>
+      <c r="N467">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14">
+      <c r="A468" t="s">
+        <v>64</v>
+      </c>
+      <c r="B468" t="s">
+        <v>15</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>0.5</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468" t="s">
+        <v>16</v>
+      </c>
+      <c r="I468" t="s">
+        <v>15</v>
+      </c>
+      <c r="J468">
+        <v>663</v>
+      </c>
+      <c r="K468">
+        <v>657</v>
+      </c>
+      <c r="L468">
+        <v>488</v>
+      </c>
+      <c r="M468">
+        <v>0.991</v>
+      </c>
+      <c r="N468">
+        <v>0.7428</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14">
+      <c r="A469" t="s">
+        <v>64</v>
+      </c>
+      <c r="B469" t="s">
+        <v>42</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+      <c r="G469">
+        <v>1</v>
+      </c>
+      <c r="H469" t="s">
+        <v>16</v>
+      </c>
+      <c r="I469" t="s">
+        <v>42</v>
+      </c>
+      <c r="J469">
+        <v>32</v>
+      </c>
+      <c r="K469">
+        <v>25</v>
+      </c>
+      <c r="L469">
+        <v>12</v>
+      </c>
+      <c r="M469">
+        <v>0.7813</v>
+      </c>
+      <c r="N469">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14">
+      <c r="A470" t="s">
+        <v>64</v>
+      </c>
+      <c r="B470" t="s">
+        <v>26</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>0.5</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+      <c r="H470" t="s">
+        <v>16</v>
+      </c>
+      <c r="I470" t="s">
+        <v>26</v>
+      </c>
+      <c r="J470">
+        <v>1259</v>
+      </c>
+      <c r="K470">
+        <v>851</v>
+      </c>
+      <c r="L470">
+        <v>725</v>
+      </c>
+      <c r="M470">
+        <v>0.6759</v>
+      </c>
+      <c r="N470">
+        <v>0.8519</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14">
+      <c r="A471" t="s">
+        <v>64</v>
+      </c>
+      <c r="B471" t="s">
+        <v>30</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471"/>
+      <c r="G471"/>
+      <c r="H471" t="s">
+        <v>16</v>
+      </c>
+      <c r="I471" t="s">
+        <v>30</v>
+      </c>
+      <c r="J471">
+        <v>400</v>
+      </c>
+      <c r="K471">
+        <v>380</v>
+      </c>
+      <c r="L471">
+        <v>243</v>
+      </c>
+      <c r="M471">
+        <v>0.95</v>
+      </c>
+      <c r="N471">
+        <v>0.6395</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14">
+      <c r="A472" t="s">
+        <v>64</v>
+      </c>
+      <c r="B472" t="s">
+        <v>57</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+      <c r="F472">
+        <v>0.5</v>
+      </c>
+      <c r="G472">
+        <v>1</v>
+      </c>
+      <c r="H472" t="s">
+        <v>16</v>
+      </c>
+      <c r="I472" t="s">
+        <v>57</v>
+      </c>
+      <c r="J472">
+        <v>4</v>
+      </c>
+      <c r="K472">
+        <v>2</v>
+      </c>
+      <c r="L472">
+        <v>1</v>
+      </c>
+      <c r="M472">
+        <v>0.5</v>
+      </c>
+      <c r="N472">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14">
+      <c r="A473" t="s">
+        <v>64</v>
+      </c>
+      <c r="B473" t="s">
+        <v>41</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473">
+        <v>2</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+      <c r="G473">
+        <v>0.5</v>
+      </c>
+      <c r="H473" t="s">
+        <v>16</v>
+      </c>
+      <c r="I473" t="s">
+        <v>41</v>
+      </c>
+      <c r="J473">
+        <v>35</v>
+      </c>
+      <c r="K473">
+        <v>24</v>
+      </c>
+      <c r="L473">
+        <v>17</v>
+      </c>
+      <c r="M473">
+        <v>0.6857</v>
+      </c>
+      <c r="N473">
+        <v>0.7083</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14">
+      <c r="A474" t="s">
+        <v>64</v>
+      </c>
+      <c r="B474" t="s">
+        <v>21</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>0.5</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474" t="s">
+        <v>16</v>
+      </c>
+      <c r="I474" t="s">
+        <v>21</v>
+      </c>
+      <c r="J474">
+        <v>1354</v>
+      </c>
+      <c r="K474">
+        <v>1314</v>
+      </c>
+      <c r="L474">
+        <v>376</v>
+      </c>
+      <c r="M474">
+        <v>0.9705</v>
+      </c>
+      <c r="N474">
+        <v>0.2861</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14">
+      <c r="A475" t="s">
+        <v>64</v>
+      </c>
+      <c r="B475" t="s">
+        <v>43</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475"/>
+      <c r="H475" t="s">
+        <v>16</v>
+      </c>
+      <c r="I475" t="s">
+        <v>43</v>
+      </c>
+      <c r="J475">
+        <v>24</v>
+      </c>
+      <c r="K475">
+        <v>14</v>
+      </c>
+      <c r="L475">
+        <v>10</v>
+      </c>
+      <c r="M475">
+        <v>0.5833</v>
+      </c>
+      <c r="N475">
+        <v>0.7143</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14">
+      <c r="A476" t="s">
+        <v>64</v>
+      </c>
+      <c r="B476" t="s">
+        <v>25</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476">
+        <v>2</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476">
+        <v>0.5</v>
+      </c>
+      <c r="H476" t="s">
+        <v>16</v>
+      </c>
+      <c r="I476" t="s">
+        <v>25</v>
+      </c>
+      <c r="J476">
+        <v>676</v>
+      </c>
+      <c r="K476">
+        <v>498</v>
+      </c>
+      <c r="L476">
+        <v>66</v>
+      </c>
+      <c r="M476">
+        <v>0.7367</v>
+      </c>
+      <c r="N476">
+        <v>0.1325</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14">
+      <c r="A477" t="s">
+        <v>64</v>
+      </c>
+      <c r="B477" t="s">
+        <v>44</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477"/>
+      <c r="G477"/>
+      <c r="H477" t="s">
+        <v>16</v>
+      </c>
+      <c r="I477" t="s">
+        <v>44</v>
+      </c>
+      <c r="J477">
+        <v>18</v>
+      </c>
+      <c r="K477">
+        <v>6</v>
+      </c>
+      <c r="L477">
+        <v>5</v>
+      </c>
+      <c r="M477">
+        <v>0.3333</v>
+      </c>
+      <c r="N477">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14">
+      <c r="A478" t="s">
+        <v>64</v>
+      </c>
+      <c r="B478" t="s">
+        <v>31</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>1</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+      <c r="H478" t="s">
+        <v>16</v>
+      </c>
+      <c r="I478" t="s">
+        <v>31</v>
+      </c>
+      <c r="J478">
+        <v>549</v>
+      </c>
+      <c r="K478">
+        <v>194</v>
+      </c>
+      <c r="L478">
+        <v>147</v>
+      </c>
+      <c r="M478">
+        <v>0.3534</v>
+      </c>
+      <c r="N478">
+        <v>0.7577</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14">
+      <c r="A479" t="s">
+        <v>64</v>
+      </c>
+      <c r="B479" t="s">
+        <v>18</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479"/>
+      <c r="G479"/>
+      <c r="H479" t="s">
+        <v>16</v>
+      </c>
+      <c r="I479" t="s">
+        <v>18</v>
+      </c>
+      <c r="J479">
+        <v>520</v>
+      </c>
+      <c r="K479">
+        <v>516</v>
+      </c>
+      <c r="L479">
+        <v>152</v>
+      </c>
+      <c r="M479">
+        <v>0.9923</v>
+      </c>
+      <c r="N479">
+        <v>0.2946</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14">
+      <c r="A480" t="s">
+        <v>64</v>
+      </c>
+      <c r="B480" t="s">
+        <v>58</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="H480" t="s">
+        <v>16</v>
+      </c>
+      <c r="I480" t="s">
+        <v>58</v>
+      </c>
+      <c r="J480">
+        <v>10</v>
+      </c>
+      <c r="K480">
+        <v>8</v>
+      </c>
+      <c r="L480">
+        <v>4</v>
+      </c>
+      <c r="M480">
+        <v>0.8</v>
+      </c>
+      <c r="N480">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14">
+      <c r="A481" t="s">
+        <v>64</v>
+      </c>
+      <c r="B481" t="s">
+        <v>27</v>
+      </c>
+      <c r="C481">
+        <v>6</v>
+      </c>
+      <c r="D481">
+        <v>5</v>
+      </c>
+      <c r="E481">
+        <v>2</v>
+      </c>
+      <c r="F481">
+        <v>0.8333</v>
+      </c>
+      <c r="G481">
+        <v>0.4</v>
+      </c>
+      <c r="H481" t="s">
+        <v>16</v>
+      </c>
+      <c r="I481" t="s">
+        <v>27</v>
+      </c>
+      <c r="J481">
+        <v>1539</v>
+      </c>
+      <c r="K481">
+        <v>1479</v>
+      </c>
+      <c r="L481">
+        <v>563</v>
+      </c>
+      <c r="M481">
+        <v>0.961</v>
+      </c>
+      <c r="N481">
+        <v>0.3807</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14">
+      <c r="A482" t="s">
+        <v>64</v>
+      </c>
+      <c r="B482" t="s">
+        <v>59</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="H482" t="s">
+        <v>16</v>
+      </c>
+      <c r="I482" t="s">
+        <v>59</v>
+      </c>
+      <c r="J482">
+        <v>1</v>
+      </c>
+      <c r="K482">
+        <v>1</v>
+      </c>
+      <c r="L482">
+        <v>1</v>
+      </c>
+      <c r="M482">
+        <v>1</v>
+      </c>
+      <c r="N482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14">
+      <c r="A483" t="s">
+        <v>64</v>
+      </c>
+      <c r="B483" t="s">
+        <v>46</v>
+      </c>
+      <c r="C483">
+        <v>5</v>
+      </c>
+      <c r="D483">
+        <v>4</v>
+      </c>
+      <c r="E483">
+        <v>2</v>
+      </c>
+      <c r="F483">
+        <v>0.8</v>
+      </c>
+      <c r="G483">
+        <v>0.5</v>
+      </c>
+      <c r="H483" t="s">
+        <v>16</v>
+      </c>
+      <c r="I483" t="s">
+        <v>46</v>
+      </c>
+      <c r="J483">
+        <v>26</v>
+      </c>
+      <c r="K483">
+        <v>13</v>
+      </c>
+      <c r="L483">
+        <v>5</v>
+      </c>
+      <c r="M483">
+        <v>0.5</v>
+      </c>
+      <c r="N483">
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14">
+      <c r="A484" t="s">
+        <v>64</v>
+      </c>
+      <c r="B484" t="s">
+        <v>28</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484">
+        <v>1</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="H484" t="s">
+        <v>16</v>
+      </c>
+      <c r="I484" t="s">
+        <v>28</v>
+      </c>
+      <c r="J484">
+        <v>416</v>
+      </c>
+      <c r="K484">
+        <v>343</v>
+      </c>
+      <c r="L484">
+        <v>236</v>
+      </c>
+      <c r="M484">
+        <v>0.8245</v>
+      </c>
+      <c r="N484">
+        <v>0.688</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14">
+      <c r="A485" t="s">
+        <v>64</v>
+      </c>
+      <c r="B485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C485">
+        <v>7</v>
+      </c>
+      <c r="D485">
+        <v>4</v>
+      </c>
+      <c r="E485">
+        <v>2</v>
+      </c>
+      <c r="F485">
+        <v>0.5714</v>
+      </c>
+      <c r="G485">
+        <v>0.5</v>
+      </c>
+      <c r="H485" t="s">
+        <v>16</v>
+      </c>
+      <c r="I485" t="s">
+        <v>29</v>
+      </c>
+      <c r="J485">
+        <v>736</v>
+      </c>
+      <c r="K485">
+        <v>30</v>
+      </c>
+      <c r="L485">
+        <v>14</v>
+      </c>
+      <c r="M485">
+        <v>0.0408</v>
+      </c>
+      <c r="N485">
+        <v>0.4667</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14">
+      <c r="A486" t="s">
+        <v>64</v>
+      </c>
+      <c r="B486" t="s">
+        <v>60</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="H486" t="s">
+        <v>16</v>
+      </c>
+      <c r="I486" t="s">
+        <v>60</v>
+      </c>
+      <c r="J486">
+        <v>1</v>
+      </c>
+      <c r="K486">
+        <v>1</v>
+      </c>
+      <c r="L486">
+        <v>1</v>
+      </c>
+      <c r="M486">
+        <v>1</v>
+      </c>
+      <c r="N486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14">
+      <c r="A487" t="s">
+        <v>64</v>
+      </c>
+      <c r="B487" t="s">
+        <v>32</v>
+      </c>
+      <c r="C487">
+        <v>10</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487"/>
+      <c r="H487" t="s">
+        <v>16</v>
+      </c>
+      <c r="I487" t="s">
+        <v>32</v>
+      </c>
+      <c r="J487">
+        <v>1063</v>
+      </c>
+      <c r="K487">
+        <v>756</v>
+      </c>
+      <c r="L487">
+        <v>422</v>
+      </c>
+      <c r="M487">
+        <v>0.7112</v>
+      </c>
+      <c r="N487">
+        <v>0.5582</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14">
+      <c r="A488" t="s">
+        <v>64</v>
+      </c>
+      <c r="B488" t="s">
+        <v>33</v>
+      </c>
+      <c r="C488">
+        <v>47</v>
+      </c>
+      <c r="D488">
+        <v>27</v>
+      </c>
+      <c r="E488">
+        <v>14</v>
+      </c>
+      <c r="F488">
+        <v>0.5745</v>
+      </c>
+      <c r="G488">
+        <v>0.5185</v>
+      </c>
+      <c r="H488" t="s">
+        <v>16</v>
+      </c>
+      <c r="I488" t="s">
+        <v>33</v>
+      </c>
+      <c r="J488">
+        <v>14008</v>
+      </c>
+      <c r="K488">
+        <v>11181</v>
+      </c>
+      <c r="L488">
+        <v>4877</v>
+      </c>
+      <c r="M488">
+        <v>0.7982</v>
+      </c>
+      <c r="N488">
+        <v>0.4362</v>
       </c>
     </row>
   </sheetData>
